--- a/Covid_19_Dataset_and_References/References/5.xlsx
+++ b/Covid_19_Dataset_and_References/References/5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="238">
   <si>
     <t>Doi</t>
   </si>
@@ -1142,6 +1142,69 @@
   </si>
   <si>
     <t>[[[[[[Temet M.%McMichael%NULL%1,      Shauna%Clark%NULL%1,      Sargis%Pogosjans%NULL%1,      Meagan%Kay%NULL%1,      James%Lewis%NULL%1,      Atar%Baer%NULL%1,      Vance%Kawakami%NULL%1,      Margaret D.%Lukoff%NULL%1,      Jessica%Ferro%NULL%1,      Claire%Brostrom-Smith%NULL%1,      Francis X.%Riedo%NULL%1,      Denny%Russell%NULL%1,      Brian%Hiatt%NULL%1,      Patricia%Montgomery%NULL%1,      Agam K.%Rao%NULL%1,      Dustin W.%Currie%NULL%1,      Eric J.%Chow%NULL%1,      Farrell%Tobolowsky%NULL%1,      Ana C.%Bardossy%NULL%1,      Lisa P.%Oakley%NULL%1,      Jesica R.%Jacobs%NULL%1,      Noah G.%Schwartz%NULL%1,      Nimalie%Stone%NULL%1,      Sujan C.%Reddy%NULL%1,      John A.%Jernigan%NULL%1,      Margaret A.%Honein%NULL%1,      Thomas A.%Clark%NULL%1,      Jeffrey S.%Duchin%NULL%1,      NULL%NULL%NULL%6,      NULL%NULL%NULL%0,      Meaghan S.%Fagalde%NULL%1,      Jennifer L.%Lenahan%NULL%1,      Emily B.%Maier%NULL%1,      Kaitlyn J.%Sykes%NULL%1,      Grace%Hatt%NULL%1,      Holly%Whitney%NULL%1,      Melinda%Huntington-Frazier%NULL%1,      Elysia%Gonzales%NULL%1,      Laura A.%Mummert%NULL%1,      Hal Garcia%Smith%NULL%1,      Steve%Stearns%NULL%1,      Eileen%Benoliel%NULL%1,      Shelly%McKeirnan%NULL%1,      Jennifer L.%Morgan%NULL%1,      Daniel%Smith%NULL%1,      Michaela%Hope%NULL%1,      Noel%Hatley%NULL%1,      Leslie M.%Barnard%NULL%1,      Leilani%Schwarcz%NULL%1,      Nicole%Yarid%NULL%1,      Eric%Yim%NULL%1,      Sandra%Kreider%NULL%1,      Dawn%Barr%NULL%1,      Nancy%Wilde%NULL%1,      Courtney%Dorman%NULL%1,      Airin%Lam%NULL%1,      Jeanette%Harris%NULL%1,      Hollianne%Bruce%NULL%1,      Christopher%Spitters%NULL%1,      Snohomish Health%District%NULL%1,      Rachael%Zacks%NULL%1,      Jonathan%Dyal%NULL%1,      Michael%Hughes%NULL%1,      Christina%Carlson%NULL%1,      Barbara%Cooper%NULL%1,      Michelle%Banks%NULL%1,      Heather%McLaughlin%NULL%1,      Arun%Balajee%NULL%1,      Christine%Olson%NULL%1,      Suzanne%Zane%NULL%1,      Hammad%Ali%NULL%1,      Jessica%Healy%NULL%1,      Kristine%Schmit%NULL%1,      Kevin%Spicer%NULL%1,      Zeshan%Chisty%NULL%1,      Sukarma%Tanwar%NULL%1,      Joanne%Taylor%NULL%1,      Leisha%Nolen%NULL%1,      Jeneita%Bell%NULL%1,      Kelly%Hatfield%NULL%1,      Melissa%Arons%NULL%1,      Anne%Kimball%NULL%1,      Allison%James%NULL%1,      Mark%Methner%NULL%1,      Joshua%Harney%NULL%1,     Temet M.%McMichael%NULL%1,     Shauna%Clark%NULL%1,     Sargis%Pogosjans%NULL%1,     Meagan%Kay%NULL%1,     James%Lewis%NULL%1,     Atar%Baer%NULL%1,     Vance%Kawakami%NULL%1,     Margaret D.%Lukoff%NULL%1,     Jessica%Ferro%NULL%1,     Claire%Brostrom-Smith%NULL%1,     Francis X.%Riedo%NULL%1,     Denny%Russell%NULL%1,     Brian%Hiatt%NULL%1,     Patricia%Montgomery%NULL%1,     Agam K.%Rao%NULL%1,     Dustin W.%Currie%NULL%1,     Eric J.%Chow%NULL%1,     Farrell%Tobolowsky%NULL%1,     Ana C.%Bardossy%NULL%1,     Lisa P.%Oakley%NULL%1,     Jesica R.%Jacobs%NULL%1,     Noah G.%Schwartz%NULL%1,     Nimalie%Stone%NULL%1,     Sujan C.%Reddy%NULL%1,     John A.%Jernigan%NULL%1,     Margaret A.%Honein%NULL%1,     Thomas A.%Clark%NULL%1,     Jeffrey S.%Duchin%NULL%1,     NULL%NULL%NULL%7,     NULL%NULL%NULL%0,     Meaghan S.%Fagalde%NULL%1,     Jennifer L.%Lenahan%NULL%1,     Emily B.%Maier%NULL%1,     Kaitlyn J.%Sykes%NULL%1,     Grace%Hatt%NULL%1,     Holly%Whitney%NULL%1,     Melinda%Huntington-Frazier%NULL%1,     Elysia%Gonzales%NULL%1,     Laura A.%Mummert%NULL%1,     Hal Garcia%Smith%NULL%1,     Steve%Stearns%NULL%1,     Eileen%Benoliel%NULL%1,     Shelly%McKeirnan%NULL%1,     Jennifer L.%Morgan%NULL%1,     Daniel%Smith%NULL%1,     Michaela%Hope%NULL%1,     Noel%Hatley%NULL%1,     Leslie M.%Barnard%NULL%1,     Leilani%Schwarcz%NULL%1,     Nicole%Yarid%NULL%1,     Eric%Yim%NULL%1,     Sandra%Kreider%NULL%1,     Dawn%Barr%NULL%1,     Nancy%Wilde%NULL%1,     Courtney%Dorman%NULL%1,     Airin%Lam%NULL%1,     Jeanette%Harris%NULL%1,     Hollianne%Bruce%NULL%1,     Christopher%Spitters%NULL%1,     Snohomish Health%District%NULL%1,     Rachael%Zacks%NULL%1,     Jonathan%Dyal%NULL%1,     Michael%Hughes%NULL%1,     Christina%Carlson%NULL%1,     Barbara%Cooper%NULL%1,     Michelle%Banks%NULL%1,     Heather%McLaughlin%NULL%1,     Arun%Balajee%NULL%1,     Christine%Olson%NULL%1,     Suzanne%Zane%NULL%1,     Hammad%Ali%NULL%1,     Jessica%Healy%NULL%1,     Kristine%Schmit%NULL%1,     Kevin%Spicer%NULL%1,     Zeshan%Chisty%NULL%1,     Sukarma%Tanwar%NULL%1,     Joanne%Taylor%NULL%1,     Leisha%Nolen%NULL%1,     Jeneita%Bell%NULL%1,     Kelly%Hatfield%NULL%1,     Melissa%Arons%NULL%1,     Anne%Kimball%NULL%1,     Allison%James%NULL%1,     Mark%Methner%NULL%1,     Joshua%Harney%NULL%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%14,  Zheng-yi%Ni%NULL%5,  Yu%Hu%NULL%4,  Wen-hua%Liang%NULL%4,  Chun-quan%Ou%NULL%4,  Jian-xing%He%NULL%4,  Lei%Liu%NULL%8,  Hong%Shan%NULL%7,  Chun-liang%Lei%NULL%4,  David S.C.%Hui%NULL%3,  Bin%Du%NULL%3,  Lan-juan%Li%NULL%3,  Guang%Zeng%NULL%3,  Kwok-Yung%Yuen%NULL%5,  Ru-chong%Chen%NULL%4,  Chun-li%Tang%NULL%4,  Tao%Wang%NULL%7,  Ping-yan%Chen%NULL%4,  Jie%Xiang%NULL%6,  Shi-yue%Li%NULL%4,  Jin-lin%Wang%NULL%3,  Zi-jing%Liang%NULL%3,  Yi-xiang%Peng%NULL%4,  Li%Wei%NULL%4,  Yong%Liu%NULL%4,  Ya-hua%Hu%NULL%4,  Peng%Peng%NULL%9,  Jian-ming%Wang%NULL%4,  Ji-yang%Liu%NULL%4,  Zhong%Chen%NULL%4,  Gang%Li%NULL%6,  Zhi-jian%Zheng%NULL%4,  Shao-qin%Qiu%NULL%4,  Jie%Luo%NULL%4,  Chang-jiang%Ye%NULL%4,  Shao-yong%Zhu%NULL%4,  Nan-shan%Zhong%NULL%4]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,  Dengju%Li%NULL%2,  Xiong%Wang%NULL%2,  Ziyong%Sun%NULL%4]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%3,  Juanjuan%Guo%NULL%3,  Chen%Wang%NULL%3,  Fan%Luo%NULL%2,  Xuechen%Yu%NULL%3,  Wei%Zhang%NULL%5,  Jiafu%Li%NULL%3,  Dongchi%Zhao%NULL%2,  Dan%Xu%NULL%3,  Qing%Gong%NULL%2,  Jing%Liao%NULL%2,  Huixia%Yang%yanghuixia@bjmu.edu.cn%3,  Wei%Hou%houwei@whu.edu.cn%2,  Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,  Yeming%Wang%NULL%6,  Xingwang%Li%NULL%6,  Lili%Ren%NULL%4,  Jianping%Zhao%NULL%9,  Yi%Hu%NULL%7,  Li%Zhang%NULL%7,  Guohui%Fan%NULL%6,  Jiuyang%Xu%NULL%6,  Xiaoying%Gu%NULL%6,  Zhenshun%Cheng%NULL%4,  Ting%Yu%NULL%13,  Jiaan%Xia%NULL%4,  Yuan%Wei%NULL%10,  Wenjuan%Wu%NULL%4,  Xuelei%Xie%NULL%4,  Wen%Yin%NULL%6,  Hui%Li%NULL%7,  Min%Liu%NULL%4,  Yan%Xiao%NULL%5,  Hong%Gao%NULL%6,  Li%Guo%NULL%5,  Jungang%Xie%NULL%5,  Guangfa%Wang%NULL%4,  Rongmeng%Jiang%NULL%4,  Zhancheng%Gao%NULL%5,  Qi%Jin%NULL%5,  Jianwei%Wang%wangjw28@163.com%5,  Bin%Cao%caobin_ben@163.com%7]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,  Xiao-Xin%Wu%NULL%4,  Xian-Gao%Jiang%NULL%4,  Kai-Jin%Xu%NULL%4,  Ling-Jun%Ying%NULL%4,  Chun-Lian%Ma%NULL%4,  Shi-Bo%Li%NULL%4,  Hua-Ying%Wang%NULL%4,  Sheng%Zhang%NULL%4,  Hai-Nv%Gao%NULL%4,  Ji-Fang%Sheng%NULL%4,  Hong-Liu%Cai%NULL%4,  Yun-Qing%Qiu%NULL%4,  Lan-Juan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,  Kai%Xie%NULL%3,  Hui%Lu%NULL%2,  Lei%Xu%bayinhexl@126.com%2,  Shusheng%Zhou%zhouss108@163.com%2,  Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%0,  Feifei%Yao%NULL%1,  Lijie%Wang%NULL%1,  Ling%Zheng%NULL%1,  Yongjun%Gao%NULL%1,  Jun%Ye%NULL%1,  Feng%Guo%NULL%1,  Hui%Zhao%NULL%1,  Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%0,  Ci%Song%NULL%1,  Chuanjun%Xu%NULL%1,  Guangfu%Jin%NULL%1,  Yaling%Chen%NULL%1,  Xin%Xu%NULL%1,  Hongxia%Ma%NULL%1,  Wei%Chen%NULL%3,  Yuan%Lin%NULL%1,  Yishan%Zheng%NULL%2,  Jianming%Wang%NULL%1,  Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,  Yongxiang%Yi%ian0126@126.com%1,  Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%12,  Di%Wu%NULL%2,  Huilong%Chen%NULL%2,  Weiming%Yan%NULL%2,  Danlei%Yang%NULL%2,  Guang%Chen%NULL%2,  Ke%Ma%NULL%2,  Dong%Xu%NULL%2,  Haijing%Yu%NULL%2,  Hongwu%Wang%NULL%2,  Tao%Wang%NULL%0,  Wei%Guo%NULL%2,  Jia%Chen%NULL%2,  Chen%Ding%NULL%2,  Xiaoping%Zhang%NULL%2,  Jiaquan%Huang%NULL%2,  Meifang%Han%NULL%2,  Shusheng%Li%NULL%2,  Xiaoping%Luo%NULL%2,  Jianping%Zhao%NULL%0,  Qin%Ning%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,  Yuan-Yuan%Fang%NULL%4,  Yan%Deng%NULL%3,  Wei%Liu%NULL%5,  Mei-Fang%Wang%NULL%3,  Jing-Ping%Ma%NULL%3,  Wei%Xiao%NULL%3,  Ying-Nan%Wang%NULL%3,  Min-Hua%Zhong%NULL%3,  Cheng-Hong%Li%NULL%3,  Guang-Cai%Li%NULL%3,  Hui-Guo%Liu%NULL%4,  Xiu-Yuan%Hao%NULL%6,  Pei-Fang%Wei%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%4,  Tianhe%Ye%NULL%3,  Peng%Sun%NULL%3,  Shan%Gui%NULL%3,  Bo%Liang%NULL%3,  Lingli%Li%NULL%3,  Dandan%Zheng%NULL%3,  Jiazheng%Wang%NULL%3,  Richard L.%Hesketh%NULL%3,  Lian%Yang%yanglian@hust.edu.cn%3,  Chuansheng%Zheng%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%15,  Yuan%Yu%NULL%2,  Jiqian%Xu%NULL%1,  Huaqing%Shu%NULL%1,  Jia'an%Xia%NULL%4,  Hong%Liu%NULL%3,  Yongran%Wu%NULL%2,  Lu%Zhang%NULL%1,  Zhui%Yu%NULL%1,  Minghao%Fang%NULL%1,  Ting%Yu%NULL%0,  Yaxin%Wang%NULL%2,  Shangwen%Pan%NULL%1,  Xiaojing%Zou%NULL%2,  Shiying%Yuan%NULL%2,  You%Shang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%3,  Nan%Yang%NULL%2,  Yanqiu%Wei%NULL%2,  Huihui%Yue%NULL%2,  Fengqin%Zhang%NULL%2,  Jianping%Zhao%NULL%0,  Li%He%NULL%2,  Gaohong%Sheng%NULL%2,  Peng%Chen%NULL%2,  Gang%Li%NULL%0,  Sisi%Wu%NULL%2,  Bo%Zhang%NULL%2,  Shu%Zhang%szhang@tjh.tjmu.edu.cn%2,  Congyi%Wang%wangcy@tjh.tjmu.edu.cn%2,  Xiaoping%Miao%miaoxp@hust.edu.cn%2,  Juan%Li%lijuan@tjh.tjmu.edu.cn%2,  Wenhua%Liu%liuwh_2013@126.com%2,  Huilan%Zhang%huilanz_76@163.com%2]</t>
+  </si>
+  <si>
+    <t>[ J.%Liu%null%2,   L.% Ouyang%null%1,   P.% Guo%null%1,   H. s.% Wu%null%1,   P.% Fu%null%1,   Y. l.% Chen%null%1,   D.% Yang%null%1,   X. y.% Han%null%1,   Y. k.% Cao%null%1,   O.% Alwalid%null%1,   J.% Tao%null%1,   S. y.% Peng%null%1,   H. s.% Shi%null%1,   F.% Yang%null%1,   C. s. % Zheng%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv</t>
+  </si>
+  <si>
+    <t>[ R.%Liu%null%1,   X.% Ming%null%1,   O.% Xu%null%1,   J.% Zhou%null%1,   H.% Peng%null%1,   N.% Xiang%null%1,   J.% Zhang%null%1,   H. % Zhu%null%1]</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%2,  Shauna%Clark%NULL%2,  Sargis%Pogosjans%NULL%3,  Meagan%Kay%NULL%4,  James%Lewis%NULL%3,  Atar%Baer%NULL%2,  Vance%Kawakami%NULL%2,  Margaret D.%Lukoff%NULL%3,  Jessica%Ferro%NULL%2,  Claire%Brostrom-Smith%NULL%2,  Francis X.%Riedo%NULL%2,  Denny%Russell%NULL%2,  Brian%Hiatt%NULL%2,  Patricia%Montgomery%NULL%2,  Agam K.%Rao%NULL%2,  Dustin W.%Currie%NULL%2,  Eric J.%Chow%NULL%2,  Farrell%Tobolowsky%NULL%3,  Ana C.%Bardossy%NULL%2,  Lisa P.%Oakley%NULL%2,  Jesica R.%Jacobs%NULL%2,  Noah G.%Schwartz%NULL%2,  Nimalie%Stone%NULL%1,  Sujan C.%Reddy%NULL%4,  John A.%Jernigan%NULL%3,  Margaret A.%Honein%NULL%2,  Thomas A.%Clark%NULL%2,  Jeffrey S.%Duchin%NULL%3,  NULL%NULL%NULL%28,  NULL%NULL%NULL%0,  Meaghan S.%Fagalde%NULL%1,  Jennifer L.%Lenahan%NULL%1,  Emily B.%Maier%NULL%1,  Kaitlyn J.%Sykes%NULL%1,  Grace%Hatt%NULL%1,  Holly%Whitney%NULL%2,  Melinda%Huntington-Frazier%NULL%1,  Elysia%Gonzales%NULL%3,  Laura A.%Mummert%NULL%1,  Hal Garcia%Smith%NULL%1,  Steve%Stearns%NULL%1,  Eileen%Benoliel%NULL%1,  Shelly%McKeirnan%NULL%1,  Jennifer L.%Morgan%NULL%1,  Daniel%Smith%NULL%1,  Michaela%Hope%NULL%1,  Noel%Hatley%NULL%1,  Leslie M.%Barnard%NULL%1,  Leilani%Schwarcz%NULL%1,  Nicole%Yarid%NULL%1,  Eric%Yim%NULL%1,  Sandra%Kreider%NULL%1,  Dawn%Barr%NULL%1,  Nancy%Wilde%NULL%1,  Courtney%Dorman%NULL%1,  Airin%Lam%NULL%1,  Jeanette%Harris%NULL%1,  Hollianne%Bruce%NULL%2,  Christopher%Spitters%NULL%2,  Snohomish Health%District%NULL%1,  Rachael%Zacks%NULL%1,  Jonathan%Dyal%NULL%1,  Michael%Hughes%NULL%1,  Christina%Carlson%NULL%1,  Barbara%Cooper%NULL%1,  Michelle%Banks%NULL%1,  Heather%McLaughlin%NULL%1,  Arun%Balajee%NULL%1,  Christine%Olson%NULL%1,  Suzanne%Zane%NULL%1,  Hammad%Ali%NULL%1,  Jessica%Healy%NULL%1,  Kristine%Schmit%NULL%3,  Kevin%Spicer%NULL%1,  Zeshan%Chisty%NULL%1,  Sukarma%Tanwar%NULL%1,  Joanne%Taylor%NULL%1,  Leisha%Nolen%NULL%1,  Jeneita%Bell%NULL%1,  Kelly%Hatfield%NULL%1,  Melissa%Arons%NULL%1,  Anne%Kimball%NULL%1,  Allison%James%NULL%1,  Mark%Methner%NULL%1,  Joshua%Harney%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1458,6 +1521,9 @@
       <c r="H1" t="s">
         <v>34</v>
       </c>
+      <c r="I1" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1484,6 +1550,9 @@
       <c r="H2" t="s">
         <v>35</v>
       </c>
+      <c r="I2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -1499,7 +1568,7 @@
         <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>218</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -1509,6 +1578,9 @@
       </c>
       <c r="H3" t="s">
         <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1525,7 +1597,7 @@
         <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1535,6 +1607,9 @@
       </c>
       <c r="H4" t="s">
         <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1562,6 +1637,9 @@
       <c r="H5" t="s">
         <v>35</v>
       </c>
+      <c r="I5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -1588,6 +1666,9 @@
       <c r="H6" t="s">
         <v>35</v>
       </c>
+      <c r="I6" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -1603,7 +1684,7 @@
         <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>222</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1613,6 +1694,9 @@
       </c>
       <c r="H7" t="s">
         <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1629,7 +1713,7 @@
         <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>223</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -1639,6 +1723,9 @@
       </c>
       <c r="H8" t="s">
         <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1655,7 +1742,7 @@
         <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>224</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1665,6 +1752,9 @@
       </c>
       <c r="H9" t="s">
         <v>58</v>
+      </c>
+      <c r="I9" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1692,6 +1782,9 @@
       <c r="H10" t="s">
         <v>35</v>
       </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -1707,7 +1800,7 @@
         <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -1717,6 +1810,9 @@
       </c>
       <c r="H11" t="s">
         <v>63</v>
+      </c>
+      <c r="I11" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1733,7 +1829,7 @@
         <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>226</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
@@ -1743,6 +1839,9 @@
       </c>
       <c r="H12" t="s">
         <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1759,7 +1858,7 @@
         <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>227</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
@@ -1769,6 +1868,9 @@
       </c>
       <c r="H13" t="s">
         <v>72</v>
+      </c>
+      <c r="I13" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1785,7 +1887,7 @@
         <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>229</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -1795,6 +1897,9 @@
       </c>
       <c r="H14" t="s">
         <v>77</v>
+      </c>
+      <c r="I14" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1811,7 +1916,7 @@
         <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="F15" t="s">
         <v>81</v>
@@ -1821,6 +1926,9 @@
       </c>
       <c r="H15" t="s">
         <v>35</v>
+      </c>
+      <c r="I15" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1837,7 +1945,7 @@
         <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="F16" t="s">
         <v>85</v>
@@ -1847,6 +1955,9 @@
       </c>
       <c r="H16" t="s">
         <v>35</v>
+      </c>
+      <c r="I16" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1874,6 +1985,9 @@
       <c r="H17" t="s">
         <v>35</v>
       </c>
+      <c r="I17" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
@@ -1889,7 +2003,7 @@
         <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
@@ -1899,6 +2013,9 @@
       </c>
       <c r="H18" t="s">
         <v>35</v>
+      </c>
+      <c r="I18" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1915,7 +2032,7 @@
         <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c r="F19" t="s">
         <v>93</v>
@@ -1925,6 +2042,9 @@
       </c>
       <c r="H19" t="s">
         <v>94</v>
+      </c>
+      <c r="I19" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1941,16 +2061,19 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>134</v>
+        <v>234</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="H20" t="s">
         <v>103</v>
+      </c>
+      <c r="I20" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1967,16 +2090,19 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>135</v>
+        <v>236</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="H21" t="s">
         <v>107</v>
+      </c>
+      <c r="I21" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -2004,6 +2130,9 @@
       <c r="H22" t="s">
         <v>35</v>
       </c>
+      <c r="I22" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
@@ -2019,7 +2148,7 @@
         <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>136</v>
+        <v>237</v>
       </c>
       <c r="F23" t="s">
         <v>98</v>
@@ -2029,6 +2158,9 @@
       </c>
       <c r="H23" t="s">
         <v>35</v>
+      </c>
+      <c r="I23" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/5.xlsx
+++ b/Covid_19_Dataset_and_References/References/5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2929" uniqueCount="316">
   <si>
     <t>Doi</t>
   </si>
@@ -1205,6 +1205,279 @@
   </si>
   <si>
     <t>[Temet M.%McMichael%NULL%2,  Shauna%Clark%NULL%2,  Sargis%Pogosjans%NULL%3,  Meagan%Kay%NULL%4,  James%Lewis%NULL%3,  Atar%Baer%NULL%2,  Vance%Kawakami%NULL%2,  Margaret D.%Lukoff%NULL%3,  Jessica%Ferro%NULL%2,  Claire%Brostrom-Smith%NULL%2,  Francis X.%Riedo%NULL%2,  Denny%Russell%NULL%2,  Brian%Hiatt%NULL%2,  Patricia%Montgomery%NULL%2,  Agam K.%Rao%NULL%2,  Dustin W.%Currie%NULL%2,  Eric J.%Chow%NULL%2,  Farrell%Tobolowsky%NULL%3,  Ana C.%Bardossy%NULL%2,  Lisa P.%Oakley%NULL%2,  Jesica R.%Jacobs%NULL%2,  Noah G.%Schwartz%NULL%2,  Nimalie%Stone%NULL%1,  Sujan C.%Reddy%NULL%4,  John A.%Jernigan%NULL%3,  Margaret A.%Honein%NULL%2,  Thomas A.%Clark%NULL%2,  Jeffrey S.%Duchin%NULL%3,  NULL%NULL%NULL%28,  NULL%NULL%NULL%0,  Meaghan S.%Fagalde%NULL%1,  Jennifer L.%Lenahan%NULL%1,  Emily B.%Maier%NULL%1,  Kaitlyn J.%Sykes%NULL%1,  Grace%Hatt%NULL%1,  Holly%Whitney%NULL%2,  Melinda%Huntington-Frazier%NULL%1,  Elysia%Gonzales%NULL%3,  Laura A.%Mummert%NULL%1,  Hal Garcia%Smith%NULL%1,  Steve%Stearns%NULL%1,  Eileen%Benoliel%NULL%1,  Shelly%McKeirnan%NULL%1,  Jennifer L.%Morgan%NULL%1,  Daniel%Smith%NULL%1,  Michaela%Hope%NULL%1,  Noel%Hatley%NULL%1,  Leslie M.%Barnard%NULL%1,  Leilani%Schwarcz%NULL%1,  Nicole%Yarid%NULL%1,  Eric%Yim%NULL%1,  Sandra%Kreider%NULL%1,  Dawn%Barr%NULL%1,  Nancy%Wilde%NULL%1,  Courtney%Dorman%NULL%1,  Airin%Lam%NULL%1,  Jeanette%Harris%NULL%1,  Hollianne%Bruce%NULL%2,  Christopher%Spitters%NULL%2,  Snohomish Health%District%NULL%1,  Rachael%Zacks%NULL%1,  Jonathan%Dyal%NULL%1,  Michael%Hughes%NULL%1,  Christina%Carlson%NULL%1,  Barbara%Cooper%NULL%1,  Michelle%Banks%NULL%1,  Heather%McLaughlin%NULL%1,  Arun%Balajee%NULL%1,  Christine%Olson%NULL%1,  Suzanne%Zane%NULL%1,  Hammad%Ali%NULL%1,  Jessica%Healy%NULL%1,  Kristine%Schmit%NULL%3,  Kevin%Spicer%NULL%1,  Zeshan%Chisty%NULL%1,  Sukarma%Tanwar%NULL%1,  Joanne%Taylor%NULL%1,  Leisha%Nolen%NULL%1,  Jeneita%Bell%NULL%1,  Kelly%Hatfield%NULL%1,  Melissa%Arons%NULL%1,  Anne%Kimball%NULL%1,  Allison%James%NULL%1,  Mark%Methner%NULL%1,  Joshua%Harney%NULL%1]</t>
+  </si>
+  <si>
+    <t>Characteristics of and Important Lessons From the Coronavirus Disease 2019 (COVID-19) Outbreak in China</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%14,   Zheng-yi%Ni%NULL%5,   Yu%Hu%NULL%4,   Wen-hua%Liang%NULL%4,   Chun-quan%Ou%NULL%4,   Jian-xing%He%NULL%4,   Lei%Liu%NULL%0,   Hong%Shan%NULL%7,   Chun-liang%Lei%NULL%4,   David S.C.%Hui%NULL%3,   Bin%Du%NULL%3,   Lan-juan%Li%NULL%3,   Guang%Zeng%NULL%3,   Kwok-Yung%Yuen%NULL%6,   Ru-chong%Chen%NULL%4,   Chun-li%Tang%NULL%4,   Tao%Wang%NULL%7,   Ping-yan%Chen%NULL%4,   Jie%Xiang%NULL%6,   Shi-yue%Li%NULL%4,   Jin-lin%Wang%NULL%3,   Zi-jing%Liang%NULL%3,   Yi-xiang%Peng%NULL%4,   Li%Wei%NULL%4,   Yong%Liu%NULL%4,   Ya-hua%Hu%NULL%4,   Peng%Peng%NULL%9,   Jian-ming%Wang%NULL%4,   Ji-yang%Liu%NULL%4,   Zhong%Chen%NULL%4,   Gang%Li%NULL%6,   Zhi-jian%Zheng%NULL%4,   Shao-qin%Qiu%NULL%4,   Jie%Luo%NULL%4,   Chang-jiang%Ye%NULL%4,   Shao-yong%Zhu%NULL%4,   Nan-shan%Zhong%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,   Dengju%Li%NULL%2,   Xiong%Wang%NULL%2,   Ziyong%Sun%NULL%4]</t>
+  </si>
+  <si>
+    <t>Clinical characteristics of 140 patients infected with SARS\u2010CoV\u20102 in Wuhan, China</t>
+  </si>
+  <si>
+    <t>Background\n\n\n\nCoronavirus disease 2019 (COVID\u201019) caused by severe acute respiratory syndrome coronavirus 2 (SARS\u2010CoV\u20102) infection has been widely spread.
+ We aim to investigate the clinical characteristic and allergy status of patients infected with SARS\u2010CoV\u20102.\n\nMethods\n\n\n\nElectronic medical records including demographics, clinical manifestation, comorbidities, laboratory data, and radiological materials of 140 hospitalized COVID\u201019 patients, with confirmed result of SARS\u2010CoV\u20102 viral infection, were extracted and analyzed.
+\n\nResults\n\n\n\nAn approximately 1:1 ratio of male (50.7%) and female COVID\u201019 patients was found, with an overall median age of 57.0 years.
+ All patients were community\u2010acquired cases.
+ Fever (91.7%), cough (75.0%), fatigue (75.0%), and gastrointestinal symptoms (39.6%) were the most common clinical manifestations, whereas hypertension (30.0%) and diabetes mellitus (12.1%) were the most common comorbidities.
+ Drug hypersensitivity (11.4%) and urticaria (1.4%) were self\u2010reported by several patients.
+ Asthma or other allergic diseases were not reported by any of the patients.
+ Chronic obstructive pulmonary disease (COPD, 1.4%) patients and current smokers (1.4%) were rare.
+ Bilateral ground\u2010glass or patchy opacity (89.6%) was the most common sign of radiological finding.
+ Lymphopenia (75.4%) and eosinopenia (52.9%) were observed in most patients.
+ Blood eosinophil counts correlate positively with lymphocyte counts in severe (r = .
+486, P \u003C .
+001) and nonsevere (r = .
+469, P \u003C .
+001) patients after hospital admission.
+ Significantly higher levels of D\u2010dimer, C\u2010reactive protein, and procalcitonin were associated with severe patients compared to nonsevere patients (all P \u003C .
+001).
+\n\nConclusion\n\n\n\nDetailed clinical investigation of 140 hospitalized COVID\u201019 cases suggests eosinopenia together with lymphopenia may be a potential indicator for diagnosis.
+ Allergic diseases, asthma, and COPD are not risk factors for SARS\u2010CoV\u20102 infection.
+ Older age, high number of comorbidities, and more prominent laboratory abnormalities were associated with severe patients</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0, Cao%Yi-yuan%coreGivesNoEmail%0, Dong%Xiang%coreGivesNoEmail%0, Gao%Ya-dong%coreGivesNoEmail%0, Yan%You-qin%coreGivesNoEmail%0, Yang%Yi-bin%coreGivesNoEmail%0, Yuan%Ya-dong%coreGivesNoEmail%0, Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>Fisiopatologia da insufici\u00eancia card\u00edaca em pacientes com COVID-19</t>
+  </si>
+  <si>
+    <t>Introduction: the mechanisms that are suggested as determinant in the vulnerability of patients with heart failure to severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) and which cause the respiratory syndrome labeled COVID-19 (Coronavirus Infectious Disease-19), has revealed controversial.
+ Objective: to gather information on the pathophysiological features of acute heart failure in the context of COVID-19. Method: concerning this topic, from September to November 2020 at the Policl\u00ednico Comunitario \u201cRam\u00f3n L\u00f3pez Pe\u00f1a\u201d in Santiago de Cuba, a narrative review was carried out.
+ The search was conducted checking the databases Pubmed, Infomed and SciELO, without date restriction, and in Spanish and English language.
+ Development: the mechanisms involved on the pathophysiological features of heart failure in patients with this infectious disease revealed uncertainty.
+ Myocardial damage is achievement of two aspects, the direct effect of viral respiratory infection on the myocyte, which is expressed as a local inflammatory response, and the heart participation as a target organ to the systemic and inappropriate inflammatory response, generated by a marked cytokines release.
+ The last aspect referred also causes endothelial damage that triggers thromboembolic and ischemic complications, systolic and diastolic dysfunction of the heart, and ultimately leads to multiorgan system failure.
+Conclusions: despite the advances in understanding the etiopathogenesis of this disease, the pathophysiological mechanisms that determine on the heart failure still require to be precisely clarified, although the influence of the inappropriate inflammatory response, induced by cytokines, it is recognized in the onset myocardial damage.
+Introducci\u00f3n: se revelan controversias respecto a los mecanismos que determinan la vulnerabilidad de los pacientes con insuficiencia cardiaca a la infecci\u00f3n por el virus severe acute respiratory syndrome coronavirus-2 (SARS-CoV-2), que produce el s\u00edndrome respiratorio llamado Coronavirus Infectious Disease-19 (COVID-19).
+ Objetivo: recopilar informaci\u00f3n sobre la fisiopatolog\u00eda de la insuficiencia cardiaca aguda en el contexto de la COVID-19.M\u00e9todo: en el Policl\u00ednico Comunitario \u201cRam\u00f3n L\u00f3pez Pe\u00f1a\u201d de Santiago de Cuba, entre septiembre y noviembre del 2020, se realiz\u00f3 una revisi\u00f3n narrativa sobre este tema.
+ La b\u00fasqueda se efectu\u00f3 consultando las bases de datos Pubmed, Infomed y SciELO, sin restricci\u00f3n de fecha, en los idiomas espa\u00f1ol e ingl\u00e9s.
+ Desarrollo: se manifiestan incertidumbre en los mecanismos implicados en la fisiopatolog\u00eda de la insuficiencia cardiaca de los pacientes con esta enfermedad infecciosa.
+ El da\u00f1o mioc\u00e1rdico se debe a los efectos directos de la infecci\u00f3n viral sobre el miocito, que se expresa como una respuesta inflamatoria local y a la participaci\u00f3n del coraz\u00f3n como \u00f3rgano diana de respuesta inflamatoria sist\u00e9mica e inapropiada generada por la marcada liberaci\u00f3n de citocinas.
+ Esta \u00faltima, adem\u00e1s, genera un da\u00f1o endotelial que desencadena complicaciones tromboemb\u00f3licas e isqu\u00e9micas, disfunci\u00f3n sistodiast\u00f3lica del coraz\u00f3n, y finalmente la falla multiorg\u00e1nica.
+ Conclusiones: a pesar de los avances en el conocimiento de la etiopatogenia de esta enfermedad, a\u00fan se requiere que se esclarezcan con precisi\u00f3n los mecanismos fisiopatol\u00f3gicos que determinan la presentaci\u00f3n de la insuficiencia cardiaca, si bien se reconoce la influencia de la respuesta inflamatoria inapropiada, inducida por citoquinas, en la presentaci\u00f3n del da\u00f1o mioc\u00e1rdico.
+Introdu\u00e7\u00e3o: revelam-se controv\u00e9rsias a respeito dos mecanismos que determinam a vulnerabilidade dos pacientes com insufici\u00eancia card\u00edaca \u00e0 infec\u00e7\u00e3o pelo v\u00edrus severe acute respiratory syndrome coronavirus-2 (SARS-CoV-2), gerador da s\u00edndrome respirat\u00f3ria denominada Coronavirus Infectious Disease-19 (COVID-19).
+ Objetivo: coletar informa\u00e7\u00f5es sobre a fisiopatologia da insufici\u00eancia card\u00edaca aguda no contexto da COVID-19.M\u00e9todo: na Policl\u00ednica Comunit\u00e1ria \u0022Ram\u00f3n L\u00f3pez Pe\u00f1a\u0022 de Santiago de Cuba, entre setembro e novembro de 2020, foi realizada uma revis\u00e3o narrativa sobre o tema.
+ A busca foi realizada por meio de consulta \u00e0s bases de dados Pubmed, Infomed e SciELO, sem restri\u00e7\u00e3o de datas, nos idiomas espanhol e ingl\u00eas.
+ Desenvolvimento: a incerteza se manifesta nos mecanismos envolvidos na fisiopatologia da insufici\u00eancia card\u00edaca em pacientes com essa doen\u00e7a infecciosa.
+ O dano mioc\u00e1rdico se deve aos efeitos diretos da infec\u00e7\u00e3o viral no mi\u00f3cito, que se expressa como resposta inflamat\u00f3ria local, e ao envolvimento do cora\u00e7\u00e3o como \u00f3rg\u00e3o alvo da resposta inflamat\u00f3ria sist\u00eamica e inadequada gerada pela libera\u00e7\u00e3o acentuada de citocinas.
+ Esta \u00faltima tamb\u00e9m gera dano endotelial que desencadeia complica\u00e7\u00f5es tromboemb\u00f3licas e isqu\u00eamicas, disfun\u00e7\u00e3o card\u00edaca sistodiast\u00f3lica e, finalmente, fal\u00eancia de m\u00faltiplos \u00f3rg\u00e3os.
+ Conclus\u00f5es: apesar dos avan\u00e7os no conhecimento da etiopatogenia desta doen\u00e7a, ainda \u00e9 necess\u00e1rio esclarecer com precis\u00e3o os mecanismos fisiopatol\u00f3gicos que determinam a apresenta\u00e7\u00e3o da insufici\u00eancia card\u00edaca, embora se reconhe\u00e7a a influ\u00eancia da resposta inflamat\u00f3ria inadequada, induzida por citocinas, na apresenta\u00e7\u00e3o de dano mioc\u00e1rdico</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0, Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0, Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0, Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%3,   Juanjuan%Guo%NULL%3,   Chen%Wang%NULL%3,   Fan%Luo%NULL%2,   Xuechen%Yu%NULL%3,   Wei%Zhang%NULL%5,   Jiafu%Li%NULL%3,   Dongchi%Zhao%NULL%2,   Dan%Xu%NULL%3,   Qing%Gong%NULL%2,   Jing%Liao%NULL%2,   Huixia%Yang%yanghuixia@bjmu.edu.cn%3,   Wei%Hou%houwei@whu.edu.cn%2,   Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,   Yeming%Wang%NULL%6,   Xingwang%Li%NULL%6,   Lili%Ren%NULL%4,   Jianping%Zhao%NULL%9,   Yi%Hu%NULL%7,   Li%Zhang%NULL%7,   Guohui%Fan%NULL%6,   Jiuyang%Xu%NULL%6,   Xiaoying%Gu%NULL%6,   Zhenshun%Cheng%NULL%4,   Ting%Yu%NULL%13,   Jiaan%Xia%NULL%4,   Yuan%Wei%NULL%10,   Wenjuan%Wu%NULL%4,   Xuelei%Xie%NULL%4,   Wen%Yin%NULL%6,   Hui%Li%NULL%7,   Min%Liu%NULL%4,   Yan%Xiao%NULL%5,   Hong%Gao%NULL%6,   Li%Guo%NULL%5,   Jungang%Xie%NULL%5,   Guangfa%Wang%NULL%4,   Rongmeng%Jiang%NULL%4,   Zhancheng%Gao%NULL%5,   Qi%Jin%NULL%5,   Jianwei%Wang%wangjw28@163.com%0,   Bin%Cao%caobin_ben@163.com%7]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,   Xiao-Xin%Wu%NULL%4,   Xian-Gao%Jiang%NULL%4,   Kai-Jin%Xu%NULL%4,   Ling-Jun%Ying%NULL%4,   Chun-Lian%Ma%NULL%4,   Shi-Bo%Li%NULL%4,   Hua-Ying%Wang%NULL%4,   Sheng%Zhang%NULL%4,   Hai-Nv%Gao%NULL%4,   Ji-Fang%Sheng%NULL%4,   Hong-Liu%Cai%NULL%4,   Yun-Qing%Qiu%NULL%4,   Lan-Juan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,   Kai%Xie%NULL%3,   Hui%Lu%NULL%2,   Lei%Xu%bayinhexl@126.com%2,   Shusheng%Zhou%zhouss108@163.com%2,   Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%0,   Feifei%Yao%NULL%1,   Lijie%Wang%NULL%1,   Ling%Zheng%NULL%1,   Yongjun%Gao%NULL%1,   Jun%Ye%NULL%1,   Feng%Guo%NULL%1,   Hui%Zhao%NULL%1,   Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%0,   Ci%Song%NULL%1,   Chuanjun%Xu%NULL%1,   Guangfu%Jin%NULL%1,   Yaling%Chen%NULL%1,   Xin%Xu%NULL%1,   Hongxia%Ma%NULL%1,   Wei%Chen%NULL%3,   Yuan%Lin%NULL%1,   Yishan%Zheng%NULL%2,   Jianming%Wang%NULL%1,   Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,   Yongxiang%Yi%ian0126@126.com%1,   Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%12,   Di%Wu%NULL%2,   Huilong%Chen%NULL%2,   Weiming%Yan%NULL%2,   Danlei%Yang%NULL%2,   Guang%Chen%NULL%2,   Ke%Ma%NULL%2,   Dong%Xu%NULL%2,   Haijing%Yu%NULL%2,   Hongwu%Wang%NULL%2,   Tao%Wang%NULL%0,   Wei%Guo%NULL%2,   Jia%Chen%NULL%2,   Chen%Ding%NULL%2,   Xiaoping%Zhang%NULL%2,   Jiaquan%Huang%NULL%2,   Meifang%Han%NULL%2,   Shusheng%Li%NULL%3,   Xiaoping%Luo%NULL%2,   Jianping%Zhao%NULL%0,   Qin%Ning%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,   Yuan-Yuan%Fang%NULL%4,   Yan%Deng%NULL%3,   Wei%Liu%NULL%5,   Mei-Fang%Wang%NULL%3,   Jing-Ping%Ma%NULL%3,   Wei%Xiao%NULL%3,   Ying-Nan%Wang%NULL%3,   Min-Hua%Zhong%NULL%3,   Cheng-Hong%Li%NULL%3,   Guang-Cai%Li%NULL%3,   Hui-Guo%Liu%NULL%4,   Xiu-Yuan%Hao%NULL%6,   Pei-Fang%Wei%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%4,   Tianhe%Ye%NULL%3,   Peng%Sun%NULL%3,   Shan%Gui%NULL%3,   Bo%Liang%NULL%3,   Lingli%Li%NULL%3,   Dandan%Zheng%NULL%3,   Jiazheng%Wang%NULL%3,   Richard L.%Hesketh%NULL%3,   Lian%Yang%yanglian@hust.edu.cn%3,   Chuansheng%Zheng%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%15,   Yuan%Yu%NULL%2,   Jiqian%Xu%NULL%1,   Huaqing%Shu%NULL%1,   Jia'an%Xia%NULL%4,   Hong%Liu%NULL%3,   Yongran%Wu%NULL%2,   Lu%Zhang%NULL%1,   Zhui%Yu%NULL%1,   Minghao%Fang%NULL%1,   Ting%Yu%NULL%0,   Yaxin%Wang%NULL%2,   Shangwen%Pan%NULL%1,   Xiaojing%Zou%NULL%2,   Shiying%Yuan%NULL%2,   You%Shang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%3,   Nan%Yang%NULL%2,   Yanqiu%Wei%NULL%2,   Huihui%Yue%NULL%2,   Fengqin%Zhang%NULL%2,   Jianping%Zhao%NULL%0,   Li%He%NULL%2,   Gaohong%Sheng%NULL%2,   Peng%Chen%NULL%2,   Gang%Li%NULL%0,   Sisi%Wu%NULL%2,   Bo%Zhang%NULL%2,   Shu%Zhang%szhang@tjh.tjmu.edu.cn%2,   Congyi%Wang%wangcy@tjh.tjmu.edu.cn%2,   Xiaoping%Miao%miaoxp@hust.edu.cn%2,   Juan%Li%lijuan@tjh.tjmu.edu.cn%2,   Wenhua%Liu%liuwh_2013@126.com%2,   Huilan%Zhang%huilanz_76@163.com%2]</t>
+  </si>
+  <si>
+    <t>[ J.%Liu%null%1,    L.% Ouyang%null%1,    P.% Guo%null%1,    H. s.% Wu%null%1,    P.% Fu%null%1,    Y. l.% Chen%null%1,    D.% Yang%null%1,    X. y.% Han%null%1,    Y. k.% Cao%null%1,    O.% Alwalid%null%1,    J.% Tao%null%1,    S. y.% Peng%null%1,    H. s.% Shi%null%1,    F.% Yang%null%1,    C. s. % Zheng%null%1]</t>
+  </si>
+  <si>
+    <t>[ R.%Liu%null%1,    X.% Ming%null%1,    O.% Xu%null%1,    J.% Zhou%null%1,    H.% Peng%null%1,    N.% Xiang%null%1,    J.% Zhang%null%1,    H. % Zhu%null%1]</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%2,   Shauna%Clark%NULL%2,   Sargis%Pogosjans%NULL%3,   Meagan%Kay%NULL%4,   James%Lewis%NULL%3,   Atar%Baer%NULL%2,   Vance%Kawakami%NULL%2,   Margaret D.%Lukoff%NULL%3,   Jessica%Ferro%NULL%2,   Claire%Brostrom-Smith%NULL%2,   Francis X.%Riedo%NULL%2,   Denny%Russell%NULL%2,   Brian%Hiatt%NULL%2,   Patricia%Montgomery%NULL%2,   Agam K.%Rao%NULL%2,   Dustin W.%Currie%NULL%2,   Eric J.%Chow%NULL%2,   Farrell%Tobolowsky%NULL%3,   Ana C.%Bardossy%NULL%2,   Lisa P.%Oakley%NULL%2,   Jesica R.%Jacobs%NULL%2,   Noah G.%Schwartz%NULL%2,   Nimalie%Stone%NULL%1,   Sujan C.%Reddy%NULL%4,   John A.%Jernigan%NULL%3,   Margaret A.%Honein%NULL%2,   Thomas A.%Clark%NULL%2,   Jeffrey S.%Duchin%NULL%3,   NULL%NULL%NULL%29,   NULL%NULL%NULL%0,   Meaghan S.%Fagalde%NULL%1,   Jennifer L.%Lenahan%NULL%1,   Emily B.%Maier%NULL%1,   Kaitlyn J.%Sykes%NULL%1,   Grace%Hatt%NULL%1,   Holly%Whitney%NULL%2,   Melinda%Huntington-Frazier%NULL%1,   Elysia%Gonzales%NULL%3,   Laura A.%Mummert%NULL%1,   Hal Garcia%Smith%NULL%1,   Steve%Stearns%NULL%1,   Eileen%Benoliel%NULL%1,   Shelly%McKeirnan%NULL%1,   Jennifer L.%Morgan%NULL%1,   Daniel%Smith%NULL%1,   Michaela%Hope%NULL%1,   Noel%Hatley%NULL%1,   Leslie M.%Barnard%NULL%1,   Leilani%Schwarcz%NULL%1,   Nicole%Yarid%NULL%1,   Eric%Yim%NULL%1,   Sandra%Kreider%NULL%1,   Dawn%Barr%NULL%1,   Nancy%Wilde%NULL%1,   Courtney%Dorman%NULL%1,   Airin%Lam%NULL%1,   Jeanette%Harris%NULL%1,   Hollianne%Bruce%NULL%2,   Christopher%Spitters%NULL%2,   Snohomish Health%District%NULL%1,   Rachael%Zacks%NULL%1,   Jonathan%Dyal%NULL%1,   Michael%Hughes%NULL%1,   Christina%Carlson%NULL%1,   Barbara%Cooper%NULL%1,   Michelle%Banks%NULL%1,   Heather%McLaughlin%NULL%1,   Arun%Balajee%NULL%1,   Christine%Olson%NULL%1,   Suzanne%Zane%NULL%1,   Hammad%Ali%NULL%1,   Jessica%Healy%NULL%1,   Kristine%Schmit%NULL%3,   Kevin%Spicer%NULL%1,   Zeshan%Chisty%NULL%1,   Sukarma%Tanwar%NULL%1,   Joanne%Taylor%NULL%1,   Leisha%Nolen%NULL%1,   Jeneita%Bell%NULL%1,   Kelly%Hatfield%NULL%1,   Melissa%Arons%NULL%1,   Anne%Kimball%NULL%1,   Allison%James%NULL%1,   Mark%Methner%NULL%1,   Joshua%Harney%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%14,    Zheng-yi%Ni%NULL%7,    Yu%Hu%NULL%5,    Wen-hua%Liang%NULL%5,    Chun-quan%Ou%NULL%5,    Jian-xing%He%NULL%5,    Lei%Liu%NULL%0,    Hong%Shan%NULL%8,    Chun-liang%Lei%NULL%5,    David S.C.%Hui%NULL%4,    Bin%Du%NULL%4,    Lan-juan%Li%NULL%4,    Guang%Zeng%NULL%4,    Kwok-Yung%Yuen%NULL%7,    Ru-chong%Chen%NULL%5,    Chun-li%Tang%NULL%5,    Tao%Wang%NULL%12,    Ping-yan%Chen%NULL%5,    Jie%Xiang%NULL%9,    Shi-yue%Li%NULL%5,    Jin-lin%Wang%NULL%4,    Zi-jing%Liang%NULL%4,    Yi-xiang%Peng%NULL%5,    Li%Wei%NULL%5,    Yong%Liu%NULL%5,    Ya-hua%Hu%NULL%5,    Peng%Peng%NULL%11,    Jian-ming%Wang%NULL%5,    Ji-yang%Liu%NULL%5,    Zhong%Chen%NULL%5,    Gang%Li%NULL%7,    Zhi-jian%Zheng%NULL%5,    Shao-qin%Qiu%NULL%5,    Jie%Luo%NULL%5,    Chang-jiang%Ye%NULL%5,    Shao-yong%Zhu%NULL%5,    Nan-shan%Zhong%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,    Dengju%Li%NULL%2,    Xiong%Wang%NULL%2,    Ziyong%Sun%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,  Cao%Yi-yuan%coreGivesNoEmail%0,  Dong%Xiang%coreGivesNoEmail%0,  Gao%Ya-dong%coreGivesNoEmail%0,  Yan%You-qin%coreGivesNoEmail%0,  Yang%Yi-bin%coreGivesNoEmail%0,  Yuan%Ya-dong%coreGivesNoEmail%0,  Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,  Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,  Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,  Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%3,    Juanjuan%Guo%NULL%3,    Chen%Wang%NULL%3,    Fan%Luo%NULL%2,    Xuechen%Yu%NULL%3,    Wei%Zhang%NULL%5,    Jiafu%Li%NULL%3,    Dongchi%Zhao%NULL%2,    Dan%Xu%NULL%3,    Qing%Gong%NULL%2,    Jing%Liao%NULL%2,    Huixia%Yang%yanghuixia@bjmu.edu.cn%3,    Wei%Hou%houwei@whu.edu.cn%2,    Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,    Yeming%Wang%NULL%9,    Xingwang%Li%NULL%7,    Lili%Ren%NULL%5,    Jianping%Zhao%NULL%13,    Yi%Hu%NULL%9,    Li%Zhang%NULL%8,    Guohui%Fan%NULL%9,    Jiuyang%Xu%NULL%9,    Xiaoying%Gu%NULL%9,    Zhenshun%Cheng%NULL%5,    Ting%Yu%NULL%18,    Jiaan%Xia%NULL%5,    Yuan%Wei%NULL%13,    Wenjuan%Wu%NULL%5,    Xuelei%Xie%NULL%5,    Wen%Yin%NULL%7,    Hui%Li%NULL%11,    Min%Liu%NULL%5,    Yan%Xiao%NULL%6,    Hong%Gao%NULL%7,    Li%Guo%NULL%6,    Jungang%Xie%NULL%7,    Guangfa%Wang%NULL%5,    Rongmeng%Jiang%NULL%5,    Zhancheng%Gao%NULL%6,    Qi%Jin%NULL%6,    Jianwei%Wang%wangjw28@163.com%0,    Bin%Cao%caobin_ben@163.com%10]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,    Xiao-Xin%Wu%NULL%4,    Xian-Gao%Jiang%NULL%4,    Kai-Jin%Xu%NULL%4,    Ling-Jun%Ying%NULL%4,    Chun-Lian%Ma%NULL%4,    Shi-Bo%Li%NULL%4,    Hua-Ying%Wang%NULL%4,    Sheng%Zhang%NULL%6,    Hai-Nv%Gao%NULL%5,    Ji-Fang%Sheng%NULL%4,    Hong-Liu%Cai%NULL%4,    Yun-Qing%Qiu%NULL%4,    Lan-Juan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,    Kai%Xie%NULL%3,    Hui%Lu%NULL%2,    Lei%Xu%bayinhexl@126.com%2,    Shusheng%Zhou%zhouss108@163.com%2,    Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%0,    Feifei%Yao%NULL%1,    Lijie%Wang%NULL%1,    Ling%Zheng%NULL%1,    Yongjun%Gao%NULL%1,    Jun%Ye%NULL%1,    Feng%Guo%NULL%1,    Hui%Zhao%NULL%1,    Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%0,    Ci%Song%NULL%1,    Chuanjun%Xu%NULL%1,    Guangfu%Jin%NULL%1,    Yaling%Chen%NULL%1,    Xin%Xu%NULL%1,    Hongxia%Ma%NULL%1,    Wei%Chen%NULL%3,    Yuan%Lin%NULL%1,    Yishan%Zheng%NULL%2,    Jianming%Wang%NULL%1,    Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,    Yongxiang%Yi%ian0126@126.com%1,    Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%12,    Di%Wu%NULL%4,    Huilong%Chen%NULL%4,    Weiming%Yan%NULL%4,    Danlei%Yang%NULL%4,    Guang%Chen%NULL%4,    Ke%Ma%NULL%4,    Dong%Xu%NULL%4,    Haijing%Yu%NULL%4,    Hongwu%Wang%NULL%4,    Tao%Wang%NULL%0,    Wei%Guo%NULL%4,    Jia%Chen%NULL%4,    Chen%Ding%NULL%4,    Xiaoping%Zhang%NULL%4,    Jiaquan%Huang%NULL%4,    Meifang%Han%NULL%4,    Shusheng%Li%NULL%5,    Xiaoping%Luo%NULL%4,    Jianping%Zhao%NULL%0,    Qin%Ning%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,    Yuan-Yuan%Fang%NULL%5,    Yan%Deng%NULL%5,    Wei%Liu%NULL%6,    Mei-Fang%Wang%NULL%4,    Jing-Ping%Ma%NULL%4,    Wei%Xiao%NULL%4,    Ying-Nan%Wang%NULL%4,    Min-Hua%Zhong%NULL%4,    Cheng-Hong%Li%NULL%4,    Guang-Cai%Li%NULL%4,    Hui-Guo%Liu%NULL%6,    Xiu-Yuan%Hao%NULL%8,    Pei-Fang%Wei%NULL%11]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%4,    Tianhe%Ye%NULL%3,    Peng%Sun%NULL%3,    Shan%Gui%NULL%3,    Bo%Liang%NULL%3,    Lingli%Li%NULL%3,    Dandan%Zheng%NULL%3,    Jiazheng%Wang%NULL%3,    Richard L.%Hesketh%NULL%3,    Lian%Yang%yanglian@hust.edu.cn%3,    Chuansheng%Zheng%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%15,    Yuan%Yu%NULL%4,    Jiqian%Xu%NULL%3,    Huaqing%Shu%NULL%3,    Jia'an%Xia%NULL%6,    Hong%Liu%NULL%5,    Yongran%Wu%NULL%4,    Lu%Zhang%NULL%3,    Zhui%Yu%NULL%3,    Minghao%Fang%NULL%5,    Ting%Yu%NULL%0,    Yaxin%Wang%NULL%4,    Shangwen%Pan%NULL%3,    Xiaojing%Zou%NULL%4,    Shiying%Yuan%NULL%4,    You%Shang%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%3,    Nan%Yang%NULL%2,    Yanqiu%Wei%NULL%2,    Huihui%Yue%NULL%2,    Fengqin%Zhang%NULL%2,    Jianping%Zhao%NULL%0,    Li%He%NULL%2,    Gaohong%Sheng%NULL%2,    Peng%Chen%NULL%2,    Gang%Li%NULL%0,    Sisi%Wu%NULL%2,    Bo%Zhang%NULL%2,    Shu%Zhang%szhang@tjh.tjmu.edu.cn%2,    Congyi%Wang%wangcy@tjh.tjmu.edu.cn%2,    Xiaoping%Miao%miaoxp@hust.edu.cn%2,    Juan%Li%lijuan@tjh.tjmu.edu.cn%2,    Wenhua%Liu%liuwh_2013@126.com%2,    Huilan%Zhang%huilanz_76@163.com%2]</t>
+  </si>
+  <si>
+    <t>[ J.%Liu%null%1,     L.% Ouyang%null%1,     P.% Guo%null%1,     H. s.% Wu%null%1,     P.% Fu%null%1,     Y. l.% Chen%null%1,     D.% Yang%null%2,     X. y.% Han%null%1,     Y. k.% Cao%null%1,     O.% Alwalid%null%1,     J.% Tao%null%1,     S. y.% Peng%null%1,     H. s.% Shi%null%1,     F.% Yang%null%1,     C. s. % Zheng%null%1]</t>
+  </si>
+  <si>
+    <t>[ R.%Liu%null%1,     X.% Ming%null%1,     O.% Xu%null%1,     J.% Zhou%null%1,     H.% Peng%null%1,     N.% Xiang%null%1,     J.% Zhang%null%1,     H. % Zhu%null%1]</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%2,    Shauna%Clark%NULL%2,    Sargis%Pogosjans%NULL%2,    Meagan%Kay%NULL%2,    James%Lewis%NULL%3,    Atar%Baer%NULL%2,    Vance%Kawakami%NULL%2,    Margaret D.%Lukoff%NULL%2,    Jessica%Ferro%NULL%2,    Claire%Brostrom-Smith%NULL%2,    Francis X.%Riedo%NULL%2,    Denny%Russell%NULL%2,    Brian%Hiatt%NULL%2,    Patricia%Montgomery%NULL%2,    Agam K.%Rao%NULL%2,    Dustin W.%Currie%NULL%2,    Eric J.%Chow%NULL%2,    Farrell%Tobolowsky%NULL%2,    Ana C.%Bardossy%NULL%2,    Lisa P.%Oakley%NULL%2,    Jesica R.%Jacobs%NULL%2,    Noah G.%Schwartz%NULL%2,    Nimalie%Stone%NULL%1,    Sujan C.%Reddy%NULL%4,    John A.%Jernigan%NULL%3,    Margaret A.%Honein%NULL%2,    Thomas A.%Clark%NULL%2,    Jeffrey S.%Duchin%NULL%2,    NULL%NULL%NULL%28,    NULL%NULL%NULL%0,    Meaghan S.%Fagalde%NULL%1,    Jennifer L.%Lenahan%NULL%1,    Emily B.%Maier%NULL%1,    Kaitlyn J.%Sykes%NULL%1,    Grace%Hatt%NULL%1,    Holly%Whitney%NULL%1,    Melinda%Huntington-Frazier%NULL%1,    Elysia%Gonzales%NULL%1,    Laura A.%Mummert%NULL%1,    Hal Garcia%Smith%NULL%1,    Steve%Stearns%NULL%1,    Eileen%Benoliel%NULL%1,    Shelly%McKeirnan%NULL%1,    Jennifer L.%Morgan%NULL%1,    Daniel%Smith%NULL%1,    Michaela%Hope%NULL%1,    Noel%Hatley%NULL%1,    Leslie M.%Barnard%NULL%1,    Leilani%Schwarcz%NULL%1,    Nicole%Yarid%NULL%1,    Eric%Yim%NULL%1,    Sandra%Kreider%NULL%1,    Dawn%Barr%NULL%1,    Nancy%Wilde%NULL%1,    Courtney%Dorman%NULL%1,    Airin%Lam%NULL%1,    Jeanette%Harris%NULL%1,    Hollianne%Bruce%NULL%2,    Christopher%Spitters%NULL%2,    Snohomish Health%District%NULL%1,    Rachael%Zacks%NULL%1,    Jonathan%Dyal%NULL%1,    Michael%Hughes%NULL%1,    Christina%Carlson%NULL%1,    Barbara%Cooper%NULL%1,    Michelle%Banks%NULL%1,    Heather%McLaughlin%NULL%1,    Arun%Balajee%NULL%1,    Christine%Olson%NULL%1,    Suzanne%Zane%NULL%1,    Hammad%Ali%NULL%1,    Jessica%Healy%NULL%1,    Kristine%Schmit%NULL%1,    Kevin%Spicer%NULL%1,    Zeshan%Chisty%NULL%1,    Sukarma%Tanwar%NULL%1,    Joanne%Taylor%NULL%1,    Leisha%Nolen%NULL%1,    Jeneita%Bell%NULL%1,    Kelly%Hatfield%NULL%1,    Melissa%Arons%NULL%1,    Anne%Kimball%NULL%1,    Allison%James%NULL%1,    Mark%Methner%NULL%1,    Joshua%Harney%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%14,     Zheng-yi%Ni%NULL%7,     Yu%Hu%NULL%5,     Wen-hua%Liang%NULL%5,     Chun-quan%Ou%NULL%5,     Jian-xing%He%NULL%5,     Lei%Liu%NULL%0,     Hong%Shan%NULL%7,     Chun-liang%Lei%NULL%5,     David S.C.%Hui%NULL%4,     Bin%Du%NULL%4,     Lan-juan%Li%NULL%4,     Guang%Zeng%NULL%4,     Kwok-Yung%Yuen%NULL%7,     Ru-chong%Chen%NULL%5,     Chun-li%Tang%NULL%5,     Tao%Wang%NULL%12,     Ping-yan%Chen%NULL%5,     Jie%Xiang%NULL%9,     Shi-yue%Li%NULL%5,     Jin-lin%Wang%NULL%4,     Zi-jing%Liang%NULL%4,     Yi-xiang%Peng%NULL%5,     Li%Wei%NULL%5,     Yong%Liu%NULL%5,     Ya-hua%Hu%NULL%5,     Peng%Peng%NULL%9,     Jian-ming%Wang%NULL%5,     Ji-yang%Liu%NULL%5,     Zhong%Chen%NULL%5,     Gang%Li%NULL%7,     Zhi-jian%Zheng%NULL%5,     Shao-qin%Qiu%NULL%5,     Jie%Luo%NULL%5,     Chang-jiang%Ye%NULL%5,     Shao-yong%Zhu%NULL%5,     Nan-shan%Zhong%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,     Dengju%Li%NULL%2,     Xiong%Wang%NULL%2,     Ziyong%Sun%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,   Cao%Yi-yuan%coreGivesNoEmail%0,   Dong%Xiang%coreGivesNoEmail%0,   Gao%Ya-dong%coreGivesNoEmail%0,   Yan%You-qin%coreGivesNoEmail%0,   Yang%Yi-bin%coreGivesNoEmail%0,   Yuan%Ya-dong%coreGivesNoEmail%0,   Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,   Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,   Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,   Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%3,     Juanjuan%Guo%NULL%3,     Chen%Wang%NULL%3,     Fan%Luo%NULL%2,     Xuechen%Yu%NULL%3,     Wei%Zhang%NULL%5,     Jiafu%Li%NULL%3,     Dongchi%Zhao%NULL%2,     Dan%Xu%NULL%5,     Qing%Gong%NULL%2,     Jing%Liao%NULL%2,     Huixia%Yang%yanghuixia@bjmu.edu.cn%3,     Wei%Hou%houwei@whu.edu.cn%2,     Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,     Yeming%Wang%NULL%9,     Xingwang%Li%NULL%7,     Lili%Ren%NULL%5,     Jianping%Zhao%NULL%13,     Yi%Hu%NULL%9,     Li%Zhang%NULL%8,     Guohui%Fan%NULL%9,     Jiuyang%Xu%NULL%9,     Xiaoying%Gu%NULL%9,     Zhenshun%Cheng%NULL%5,     Ting%Yu%NULL%19,     Jiaan%Xia%NULL%5,     Yuan%Wei%NULL%13,     Wenjuan%Wu%NULL%5,     Xuelei%Xie%NULL%5,     Wen%Yin%NULL%7,     Hui%Li%NULL%11,     Min%Liu%NULL%5,     Yan%Xiao%NULL%6,     Hong%Gao%NULL%7,     Li%Guo%NULL%6,     Jungang%Xie%NULL%7,     Guangfa%Wang%NULL%5,     Rongmeng%Jiang%NULL%5,     Zhancheng%Gao%NULL%6,     Qi%Jin%NULL%6,     Jianwei%Wang%wangjw28@163.com%0,     Bin%Cao%caobin_ben@163.com%10]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,     Xiao-Xin%Wu%NULL%4,     Xian-Gao%Jiang%NULL%4,     Kai-Jin%Xu%NULL%4,     Ling-Jun%Ying%NULL%4,     Chun-Lian%Ma%NULL%4,     Shi-Bo%Li%NULL%4,     Hua-Ying%Wang%NULL%4,     Sheng%Zhang%NULL%7,     Hai-Nv%Gao%NULL%5,     Ji-Fang%Sheng%NULL%4,     Hong-Liu%Cai%NULL%4,     Yun-Qing%Qiu%NULL%4,     Lan-Juan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,     Kai%Xie%NULL%3,     Hui%Lu%NULL%2,     Lei%Xu%bayinhexl@126.com%2,     Shusheng%Zhou%zhouss108@163.com%2,     Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%0,     Feifei%Yao%NULL%1,     Lijie%Wang%NULL%1,     Ling%Zheng%NULL%1,     Yongjun%Gao%NULL%1,     Jun%Ye%NULL%1,     Feng%Guo%NULL%1,     Hui%Zhao%NULL%1,     Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%0,     Ci%Song%NULL%1,     Chuanjun%Xu%NULL%1,     Guangfu%Jin%NULL%1,     Yaling%Chen%NULL%1,     Xin%Xu%NULL%1,     Hongxia%Ma%NULL%1,     Wei%Chen%NULL%3,     Yuan%Lin%NULL%1,     Yishan%Zheng%NULL%1,     Jianming%Wang%NULL%1,     Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,     Yongxiang%Yi%ian0126@126.com%1,     Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%12,     Di%Wu%NULL%4,     Huilong%Chen%NULL%4,     Weiming%Yan%NULL%4,     Danlei%Yang%NULL%4,     Guang%Chen%NULL%4,     Ke%Ma%NULL%4,     Dong%Xu%NULL%4,     Haijing%Yu%NULL%4,     Hongwu%Wang%NULL%4,     Tao%Wang%NULL%0,     Wei%Guo%NULL%4,     Jia%Chen%NULL%4,     Chen%Ding%NULL%4,     Xiaoping%Zhang%NULL%4,     Jiaquan%Huang%NULL%4,     Meifang%Han%NULL%4,     Shusheng%Li%NULL%5,     Xiaoping%Luo%NULL%4,     Jianping%Zhao%NULL%0,     Qin%Ning%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,     Yuan-Yuan%Fang%NULL%5,     Yan%Deng%NULL%5,     Wei%Liu%NULL%6,     Mei-Fang%Wang%NULL%4,     Jing-Ping%Ma%NULL%4,     Wei%Xiao%NULL%4,     Ying-Nan%Wang%NULL%4,     Min-Hua%Zhong%NULL%4,     Cheng-Hong%Li%NULL%4,     Guang-Cai%Li%NULL%4,     Hui-Guo%Liu%NULL%6,     Xiu-Yuan%Hao%NULL%8,     Pei-Fang%Wei%NULL%13]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%4,     Tianhe%Ye%NULL%3,     Peng%Sun%NULL%3,     Shan%Gui%NULL%3,     Bo%Liang%NULL%3,     Lingli%Li%NULL%3,     Dandan%Zheng%NULL%3,     Jiazheng%Wang%NULL%3,     Richard L.%Hesketh%NULL%3,     Lian%Yang%yanglian@hust.edu.cn%3,     Chuansheng%Zheng%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%15,     Yuan%Yu%NULL%5,     Jiqian%Xu%NULL%5,     Huaqing%Shu%NULL%4,     Jia'an%Xia%NULL%7,     Hong%Liu%NULL%6,     Yongran%Wu%NULL%6,     Lu%Zhang%NULL%4,     Zhui%Yu%NULL%5,     Minghao%Fang%NULL%7,     Ting%Yu%NULL%0,     Yaxin%Wang%NULL%5,     Shangwen%Pan%NULL%4,     Xiaojing%Zou%NULL%5,     Shiying%Yuan%NULL%6,     You%Shang%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%3,     Nan%Yang%NULL%2,     Yanqiu%Wei%NULL%2,     Huihui%Yue%NULL%2,     Fengqin%Zhang%NULL%2,     Jianping%Zhao%NULL%0,     Li%He%NULL%2,     Gaohong%Sheng%NULL%2,     Peng%Chen%NULL%2,     Gang%Li%NULL%0,     Sisi%Wu%NULL%2,     Bo%Zhang%NULL%2,     Shu%Zhang%szhang@tjh.tjmu.edu.cn%2,     Congyi%Wang%wangcy@tjh.tjmu.edu.cn%2,     Xiaoping%Miao%miaoxp@hust.edu.cn%2,     Juan%Li%lijuan@tjh.tjmu.edu.cn%2,     Wenhua%Liu%liuwh_2013@126.com%2,     Huilan%Zhang%huilanz_76@163.com%2]</t>
+  </si>
+  <si>
+    <t>[ J.%Liu%null%1,      L.% Ouyang%null%1,      P.% Guo%null%1,      H. s.% Wu%null%1,      P.% Fu%null%1,      Y. l.% Chen%null%1,      D.% Yang%null%2,      X. y.% Han%null%1,      Y. k.% Cao%null%1,      O.% Alwalid%null%1,      J.% Tao%null%1,      S. y.% Peng%null%1,      H. s.% Shi%null%1,      F.% Yang%null%1,      C. s. % Zheng%null%1]</t>
+  </si>
+  <si>
+    <t>[ R.%Liu%null%1,      X.% Ming%null%1,      O.% Xu%null%1,      J.% Zhou%null%1,      H.% Peng%null%1,      N.% Xiang%null%1,      J.% Zhang%null%1,      H. % Zhu%null%1]</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%2,     Shauna%Clark%NULL%2,     Sargis%Pogosjans%NULL%2,     Meagan%Kay%NULL%2,     James%Lewis%NULL%3,     Atar%Baer%NULL%2,     Vance%Kawakami%NULL%2,     Margaret D.%Lukoff%NULL%2,     Jessica%Ferro%NULL%2,     Claire%Brostrom-Smith%NULL%2,     Francis X.%Riedo%NULL%2,     Denny%Russell%NULL%2,     Brian%Hiatt%NULL%2,     Patricia%Montgomery%NULL%2,     Agam K.%Rao%NULL%2,     Dustin W.%Currie%NULL%2,     Eric J.%Chow%NULL%2,     Farrell%Tobolowsky%NULL%2,     Ana C.%Bardossy%NULL%2,     Lisa P.%Oakley%NULL%2,     Jesica R.%Jacobs%NULL%2,     Noah G.%Schwartz%NULL%2,     Nimalie%Stone%NULL%1,     Sujan C.%Reddy%NULL%4,     John A.%Jernigan%NULL%3,     Margaret A.%Honein%NULL%2,     Thomas A.%Clark%NULL%2,     Jeffrey S.%Duchin%NULL%2,     NULL%NULL%NULL%31,     NULL%NULL%NULL%0,     Meaghan S.%Fagalde%NULL%1,     Jennifer L.%Lenahan%NULL%1,     Emily B.%Maier%NULL%1,     Kaitlyn J.%Sykes%NULL%1,     Grace%Hatt%NULL%1,     Holly%Whitney%NULL%1,     Melinda%Huntington-Frazier%NULL%1,     Elysia%Gonzales%NULL%1,     Laura A.%Mummert%NULL%1,     Hal Garcia%Smith%NULL%1,     Steve%Stearns%NULL%1,     Eileen%Benoliel%NULL%1,     Shelly%McKeirnan%NULL%1,     Jennifer L.%Morgan%NULL%1,     Daniel%Smith%NULL%1,     Michaela%Hope%NULL%1,     Noel%Hatley%NULL%1,     Leslie M.%Barnard%NULL%1,     Leilani%Schwarcz%NULL%1,     Nicole%Yarid%NULL%1,     Eric%Yim%NULL%1,     Sandra%Kreider%NULL%1,     Dawn%Barr%NULL%1,     Nancy%Wilde%NULL%1,     Courtney%Dorman%NULL%1,     Airin%Lam%NULL%1,     Jeanette%Harris%NULL%1,     Hollianne%Bruce%NULL%2,     Christopher%Spitters%NULL%2,     Snohomish Health%District%NULL%1,     Rachael%Zacks%NULL%1,     Jonathan%Dyal%NULL%1,     Michael%Hughes%NULL%1,     Christina%Carlson%NULL%1,     Barbara%Cooper%NULL%1,     Michelle%Banks%NULL%1,     Heather%McLaughlin%NULL%1,     Arun%Balajee%NULL%1,     Christine%Olson%NULL%1,     Suzanne%Zane%NULL%1,     Hammad%Ali%NULL%1,     Jessica%Healy%NULL%1,     Kristine%Schmit%NULL%1,     Kevin%Spicer%NULL%1,     Zeshan%Chisty%NULL%1,     Sukarma%Tanwar%NULL%1,     Joanne%Taylor%NULL%1,     Leisha%Nolen%NULL%1,     Jeneita%Bell%NULL%1,     Kelly%Hatfield%NULL%1,     Melissa%Arons%NULL%1,     Anne%Kimball%NULL%1,     Allison%James%NULL%1,     Mark%Methner%NULL%1,     Joshua%Harney%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%14,      Zheng-yi%Ni%NULL%7,      Yu%Hu%NULL%5,      Wen-hua%Liang%NULL%5,      Chun-quan%Ou%NULL%5,      Jian-xing%He%NULL%5,      Lei%Liu%NULL%0,      Hong%Shan%NULL%7,      Chun-liang%Lei%NULL%5,      David S.C.%Hui%NULL%4,      Bin%Du%NULL%4,      Lan-juan%Li%NULL%4,      Guang%Zeng%NULL%4,      Kwok-Yung%Yuen%NULL%7,      Ru-chong%Chen%NULL%5,      Chun-li%Tang%NULL%5,      Tao%Wang%NULL%12,      Ping-yan%Chen%NULL%5,      Jie%Xiang%NULL%9,      Shi-yue%Li%NULL%5,      Jin-lin%Wang%NULL%4,      Zi-jing%Liang%NULL%4,      Yi-xiang%Peng%NULL%5,      Li%Wei%NULL%5,      Yong%Liu%NULL%5,      Ya-hua%Hu%NULL%5,      Peng%Peng%NULL%9,      Jian-ming%Wang%NULL%5,      Ji-yang%Liu%NULL%5,      Zhong%Chen%NULL%5,      Gang%Li%NULL%7,      Zhi-jian%Zheng%NULL%5,      Shao-qin%Qiu%NULL%5,      Jie%Luo%NULL%5,      Chang-jiang%Ye%NULL%5,      Shao-yong%Zhu%NULL%5,      Nan-shan%Zhong%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,      Dengju%Li%NULL%2,      Xiong%Wang%NULL%2,      Ziyong%Sun%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,    Cao%Yi-yuan%coreGivesNoEmail%0,    Dong%Xiang%coreGivesNoEmail%0,    Gao%Ya-dong%coreGivesNoEmail%0,    Yan%You-qin%coreGivesNoEmail%0,    Yang%Yi-bin%coreGivesNoEmail%0,    Yuan%Ya-dong%coreGivesNoEmail%0,    Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,    Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,    Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,    Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%3,      Juanjuan%Guo%NULL%3,      Chen%Wang%NULL%3,      Fan%Luo%NULL%2,      Xuechen%Yu%NULL%3,      Wei%Zhang%NULL%5,      Jiafu%Li%NULL%3,      Dongchi%Zhao%NULL%2,      Dan%Xu%NULL%5,      Qing%Gong%NULL%2,      Jing%Liao%NULL%2,      Huixia%Yang%yanghuixia@bjmu.edu.cn%3,      Wei%Hou%houwei@whu.edu.cn%2,      Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,      Yeming%Wang%NULL%9,      Xingwang%Li%NULL%7,      Lili%Ren%NULL%5,      Jianping%Zhao%NULL%13,      Yi%Hu%NULL%9,      Li%Zhang%NULL%8,      Guohui%Fan%NULL%9,      Jiuyang%Xu%NULL%9,      Xiaoying%Gu%NULL%9,      Zhenshun%Cheng%NULL%5,      Ting%Yu%NULL%19,      Jiaan%Xia%NULL%5,      Yuan%Wei%NULL%13,      Wenjuan%Wu%NULL%5,      Xuelei%Xie%NULL%5,      Wen%Yin%NULL%7,      Hui%Li%NULL%11,      Min%Liu%NULL%5,      Yan%Xiao%NULL%6,      Hong%Gao%NULL%7,      Li%Guo%NULL%6,      Jungang%Xie%NULL%7,      Guangfa%Wang%NULL%5,      Rongmeng%Jiang%NULL%5,      Zhancheng%Gao%NULL%6,      Qi%Jin%NULL%6,      Jianwei%Wang%wangjw28@163.com%0,      Bin%Cao%caobin_ben@163.com%10]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,      Xiao-Xin%Wu%NULL%4,      Xian-Gao%Jiang%NULL%4,      Kai-Jin%Xu%NULL%4,      Ling-Jun%Ying%NULL%4,      Chun-Lian%Ma%NULL%4,      Shi-Bo%Li%NULL%4,      Hua-Ying%Wang%NULL%4,      Sheng%Zhang%NULL%7,      Hai-Nv%Gao%NULL%5,      Ji-Fang%Sheng%NULL%4,      Hong-Liu%Cai%NULL%4,      Yun-Qing%Qiu%NULL%4,      Lan-Juan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,      Kai%Xie%NULL%3,      Hui%Lu%NULL%2,      Lei%Xu%bayinhexl@126.com%2,      Shusheng%Zhou%zhouss108@163.com%2,      Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%0,      Feifei%Yao%NULL%1,      Lijie%Wang%NULL%1,      Ling%Zheng%NULL%1,      Yongjun%Gao%NULL%1,      Jun%Ye%NULL%1,      Feng%Guo%NULL%1,      Hui%Zhao%NULL%1,      Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%0,      Ci%Song%NULL%1,      Chuanjun%Xu%NULL%1,      Guangfu%Jin%NULL%1,      Yaling%Chen%NULL%1,      Xin%Xu%NULL%1,      Hongxia%Ma%NULL%1,      Wei%Chen%NULL%3,      Yuan%Lin%NULL%1,      Yishan%Zheng%NULL%1,      Jianming%Wang%NULL%1,      Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,      Yongxiang%Yi%ian0126@126.com%1,      Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%12,      Di%Wu%NULL%4,      Huilong%Chen%NULL%4,      Weiming%Yan%NULL%4,      Danlei%Yang%NULL%4,      Guang%Chen%NULL%4,      Ke%Ma%NULL%4,      Dong%Xu%NULL%4,      Haijing%Yu%NULL%4,      Hongwu%Wang%NULL%4,      Tao%Wang%NULL%0,      Wei%Guo%NULL%4,      Jia%Chen%NULL%4,      Chen%Ding%NULL%4,      Xiaoping%Zhang%NULL%4,      Jiaquan%Huang%NULL%4,      Meifang%Han%NULL%4,      Shusheng%Li%NULL%5,      Xiaoping%Luo%NULL%4,      Jianping%Zhao%NULL%0,      Qin%Ning%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,      Yuan-Yuan%Fang%NULL%5,      Yan%Deng%NULL%5,      Wei%Liu%NULL%6,      Mei-Fang%Wang%NULL%4,      Jing-Ping%Ma%NULL%4,      Wei%Xiao%NULL%4,      Ying-Nan%Wang%NULL%4,      Min-Hua%Zhong%NULL%4,      Cheng-Hong%Li%NULL%4,      Guang-Cai%Li%NULL%4,      Hui-Guo%Liu%NULL%6,      Xiu-Yuan%Hao%NULL%8,      Pei-Fang%Wei%NULL%13]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%4,      Tianhe%Ye%NULL%3,      Peng%Sun%NULL%3,      Shan%Gui%NULL%3,      Bo%Liang%NULL%3,      Lingli%Li%NULL%3,      Dandan%Zheng%NULL%3,      Jiazheng%Wang%NULL%3,      Richard L.%Hesketh%NULL%3,      Lian%Yang%yanglian@hust.edu.cn%3,      Chuansheng%Zheng%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%15,      Yuan%Yu%NULL%5,      Jiqian%Xu%NULL%5,      Huaqing%Shu%NULL%4,      Jia'an%Xia%NULL%7,      Hong%Liu%NULL%6,      Yongran%Wu%NULL%6,      Lu%Zhang%NULL%4,      Zhui%Yu%NULL%5,      Minghao%Fang%NULL%7,      Ting%Yu%NULL%0,      Yaxin%Wang%NULL%5,      Shangwen%Pan%NULL%4,      Xiaojing%Zou%NULL%5,      Shiying%Yuan%NULL%6,      You%Shang%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%3,      Nan%Yang%NULL%2,      Yanqiu%Wei%NULL%2,      Huihui%Yue%NULL%2,      Fengqin%Zhang%NULL%2,      Jianping%Zhao%NULL%0,      Li%He%NULL%2,      Gaohong%Sheng%NULL%2,      Peng%Chen%NULL%2,      Gang%Li%NULL%0,      Sisi%Wu%NULL%2,      Bo%Zhang%NULL%2,      Shu%Zhang%szhang@tjh.tjmu.edu.cn%2,      Congyi%Wang%wangcy@tjh.tjmu.edu.cn%2,      Xiaoping%Miao%miaoxp@hust.edu.cn%2,      Juan%Li%lijuan@tjh.tjmu.edu.cn%2,      Wenhua%Liu%liuwh_2013@126.com%2,      Huilan%Zhang%huilanz_76@163.com%2]</t>
+  </si>
+  <si>
+    <t>[ J.%Liu%null%1,       L.% Ouyang%null%1,       P.% Guo%null%1,       H. s.% Wu%null%1,       P.% Fu%null%1,       Y. l.% Chen%null%1,       D.% Yang%null%2,       X. y.% Han%null%1,       Y. k.% Cao%null%1,       O.% Alwalid%null%1,       J.% Tao%null%1,       S. y.% Peng%null%1,       H. s.% Shi%null%1,       F.% Yang%null%1,       C. s. % Zheng%null%1]</t>
+  </si>
+  <si>
+    <t>[ R.%Liu%null%1,       X.% Ming%null%1,       O.% Xu%null%1,       J.% Zhou%null%1,       H.% Peng%null%1,       N.% Xiang%null%1,       J.% Zhang%null%1,       H. % Zhu%null%1]</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%2,      Shauna%Clark%NULL%2,      Sargis%Pogosjans%NULL%2,      Meagan%Kay%NULL%2,      James%Lewis%NULL%3,      Atar%Baer%NULL%2,      Vance%Kawakami%NULL%2,      Margaret D.%Lukoff%NULL%2,      Jessica%Ferro%NULL%2,      Claire%Brostrom-Smith%NULL%2,      Francis X.%Riedo%NULL%2,      Denny%Russell%NULL%2,      Brian%Hiatt%NULL%2,      Patricia%Montgomery%NULL%2,      Agam K.%Rao%NULL%2,      Dustin W.%Currie%NULL%2,      Eric J.%Chow%NULL%2,      Farrell%Tobolowsky%NULL%2,      Ana C.%Bardossy%NULL%2,      Lisa P.%Oakley%NULL%2,      Jesica R.%Jacobs%NULL%2,      Noah G.%Schwartz%NULL%2,      Nimalie%Stone%NULL%1,      Sujan C.%Reddy%NULL%4,      John A.%Jernigan%NULL%3,      Margaret A.%Honein%NULL%2,      Thomas A.%Clark%NULL%2,      Jeffrey S.%Duchin%NULL%2,      NULL%NULL%NULL%31,      NULL%NULL%NULL%0,      Meaghan S.%Fagalde%NULL%1,      Jennifer L.%Lenahan%NULL%1,      Emily B.%Maier%NULL%1,      Kaitlyn J.%Sykes%NULL%1,      Grace%Hatt%NULL%1,      Holly%Whitney%NULL%1,      Melinda%Huntington-Frazier%NULL%1,      Elysia%Gonzales%NULL%1,      Laura A.%Mummert%NULL%1,      Hal Garcia%Smith%NULL%1,      Steve%Stearns%NULL%1,      Eileen%Benoliel%NULL%1,      Shelly%McKeirnan%NULL%1,      Jennifer L.%Morgan%NULL%1,      Daniel%Smith%NULL%1,      Michaela%Hope%NULL%1,      Noel%Hatley%NULL%1,      Leslie M.%Barnard%NULL%1,      Leilani%Schwarcz%NULL%1,      Nicole%Yarid%NULL%1,      Eric%Yim%NULL%1,      Sandra%Kreider%NULL%1,      Dawn%Barr%NULL%1,      Nancy%Wilde%NULL%1,      Courtney%Dorman%NULL%1,      Airin%Lam%NULL%1,      Jeanette%Harris%NULL%1,      Hollianne%Bruce%NULL%2,      Christopher%Spitters%NULL%2,      Snohomish Health%District%NULL%1,      Rachael%Zacks%NULL%1,      Jonathan%Dyal%NULL%1,      Michael%Hughes%NULL%1,      Christina%Carlson%NULL%1,      Barbara%Cooper%NULL%1,      Michelle%Banks%NULL%1,      Heather%McLaughlin%NULL%1,      Arun%Balajee%NULL%1,      Christine%Olson%NULL%1,      Suzanne%Zane%NULL%1,      Hammad%Ali%NULL%1,      Jessica%Healy%NULL%1,      Kristine%Schmit%NULL%1,      Kevin%Spicer%NULL%1,      Zeshan%Chisty%NULL%1,      Sukarma%Tanwar%NULL%1,      Joanne%Taylor%NULL%1,      Leisha%Nolen%NULL%1,      Jeneita%Bell%NULL%1,      Kelly%Hatfield%NULL%1,      Melissa%Arons%NULL%1,      Anne%Kimball%NULL%1,      Allison%James%NULL%1,      Mark%Methner%NULL%1,      Joshua%Harney%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1533,7 +1806,7 @@
         <v>43928</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>238</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
@@ -1542,10 +1815,10 @@
         <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>239</v>
       </c>
       <c r="H2" t="s">
         <v>35</v>
@@ -1568,7 +1841,7 @@
         <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>298</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -1597,7 +1870,7 @@
         <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>220</v>
+        <v>299</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1620,19 +1893,19 @@
         <v>44013</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>243</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>300</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>239</v>
       </c>
       <c r="H5" t="s">
         <v>35</v>
@@ -1649,19 +1922,19 @@
         <v>43907</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>245</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>246</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>301</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>239</v>
       </c>
       <c r="H6" t="s">
         <v>35</v>
@@ -1684,7 +1957,7 @@
         <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>222</v>
+        <v>302</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1713,7 +1986,7 @@
         <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -1742,7 +2015,7 @@
         <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>224</v>
+        <v>304</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1800,7 +2073,7 @@
         <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>225</v>
+        <v>305</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -1829,7 +2102,7 @@
         <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>226</v>
+        <v>306</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
@@ -1858,7 +2131,7 @@
         <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>227</v>
+        <v>307</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
@@ -1887,7 +2160,7 @@
         <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>229</v>
+        <v>308</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -1916,7 +2189,7 @@
         <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>230</v>
+        <v>309</v>
       </c>
       <c r="F15" t="s">
         <v>81</v>
@@ -1945,7 +2218,7 @@
         <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>231</v>
+        <v>310</v>
       </c>
       <c r="F16" t="s">
         <v>85</v>
@@ -2003,7 +2276,7 @@
         <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>232</v>
+        <v>311</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
@@ -2032,7 +2305,7 @@
         <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>233</v>
+        <v>312</v>
       </c>
       <c r="F19" t="s">
         <v>93</v>
@@ -2061,7 +2334,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>234</v>
+        <v>313</v>
       </c>
       <c r="F20" t="s">
         <v>32</v>
@@ -2090,7 +2363,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>236</v>
+        <v>314</v>
       </c>
       <c r="F21" t="s">
         <v>32</v>
@@ -2148,7 +2421,7 @@
         <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>237</v>
+        <v>315</v>
       </c>
       <c r="F23" t="s">
         <v>98</v>

--- a/Covid_19_Dataset_and_References/References/5.xlsx
+++ b/Covid_19_Dataset_and_References/References/5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2929" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3251" uniqueCount="362">
   <si>
     <t>Doi</t>
   </si>
@@ -1478,6 +1478,159 @@
   </si>
   <si>
     <t>[Temet M.%McMichael%NULL%2,      Shauna%Clark%NULL%2,      Sargis%Pogosjans%NULL%2,      Meagan%Kay%NULL%2,      James%Lewis%NULL%3,      Atar%Baer%NULL%2,      Vance%Kawakami%NULL%2,      Margaret D.%Lukoff%NULL%2,      Jessica%Ferro%NULL%2,      Claire%Brostrom-Smith%NULL%2,      Francis X.%Riedo%NULL%2,      Denny%Russell%NULL%2,      Brian%Hiatt%NULL%2,      Patricia%Montgomery%NULL%2,      Agam K.%Rao%NULL%2,      Dustin W.%Currie%NULL%2,      Eric J.%Chow%NULL%2,      Farrell%Tobolowsky%NULL%2,      Ana C.%Bardossy%NULL%2,      Lisa P.%Oakley%NULL%2,      Jesica R.%Jacobs%NULL%2,      Noah G.%Schwartz%NULL%2,      Nimalie%Stone%NULL%1,      Sujan C.%Reddy%NULL%4,      John A.%Jernigan%NULL%3,      Margaret A.%Honein%NULL%2,      Thomas A.%Clark%NULL%2,      Jeffrey S.%Duchin%NULL%2,      NULL%NULL%NULL%31,      NULL%NULL%NULL%0,      Meaghan S.%Fagalde%NULL%1,      Jennifer L.%Lenahan%NULL%1,      Emily B.%Maier%NULL%1,      Kaitlyn J.%Sykes%NULL%1,      Grace%Hatt%NULL%1,      Holly%Whitney%NULL%1,      Melinda%Huntington-Frazier%NULL%1,      Elysia%Gonzales%NULL%1,      Laura A.%Mummert%NULL%1,      Hal Garcia%Smith%NULL%1,      Steve%Stearns%NULL%1,      Eileen%Benoliel%NULL%1,      Shelly%McKeirnan%NULL%1,      Jennifer L.%Morgan%NULL%1,      Daniel%Smith%NULL%1,      Michaela%Hope%NULL%1,      Noel%Hatley%NULL%1,      Leslie M.%Barnard%NULL%1,      Leilani%Schwarcz%NULL%1,      Nicole%Yarid%NULL%1,      Eric%Yim%NULL%1,      Sandra%Kreider%NULL%1,      Dawn%Barr%NULL%1,      Nancy%Wilde%NULL%1,      Courtney%Dorman%NULL%1,      Airin%Lam%NULL%1,      Jeanette%Harris%NULL%1,      Hollianne%Bruce%NULL%2,      Christopher%Spitters%NULL%2,      Snohomish Health%District%NULL%1,      Rachael%Zacks%NULL%1,      Jonathan%Dyal%NULL%1,      Michael%Hughes%NULL%1,      Christina%Carlson%NULL%1,      Barbara%Cooper%NULL%1,      Michelle%Banks%NULL%1,      Heather%McLaughlin%NULL%1,      Arun%Balajee%NULL%1,      Christine%Olson%NULL%1,      Suzanne%Zane%NULL%1,      Hammad%Ali%NULL%1,      Jessica%Healy%NULL%1,      Kristine%Schmit%NULL%1,      Kevin%Spicer%NULL%1,      Zeshan%Chisty%NULL%1,      Sukarma%Tanwar%NULL%1,      Joanne%Taylor%NULL%1,      Leisha%Nolen%NULL%1,      Jeneita%Bell%NULL%1,      Kelly%Hatfield%NULL%1,      Melissa%Arons%NULL%1,      Anne%Kimball%NULL%1,      Allison%James%NULL%1,      Mark%Methner%NULL%1,      Joshua%Harney%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%14,       Zheng-yi%Ni%NULL%5,       Yu%Hu%NULL%4,       Wen-hua%Liang%NULL%4,       Chun-quan%Ou%NULL%4,       Jian-xing%He%NULL%4,       Lei%Liu%NULL%0,       Hong%Shan%NULL%6,       Chun-liang%Lei%NULL%4,       David S.C.%Hui%NULL%3,       Bin%Du%NULL%3,       Lan-juan%Li%NULL%3,       Guang%Zeng%NULL%3,       Kwok-Yung%Yuen%NULL%6,       Ru-chong%Chen%NULL%4,       Chun-li%Tang%NULL%4,       Tao%Wang%NULL%7,       Ping-yan%Chen%NULL%4,       Jie%Xiang%NULL%6,       Shi-yue%Li%NULL%4,       Jin-lin%Wang%NULL%3,       Zi-jing%Liang%NULL%3,       Yi-xiang%Peng%NULL%4,       Li%Wei%NULL%4,       Yong%Liu%NULL%4,       Ya-hua%Hu%NULL%4,       Peng%Peng%NULL%7,       Jian-ming%Wang%NULL%4,       Ji-yang%Liu%NULL%4,       Zhong%Chen%NULL%4,       Gang%Li%NULL%6,       Zhi-jian%Zheng%NULL%4,       Shao-qin%Qiu%NULL%4,       Jie%Luo%NULL%4,       Chang-jiang%Ye%NULL%4,       Shao-yong%Zhu%NULL%4,       Nan-shan%Zhong%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,       Dengju%Li%NULL%2,       Xiong%Wang%NULL%2,       Ziyong%Sun%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,     Cao%Yi-yuan%coreGivesNoEmail%0,     Dong%Xiang%coreGivesNoEmail%0,     Gao%Ya-dong%coreGivesNoEmail%0,     Yan%You-qin%coreGivesNoEmail%0,     Yang%Yi-bin%coreGivesNoEmail%0,     Yuan%Ya-dong%coreGivesNoEmail%0,     Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,     Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,     Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,     Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%3,       Juanjuan%Guo%NULL%3,       Chen%Wang%NULL%3,       Fan%Luo%NULL%2,       Xuechen%Yu%NULL%3,       Wei%Zhang%NULL%6,       Jiafu%Li%NULL%3,       Dongchi%Zhao%NULL%2,       Dan%Xu%NULL%3,       Qing%Gong%NULL%2,       Jing%Liao%NULL%2,       Huixia%Yang%yanghuixia@bjmu.edu.cn%3,       Wei%Hou%houwei@whu.edu.cn%2,       Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,       Yeming%Wang%NULL%6,       Xingwang%Li%NULL%7,       Lili%Ren%NULL%4,       Jianping%Zhao%NULL%9,       Yi%Hu%NULL%7,       Li%Zhang%NULL%7,       Guohui%Fan%NULL%6,       Jiuyang%Xu%NULL%6,       Xiaoying%Gu%NULL%6,       Zhenshun%Cheng%NULL%4,       Ting%Yu%NULL%13,       Jiaan%Xia%NULL%4,       Yuan%Wei%NULL%10,       Wenjuan%Wu%NULL%4,       Xuelei%Xie%NULL%4,       Wen%Yin%NULL%6,       Hui%Li%NULL%7,       Min%Liu%NULL%4,       Yan%Xiao%NULL%5,       Hong%Gao%NULL%6,       Li%Guo%NULL%5,       Jungang%Xie%NULL%5,       Guangfa%Wang%NULL%4,       Rongmeng%Jiang%NULL%4,       Zhancheng%Gao%NULL%5,       Qi%Jin%NULL%5,       Jianwei%Wang%wangjw28@163.com%0,       Bin%Cao%caobin_ben@163.com%7]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,       Xiao-Xin%Wu%NULL%4,       Xian-Gao%Jiang%NULL%4,       Kai-Jin%Xu%NULL%4,       Ling-Jun%Ying%NULL%4,       Chun-Lian%Ma%NULL%4,       Shi-Bo%Li%NULL%4,       Hua-Ying%Wang%NULL%4,       Sheng%Zhang%NULL%4,       Hai-Nv%Gao%NULL%4,       Ji-Fang%Sheng%NULL%4,       Hong-Liu%Cai%NULL%4,       Yun-Qing%Qiu%NULL%4,       Lan-Juan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>"Risk Factors Associated With Acute Respiratory Distress Syndrome and Death in Patients With Coronavirus Disease 2019 Pneumonia in Wuhan, China"</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%9, Xiaoyan%Chen%xref no email%9, Yanping%Cai%xref no email%9, Jia\u2019an%Xia%xref no email%9, Xing%Zhou%xref no email%9, Sha%Xu%xref no email%9, Hanping%Huang%xref no email%9, Li%Zhang%xref no email%10, Xia%Zhou%xref no email%9, Chunling%Du%xref no email%9, Yuye%Zhang%xref no email%9, Juan%Song%xref no email%10, Sijiao%Wang%xref no email%9, Yencheng%Chao%xref no email%9, Zeyong%Yang%xref no email%9, Jie%Xu%xref no email%9, Xin%Zhou%xref no email%9, Dechang%Chen%xref no email%9, Weining%Xiong%xref no email%9, Lei%Xu%xref no email%9, Feng%Zhou%xref no email%9, Jinjun%Jiang%xref no email%9, Chunxue%Bai%xref no email%9, Junhua%Zheng%xref no email%9, Yuanlin%Song%xref no email%10]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,       Kai%Xie%NULL%3,       Hui%Lu%NULL%2,       Lei%Xu%bayinhexl@126.com%2,       Shusheng%Zhou%zhouss108@163.com%2,       Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%0,       Feifei%Yao%NULL%1,       Lijie%Wang%NULL%1,       Ling%Zheng%NULL%1,       Yongjun%Gao%NULL%1,       Jun%Ye%NULL%1,       Feng%Guo%NULL%1,       Hui%Zhao%NULL%1,       Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%0,       Ci%Song%NULL%1,       Chuanjun%Xu%NULL%1,       Guangfu%Jin%NULL%1,       Yaling%Chen%NULL%1,       Xin%Xu%NULL%1,       Hongxia%Ma%NULL%1,       Wei%Chen%NULL%3,       Yuan%Lin%NULL%1,       Yishan%Zheng%NULL%1,       Jianming%Wang%NULL%1,       Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,       Yongxiang%Yi%ian0126@126.com%1,       Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%15,       Di%Wu%NULL%2,       Huilong%Chen%NULL%2,       Weiming%Yan%NULL%2,       Danlei%Yang%NULL%2,       Guang%Chen%NULL%2,       Ke%Ma%NULL%2,       Dong%Xu%NULL%2,       Haijing%Yu%NULL%2,       Hongwu%Wang%NULL%2,       Tao%Wang%NULL%0,       Wei%Guo%NULL%2,       Jia%Chen%NULL%2,       Chen%Ding%NULL%2,       Xiaoping%Zhang%NULL%2,       Jiaquan%Huang%NULL%2,       Meifang%Han%NULL%2,       Shusheng%Li%NULL%3,       Xiaoping%Luo%NULL%2,       Jianping%Zhao%NULL%0,       Qin%Ning%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,       Yuan-Yuan%Fang%NULL%4,       Yan%Deng%NULL%3,       Wei%Liu%NULL%5,       Mei-Fang%Wang%NULL%3,       Jing-Ping%Ma%NULL%3,       Wei%Xiao%NULL%3,       Ying-Nan%Wang%NULL%3,       Min-Hua%Zhong%NULL%3,       Cheng-Hong%Li%NULL%3,       Guang-Cai%Li%NULL%3,       Hui-Guo%Liu%NULL%4,       Xiu-Yuan%Hao%NULL%6,       Pei-Fang%Wei%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%4,       Tianhe%Ye%NULL%3,       Peng%Sun%NULL%3,       Shan%Gui%NULL%3,       Bo%Liang%NULL%3,       Lingli%Li%NULL%3,       Dandan%Zheng%NULL%3,       Jiazheng%Wang%NULL%3,       Richard L.%Hesketh%NULL%3,       Lian%Yang%yanglian@hust.edu.cn%3,       Chuansheng%Zheng%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%15,       Yuan%Yu%NULL%2,       Jiqian%Xu%NULL%1,       Huaqing%Shu%NULL%1,       Jia'an%Xia%NULL%4,       Hong%Liu%NULL%3,       Yongran%Wu%NULL%2,       Lu%Zhang%NULL%1,       Zhui%Yu%NULL%1,       Minghao%Fang%NULL%1,       Ting%Yu%NULL%0,       Yaxin%Wang%NULL%2,       Shangwen%Pan%NULL%1,       Xiaojing%Zou%NULL%2,       Shiying%Yuan%NULL%2,       You%Shang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%3,       Nan%Yang%NULL%2,       Yanqiu%Wei%NULL%2,       Huihui%Yue%NULL%2,       Fengqin%Zhang%NULL%2,       Jianping%Zhao%NULL%0,       Li%He%NULL%2,       Gaohong%Sheng%NULL%2,       Peng%Chen%NULL%2,       Gang%Li%NULL%0,       Sisi%Wu%NULL%2,       Bo%Zhang%NULL%2,       Shu%Zhang%szhang@tjh.tjmu.edu.cn%2,       Congyi%Wang%wangcy@tjh.tjmu.edu.cn%2,       Xiaoping%Miao%miaoxp@hust.edu.cn%2,       Juan%Li%lijuan@tjh.tjmu.edu.cn%2,       Wenhua%Liu%liuwh_2013@126.com%2,       Huilan%Zhang%huilanz_76@163.com%2]</t>
+  </si>
+  <si>
+    <t>[ J.%Liu%null%1,        L.% Ouyang%null%1,        P.% Guo%null%1,        H. s.% Wu%null%1,        P.% Fu%null%1,        Y. l.% Chen%null%1,        D.% Yang%null%1,        X. y.% Han%null%1,        Y. k.% Cao%null%1,        O.% Alwalid%null%1,        J.% Tao%null%1,        S. y.% Peng%null%1,        H. s.% Shi%null%1,        F.% Yang%null%1,        C. s. % Zheng%null%1]</t>
+  </si>
+  <si>
+    <t>[ R.%Liu%null%1,        X.% Ming%null%1,        O.% Xu%null%1,        J.% Zhou%null%1,        H.% Peng%null%1,        N.% Xiang%null%1,        J.% Zhang%null%1,        H. % Zhu%null%1]</t>
+  </si>
+  <si>
+    <t>"Clinical characteristics of survivors and non-survivors, medical and non-medical staff members with 2019-nCoV pneumonia in Wuhan, China: a descriptive study"</t>
+  </si>
+  <si>
+    <t>"Abstract\n        Objectives: In December 2019\uff0cthe 2019 novel coronavirus ( 2019-nCoV ) emerged in Wuhan, China, leading to a cluster of severe pneumonia cases.
+ Medical staff members on the front line were also infected.
+ We compared the epidemiology, clinical characteristics, and treatment measures of survivors and non-survivors and the different clinical outcomes of medical staff members and non-medical members of the community infected with 2019-nCoV.
+ Methods: We included 81 patients with adult 2019-nCoV in Hankou Hospital from mid-January to mid-February 2020 in this single-center retrospective study.
+ Data were compared between survivors and non-survivors and between medical staff members and non-medical individuals.
+ Results: All 38 medical staff members were infected by patients while working.
+ Only 2 (2.5%) non-medical individuals had a clear history of exposure to 2019-nCoV patients.
+ The median age was 49 years (interquartile range [IQR], 35-59; range, 23-89 years), and 42 (51.9%) were women.
+ We found that the median age,comorbidity, and some laboratory outcomes(lymphocyte count, urea nitrogen, aspartate aminotransferase, lactate dehydrogenase, etc.
+)differed significantly between survivors and non-survivors.
+ There were also significant differences in the time from onset to admission, disease classification, comorbidity, and prognosis between medical staff members and non-medical individuals.
+ All medical staff members were cured, while 13 (30.2%) non-medical individuals died.
+ Conclusions: Older males with comorbidities are more likely to be affected by 2019-nCoV.
+ Significant changes in some laboratory markers may indicate a poor prognosis.
+ Medical staff members may have had better prognoses due to fewer comorbidities and better medical compliance.
+ Key words: 2019-nCoV; Clinical characteristics; Mortality; comorbidity; Survivors; Non-survivors; Medical Staff</t>
+  </si>
+  <si>
+    <t>[Jiaxun%Hu%xref no email%1, You%Lv%xref no email%1, Ying%Xu%xref no email%1, Yushan%Miao%xref no email%1, Wei%Wang%xref no email%5, Wenqing%Le%xref no email%1, Hao%Tang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%2,       Shauna%Clark%NULL%2,       Sargis%Pogosjans%NULL%2,       Meagan%Kay%NULL%2,       James%Lewis%NULL%3,       Atar%Baer%NULL%2,       Vance%Kawakami%NULL%2,       Margaret D.%Lukoff%NULL%2,       Jessica%Ferro%NULL%2,       Claire%Brostrom-Smith%NULL%2,       Francis X.%Riedo%NULL%2,       Denny%Russell%NULL%2,       Brian%Hiatt%NULL%2,       Patricia%Montgomery%NULL%2,       Agam K.%Rao%NULL%2,       Dustin W.%Currie%NULL%2,       Eric J.%Chow%NULL%2,       Farrell%Tobolowsky%NULL%2,       Ana C.%Bardossy%NULL%2,       Lisa P.%Oakley%NULL%2,       Jesica R.%Jacobs%NULL%2,       Noah G.%Schwartz%NULL%2,       Nimalie%Stone%NULL%1,       Sujan C.%Reddy%NULL%4,       John A.%Jernigan%NULL%3,       Margaret A.%Honein%NULL%2,       Thomas A.%Clark%NULL%2,       Jeffrey S.%Duchin%NULL%2,       NULL%NULL%NULL%22,       NULL%NULL%NULL%0,       Meaghan S.%Fagalde%NULL%1,       Jennifer L.%Lenahan%NULL%1,       Emily B.%Maier%NULL%1,       Kaitlyn J.%Sykes%NULL%1,       Grace%Hatt%NULL%1,       Holly%Whitney%NULL%1,       Melinda%Huntington-Frazier%NULL%1,       Elysia%Gonzales%NULL%1,       Laura A.%Mummert%NULL%1,       Hal Garcia%Smith%NULL%1,       Steve%Stearns%NULL%1,       Eileen%Benoliel%NULL%1,       Shelly%McKeirnan%NULL%1,       Jennifer L.%Morgan%NULL%1,       Daniel%Smith%NULL%1,       Michaela%Hope%NULL%1,       Noel%Hatley%NULL%1,       Leslie M.%Barnard%NULL%1,       Leilani%Schwarcz%NULL%1,       Nicole%Yarid%NULL%1,       Eric%Yim%NULL%1,       Sandra%Kreider%NULL%1,       Dawn%Barr%NULL%1,       Nancy%Wilde%NULL%1,       Courtney%Dorman%NULL%1,       Airin%Lam%NULL%1,       Jeanette%Harris%NULL%1,       Hollianne%Bruce%NULL%2,       Christopher%Spitters%NULL%2,       Snohomish Health%District%NULL%1,       Rachael%Zacks%NULL%1,       Jonathan%Dyal%NULL%1,       Michael%Hughes%NULL%1,       Christina%Carlson%NULL%1,       Barbara%Cooper%NULL%1,       Michelle%Banks%NULL%1,       Heather%McLaughlin%NULL%1,       Arun%Balajee%NULL%1,       Christine%Olson%NULL%1,       Suzanne%Zane%NULL%1,       Hammad%Ali%NULL%1,       Jessica%Healy%NULL%1,       Kristine%Schmit%NULL%1,       Kevin%Spicer%NULL%1,       Zeshan%Chisty%NULL%1,       Sukarma%Tanwar%NULL%1,       Joanne%Taylor%NULL%1,       Leisha%Nolen%NULL%1,       Jeneita%Bell%NULL%1,       Kelly%Hatfield%NULL%1,       Melissa%Arons%NULL%1,       Anne%Kimball%NULL%1,       Allison%James%NULL%1,       Mark%Methner%NULL%1,       Joshua%Harney%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%14,        Zheng-yi%Ni%NULL%5,        Yu%Hu%NULL%4,        Wen-hua%Liang%NULL%4,        Chun-quan%Ou%NULL%4,        Jian-xing%He%NULL%4,        Lei%Liu%NULL%0,        Hong%Shan%NULL%6,        Chun-liang%Lei%NULL%4,        David S.C.%Hui%NULL%3,        Bin%Du%NULL%3,        Lan-juan%Li%NULL%3,        Guang%Zeng%NULL%3,        Kwok-Yung%Yuen%NULL%6,        Ru-chong%Chen%NULL%4,        Chun-li%Tang%NULL%4,        Tao%Wang%NULL%7,        Ping-yan%Chen%NULL%4,        Jie%Xiang%NULL%6,        Shi-yue%Li%NULL%4,        Jin-lin%Wang%NULL%3,        Zi-jing%Liang%NULL%3,        Yi-xiang%Peng%NULL%4,        Li%Wei%NULL%4,        Yong%Liu%NULL%4,        Ya-hua%Hu%NULL%4,        Peng%Peng%NULL%7,        Jian-ming%Wang%NULL%4,        Ji-yang%Liu%NULL%4,        Zhong%Chen%NULL%4,        Gang%Li%NULL%6,        Zhi-jian%Zheng%NULL%4,        Shao-qin%Qiu%NULL%4,        Jie%Luo%NULL%4,        Chang-jiang%Ye%NULL%4,        Shao-yong%Zhu%NULL%4,        Nan-shan%Zhong%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,        Dengju%Li%NULL%2,        Xiong%Wang%NULL%2,        Ziyong%Sun%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,      Cao%Yi-yuan%coreGivesNoEmail%0,      Dong%Xiang%coreGivesNoEmail%0,      Gao%Ya-dong%coreGivesNoEmail%0,      Yan%You-qin%coreGivesNoEmail%0,      Yang%Yi-bin%coreGivesNoEmail%0,      Yuan%Ya-dong%coreGivesNoEmail%0,      Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,      Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,      Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,      Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%3,        Juanjuan%Guo%NULL%3,        Chen%Wang%NULL%3,        Fan%Luo%NULL%2,        Xuechen%Yu%NULL%3,        Wei%Zhang%NULL%6,        Jiafu%Li%NULL%3,        Dongchi%Zhao%NULL%2,        Dan%Xu%NULL%3,        Qing%Gong%NULL%2,        Jing%Liao%NULL%2,        Huixia%Yang%yanghuixia@bjmu.edu.cn%3,        Wei%Hou%houwei@whu.edu.cn%2,        Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,        Yeming%Wang%NULL%6,        Xingwang%Li%NULL%7,        Lili%Ren%NULL%4,        Jianping%Zhao%NULL%9,        Yi%Hu%NULL%7,        Li%Zhang%NULL%7,        Guohui%Fan%NULL%6,        Jiuyang%Xu%NULL%6,        Xiaoying%Gu%NULL%6,        Zhenshun%Cheng%NULL%4,        Ting%Yu%NULL%13,        Jiaan%Xia%NULL%4,        Yuan%Wei%NULL%10,        Wenjuan%Wu%NULL%4,        Xuelei%Xie%NULL%4,        Wen%Yin%NULL%6,        Hui%Li%NULL%7,        Min%Liu%NULL%4,        Yan%Xiao%NULL%5,        Hong%Gao%NULL%6,        Li%Guo%NULL%5,        Jungang%Xie%NULL%5,        Guangfa%Wang%NULL%4,        Rongmeng%Jiang%NULL%4,        Zhancheng%Gao%NULL%5,        Qi%Jin%NULL%5,        Jianwei%Wang%wangjw28@163.com%0,        Bin%Cao%caobin_ben@163.com%7]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,        Xiao-Xin%Wu%NULL%4,        Xian-Gao%Jiang%NULL%4,        Kai-Jin%Xu%NULL%4,        Ling-Jun%Ying%NULL%4,        Chun-Lian%Ma%NULL%4,        Shi-Bo%Li%NULL%4,        Hua-Ying%Wang%NULL%4,        Sheng%Zhang%NULL%4,        Hai-Nv%Gao%NULL%4,        Ji-Fang%Sheng%NULL%4,        Hong-Liu%Cai%NULL%4,        Yun-Qing%Qiu%NULL%4,        Lan-Juan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%8,  Xiaoyan%Chen%xref no email%8,  Yanping%Cai%xref no email%8,  Jia\u2019an%Xia%xref no email%8,  Xing%Zhou%xref no email%8,  Sha%Xu%xref no email%8,  Hanping%Huang%xref no email%8,  Li%Zhang%xref no email%8,  Xia%Zhou%xref no email%8,  Chunling%Du%xref no email%8,  Yuye%Zhang%xref no email%8,  Juan%Song%xref no email%9,  Sijiao%Wang%xref no email%8,  Yencheng%Chao%xref no email%8,  Zeyong%Yang%xref no email%8,  Jie%Xu%xref no email%8,  Xin%Zhou%xref no email%8,  Dechang%Chen%xref no email%8,  Weining%Xiong%xref no email%8,  Lei%Xu%xref no email%8,  Feng%Zhou%xref no email%8,  Jinjun%Jiang%xref no email%8,  Chunxue%Bai%xref no email%8,  Junhua%Zheng%xref no email%8,  Yuanlin%Song%xref no email%9]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,        Kai%Xie%NULL%3,        Hui%Lu%NULL%2,        Lei%Xu%bayinhexl@126.com%2,        Shusheng%Zhou%zhouss108@163.com%2,        Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%0,        Feifei%Yao%NULL%1,        Lijie%Wang%NULL%1,        Ling%Zheng%NULL%1,        Yongjun%Gao%NULL%1,        Jun%Ye%NULL%1,        Feng%Guo%NULL%1,        Hui%Zhao%NULL%1,        Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%0,        Ci%Song%NULL%1,        Chuanjun%Xu%NULL%1,        Guangfu%Jin%NULL%1,        Yaling%Chen%NULL%1,        Xin%Xu%NULL%1,        Hongxia%Ma%NULL%1,        Wei%Chen%NULL%3,        Yuan%Lin%NULL%1,        Yishan%Zheng%NULL%1,        Jianming%Wang%NULL%1,        Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,        Yongxiang%Yi%ian0126@126.com%1,        Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%12,        Di%Wu%NULL%2,        Huilong%Chen%NULL%2,        Weiming%Yan%NULL%2,        Danlei%Yang%NULL%2,        Guang%Chen%NULL%2,        Ke%Ma%NULL%2,        Dong%Xu%NULL%2,        Haijing%Yu%NULL%2,        Hongwu%Wang%NULL%2,        Tao%Wang%NULL%0,        Wei%Guo%NULL%2,        Jia%Chen%NULL%2,        Chen%Ding%NULL%2,        Xiaoping%Zhang%NULL%2,        Jiaquan%Huang%NULL%2,        Meifang%Han%NULL%2,        Shusheng%Li%NULL%3,        Xiaoping%Luo%NULL%2,        Jianping%Zhao%NULL%0,        Qin%Ning%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,        Yuan-Yuan%Fang%NULL%4,        Yan%Deng%NULL%3,        Wei%Liu%NULL%5,        Mei-Fang%Wang%NULL%3,        Jing-Ping%Ma%NULL%3,        Wei%Xiao%NULL%3,        Ying-Nan%Wang%NULL%3,        Min-Hua%Zhong%NULL%3,        Cheng-Hong%Li%NULL%3,        Guang-Cai%Li%NULL%3,        Hui-Guo%Liu%NULL%4,        Xiu-Yuan%Hao%NULL%6,        Pei-Fang%Wei%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%4,        Tianhe%Ye%NULL%3,        Peng%Sun%NULL%3,        Shan%Gui%NULL%3,        Bo%Liang%NULL%3,        Lingli%Li%NULL%3,        Dandan%Zheng%NULL%3,        Jiazheng%Wang%NULL%3,        Richard L.%Hesketh%NULL%3,        Lian%Yang%yanglian@hust.edu.cn%3,        Chuansheng%Zheng%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%15,        Yuan%Yu%NULL%2,        Jiqian%Xu%NULL%1,        Huaqing%Shu%NULL%1,        Jia'an%Xia%NULL%4,        Hong%Liu%NULL%3,        Yongran%Wu%NULL%2,        Lu%Zhang%NULL%1,        Zhui%Yu%NULL%1,        Minghao%Fang%NULL%1,        Ting%Yu%NULL%0,        Yaxin%Wang%NULL%2,        Shangwen%Pan%NULL%1,        Xiaojing%Zou%NULL%2,        Shiying%Yuan%NULL%2,        You%Shang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%3,        Nan%Yang%NULL%2,        Yanqiu%Wei%NULL%2,        Huihui%Yue%NULL%2,        Fengqin%Zhang%NULL%2,        Jianping%Zhao%NULL%0,        Li%He%NULL%2,        Gaohong%Sheng%NULL%2,        Peng%Chen%NULL%2,        Gang%Li%NULL%0,        Sisi%Wu%NULL%2,        Bo%Zhang%NULL%2,        Shu%Zhang%szhang@tjh.tjmu.edu.cn%2,        Congyi%Wang%wangcy@tjh.tjmu.edu.cn%2,        Xiaoping%Miao%miaoxp@hust.edu.cn%2,        Juan%Li%lijuan@tjh.tjmu.edu.cn%2,        Wenhua%Liu%liuwh_2013@126.com%2,        Huilan%Zhang%huilanz_76@163.com%2]</t>
+  </si>
+  <si>
+    <t>[ J.%Liu%null%2,         L.% Ouyang%null%1,         P.% Guo%null%1,         H. s.% Wu%null%1,         P.% Fu%null%1,         Y. l.% Chen%null%1,         D.% Yang%null%1,         X. y.% Han%null%1,         Y. k.% Cao%null%1,         O.% Alwalid%null%1,         J.% Tao%null%1,         S. y.% Peng%null%1,         H. s.% Shi%null%1,         F.% Yang%null%1,         C. s. % Zheng%null%1]</t>
+  </si>
+  <si>
+    <t>[ R.%Liu%null%1,         X.% Ming%null%1,         O.% Xu%null%1,         J.% Zhou%null%1,         H.% Peng%null%1,         N.% Xiang%null%1,         J.% Zhang%null%1,         H. % Zhu%null%1]</t>
+  </si>
+  <si>
+    <t>[Jiaxun%Hu%xref no email%1,  You%Lv%xref no email%1,  Ying%Xu%xref no email%1,  Yushan%Miao%xref no email%1,  Wei%Wang%xref no email%5,  Wenqing%Le%xref no email%1,  Hao%Tang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%2,        Shauna%Clark%NULL%2,        Sargis%Pogosjans%NULL%2,        Meagan%Kay%NULL%2,        James%Lewis%NULL%3,        Atar%Baer%NULL%2,        Vance%Kawakami%NULL%2,        Margaret D.%Lukoff%NULL%2,        Jessica%Ferro%NULL%2,        Claire%Brostrom-Smith%NULL%2,        Francis X.%Riedo%NULL%2,        Denny%Russell%NULL%2,        Brian%Hiatt%NULL%2,        Patricia%Montgomery%NULL%2,        Agam K.%Rao%NULL%2,        Dustin W.%Currie%NULL%2,        Eric J.%Chow%NULL%2,        Farrell%Tobolowsky%NULL%2,        Ana C.%Bardossy%NULL%2,        Lisa P.%Oakley%NULL%2,        Jesica R.%Jacobs%NULL%2,        Noah G.%Schwartz%NULL%2,        Nimalie%Stone%NULL%1,        Sujan C.%Reddy%NULL%4,        John A.%Jernigan%NULL%3,        Margaret A.%Honein%NULL%2,        Thomas A.%Clark%NULL%2,        Jeffrey S.%Duchin%NULL%2,        NULL%NULL%NULL%22,        NULL%NULL%NULL%0,        Meaghan S.%Fagalde%NULL%1,        Jennifer L.%Lenahan%NULL%1,        Emily B.%Maier%NULL%1,        Kaitlyn J.%Sykes%NULL%1,        Grace%Hatt%NULL%1,        Holly%Whitney%NULL%1,        Melinda%Huntington-Frazier%NULL%1,        Elysia%Gonzales%NULL%1,        Laura A.%Mummert%NULL%1,        Hal Garcia%Smith%NULL%1,        Steve%Stearns%NULL%1,        Eileen%Benoliel%NULL%1,        Shelly%McKeirnan%NULL%1,        Jennifer L.%Morgan%NULL%1,        Daniel%Smith%NULL%1,        Michaela%Hope%NULL%1,        Noel%Hatley%NULL%1,        Leslie M.%Barnard%NULL%1,        Leilani%Schwarcz%NULL%1,        Nicole%Yarid%NULL%1,        Eric%Yim%NULL%1,        Sandra%Kreider%NULL%1,        Dawn%Barr%NULL%1,        Nancy%Wilde%NULL%1,        Courtney%Dorman%NULL%1,        Airin%Lam%NULL%1,        Jeanette%Harris%NULL%1,        Hollianne%Bruce%NULL%2,        Christopher%Spitters%NULL%2,        Snohomish Health%District%NULL%1,        Rachael%Zacks%NULL%1,        Jonathan%Dyal%NULL%1,        Michael%Hughes%NULL%1,        Christina%Carlson%NULL%1,        Barbara%Cooper%NULL%1,        Michelle%Banks%NULL%1,        Heather%McLaughlin%NULL%1,        Arun%Balajee%NULL%1,        Christine%Olson%NULL%1,        Suzanne%Zane%NULL%1,        Hammad%Ali%NULL%1,        Jessica%Healy%NULL%1,        Kristine%Schmit%NULL%1,        Kevin%Spicer%NULL%1,        Zeshan%Chisty%NULL%1,        Sukarma%Tanwar%NULL%1,        Joanne%Taylor%NULL%1,        Leisha%Nolen%NULL%1,        Jeneita%Bell%NULL%1,        Kelly%Hatfield%NULL%1,        Melissa%Arons%NULL%1,        Anne%Kimball%NULL%1,        Allison%James%NULL%1,        Mark%Methner%NULL%1,        Joshua%Harney%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1841,7 +1994,7 @@
         <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -1870,7 +2023,7 @@
         <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1899,7 +2052,7 @@
         <v>243</v>
       </c>
       <c r="E5" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1928,7 +2081,7 @@
         <v>246</v>
       </c>
       <c r="E6" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1957,7 +2110,7 @@
         <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1986,7 +2139,7 @@
         <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -2015,7 +2168,7 @@
         <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -2038,22 +2191,22 @@
         <v>44013</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>323</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>349</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>325</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>326</v>
       </c>
       <c r="I10" t="s">
         <v>96</v>
@@ -2073,7 +2226,7 @@
         <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -2102,7 +2255,7 @@
         <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
@@ -2131,7 +2284,7 @@
         <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
@@ -2160,7 +2313,7 @@
         <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -2189,7 +2342,7 @@
         <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>309</v>
+        <v>354</v>
       </c>
       <c r="F15" t="s">
         <v>81</v>
@@ -2218,7 +2371,7 @@
         <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="F16" t="s">
         <v>85</v>
@@ -2276,7 +2429,7 @@
         <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
@@ -2305,7 +2458,7 @@
         <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="F19" t="s">
         <v>93</v>
@@ -2334,7 +2487,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="F20" t="s">
         <v>32</v>
@@ -2363,7 +2516,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="F21" t="s">
         <v>32</v>
@@ -2386,22 +2539,22 @@
         <v>43928</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>337</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>338</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>360</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>325</v>
       </c>
       <c r="H22" t="s">
-        <v>35</v>
+        <v>340</v>
       </c>
       <c r="I22" t="s">
         <v>96</v>
@@ -2421,7 +2574,7 @@
         <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="F23" t="s">
         <v>98</v>

--- a/Covid_19_Dataset_and_References/References/5.xlsx
+++ b/Covid_19_Dataset_and_References/References/5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3251" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3573" uniqueCount="402">
   <si>
     <t>Doi</t>
   </si>
@@ -1631,6 +1631,126 @@
   </si>
   <si>
     <t>[Temet M.%McMichael%NULL%2,        Shauna%Clark%NULL%2,        Sargis%Pogosjans%NULL%2,        Meagan%Kay%NULL%2,        James%Lewis%NULL%3,        Atar%Baer%NULL%2,        Vance%Kawakami%NULL%2,        Margaret D.%Lukoff%NULL%2,        Jessica%Ferro%NULL%2,        Claire%Brostrom-Smith%NULL%2,        Francis X.%Riedo%NULL%2,        Denny%Russell%NULL%2,        Brian%Hiatt%NULL%2,        Patricia%Montgomery%NULL%2,        Agam K.%Rao%NULL%2,        Dustin W.%Currie%NULL%2,        Eric J.%Chow%NULL%2,        Farrell%Tobolowsky%NULL%2,        Ana C.%Bardossy%NULL%2,        Lisa P.%Oakley%NULL%2,        Jesica R.%Jacobs%NULL%2,        Noah G.%Schwartz%NULL%2,        Nimalie%Stone%NULL%1,        Sujan C.%Reddy%NULL%4,        John A.%Jernigan%NULL%3,        Margaret A.%Honein%NULL%2,        Thomas A.%Clark%NULL%2,        Jeffrey S.%Duchin%NULL%2,        NULL%NULL%NULL%22,        NULL%NULL%NULL%0,        Meaghan S.%Fagalde%NULL%1,        Jennifer L.%Lenahan%NULL%1,        Emily B.%Maier%NULL%1,        Kaitlyn J.%Sykes%NULL%1,        Grace%Hatt%NULL%1,        Holly%Whitney%NULL%1,        Melinda%Huntington-Frazier%NULL%1,        Elysia%Gonzales%NULL%1,        Laura A.%Mummert%NULL%1,        Hal Garcia%Smith%NULL%1,        Steve%Stearns%NULL%1,        Eileen%Benoliel%NULL%1,        Shelly%McKeirnan%NULL%1,        Jennifer L.%Morgan%NULL%1,        Daniel%Smith%NULL%1,        Michaela%Hope%NULL%1,        Noel%Hatley%NULL%1,        Leslie M.%Barnard%NULL%1,        Leilani%Schwarcz%NULL%1,        Nicole%Yarid%NULL%1,        Eric%Yim%NULL%1,        Sandra%Kreider%NULL%1,        Dawn%Barr%NULL%1,        Nancy%Wilde%NULL%1,        Courtney%Dorman%NULL%1,        Airin%Lam%NULL%1,        Jeanette%Harris%NULL%1,        Hollianne%Bruce%NULL%2,        Christopher%Spitters%NULL%2,        Snohomish Health%District%NULL%1,        Rachael%Zacks%NULL%1,        Jonathan%Dyal%NULL%1,        Michael%Hughes%NULL%1,        Christina%Carlson%NULL%1,        Barbara%Cooper%NULL%1,        Michelle%Banks%NULL%1,        Heather%McLaughlin%NULL%1,        Arun%Balajee%NULL%1,        Christine%Olson%NULL%1,        Suzanne%Zane%NULL%1,        Hammad%Ali%NULL%1,        Jessica%Healy%NULL%1,        Kristine%Schmit%NULL%1,        Kevin%Spicer%NULL%1,        Zeshan%Chisty%NULL%1,        Sukarma%Tanwar%NULL%1,        Joanne%Taylor%NULL%1,        Leisha%Nolen%NULL%1,        Jeneita%Bell%NULL%1,        Kelly%Hatfield%NULL%1,        Melissa%Arons%NULL%1,        Anne%Kimball%NULL%1,        Allison%James%NULL%1,        Mark%Methner%NULL%1,        Joshua%Harney%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%14,         Zheng-yi%Ni%NULL%5,         Yu%Hu%NULL%4,         Wen-hua%Liang%NULL%4,         Chun-quan%Ou%NULL%4,         Jian-xing%He%NULL%4,         Lei%Liu%NULL%0,         Hong%Shan%NULL%6,         Chun-liang%Lei%NULL%4,         David S.C.%Hui%NULL%3,         Bin%Du%NULL%3,         Lan-juan%Li%NULL%3,         Guang%Zeng%NULL%3,         Kwok-Yung%Yuen%NULL%6,         Ru-chong%Chen%NULL%4,         Chun-li%Tang%NULL%4,         Tao%Wang%NULL%7,         Ping-yan%Chen%NULL%4,         Jie%Xiang%NULL%6,         Shi-yue%Li%NULL%4,         Jin-lin%Wang%NULL%3,         Zi-jing%Liang%NULL%3,         Yi-xiang%Peng%NULL%4,         Li%Wei%NULL%4,         Yong%Liu%NULL%4,         Ya-hua%Hu%NULL%4,         Peng%Peng%NULL%7,         Jian-ming%Wang%NULL%4,         Ji-yang%Liu%NULL%4,         Zhong%Chen%NULL%4,         Gang%Li%NULL%6,         Zhi-jian%Zheng%NULL%4,         Shao-qin%Qiu%NULL%4,         Jie%Luo%NULL%4,         Chang-jiang%Ye%NULL%4,         Shao-yong%Zhu%NULL%4,         Nan-shan%Zhong%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,         Dengju%Li%NULL%2,         Xiong%Wang%NULL%2,         Ziyong%Sun%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,       Cao%Yi-yuan%coreGivesNoEmail%0,       Dong%Xiang%coreGivesNoEmail%0,       Gao%Ya-dong%coreGivesNoEmail%0,       Yan%You-qin%coreGivesNoEmail%0,       Yang%Yi-bin%coreGivesNoEmail%0,       Yuan%Ya-dong%coreGivesNoEmail%0,       Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,       Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,       Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,       Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%3,         Juanjuan%Guo%NULL%3,         Chen%Wang%NULL%3,         Fan%Luo%NULL%2,         Xuechen%Yu%NULL%3,         Wei%Zhang%NULL%6,         Jiafu%Li%NULL%3,         Dongchi%Zhao%NULL%2,         Dan%Xu%NULL%3,         Qing%Gong%NULL%2,         Jing%Liao%NULL%2,         Huixia%Yang%yanghuixia@bjmu.edu.cn%3,         Wei%Hou%houwei@whu.edu.cn%2,         Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,         Yeming%Wang%NULL%6,         Xingwang%Li%NULL%7,         Lili%Ren%NULL%4,         Jianping%Zhao%NULL%9,         Yi%Hu%NULL%7,         Li%Zhang%NULL%7,         Guohui%Fan%NULL%6,         Jiuyang%Xu%NULL%6,         Xiaoying%Gu%NULL%6,         Zhenshun%Cheng%NULL%4,         Ting%Yu%NULL%13,         Jiaan%Xia%NULL%4,         Yuan%Wei%NULL%10,         Wenjuan%Wu%NULL%4,         Xuelei%Xie%NULL%4,         Wen%Yin%NULL%6,         Hui%Li%NULL%7,         Min%Liu%NULL%4,         Yan%Xiao%NULL%5,         Hong%Gao%NULL%6,         Li%Guo%NULL%5,         Jungang%Xie%NULL%5,         Guangfa%Wang%NULL%4,         Rongmeng%Jiang%NULL%4,         Zhancheng%Gao%NULL%5,         Qi%Jin%NULL%5,         Jianwei%Wang%wangjw28@163.com%0,         Bin%Cao%caobin_ben@163.com%7]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,         Xiao-Xin%Wu%NULL%4,         Xian-Gao%Jiang%NULL%4,         Kai-Jin%Xu%NULL%4,         Ling-Jun%Ying%NULL%4,         Chun-Lian%Ma%NULL%4,         Shi-Bo%Li%NULL%4,         Hua-Ying%Wang%NULL%4,         Sheng%Zhang%NULL%4,         Hai-Nv%Gao%NULL%4,         Ji-Fang%Sheng%NULL%4,         Hong-Liu%Cai%NULL%4,         Yun-Qing%Qiu%NULL%4,         Lan-Juan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%8,   Xiaoyan%Chen%xref no email%8,   Yanping%Cai%xref no email%8,   Jia\u2019an%Xia%xref no email%8,   Xing%Zhou%xref no email%8,   Sha%Xu%xref no email%8,   Hanping%Huang%xref no email%8,   Li%Zhang%xref no email%8,   Xia%Zhou%xref no email%8,   Chunling%Du%xref no email%8,   Yuye%Zhang%xref no email%8,   Juan%Song%xref no email%9,   Sijiao%Wang%xref no email%8,   Yencheng%Chao%xref no email%8,   Zeyong%Yang%xref no email%8,   Jie%Xu%xref no email%8,   Xin%Zhou%xref no email%8,   Dechang%Chen%xref no email%8,   Weining%Xiong%xref no email%8,   Lei%Xu%xref no email%8,   Feng%Zhou%xref no email%8,   Jinjun%Jiang%xref no email%8,   Chunxue%Bai%xref no email%8,   Junhua%Zheng%xref no email%8,   Yuanlin%Song%xref no email%9]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,         Kai%Xie%NULL%3,         Hui%Lu%NULL%2,         Lei%Xu%bayinhexl@126.com%2,         Shusheng%Zhou%zhouss108@163.com%2,         Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%0,         Feifei%Yao%NULL%1,         Lijie%Wang%NULL%1,         Ling%Zheng%NULL%1,         Yongjun%Gao%NULL%1,         Jun%Ye%NULL%1,         Feng%Guo%NULL%1,         Hui%Zhao%NULL%1,         Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%0,         Ci%Song%NULL%1,         Chuanjun%Xu%NULL%1,         Guangfu%Jin%NULL%1,         Yaling%Chen%NULL%1,         Xin%Xu%NULL%1,         Hongxia%Ma%NULL%1,         Wei%Chen%NULL%3,         Yuan%Lin%NULL%1,         Yishan%Zheng%NULL%1,         Jianming%Wang%NULL%1,         Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,         Yongxiang%Yi%ian0126@126.com%1,         Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%12,         Di%Wu%NULL%2,         Huilong%Chen%NULL%2,         Weiming%Yan%NULL%2,         Danlei%Yang%NULL%2,         Guang%Chen%NULL%2,         Ke%Ma%NULL%2,         Dong%Xu%NULL%2,         Haijing%Yu%NULL%2,         Hongwu%Wang%NULL%2,         Tao%Wang%NULL%0,         Wei%Guo%NULL%2,         Jia%Chen%NULL%2,         Chen%Ding%NULL%2,         Xiaoping%Zhang%NULL%2,         Jiaquan%Huang%NULL%2,         Meifang%Han%NULL%2,         Shusheng%Li%NULL%3,         Xiaoping%Luo%NULL%2,         Jianping%Zhao%NULL%0,         Qin%Ning%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,         Yuan-Yuan%Fang%NULL%4,         Yan%Deng%NULL%3,         Wei%Liu%NULL%5,         Mei-Fang%Wang%NULL%3,         Jing-Ping%Ma%NULL%3,         Wei%Xiao%NULL%3,         Ying-Nan%Wang%NULL%3,         Min-Hua%Zhong%NULL%3,         Cheng-Hong%Li%NULL%3,         Guang-Cai%Li%NULL%3,         Hui-Guo%Liu%NULL%4,         Xiu-Yuan%Hao%NULL%6,         Pei-Fang%Wei%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%4,         Tianhe%Ye%NULL%3,         Peng%Sun%NULL%3,         Shan%Gui%NULL%3,         Bo%Liang%NULL%3,         Lingli%Li%NULL%3,         Dandan%Zheng%NULL%3,         Jiazheng%Wang%NULL%3,         Richard L.%Hesketh%NULL%3,         Lian%Yang%yanglian@hust.edu.cn%3,         Chuansheng%Zheng%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%15,         Yuan%Yu%NULL%2,         Jiqian%Xu%NULL%1,         Huaqing%Shu%NULL%1,         Jia'an%Xia%NULL%4,         Hong%Liu%NULL%3,         Yongran%Wu%NULL%2,         Lu%Zhang%NULL%1,         Zhui%Yu%NULL%1,         Minghao%Fang%NULL%1,         Ting%Yu%NULL%0,         Yaxin%Wang%NULL%2,         Shangwen%Pan%NULL%1,         Xiaojing%Zou%NULL%2,         Shiying%Yuan%NULL%2,         You%Shang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%3,         Nan%Yang%NULL%2,         Yanqiu%Wei%NULL%2,         Huihui%Yue%NULL%2,         Fengqin%Zhang%NULL%2,         Jianping%Zhao%NULL%0,         Li%He%NULL%2,         Gaohong%Sheng%NULL%2,         Peng%Chen%NULL%2,         Gang%Li%NULL%0,         Sisi%Wu%NULL%2,         Bo%Zhang%NULL%2,         Shu%Zhang%szhang@tjh.tjmu.edu.cn%2,         Congyi%Wang%wangcy@tjh.tjmu.edu.cn%2,         Xiaoping%Miao%miaoxp@hust.edu.cn%2,         Juan%Li%lijuan@tjh.tjmu.edu.cn%2,         Wenhua%Liu%liuwh_2013@126.com%2,         Huilan%Zhang%huilanz_76@163.com%2]</t>
+  </si>
+  <si>
+    <t>[ J.%Liu%null%1,          L.% Ouyang%null%1,          P.% Guo%null%1,          H. s.% Wu%null%1,          P.% Fu%null%1,          Y. l.% Chen%null%1,          D.% Yang%null%1,          X. y.% Han%null%1,          Y. k.% Cao%null%1,          O.% Alwalid%null%1,          J.% Tao%null%1,          S. y.% Peng%null%1,          H. s.% Shi%null%1,          F.% Yang%null%1,          C. s. % Zheng%null%1]</t>
+  </si>
+  <si>
+    <t>[ R.%Liu%null%1,          X.% Ming%null%1,          O.% Xu%null%1,          J.% Zhou%null%1,          H.% Peng%null%1,          N.% Xiang%null%1,          J.% Zhang%null%1,          H. % Zhu%null%1]</t>
+  </si>
+  <si>
+    <t>[Jiaxun%Hu%xref no email%1,   You%Lv%xref no email%1,   Ying%Xu%xref no email%1,   Yushan%Miao%xref no email%1,   Wei%Wang%xref no email%5,   Wenqing%Le%xref no email%1,   Hao%Tang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%2,         Shauna%Clark%NULL%2,         Sargis%Pogosjans%NULL%2,         Meagan%Kay%NULL%2,         James%Lewis%NULL%3,         Atar%Baer%NULL%2,         Vance%Kawakami%NULL%2,         Margaret D.%Lukoff%NULL%2,         Jessica%Ferro%NULL%2,         Claire%Brostrom-Smith%NULL%2,         Francis X.%Riedo%NULL%2,         Denny%Russell%NULL%2,         Brian%Hiatt%NULL%2,         Patricia%Montgomery%NULL%2,         Agam K.%Rao%NULL%2,         Dustin W.%Currie%NULL%2,         Eric J.%Chow%NULL%2,         Farrell%Tobolowsky%NULL%2,         Ana C.%Bardossy%NULL%2,         Lisa P.%Oakley%NULL%2,         Jesica R.%Jacobs%NULL%2,         Noah G.%Schwartz%NULL%2,         Nimalie%Stone%NULL%1,         Sujan C.%Reddy%NULL%4,         John A.%Jernigan%NULL%3,         Margaret A.%Honein%NULL%2,         Thomas A.%Clark%NULL%2,         Jeffrey S.%Duchin%NULL%2,         NULL%NULL%NULL%22,         NULL%NULL%NULL%0,         Meaghan S.%Fagalde%NULL%1,         Jennifer L.%Lenahan%NULL%1,         Emily B.%Maier%NULL%1,         Kaitlyn J.%Sykes%NULL%1,         Grace%Hatt%NULL%1,         Holly%Whitney%NULL%1,         Melinda%Huntington-Frazier%NULL%1,         Elysia%Gonzales%NULL%1,         Laura A.%Mummert%NULL%1,         Hal Garcia%Smith%NULL%1,         Steve%Stearns%NULL%1,         Eileen%Benoliel%NULL%1,         Shelly%McKeirnan%NULL%1,         Jennifer L.%Morgan%NULL%1,         Daniel%Smith%NULL%1,         Michaela%Hope%NULL%1,         Noel%Hatley%NULL%1,         Leslie M.%Barnard%NULL%1,         Leilani%Schwarcz%NULL%1,         Nicole%Yarid%NULL%1,         Eric%Yim%NULL%1,         Sandra%Kreider%NULL%1,         Dawn%Barr%NULL%1,         Nancy%Wilde%NULL%1,         Courtney%Dorman%NULL%1,         Airin%Lam%NULL%1,         Jeanette%Harris%NULL%1,         Hollianne%Bruce%NULL%2,         Christopher%Spitters%NULL%2,         Snohomish Health%District%NULL%1,         Rachael%Zacks%NULL%1,         Jonathan%Dyal%NULL%1,         Michael%Hughes%NULL%1,         Christina%Carlson%NULL%1,         Barbara%Cooper%NULL%1,         Michelle%Banks%NULL%1,         Heather%McLaughlin%NULL%1,         Arun%Balajee%NULL%1,         Christine%Olson%NULL%1,         Suzanne%Zane%NULL%1,         Hammad%Ali%NULL%1,         Jessica%Healy%NULL%1,         Kristine%Schmit%NULL%1,         Kevin%Spicer%NULL%1,         Zeshan%Chisty%NULL%1,         Sukarma%Tanwar%NULL%1,         Joanne%Taylor%NULL%1,         Leisha%Nolen%NULL%1,         Jeneita%Bell%NULL%1,         Kelly%Hatfield%NULL%1,         Melissa%Arons%NULL%1,         Anne%Kimball%NULL%1,         Allison%James%NULL%1,         Mark%Methner%NULL%1,         Joshua%Harney%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%14,          Zheng-yi%Ni%NULL%5,          Yu%Hu%NULL%4,          Wen-hua%Liang%NULL%4,          Chun-quan%Ou%NULL%4,          Jian-xing%He%NULL%4,          Lei%Liu%NULL%0,          Hong%Shan%NULL%6,          Chun-liang%Lei%NULL%4,          David S.C.%Hui%NULL%3,          Bin%Du%NULL%3,          Lan-juan%Li%NULL%3,          Guang%Zeng%NULL%3,          Kwok-Yung%Yuen%NULL%6,          Ru-chong%Chen%NULL%4,          Chun-li%Tang%NULL%4,          Tao%Wang%NULL%7,          Ping-yan%Chen%NULL%4,          Jie%Xiang%NULL%6,          Shi-yue%Li%NULL%4,          Jin-lin%Wang%NULL%3,          Zi-jing%Liang%NULL%3,          Yi-xiang%Peng%NULL%4,          Li%Wei%NULL%4,          Yong%Liu%NULL%4,          Ya-hua%Hu%NULL%4,          Peng%Peng%NULL%7,          Jian-ming%Wang%NULL%4,          Ji-yang%Liu%NULL%4,          Zhong%Chen%NULL%4,          Gang%Li%NULL%6,          Zhi-jian%Zheng%NULL%4,          Shao-qin%Qiu%NULL%4,          Jie%Luo%NULL%4,          Chang-jiang%Ye%NULL%4,          Shao-yong%Zhu%NULL%4,          Nan-shan%Zhong%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,          Dengju%Li%NULL%2,          Xiong%Wang%NULL%2,          Ziyong%Sun%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,        Cao%Yi-yuan%coreGivesNoEmail%0,        Dong%Xiang%coreGivesNoEmail%0,        Gao%Ya-dong%coreGivesNoEmail%0,        Yan%You-qin%coreGivesNoEmail%0,        Yang%Yi-bin%coreGivesNoEmail%0,        Yuan%Ya-dong%coreGivesNoEmail%0,        Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,        Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,        Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,        Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%3,          Juanjuan%Guo%NULL%3,          Chen%Wang%NULL%3,          Fan%Luo%NULL%2,          Xuechen%Yu%NULL%3,          Wei%Zhang%NULL%6,          Jiafu%Li%NULL%3,          Dongchi%Zhao%NULL%2,          Dan%Xu%NULL%3,          Qing%Gong%NULL%2,          Jing%Liao%NULL%2,          Huixia%Yang%yanghuixia@bjmu.edu.cn%3,          Wei%Hou%houwei@whu.edu.cn%2,          Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,          Yeming%Wang%NULL%6,          Xingwang%Li%NULL%7,          Lili%Ren%NULL%4,          Jianping%Zhao%NULL%9,          Yi%Hu%NULL%7,          Li%Zhang%NULL%7,          Guohui%Fan%NULL%6,          Jiuyang%Xu%NULL%6,          Xiaoying%Gu%NULL%6,          Zhenshun%Cheng%NULL%4,          Ting%Yu%NULL%13,          Jiaan%Xia%NULL%4,          Yuan%Wei%NULL%10,          Wenjuan%Wu%NULL%4,          Xuelei%Xie%NULL%4,          Wen%Yin%NULL%6,          Hui%Li%NULL%7,          Min%Liu%NULL%4,          Yan%Xiao%NULL%5,          Hong%Gao%NULL%6,          Li%Guo%NULL%5,          Jungang%Xie%NULL%5,          Guangfa%Wang%NULL%4,          Rongmeng%Jiang%NULL%4,          Zhancheng%Gao%NULL%5,          Qi%Jin%NULL%5,          Jianwei%Wang%wangjw28@163.com%0,          Bin%Cao%caobin_ben@163.com%7]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,          Xiao-Xin%Wu%NULL%4,          Xian-Gao%Jiang%NULL%4,          Kai-Jin%Xu%NULL%4,          Ling-Jun%Ying%NULL%4,          Chun-Lian%Ma%NULL%4,          Shi-Bo%Li%NULL%4,          Hua-Ying%Wang%NULL%4,          Sheng%Zhang%NULL%4,          Hai-Nv%Gao%NULL%4,          Ji-Fang%Sheng%NULL%4,          Hong-Liu%Cai%NULL%4,          Yun-Qing%Qiu%NULL%4,          Lan-Juan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%8,    Xiaoyan%Chen%xref no email%8,    Yanping%Cai%xref no email%8,    Jia\u2019an%Xia%xref no email%8,    Xing%Zhou%xref no email%8,    Sha%Xu%xref no email%8,    Hanping%Huang%xref no email%8,    Li%Zhang%xref no email%8,    Xia%Zhou%xref no email%8,    Chunling%Du%xref no email%8,    Yuye%Zhang%xref no email%8,    Juan%Song%xref no email%9,    Sijiao%Wang%xref no email%8,    Yencheng%Chao%xref no email%8,    Zeyong%Yang%xref no email%8,    Jie%Xu%xref no email%8,    Xin%Zhou%xref no email%8,    Dechang%Chen%xref no email%8,    Weining%Xiong%xref no email%9,    Lei%Xu%xref no email%8,    Feng%Zhou%xref no email%8,    Jinjun%Jiang%xref no email%8,    Chunxue%Bai%xref no email%8,    Junhua%Zheng%xref no email%8,    Yuanlin%Song%xref no email%9]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,          Kai%Xie%NULL%3,          Hui%Lu%NULL%2,          Lei%Xu%bayinhexl@126.com%2,          Shusheng%Zhou%zhouss108@163.com%2,          Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%0,          Feifei%Yao%NULL%1,          Lijie%Wang%NULL%1,          Ling%Zheng%NULL%1,          Yongjun%Gao%NULL%1,          Jun%Ye%NULL%1,          Feng%Guo%NULL%1,          Hui%Zhao%NULL%1,          Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%0,          Ci%Song%NULL%1,          Chuanjun%Xu%NULL%1,          Guangfu%Jin%NULL%1,          Yaling%Chen%NULL%1,          Xin%Xu%NULL%1,          Hongxia%Ma%NULL%1,          Wei%Chen%NULL%3,          Yuan%Lin%NULL%1,          Yishan%Zheng%NULL%1,          Jianming%Wang%NULL%1,          Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,          Yongxiang%Yi%ian0126@126.com%1,          Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%12,          Di%Wu%NULL%2,          Huilong%Chen%NULL%2,          Weiming%Yan%NULL%2,          Danlei%Yang%NULL%2,          Guang%Chen%NULL%2,          Ke%Ma%NULL%2,          Dong%Xu%NULL%2,          Haijing%Yu%NULL%2,          Hongwu%Wang%NULL%2,          Tao%Wang%NULL%0,          Wei%Guo%NULL%2,          Jia%Chen%NULL%2,          Chen%Ding%NULL%2,          Xiaoping%Zhang%NULL%2,          Jiaquan%Huang%NULL%2,          Meifang%Han%NULL%2,          Shusheng%Li%NULL%3,          Xiaoping%Luo%NULL%2,          Jianping%Zhao%NULL%0,          Qin%Ning%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,          Yuan-Yuan%Fang%NULL%4,          Yan%Deng%NULL%3,          Wei%Liu%NULL%5,          Mei-Fang%Wang%NULL%3,          Jing-Ping%Ma%NULL%3,          Wei%Xiao%NULL%3,          Ying-Nan%Wang%NULL%3,          Min-Hua%Zhong%NULL%3,          Cheng-Hong%Li%NULL%3,          Guang-Cai%Li%NULL%3,          Hui-Guo%Liu%NULL%4,          Xiu-Yuan%Hao%NULL%6,          Pei-Fang%Wei%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%4,          Tianhe%Ye%NULL%3,          Peng%Sun%NULL%3,          Shan%Gui%NULL%3,          Bo%Liang%NULL%3,          Lingli%Li%NULL%3,          Dandan%Zheng%NULL%3,          Jiazheng%Wang%NULL%3,          Richard L.%Hesketh%NULL%3,          Lian%Yang%yanglian@hust.edu.cn%3,          Chuansheng%Zheng%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%15,          Yuan%Yu%NULL%2,          Jiqian%Xu%NULL%1,          Huaqing%Shu%NULL%1,          Jia'an%Xia%NULL%4,          Hong%Liu%NULL%3,          Yongran%Wu%NULL%2,          Lu%Zhang%NULL%1,          Zhui%Yu%NULL%1,          Minghao%Fang%NULL%1,          Ting%Yu%NULL%0,          Yaxin%Wang%NULL%2,          Shangwen%Pan%NULL%1,          Xiaojing%Zou%NULL%2,          Shiying%Yuan%NULL%2,          You%Shang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%3,          Nan%Yang%NULL%2,          Yanqiu%Wei%NULL%2,          Huihui%Yue%NULL%2,          Fengqin%Zhang%NULL%2,          Jianping%Zhao%NULL%0,          Li%He%NULL%2,          Gaohong%Sheng%NULL%2,          Peng%Chen%NULL%2,          Gang%Li%NULL%0,          Sisi%Wu%NULL%2,          Bo%Zhang%NULL%2,          Shu%Zhang%szhang@tjh.tjmu.edu.cn%2,          Congyi%Wang%wangcy@tjh.tjmu.edu.cn%2,          Xiaoping%Miao%miaoxp@hust.edu.cn%2,          Juan%Li%lijuan@tjh.tjmu.edu.cn%2,          Wenhua%Liu%liuwh_2013@126.com%2,          Huilan%Zhang%huilanz_76@163.com%2]</t>
+  </si>
+  <si>
+    <t>[ J.%Liu%null%1,           L.% Ouyang%null%1,           P.% Guo%null%1,           H. s.% Wu%null%1,           P.% Fu%null%1,           Y. l.% Chen%null%1,           D.% Yang%null%1,           X. y.% Han%null%1,           Y. k.% Cao%null%1,           O.% Alwalid%null%1,           J.% Tao%null%1,           S. y.% Peng%null%1,           H. s.% Shi%null%1,           F.% Yang%null%1,           C. s. % Zheng%null%1]</t>
+  </si>
+  <si>
+    <t>[ R.%Liu%null%1,           X.% Ming%null%1,           O.% Xu%null%1,           J.% Zhou%null%1,           H.% Peng%null%1,           N.% Xiang%null%1,           J.% Zhang%null%1,           H. % Zhu%null%1]</t>
+  </si>
+  <si>
+    <t>[Jiaxun%Hu%xref no email%1,    You%Lv%xref no email%1,    Ying%Xu%xref no email%1,    Yushan%Miao%xref no email%1,    Wei%Wang%xref no email%5,    Wenqing%Le%xref no email%1,    Hao%Tang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%2,          Shauna%Clark%NULL%2,          Sargis%Pogosjans%NULL%2,          Meagan%Kay%NULL%2,          James%Lewis%NULL%3,          Atar%Baer%NULL%2,          Vance%Kawakami%NULL%2,          Margaret D.%Lukoff%NULL%2,          Jessica%Ferro%NULL%2,          Claire%Brostrom-Smith%NULL%2,          Francis X.%Riedo%NULL%2,          Denny%Russell%NULL%2,          Brian%Hiatt%NULL%2,          Patricia%Montgomery%NULL%2,          Agam K.%Rao%NULL%2,          Dustin W.%Currie%NULL%2,          Eric J.%Chow%NULL%2,          Farrell%Tobolowsky%NULL%2,          Ana C.%Bardossy%NULL%2,          Lisa P.%Oakley%NULL%2,          Jesica R.%Jacobs%NULL%2,          Noah G.%Schwartz%NULL%2,          Nimalie%Stone%NULL%1,          Sujan C.%Reddy%NULL%4,          John A.%Jernigan%NULL%3,          Margaret A.%Honein%NULL%2,          Thomas A.%Clark%NULL%2,          Jeffrey S.%Duchin%NULL%2,          NULL%NULL%NULL%22,          NULL%NULL%NULL%0,          Meaghan S.%Fagalde%NULL%1,          Jennifer L.%Lenahan%NULL%1,          Emily B.%Maier%NULL%1,          Kaitlyn J.%Sykes%NULL%1,          Grace%Hatt%NULL%1,          Holly%Whitney%NULL%1,          Melinda%Huntington-Frazier%NULL%1,          Elysia%Gonzales%NULL%1,          Laura A.%Mummert%NULL%1,          Hal Garcia%Smith%NULL%1,          Steve%Stearns%NULL%1,          Eileen%Benoliel%NULL%1,          Shelly%McKeirnan%NULL%1,          Jennifer L.%Morgan%NULL%1,          Daniel%Smith%NULL%1,          Michaela%Hope%NULL%1,          Noel%Hatley%NULL%1,          Leslie M.%Barnard%NULL%1,          Leilani%Schwarcz%NULL%1,          Nicole%Yarid%NULL%1,          Eric%Yim%NULL%1,          Sandra%Kreider%NULL%1,          Dawn%Barr%NULL%1,          Nancy%Wilde%NULL%1,          Courtney%Dorman%NULL%1,          Airin%Lam%NULL%1,          Jeanette%Harris%NULL%1,          Hollianne%Bruce%NULL%2,          Christopher%Spitters%NULL%2,          Snohomish Health%District%NULL%1,          Rachael%Zacks%NULL%1,          Jonathan%Dyal%NULL%1,          Michael%Hughes%NULL%1,          Christina%Carlson%NULL%1,          Barbara%Cooper%NULL%1,          Michelle%Banks%NULL%1,          Heather%McLaughlin%NULL%1,          Arun%Balajee%NULL%1,          Christine%Olson%NULL%1,          Suzanne%Zane%NULL%1,          Hammad%Ali%NULL%1,          Jessica%Healy%NULL%1,          Kristine%Schmit%NULL%1,          Kevin%Spicer%NULL%1,          Zeshan%Chisty%NULL%1,          Sukarma%Tanwar%NULL%1,          Joanne%Taylor%NULL%1,          Leisha%Nolen%NULL%1,          Jeneita%Bell%NULL%1,          Kelly%Hatfield%NULL%1,          Melissa%Arons%NULL%1,          Anne%Kimball%NULL%1,          Allison%James%NULL%1,          Mark%Methner%NULL%1,          Joshua%Harney%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1994,7 +2114,7 @@
         <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -2023,7 +2143,7 @@
         <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -2052,7 +2172,7 @@
         <v>243</v>
       </c>
       <c r="E5" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2081,7 +2201,7 @@
         <v>246</v>
       </c>
       <c r="E6" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -2110,7 +2230,7 @@
         <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -2139,7 +2259,7 @@
         <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -2168,7 +2288,7 @@
         <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -2197,7 +2317,7 @@
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2226,7 +2346,7 @@
         <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -2255,7 +2375,7 @@
         <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
@@ -2284,7 +2404,7 @@
         <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
@@ -2313,7 +2433,7 @@
         <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -2342,7 +2462,7 @@
         <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="F15" t="s">
         <v>81</v>
@@ -2371,7 +2491,7 @@
         <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="F16" t="s">
         <v>85</v>
@@ -2429,7 +2549,7 @@
         <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
@@ -2458,7 +2578,7 @@
         <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="F19" t="s">
         <v>93</v>
@@ -2487,7 +2607,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="F20" t="s">
         <v>32</v>
@@ -2516,7 +2636,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="F21" t="s">
         <v>32</v>
@@ -2545,7 +2665,7 @@
         <v>338</v>
       </c>
       <c r="E22" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -2574,7 +2694,7 @@
         <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="F23" t="s">
         <v>98</v>

--- a/Covid_19_Dataset_and_References/References/5.xlsx
+++ b/Covid_19_Dataset_and_References/References/5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3573" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3895" uniqueCount="442">
   <si>
     <t>Doi</t>
   </si>
@@ -1751,6 +1751,126 @@
   </si>
   <si>
     <t>[Temet M.%McMichael%NULL%2,          Shauna%Clark%NULL%2,          Sargis%Pogosjans%NULL%2,          Meagan%Kay%NULL%2,          James%Lewis%NULL%3,          Atar%Baer%NULL%2,          Vance%Kawakami%NULL%2,          Margaret D.%Lukoff%NULL%2,          Jessica%Ferro%NULL%2,          Claire%Brostrom-Smith%NULL%2,          Francis X.%Riedo%NULL%2,          Denny%Russell%NULL%2,          Brian%Hiatt%NULL%2,          Patricia%Montgomery%NULL%2,          Agam K.%Rao%NULL%2,          Dustin W.%Currie%NULL%2,          Eric J.%Chow%NULL%2,          Farrell%Tobolowsky%NULL%2,          Ana C.%Bardossy%NULL%2,          Lisa P.%Oakley%NULL%2,          Jesica R.%Jacobs%NULL%2,          Noah G.%Schwartz%NULL%2,          Nimalie%Stone%NULL%1,          Sujan C.%Reddy%NULL%4,          John A.%Jernigan%NULL%3,          Margaret A.%Honein%NULL%2,          Thomas A.%Clark%NULL%2,          Jeffrey S.%Duchin%NULL%2,          NULL%NULL%NULL%22,          NULL%NULL%NULL%0,          Meaghan S.%Fagalde%NULL%1,          Jennifer L.%Lenahan%NULL%1,          Emily B.%Maier%NULL%1,          Kaitlyn J.%Sykes%NULL%1,          Grace%Hatt%NULL%1,          Holly%Whitney%NULL%1,          Melinda%Huntington-Frazier%NULL%1,          Elysia%Gonzales%NULL%1,          Laura A.%Mummert%NULL%1,          Hal Garcia%Smith%NULL%1,          Steve%Stearns%NULL%1,          Eileen%Benoliel%NULL%1,          Shelly%McKeirnan%NULL%1,          Jennifer L.%Morgan%NULL%1,          Daniel%Smith%NULL%1,          Michaela%Hope%NULL%1,          Noel%Hatley%NULL%1,          Leslie M.%Barnard%NULL%1,          Leilani%Schwarcz%NULL%1,          Nicole%Yarid%NULL%1,          Eric%Yim%NULL%1,          Sandra%Kreider%NULL%1,          Dawn%Barr%NULL%1,          Nancy%Wilde%NULL%1,          Courtney%Dorman%NULL%1,          Airin%Lam%NULL%1,          Jeanette%Harris%NULL%1,          Hollianne%Bruce%NULL%2,          Christopher%Spitters%NULL%2,          Snohomish Health%District%NULL%1,          Rachael%Zacks%NULL%1,          Jonathan%Dyal%NULL%1,          Michael%Hughes%NULL%1,          Christina%Carlson%NULL%1,          Barbara%Cooper%NULL%1,          Michelle%Banks%NULL%1,          Heather%McLaughlin%NULL%1,          Arun%Balajee%NULL%1,          Christine%Olson%NULL%1,          Suzanne%Zane%NULL%1,          Hammad%Ali%NULL%1,          Jessica%Healy%NULL%1,          Kristine%Schmit%NULL%1,          Kevin%Spicer%NULL%1,          Zeshan%Chisty%NULL%1,          Sukarma%Tanwar%NULL%1,          Joanne%Taylor%NULL%1,          Leisha%Nolen%NULL%1,          Jeneita%Bell%NULL%1,          Kelly%Hatfield%NULL%1,          Melissa%Arons%NULL%1,          Anne%Kimball%NULL%1,          Allison%James%NULL%1,          Mark%Methner%NULL%1,          Joshua%Harney%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%14,           Zheng-yi%Ni%NULL%7,           Yu%Hu%NULL%5,           Wen-hua%Liang%NULL%5,           Chun-quan%Ou%NULL%5,           Jian-xing%He%NULL%5,           Lei%Liu%NULL%9,           Hong%Shan%NULL%7,           Chun-liang%Lei%NULL%5,           David S.C.%Hui%NULL%4,           Bin%Du%NULL%4,           Lan-juan%Li%NULL%4,           Guang%Zeng%NULL%4,           Kwok-Yung%Yuen%NULL%7,           Ru-chong%Chen%NULL%5,           Chun-li%Tang%NULL%5,           Tao%Wang%NULL%8,           Ping-yan%Chen%NULL%5,           Jie%Xiang%NULL%8,           Shi-yue%Li%NULL%5,           Jin-lin%Wang%NULL%4,           Zi-jing%Liang%NULL%4,           Yi-xiang%Peng%NULL%5,           Li%Wei%NULL%5,           Yong%Liu%NULL%5,           Ya-hua%Hu%NULL%5,           Peng%Peng%NULL%8,           Jian-ming%Wang%NULL%6,           Ji-yang%Liu%NULL%5,           Zhong%Chen%NULL%5,           Gang%Li%NULL%7,           Zhi-jian%Zheng%NULL%5,           Shao-qin%Qiu%NULL%5,           Jie%Luo%NULL%5,           Chang-jiang%Ye%NULL%5,           Shao-yong%Zhu%NULL%5,           Nan-shan%Zhong%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,           Dengju%Li%NULL%2,           Xiong%Wang%NULL%2,           Ziyong%Sun%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,         Cao%Yi-yuan%coreGivesNoEmail%0,         Dong%Xiang%coreGivesNoEmail%0,         Gao%Ya-dong%coreGivesNoEmail%0,         Yan%You-qin%coreGivesNoEmail%0,         Yang%Yi-bin%coreGivesNoEmail%0,         Yuan%Ya-dong%coreGivesNoEmail%0,         Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,         Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,         Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,         Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%3,           Juanjuan%Guo%NULL%3,           Chen%Wang%NULL%3,           Fan%Luo%NULL%2,           Xuechen%Yu%NULL%3,           Wei%Zhang%NULL%6,           Jiafu%Li%NULL%3,           Dongchi%Zhao%NULL%2,           Dan%Xu%NULL%3,           Qing%Gong%NULL%2,           Jing%Liao%NULL%2,           Huixia%Yang%yanghuixia@bjmu.edu.cn%3,           Wei%Hou%houwei@whu.edu.cn%3,           Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,           Yeming%Wang%NULL%8,           Xingwang%Li%NULL%8,           Lili%Ren%NULL%5,           Jianping%Zhao%NULL%12,           Yi%Hu%NULL%9,           Li%Zhang%NULL%8,           Guohui%Fan%NULL%8,           Jiuyang%Xu%NULL%8,           Xiaoying%Gu%NULL%8,           Zhenshun%Cheng%NULL%6,           Ting%Yu%NULL%16,           Jiaan%Xia%NULL%5,           Yuan%Wei%NULL%12,           Wenjuan%Wu%NULL%5,           Xuelei%Xie%NULL%5,           Wen%Yin%NULL%7,           Hui%Li%NULL%9,           Min%Liu%NULL%5,           Yan%Xiao%NULL%6,           Hong%Gao%NULL%7,           Li%Guo%NULL%6,           Jungang%Xie%NULL%7,           Guangfa%Wang%NULL%5,           Rongmeng%Jiang%NULL%5,           Zhancheng%Gao%NULL%6,           Qi%Jin%NULL%6,           Jianwei%Wang%wangjw28@163.com%0,           Bin%Cao%caobin_ben@163.com%9]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,           Xiao-Xin%Wu%NULL%4,           Xian-Gao%Jiang%NULL%4,           Kai-Jin%Xu%NULL%4,           Ling-Jun%Ying%NULL%4,           Chun-Lian%Ma%NULL%4,           Shi-Bo%Li%NULL%4,           Hua-Ying%Wang%NULL%4,           Sheng%Zhang%NULL%4,           Hai-Nv%Gao%NULL%4,           Ji-Fang%Sheng%NULL%4,           Hong-Liu%Cai%NULL%4,           Yun-Qing%Qiu%NULL%4,           Lan-Juan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%8,     Xiaoyan%Chen%xref no email%8,     Yanping%Cai%xref no email%8,     Jia\u2019an%Xia%xref no email%8,     Xing%Zhou%xref no email%8,     Sha%Xu%xref no email%8,     Hanping%Huang%xref no email%8,     Li%Zhang%xref no email%8,     Xia%Zhou%xref no email%8,     Chunling%Du%xref no email%8,     Yuye%Zhang%xref no email%8,     Juan%Song%xref no email%9,     Sijiao%Wang%xref no email%8,     Yencheng%Chao%xref no email%8,     Zeyong%Yang%xref no email%8,     Jie%Xu%xref no email%8,     Xin%Zhou%xref no email%8,     Dechang%Chen%xref no email%8,     Weining%Xiong%xref no email%8,     Lei%Xu%xref no email%8,     Feng%Zhou%xref no email%8,     Jinjun%Jiang%xref no email%8,     Chunxue%Bai%xref no email%8,     Junhua%Zheng%xref no email%8,     Yuanlin%Song%xref no email%9]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,           Kai%Xie%NULL%3,           Hui%Lu%NULL%2,           Lei%Xu%bayinhexl@126.com%2,           Shusheng%Zhou%zhouss108@163.com%2,           Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%0,           Feifei%Yao%NULL%1,           Lijie%Wang%NULL%1,           Ling%Zheng%NULL%1,           Yongjun%Gao%NULL%1,           Jun%Ye%NULL%1,           Feng%Guo%NULL%1,           Hui%Zhao%NULL%1,           Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%0,           Ci%Song%NULL%1,           Chuanjun%Xu%NULL%1,           Guangfu%Jin%NULL%1,           Yaling%Chen%NULL%1,           Xin%Xu%NULL%1,           Hongxia%Ma%NULL%1,           Wei%Chen%NULL%3,           Yuan%Lin%NULL%1,           Yishan%Zheng%NULL%1,           Jianming%Wang%NULL%1,           Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,           Yongxiang%Yi%ian0126@126.com%1,           Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%12,           Di%Wu%NULL%2,           Huilong%Chen%NULL%2,           Weiming%Yan%NULL%2,           Danlei%Yang%NULL%2,           Guang%Chen%NULL%2,           Ke%Ma%NULL%2,           Dong%Xu%NULL%2,           Haijing%Yu%NULL%2,           Hongwu%Wang%NULL%2,           Tao%Wang%NULL%0,           Wei%Guo%NULL%2,           Jia%Chen%NULL%2,           Chen%Ding%NULL%2,           Xiaoping%Zhang%NULL%2,           Jiaquan%Huang%NULL%2,           Meifang%Han%NULL%2,           Shusheng%Li%NULL%2,           Xiaoping%Luo%NULL%2,           Jianping%Zhao%NULL%0,           Qin%Ning%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,           Yuan-Yuan%Fang%NULL%5,           Yan%Deng%NULL%4,           Wei%Liu%NULL%6,           Mei-Fang%Wang%NULL%3,           Jing-Ping%Ma%NULL%3,           Wei%Xiao%NULL%3,           Ying-Nan%Wang%NULL%3,           Min-Hua%Zhong%NULL%3,           Cheng-Hong%Li%NULL%3,           Guang-Cai%Li%NULL%3,           Hui-Guo%Liu%NULL%6,           Xiu-Yuan%Hao%NULL%6,           Pei-Fang%Wei%NULL%12]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%4,           Tianhe%Ye%NULL%3,           Peng%Sun%NULL%3,           Shan%Gui%NULL%3,           Bo%Liang%NULL%3,           Lingli%Li%NULL%3,           Dandan%Zheng%NULL%3,           Jiazheng%Wang%NULL%3,           Richard L.%Hesketh%NULL%3,           Lian%Yang%yanglian@hust.edu.cn%3,           Chuansheng%Zheng%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%15,           Yuan%Yu%NULL%3,           Jiqian%Xu%NULL%2,           Huaqing%Shu%NULL%2,           Jia'an%Xia%NULL%5,           Hong%Liu%NULL%4,           Yongran%Wu%NULL%3,           Lu%Zhang%NULL%2,           Zhui%Yu%NULL%2,           Minghao%Fang%NULL%2,           Ting%Yu%NULL%0,           Yaxin%Wang%NULL%3,           Shangwen%Pan%NULL%2,           Xiaojing%Zou%NULL%3,           Shiying%Yuan%NULL%3,           You%Shang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%3,           Nan%Yang%NULL%2,           Yanqiu%Wei%NULL%2,           Huihui%Yue%NULL%2,           Fengqin%Zhang%NULL%2,           Jianping%Zhao%NULL%0,           Li%He%NULL%2,           Gaohong%Sheng%NULL%2,           Peng%Chen%NULL%2,           Gang%Li%NULL%0,           Sisi%Wu%NULL%2,           Bo%Zhang%NULL%2,           Shu%Zhang%szhang@tjh.tjmu.edu.cn%2,           Congyi%Wang%wangcy@tjh.tjmu.edu.cn%2,           Xiaoping%Miao%miaoxp@hust.edu.cn%2,           Juan%Li%lijuan@tjh.tjmu.edu.cn%2,           Wenhua%Liu%liuwh_2013@126.com%2,           Huilan%Zhang%huilanz_76@163.com%2]</t>
+  </si>
+  <si>
+    <t>[ J.%Liu%null%1,            L.% Ouyang%null%1,            P.% Guo%null%1,            H. s.% Wu%null%1,            P.% Fu%null%1,            Y. l.% Chen%null%1,            D.% Yang%null%1,            X. y.% Han%null%1,            Y. k.% Cao%null%1,            O.% Alwalid%null%1,            J.% Tao%null%1,            S. y.% Peng%null%1,            H. s.% Shi%null%1,            F.% Yang%null%1,            C. s. % Zheng%null%1]</t>
+  </si>
+  <si>
+    <t>[ R.%Liu%null%1,            X.% Ming%null%1,            O.% Xu%null%1,            J.% Zhou%null%1,            H.% Peng%null%1,            N.% Xiang%null%1,            J.% Zhang%null%1,            H. % Zhu%null%1]</t>
+  </si>
+  <si>
+    <t>[Jiaxun%Hu%xref no email%1,     You%Lv%xref no email%1,     Ying%Xu%xref no email%1,     Yushan%Miao%xref no email%1,     Wei%Wang%xref no email%5,     Wenqing%Le%xref no email%1,     Hao%Tang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%2,           Shauna%Clark%NULL%2,           Sargis%Pogosjans%NULL%2,           Meagan%Kay%NULL%2,           James%Lewis%NULL%3,           Atar%Baer%NULL%2,           Vance%Kawakami%NULL%2,           Margaret D.%Lukoff%NULL%2,           Jessica%Ferro%NULL%2,           Claire%Brostrom-Smith%NULL%2,           Francis X.%Riedo%NULL%2,           Denny%Russell%NULL%2,           Brian%Hiatt%NULL%2,           Patricia%Montgomery%NULL%2,           Agam K.%Rao%NULL%2,           Dustin W.%Currie%NULL%2,           Eric J.%Chow%NULL%2,           Farrell%Tobolowsky%NULL%2,           Ana C.%Bardossy%NULL%2,           Lisa P.%Oakley%NULL%2,           Jesica R.%Jacobs%NULL%2,           Noah G.%Schwartz%NULL%2,           Nimalie%Stone%NULL%1,           Sujan C.%Reddy%NULL%4,           John A.%Jernigan%NULL%3,           Margaret A.%Honein%NULL%2,           Thomas A.%Clark%NULL%2,           Jeffrey S.%Duchin%NULL%2,           NULL%NULL%NULL%31,           NULL%NULL%NULL%0,           Meaghan S.%Fagalde%NULL%1,           Jennifer L.%Lenahan%NULL%1,           Emily B.%Maier%NULL%1,           Kaitlyn J.%Sykes%NULL%1,           Grace%Hatt%NULL%1,           Holly%Whitney%NULL%1,           Melinda%Huntington-Frazier%NULL%1,           Elysia%Gonzales%NULL%1,           Laura A.%Mummert%NULL%1,           Hal Garcia%Smith%NULL%1,           Steve%Stearns%NULL%1,           Eileen%Benoliel%NULL%1,           Shelly%McKeirnan%NULL%1,           Jennifer L.%Morgan%NULL%1,           Daniel%Smith%NULL%1,           Michaela%Hope%NULL%1,           Noel%Hatley%NULL%1,           Leslie M.%Barnard%NULL%1,           Leilani%Schwarcz%NULL%1,           Nicole%Yarid%NULL%1,           Eric%Yim%NULL%1,           Sandra%Kreider%NULL%1,           Dawn%Barr%NULL%1,           Nancy%Wilde%NULL%1,           Courtney%Dorman%NULL%1,           Airin%Lam%NULL%1,           Jeanette%Harris%NULL%1,           Hollianne%Bruce%NULL%2,           Christopher%Spitters%NULL%2,           Snohomish Health%District%NULL%1,           Rachael%Zacks%NULL%1,           Jonathan%Dyal%NULL%1,           Michael%Hughes%NULL%1,           Christina%Carlson%NULL%1,           Barbara%Cooper%NULL%1,           Michelle%Banks%NULL%1,           Heather%McLaughlin%NULL%1,           Arun%Balajee%NULL%1,           Christine%Olson%NULL%1,           Suzanne%Zane%NULL%1,           Hammad%Ali%NULL%1,           Jessica%Healy%NULL%1,           Kristine%Schmit%NULL%1,           Kevin%Spicer%NULL%1,           Zeshan%Chisty%NULL%1,           Sukarma%Tanwar%NULL%1,           Joanne%Taylor%NULL%1,           Leisha%Nolen%NULL%1,           Jeneita%Bell%NULL%1,           Kelly%Hatfield%NULL%1,           Melissa%Arons%NULL%1,           Anne%Kimball%NULL%1,           Allison%James%NULL%1,           Mark%Methner%NULL%1,           Joshua%Harney%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%14,            Zheng-yi%Ni%NULL%5,            Yu%Hu%NULL%4,            Wen-hua%Liang%NULL%4,            Chun-quan%Ou%NULL%4,            Jian-xing%He%NULL%4,            Lei%Liu%NULL%8,            Hong%Shan%NULL%6,            Chun-liang%Lei%NULL%4,            David S.C.%Hui%NULL%3,            Bin%Du%NULL%3,            Lan-juan%Li%NULL%3,            Guang%Zeng%NULL%3,            Kwok-Yung%Yuen%NULL%6,            Ru-chong%Chen%NULL%4,            Chun-li%Tang%NULL%4,            Tao%Wang%NULL%7,            Ping-yan%Chen%NULL%4,            Jie%Xiang%NULL%6,            Shi-yue%Li%NULL%4,            Jin-lin%Wang%NULL%3,            Zi-jing%Liang%NULL%3,            Yi-xiang%Peng%NULL%4,            Li%Wei%NULL%4,            Yong%Liu%NULL%4,            Ya-hua%Hu%NULL%4,            Peng%Peng%NULL%7,            Jian-ming%Wang%NULL%4,            Ji-yang%Liu%NULL%4,            Zhong%Chen%NULL%4,            Gang%Li%NULL%6,            Zhi-jian%Zheng%NULL%4,            Shao-qin%Qiu%NULL%4,            Jie%Luo%NULL%4,            Chang-jiang%Ye%NULL%4,            Shao-yong%Zhu%NULL%4,            Nan-shan%Zhong%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,            Dengju%Li%NULL%2,            Xiong%Wang%NULL%2,            Ziyong%Sun%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,          Cao%Yi-yuan%coreGivesNoEmail%0,          Dong%Xiang%coreGivesNoEmail%0,          Gao%Ya-dong%coreGivesNoEmail%0,          Yan%You-qin%coreGivesNoEmail%0,          Yang%Yi-bin%coreGivesNoEmail%0,          Yuan%Ya-dong%coreGivesNoEmail%0,          Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,          Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,          Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,          Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%3,            Juanjuan%Guo%NULL%3,            Chen%Wang%NULL%3,            Fan%Luo%NULL%2,            Xuechen%Yu%NULL%3,            Wei%Zhang%NULL%6,            Jiafu%Li%NULL%3,            Dongchi%Zhao%NULL%2,            Dan%Xu%NULL%3,            Qing%Gong%NULL%2,            Jing%Liao%NULL%2,            Huixia%Yang%yanghuixia@bjmu.edu.cn%3,            Wei%Hou%houwei@whu.edu.cn%2,            Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,            Yeming%Wang%NULL%6,            Xingwang%Li%NULL%7,            Lili%Ren%NULL%4,            Jianping%Zhao%NULL%9,            Yi%Hu%NULL%7,            Li%Zhang%NULL%7,            Guohui%Fan%NULL%6,            Jiuyang%Xu%NULL%6,            Xiaoying%Gu%NULL%6,            Zhenshun%Cheng%NULL%4,            Ting%Yu%NULL%13,            Jiaan%Xia%NULL%4,            Yuan%Wei%NULL%10,            Wenjuan%Wu%NULL%4,            Xuelei%Xie%NULL%4,            Wen%Yin%NULL%6,            Hui%Li%NULL%7,            Min%Liu%NULL%4,            Yan%Xiao%NULL%5,            Hong%Gao%NULL%6,            Li%Guo%NULL%5,            Jungang%Xie%NULL%5,            Guangfa%Wang%NULL%4,            Rongmeng%Jiang%NULL%4,            Zhancheng%Gao%NULL%5,            Qi%Jin%NULL%5,            Jianwei%Wang%wangjw28@163.com%0,            Bin%Cao%caobin_ben@163.com%7]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,            Xiao-Xin%Wu%NULL%4,            Xian-Gao%Jiang%NULL%4,            Kai-Jin%Xu%NULL%4,            Ling-Jun%Ying%NULL%4,            Chun-Lian%Ma%NULL%4,            Shi-Bo%Li%NULL%4,            Hua-Ying%Wang%NULL%4,            Sheng%Zhang%NULL%4,            Hai-Nv%Gao%NULL%4,            Ji-Fang%Sheng%NULL%4,            Hong-Liu%Cai%NULL%4,            Yun-Qing%Qiu%NULL%4,            Lan-Juan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%8,      Xiaoyan%Chen%xref no email%8,      Yanping%Cai%xref no email%8,      Jia\u2019an%Xia%xref no email%8,      Xing%Zhou%xref no email%8,      Sha%Xu%xref no email%8,      Hanping%Huang%xref no email%8,      Li%Zhang%xref no email%8,      Xia%Zhou%xref no email%8,      Chunling%Du%xref no email%8,      Yuye%Zhang%xref no email%8,      Juan%Song%xref no email%9,      Sijiao%Wang%xref no email%8,      Yencheng%Chao%xref no email%8,      Zeyong%Yang%xref no email%8,      Jie%Xu%xref no email%8,      Xin%Zhou%xref no email%8,      Dechang%Chen%xref no email%8,      Weining%Xiong%xref no email%8,      Lei%Xu%xref no email%8,      Feng%Zhou%xref no email%8,      Jinjun%Jiang%xref no email%8,      Chunxue%Bai%xref no email%8,      Junhua%Zheng%xref no email%8,      Yuanlin%Song%xref no email%9]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,            Kai%Xie%NULL%3,            Hui%Lu%NULL%2,            Lei%Xu%bayinhexl@126.com%2,            Shusheng%Zhou%zhouss108@163.com%2,            Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%0,            Feifei%Yao%NULL%1,            Lijie%Wang%NULL%1,            Ling%Zheng%NULL%1,            Yongjun%Gao%NULL%1,            Jun%Ye%NULL%1,            Feng%Guo%NULL%1,            Hui%Zhao%NULL%1,            Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%0,            Ci%Song%NULL%1,            Chuanjun%Xu%NULL%1,            Guangfu%Jin%NULL%1,            Yaling%Chen%NULL%1,            Xin%Xu%NULL%1,            Hongxia%Ma%NULL%1,            Wei%Chen%NULL%3,            Yuan%Lin%NULL%1,            Yishan%Zheng%NULL%1,            Jianming%Wang%NULL%1,            Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,            Yongxiang%Yi%ian0126@126.com%1,            Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%12,            Di%Wu%NULL%2,            Huilong%Chen%NULL%2,            Weiming%Yan%NULL%2,            Danlei%Yang%NULL%2,            Guang%Chen%NULL%2,            Ke%Ma%NULL%2,            Dong%Xu%NULL%2,            Haijing%Yu%NULL%2,            Hongwu%Wang%NULL%2,            Tao%Wang%NULL%0,            Wei%Guo%NULL%2,            Jia%Chen%NULL%2,            Chen%Ding%NULL%2,            Xiaoping%Zhang%NULL%2,            Jiaquan%Huang%NULL%2,            Meifang%Han%NULL%2,            Shusheng%Li%NULL%2,            Xiaoping%Luo%NULL%2,            Jianping%Zhao%NULL%0,            Qin%Ning%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,            Yuan-Yuan%Fang%NULL%4,            Yan%Deng%NULL%3,            Wei%Liu%NULL%5,            Mei-Fang%Wang%NULL%3,            Jing-Ping%Ma%NULL%3,            Wei%Xiao%NULL%3,            Ying-Nan%Wang%NULL%3,            Min-Hua%Zhong%NULL%3,            Cheng-Hong%Li%NULL%3,            Guang-Cai%Li%NULL%3,            Hui-Guo%Liu%NULL%4,            Xiu-Yuan%Hao%NULL%6,            Pei-Fang%Wei%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%4,            Tianhe%Ye%NULL%3,            Peng%Sun%NULL%3,            Shan%Gui%NULL%3,            Bo%Liang%NULL%3,            Lingli%Li%NULL%3,            Dandan%Zheng%NULL%3,            Jiazheng%Wang%NULL%3,            Richard L.%Hesketh%NULL%3,            Lian%Yang%yanglian@hust.edu.cn%3,            Chuansheng%Zheng%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%15,            Yuan%Yu%NULL%2,            Jiqian%Xu%NULL%1,            Huaqing%Shu%NULL%1,            Jia'an%Xia%NULL%4,            Hong%Liu%NULL%3,            Yongran%Wu%NULL%2,            Lu%Zhang%NULL%1,            Zhui%Yu%NULL%1,            Minghao%Fang%NULL%1,            Ting%Yu%NULL%0,            Yaxin%Wang%NULL%2,            Shangwen%Pan%NULL%1,            Xiaojing%Zou%NULL%2,            Shiying%Yuan%NULL%2,            You%Shang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%3,            Nan%Yang%NULL%2,            Yanqiu%Wei%NULL%2,            Huihui%Yue%NULL%2,            Fengqin%Zhang%NULL%2,            Jianping%Zhao%NULL%0,            Li%He%NULL%2,            Gaohong%Sheng%NULL%2,            Peng%Chen%NULL%2,            Gang%Li%NULL%0,            Sisi%Wu%NULL%2,            Bo%Zhang%NULL%2,            Shu%Zhang%szhang@tjh.tjmu.edu.cn%2,            Congyi%Wang%wangcy@tjh.tjmu.edu.cn%2,            Xiaoping%Miao%miaoxp@hust.edu.cn%2,            Juan%Li%lijuan@tjh.tjmu.edu.cn%2,            Wenhua%Liu%liuwh_2013@126.com%2,            Huilan%Zhang%huilanz_76@163.com%2]</t>
+  </si>
+  <si>
+    <t>[ J.%Liu%null%1,             L.% Ouyang%null%1,             P.% Guo%null%1,             H. s.% Wu%null%1,             P.% Fu%null%1,             Y. l.% Chen%null%1,             D.% Yang%null%1,             X. y.% Han%null%1,             Y. k.% Cao%null%1,             O.% Alwalid%null%1,             J.% Tao%null%1,             S. y.% Peng%null%1,             H. s.% Shi%null%1,             F.% Yang%null%1,             C. s. % Zheng%null%1]</t>
+  </si>
+  <si>
+    <t>[ R.%Liu%null%1,             X.% Ming%null%1,             O.% Xu%null%1,             J.% Zhou%null%1,             H.% Peng%null%1,             N.% Xiang%null%1,             J.% Zhang%null%1,             H. % Zhu%null%1]</t>
+  </si>
+  <si>
+    <t>[Jiaxun%Hu%xref no email%1,      You%Lv%xref no email%1,      Ying%Xu%xref no email%1,      Yushan%Miao%xref no email%1,      Wei%Wang%xref no email%5,      Wenqing%Le%xref no email%1,      Hao%Tang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%2,            Shauna%Clark%NULL%2,            Sargis%Pogosjans%NULL%2,            Meagan%Kay%NULL%2,            James%Lewis%NULL%3,            Atar%Baer%NULL%2,            Vance%Kawakami%NULL%2,            Margaret D.%Lukoff%NULL%2,            Jessica%Ferro%NULL%2,            Claire%Brostrom-Smith%NULL%2,            Francis X.%Riedo%NULL%2,            Denny%Russell%NULL%2,            Brian%Hiatt%NULL%2,            Patricia%Montgomery%NULL%2,            Agam K.%Rao%NULL%2,            Dustin W.%Currie%NULL%2,            Eric J.%Chow%NULL%2,            Farrell%Tobolowsky%NULL%2,            Ana C.%Bardossy%NULL%2,            Lisa P.%Oakley%NULL%2,            Jesica R.%Jacobs%NULL%2,            Noah G.%Schwartz%NULL%2,            Nimalie%Stone%NULL%1,            Sujan C.%Reddy%NULL%4,            John A.%Jernigan%NULL%3,            Margaret A.%Honein%NULL%2,            Thomas A.%Clark%NULL%2,            Jeffrey S.%Duchin%NULL%2,            NULL%NULL%NULL%22,            NULL%NULL%NULL%0,            Meaghan S.%Fagalde%NULL%1,            Jennifer L.%Lenahan%NULL%1,            Emily B.%Maier%NULL%1,            Kaitlyn J.%Sykes%NULL%1,            Grace%Hatt%NULL%1,            Holly%Whitney%NULL%1,            Melinda%Huntington-Frazier%NULL%1,            Elysia%Gonzales%NULL%1,            Laura A.%Mummert%NULL%1,            Hal Garcia%Smith%NULL%1,            Steve%Stearns%NULL%1,            Eileen%Benoliel%NULL%1,            Shelly%McKeirnan%NULL%1,            Jennifer L.%Morgan%NULL%1,            Daniel%Smith%NULL%1,            Michaela%Hope%NULL%1,            Noel%Hatley%NULL%1,            Leslie M.%Barnard%NULL%1,            Leilani%Schwarcz%NULL%1,            Nicole%Yarid%NULL%1,            Eric%Yim%NULL%1,            Sandra%Kreider%NULL%1,            Dawn%Barr%NULL%1,            Nancy%Wilde%NULL%1,            Courtney%Dorman%NULL%1,            Airin%Lam%NULL%1,            Jeanette%Harris%NULL%1,            Hollianne%Bruce%NULL%2,            Christopher%Spitters%NULL%2,            Snohomish Health%District%NULL%1,            Rachael%Zacks%NULL%1,            Jonathan%Dyal%NULL%1,            Michael%Hughes%NULL%1,            Christina%Carlson%NULL%1,            Barbara%Cooper%NULL%1,            Michelle%Banks%NULL%1,            Heather%McLaughlin%NULL%1,            Arun%Balajee%NULL%1,            Christine%Olson%NULL%1,            Suzanne%Zane%NULL%1,            Hammad%Ali%NULL%1,            Jessica%Healy%NULL%1,            Kristine%Schmit%NULL%1,            Kevin%Spicer%NULL%1,            Zeshan%Chisty%NULL%1,            Sukarma%Tanwar%NULL%1,            Joanne%Taylor%NULL%1,            Leisha%Nolen%NULL%1,            Jeneita%Bell%NULL%1,            Kelly%Hatfield%NULL%1,            Melissa%Arons%NULL%1,            Anne%Kimball%NULL%1,            Allison%James%NULL%1,            Mark%Methner%NULL%1,            Joshua%Harney%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2114,7 +2234,7 @@
         <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -2143,7 +2263,7 @@
         <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -2172,7 +2292,7 @@
         <v>243</v>
       </c>
       <c r="E5" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2201,7 +2321,7 @@
         <v>246</v>
       </c>
       <c r="E6" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -2230,7 +2350,7 @@
         <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -2259,7 +2379,7 @@
         <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -2288,7 +2408,7 @@
         <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -2317,7 +2437,7 @@
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2346,7 +2466,7 @@
         <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -2375,7 +2495,7 @@
         <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>391</v>
+        <v>431</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
@@ -2404,7 +2524,7 @@
         <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
@@ -2433,7 +2553,7 @@
         <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -2462,7 +2582,7 @@
         <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
       <c r="F15" t="s">
         <v>81</v>
@@ -2491,7 +2611,7 @@
         <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>395</v>
+        <v>435</v>
       </c>
       <c r="F16" t="s">
         <v>85</v>
@@ -2549,7 +2669,7 @@
         <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
@@ -2578,7 +2698,7 @@
         <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="F19" t="s">
         <v>93</v>
@@ -2607,7 +2727,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="F20" t="s">
         <v>32</v>
@@ -2636,7 +2756,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>399</v>
+        <v>439</v>
       </c>
       <c r="F21" t="s">
         <v>32</v>
@@ -2665,7 +2785,7 @@
         <v>338</v>
       </c>
       <c r="E22" t="s">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -2694,7 +2814,7 @@
         <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>401</v>
+        <v>441</v>
       </c>
       <c r="F23" t="s">
         <v>98</v>

--- a/Covid_19_Dataset_and_References/References/5.xlsx
+++ b/Covid_19_Dataset_and_References/References/5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3895" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4056" uniqueCount="463">
   <si>
     <t>Doi</t>
   </si>
@@ -1871,6 +1871,69 @@
   </si>
   <si>
     <t>[Temet M.%McMichael%NULL%2,            Shauna%Clark%NULL%2,            Sargis%Pogosjans%NULL%2,            Meagan%Kay%NULL%2,            James%Lewis%NULL%3,            Atar%Baer%NULL%2,            Vance%Kawakami%NULL%2,            Margaret D.%Lukoff%NULL%2,            Jessica%Ferro%NULL%2,            Claire%Brostrom-Smith%NULL%2,            Francis X.%Riedo%NULL%2,            Denny%Russell%NULL%2,            Brian%Hiatt%NULL%2,            Patricia%Montgomery%NULL%2,            Agam K.%Rao%NULL%2,            Dustin W.%Currie%NULL%2,            Eric J.%Chow%NULL%2,            Farrell%Tobolowsky%NULL%2,            Ana C.%Bardossy%NULL%2,            Lisa P.%Oakley%NULL%2,            Jesica R.%Jacobs%NULL%2,            Noah G.%Schwartz%NULL%2,            Nimalie%Stone%NULL%1,            Sujan C.%Reddy%NULL%4,            John A.%Jernigan%NULL%3,            Margaret A.%Honein%NULL%2,            Thomas A.%Clark%NULL%2,            Jeffrey S.%Duchin%NULL%2,            NULL%NULL%NULL%22,            NULL%NULL%NULL%0,            Meaghan S.%Fagalde%NULL%1,            Jennifer L.%Lenahan%NULL%1,            Emily B.%Maier%NULL%1,            Kaitlyn J.%Sykes%NULL%1,            Grace%Hatt%NULL%1,            Holly%Whitney%NULL%1,            Melinda%Huntington-Frazier%NULL%1,            Elysia%Gonzales%NULL%1,            Laura A.%Mummert%NULL%1,            Hal Garcia%Smith%NULL%1,            Steve%Stearns%NULL%1,            Eileen%Benoliel%NULL%1,            Shelly%McKeirnan%NULL%1,            Jennifer L.%Morgan%NULL%1,            Daniel%Smith%NULL%1,            Michaela%Hope%NULL%1,            Noel%Hatley%NULL%1,            Leslie M.%Barnard%NULL%1,            Leilani%Schwarcz%NULL%1,            Nicole%Yarid%NULL%1,            Eric%Yim%NULL%1,            Sandra%Kreider%NULL%1,            Dawn%Barr%NULL%1,            Nancy%Wilde%NULL%1,            Courtney%Dorman%NULL%1,            Airin%Lam%NULL%1,            Jeanette%Harris%NULL%1,            Hollianne%Bruce%NULL%2,            Christopher%Spitters%NULL%2,            Snohomish Health%District%NULL%1,            Rachael%Zacks%NULL%1,            Jonathan%Dyal%NULL%1,            Michael%Hughes%NULL%1,            Christina%Carlson%NULL%1,            Barbara%Cooper%NULL%1,            Michelle%Banks%NULL%1,            Heather%McLaughlin%NULL%1,            Arun%Balajee%NULL%1,            Christine%Olson%NULL%1,            Suzanne%Zane%NULL%1,            Hammad%Ali%NULL%1,            Jessica%Healy%NULL%1,            Kristine%Schmit%NULL%1,            Kevin%Spicer%NULL%1,            Zeshan%Chisty%NULL%1,            Sukarma%Tanwar%NULL%1,            Joanne%Taylor%NULL%1,            Leisha%Nolen%NULL%1,            Jeneita%Bell%NULL%1,            Kelly%Hatfield%NULL%1,            Melissa%Arons%NULL%1,            Anne%Kimball%NULL%1,            Allison%James%NULL%1,            Mark%Methner%NULL%1,            Joshua%Harney%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%14,             Zheng-yi%Ni%NULL%5,             Yu%Hu%NULL%4,             Wen-hua%Liang%NULL%4,             Chun-quan%Ou%NULL%4,             Jian-xing%He%NULL%4,             Lei%Liu%NULL%8,             Hong%Shan%NULL%6,             Chun-liang%Lei%NULL%4,             David S.C.%Hui%NULL%3,             Bin%Du%NULL%3,             Lan-juan%Li%NULL%3,             Guang%Zeng%NULL%3,             Kwok-Yung%Yuen%NULL%6,             Ru-chong%Chen%NULL%4,             Chun-li%Tang%NULL%4,             Tao%Wang%NULL%7,             Ping-yan%Chen%NULL%4,             Jie%Xiang%NULL%6,             Shi-yue%Li%NULL%4,             Jin-lin%Wang%NULL%3,             Zi-jing%Liang%NULL%3,             Yi-xiang%Peng%NULL%4,             Li%Wei%NULL%4,             Yong%Liu%NULL%4,             Ya-hua%Hu%NULL%4,             Peng%Peng%NULL%7,             Jian-ming%Wang%NULL%4,             Ji-yang%Liu%NULL%4,             Zhong%Chen%NULL%4,             Gang%Li%NULL%6,             Zhi-jian%Zheng%NULL%4,             Shao-qin%Qiu%NULL%4,             Jie%Luo%NULL%4,             Chang-jiang%Ye%NULL%4,             Shao-yong%Zhu%NULL%4,             Nan-shan%Zhong%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,             Dengju%Li%NULL%2,             Xiong%Wang%NULL%2,             Ziyong%Sun%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,           Cao%Yi-yuan%coreGivesNoEmail%0,           Dong%Xiang%coreGivesNoEmail%0,           Gao%Ya-dong%coreGivesNoEmail%0,           Yan%You-qin%coreGivesNoEmail%0,           Yang%Yi-bin%coreGivesNoEmail%0,           Yuan%Ya-dong%coreGivesNoEmail%0,           Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,           Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,           Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,           Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%3,             Juanjuan%Guo%NULL%3,             Chen%Wang%NULL%3,             Fan%Luo%NULL%2,             Xuechen%Yu%NULL%3,             Wei%Zhang%NULL%6,             Jiafu%Li%NULL%3,             Dongchi%Zhao%NULL%2,             Dan%Xu%NULL%3,             Qing%Gong%NULL%2,             Jing%Liao%NULL%2,             Huixia%Yang%yanghuixia@bjmu.edu.cn%3,             Wei%Hou%houwei@whu.edu.cn%2,             Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,             Yeming%Wang%NULL%6,             Xingwang%Li%NULL%7,             Lili%Ren%NULL%4,             Jianping%Zhao%NULL%9,             Yi%Hu%NULL%7,             Li%Zhang%NULL%7,             Guohui%Fan%NULL%6,             Jiuyang%Xu%NULL%6,             Xiaoying%Gu%NULL%6,             Zhenshun%Cheng%NULL%4,             Ting%Yu%NULL%13,             Jiaan%Xia%NULL%4,             Yuan%Wei%NULL%10,             Wenjuan%Wu%NULL%4,             Xuelei%Xie%NULL%4,             Wen%Yin%NULL%6,             Hui%Li%NULL%7,             Min%Liu%NULL%4,             Yan%Xiao%NULL%5,             Hong%Gao%NULL%6,             Li%Guo%NULL%5,             Jungang%Xie%NULL%5,             Guangfa%Wang%NULL%4,             Rongmeng%Jiang%NULL%4,             Zhancheng%Gao%NULL%5,             Qi%Jin%NULL%5,             Jianwei%Wang%wangjw28@163.com%0,             Bin%Cao%caobin_ben@163.com%7]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,             Xiao-Xin%Wu%NULL%4,             Xian-Gao%Jiang%NULL%4,             Kai-Jin%Xu%NULL%4,             Ling-Jun%Ying%NULL%4,             Chun-Lian%Ma%NULL%4,             Shi-Bo%Li%NULL%4,             Hua-Ying%Wang%NULL%4,             Sheng%Zhang%NULL%4,             Hai-Nv%Gao%NULL%4,             Ji-Fang%Sheng%NULL%4,             Hong-Liu%Cai%NULL%4,             Yun-Qing%Qiu%NULL%4,             Lan-Juan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%8,       Xiaoyan%Chen%xref no email%8,       Yanping%Cai%xref no email%8,       Jia\u2019an%Xia%xref no email%8,       Xing%Zhou%xref no email%8,       Sha%Xu%xref no email%8,       Hanping%Huang%xref no email%8,       Li%Zhang%xref no email%8,       Xia%Zhou%xref no email%8,       Chunling%Du%xref no email%8,       Yuye%Zhang%xref no email%8,       Juan%Song%xref no email%9,       Sijiao%Wang%xref no email%8,       Yencheng%Chao%xref no email%8,       Zeyong%Yang%xref no email%8,       Jie%Xu%xref no email%8,       Xin%Zhou%xref no email%8,       Dechang%Chen%xref no email%8,       Weining%Xiong%xref no email%8,       Lei%Xu%xref no email%8,       Feng%Zhou%xref no email%8,       Jinjun%Jiang%xref no email%8,       Chunxue%Bai%xref no email%8,       Junhua%Zheng%xref no email%8,       Yuanlin%Song%xref no email%9]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,             Kai%Xie%NULL%3,             Hui%Lu%NULL%2,             Lei%Xu%bayinhexl@126.com%2,             Shusheng%Zhou%zhouss108@163.com%2,             Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%0,             Feifei%Yao%NULL%1,             Lijie%Wang%NULL%1,             Ling%Zheng%NULL%1,             Yongjun%Gao%NULL%1,             Jun%Ye%NULL%1,             Feng%Guo%NULL%1,             Hui%Zhao%NULL%1,             Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%0,             Ci%Song%NULL%1,             Chuanjun%Xu%NULL%1,             Guangfu%Jin%NULL%1,             Yaling%Chen%NULL%1,             Xin%Xu%NULL%1,             Hongxia%Ma%NULL%1,             Wei%Chen%NULL%3,             Yuan%Lin%NULL%1,             Yishan%Zheng%NULL%1,             Jianming%Wang%NULL%1,             Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,             Yongxiang%Yi%ian0126@126.com%1,             Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%12,             Di%Wu%NULL%2,             Huilong%Chen%NULL%2,             Weiming%Yan%NULL%2,             Danlei%Yang%NULL%2,             Guang%Chen%NULL%2,             Ke%Ma%NULL%2,             Dong%Xu%NULL%2,             Haijing%Yu%NULL%2,             Hongwu%Wang%NULL%2,             Tao%Wang%NULL%0,             Wei%Guo%NULL%2,             Jia%Chen%NULL%2,             Chen%Ding%NULL%2,             Xiaoping%Zhang%NULL%2,             Jiaquan%Huang%NULL%2,             Meifang%Han%NULL%2,             Shusheng%Li%NULL%2,             Xiaoping%Luo%NULL%2,             Jianping%Zhao%NULL%0,             Qin%Ning%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,             Yuan-Yuan%Fang%NULL%4,             Yan%Deng%NULL%3,             Wei%Liu%NULL%5,             Mei-Fang%Wang%NULL%3,             Jing-Ping%Ma%NULL%3,             Wei%Xiao%NULL%3,             Ying-Nan%Wang%NULL%3,             Min-Hua%Zhong%NULL%3,             Cheng-Hong%Li%NULL%3,             Guang-Cai%Li%NULL%3,             Hui-Guo%Liu%NULL%4,             Xiu-Yuan%Hao%NULL%6,             Pei-Fang%Wei%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%4,             Tianhe%Ye%NULL%3,             Peng%Sun%NULL%3,             Shan%Gui%NULL%3,             Bo%Liang%NULL%3,             Lingli%Li%NULL%3,             Dandan%Zheng%NULL%3,             Jiazheng%Wang%NULL%3,             Richard L.%Hesketh%NULL%3,             Lian%Yang%yanglian@hust.edu.cn%3,             Chuansheng%Zheng%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%15,             Yuan%Yu%NULL%2,             Jiqian%Xu%NULL%1,             Huaqing%Shu%NULL%1,             Jia'an%Xia%NULL%4,             Hong%Liu%NULL%3,             Yongran%Wu%NULL%2,             Lu%Zhang%NULL%1,             Zhui%Yu%NULL%1,             Minghao%Fang%NULL%1,             Ting%Yu%NULL%0,             Yaxin%Wang%NULL%2,             Shangwen%Pan%NULL%1,             Xiaojing%Zou%NULL%2,             Shiying%Yuan%NULL%2,             You%Shang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%3,             Nan%Yang%NULL%2,             Yanqiu%Wei%NULL%2,             Huihui%Yue%NULL%2,             Fengqin%Zhang%NULL%2,             Jianping%Zhao%NULL%0,             Li%He%NULL%2,             Gaohong%Sheng%NULL%2,             Peng%Chen%NULL%2,             Gang%Li%NULL%0,             Sisi%Wu%NULL%2,             Bo%Zhang%NULL%2,             Shu%Zhang%szhang@tjh.tjmu.edu.cn%2,             Congyi%Wang%wangcy@tjh.tjmu.edu.cn%2,             Xiaoping%Miao%miaoxp@hust.edu.cn%2,             Juan%Li%lijuan@tjh.tjmu.edu.cn%2,             Wenhua%Liu%liuwh_2013@126.com%2,             Huilan%Zhang%huilanz_76@163.com%2]</t>
+  </si>
+  <si>
+    <t>[ J.%Liu%null%1,              L.% Ouyang%null%1,              P.% Guo%null%1,              H. s.% Wu%null%1,              P.% Fu%null%1,              Y. l.% Chen%null%1,              D.% Yang%null%1,              X. y.% Han%null%1,              Y. k.% Cao%null%1,              O.% Alwalid%null%1,              J.% Tao%null%1,              S. y.% Peng%null%1,              H. s.% Shi%null%1,              F.% Yang%null%1,              C. s. % Zheng%null%1]</t>
+  </si>
+  <si>
+    <t>medrxiv/biorxiv doi</t>
+  </si>
+  <si>
+    <t>[ R.%Liu%null%1,              X.% Ming%null%1,              O.% Xu%null%1,              J.% Zhou%null%1,              H.% Peng%null%1,              N.% Xiang%null%1,              J.% Zhang%null%1,              H. % Zhu%null%1]</t>
+  </si>
+  <si>
+    <t>[Jiaxun%Hu%xref no email%1,       You%Lv%xref no email%1,       Ying%Xu%xref no email%1,       Yushan%Miao%xref no email%1,       Wei%Wang%xref no email%5,       Wenqing%Le%xref no email%1,       Hao%Tang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%2,             Shauna%Clark%NULL%2,             Sargis%Pogosjans%NULL%2,             Meagan%Kay%NULL%2,             James%Lewis%NULL%3,             Atar%Baer%NULL%2,             Vance%Kawakami%NULL%2,             Margaret D.%Lukoff%NULL%2,             Jessica%Ferro%NULL%2,             Claire%Brostrom-Smith%NULL%2,             Francis X.%Riedo%NULL%2,             Denny%Russell%NULL%2,             Brian%Hiatt%NULL%2,             Patricia%Montgomery%NULL%2,             Agam K.%Rao%NULL%2,             Dustin W.%Currie%NULL%2,             Eric J.%Chow%NULL%2,             Farrell%Tobolowsky%NULL%2,             Ana C.%Bardossy%NULL%2,             Lisa P.%Oakley%NULL%2,             Jesica R.%Jacobs%NULL%2,             Noah G.%Schwartz%NULL%2,             Nimalie%Stone%NULL%1,             Sujan C.%Reddy%NULL%4,             John A.%Jernigan%NULL%3,             Margaret A.%Honein%NULL%2,             Thomas A.%Clark%NULL%2,             Jeffrey S.%Duchin%NULL%2,             NULL%NULL%NULL%22,             NULL%NULL%NULL%0,             Meaghan S.%Fagalde%NULL%1,             Jennifer L.%Lenahan%NULL%1,             Emily B.%Maier%NULL%1,             Kaitlyn J.%Sykes%NULL%1,             Grace%Hatt%NULL%1,             Holly%Whitney%NULL%1,             Melinda%Huntington-Frazier%NULL%1,             Elysia%Gonzales%NULL%1,             Laura A.%Mummert%NULL%1,             Hal Garcia%Smith%NULL%1,             Steve%Stearns%NULL%1,             Eileen%Benoliel%NULL%1,             Shelly%McKeirnan%NULL%1,             Jennifer L.%Morgan%NULL%1,             Daniel%Smith%NULL%1,             Michaela%Hope%NULL%1,             Noel%Hatley%NULL%1,             Leslie M.%Barnard%NULL%1,             Leilani%Schwarcz%NULL%1,             Nicole%Yarid%NULL%1,             Eric%Yim%NULL%1,             Sandra%Kreider%NULL%1,             Dawn%Barr%NULL%1,             Nancy%Wilde%NULL%1,             Courtney%Dorman%NULL%1,             Airin%Lam%NULL%1,             Jeanette%Harris%NULL%1,             Hollianne%Bruce%NULL%2,             Christopher%Spitters%NULL%2,             Snohomish Health%District%NULL%1,             Rachael%Zacks%NULL%1,             Jonathan%Dyal%NULL%1,             Michael%Hughes%NULL%1,             Christina%Carlson%NULL%1,             Barbara%Cooper%NULL%1,             Michelle%Banks%NULL%1,             Heather%McLaughlin%NULL%1,             Arun%Balajee%NULL%1,             Christine%Olson%NULL%1,             Suzanne%Zane%NULL%1,             Hammad%Ali%NULL%1,             Jessica%Healy%NULL%1,             Kristine%Schmit%NULL%1,             Kevin%Spicer%NULL%1,             Zeshan%Chisty%NULL%1,             Sukarma%Tanwar%NULL%1,             Joanne%Taylor%NULL%1,             Leisha%Nolen%NULL%1,             Jeneita%Bell%NULL%1,             Kelly%Hatfield%NULL%1,             Melissa%Arons%NULL%1,             Anne%Kimball%NULL%1,             Allison%James%NULL%1,             Mark%Methner%NULL%1,             Joshua%Harney%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2234,7 +2297,7 @@
         <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -2263,7 +2326,7 @@
         <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -2292,7 +2355,7 @@
         <v>243</v>
       </c>
       <c r="E5" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2321,7 +2384,7 @@
         <v>246</v>
       </c>
       <c r="E6" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -2350,7 +2413,7 @@
         <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -2379,7 +2442,7 @@
         <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -2408,7 +2471,7 @@
         <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -2437,7 +2500,7 @@
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2466,7 +2529,7 @@
         <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -2495,7 +2558,7 @@
         <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
@@ -2524,7 +2587,7 @@
         <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
@@ -2553,7 +2616,7 @@
         <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -2582,7 +2645,7 @@
         <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="F15" t="s">
         <v>81</v>
@@ -2611,7 +2674,7 @@
         <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="F16" t="s">
         <v>85</v>
@@ -2669,7 +2732,7 @@
         <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
@@ -2698,7 +2761,7 @@
         <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="F19" t="s">
         <v>93</v>
@@ -2727,13 +2790,13 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>459</v>
       </c>
       <c r="H20" t="s">
         <v>103</v>
@@ -2756,13 +2819,13 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>459</v>
       </c>
       <c r="H21" t="s">
         <v>107</v>
@@ -2785,7 +2848,7 @@
         <v>338</v>
       </c>
       <c r="E22" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -2814,7 +2877,7 @@
         <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="F23" t="s">
         <v>98</v>

--- a/Covid_19_Dataset_and_References/References/5.xlsx
+++ b/Covid_19_Dataset_and_References/References/5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4056" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4217" uniqueCount="483">
   <si>
     <t>Doi</t>
   </si>
@@ -1934,6 +1934,66 @@
   </si>
   <si>
     <t>[Temet M.%McMichael%NULL%2,             Shauna%Clark%NULL%2,             Sargis%Pogosjans%NULL%2,             Meagan%Kay%NULL%2,             James%Lewis%NULL%3,             Atar%Baer%NULL%2,             Vance%Kawakami%NULL%2,             Margaret D.%Lukoff%NULL%2,             Jessica%Ferro%NULL%2,             Claire%Brostrom-Smith%NULL%2,             Francis X.%Riedo%NULL%2,             Denny%Russell%NULL%2,             Brian%Hiatt%NULL%2,             Patricia%Montgomery%NULL%2,             Agam K.%Rao%NULL%2,             Dustin W.%Currie%NULL%2,             Eric J.%Chow%NULL%2,             Farrell%Tobolowsky%NULL%2,             Ana C.%Bardossy%NULL%2,             Lisa P.%Oakley%NULL%2,             Jesica R.%Jacobs%NULL%2,             Noah G.%Schwartz%NULL%2,             Nimalie%Stone%NULL%1,             Sujan C.%Reddy%NULL%4,             John A.%Jernigan%NULL%3,             Margaret A.%Honein%NULL%2,             Thomas A.%Clark%NULL%2,             Jeffrey S.%Duchin%NULL%2,             NULL%NULL%NULL%22,             NULL%NULL%NULL%0,             Meaghan S.%Fagalde%NULL%1,             Jennifer L.%Lenahan%NULL%1,             Emily B.%Maier%NULL%1,             Kaitlyn J.%Sykes%NULL%1,             Grace%Hatt%NULL%1,             Holly%Whitney%NULL%1,             Melinda%Huntington-Frazier%NULL%1,             Elysia%Gonzales%NULL%1,             Laura A.%Mummert%NULL%1,             Hal Garcia%Smith%NULL%1,             Steve%Stearns%NULL%1,             Eileen%Benoliel%NULL%1,             Shelly%McKeirnan%NULL%1,             Jennifer L.%Morgan%NULL%1,             Daniel%Smith%NULL%1,             Michaela%Hope%NULL%1,             Noel%Hatley%NULL%1,             Leslie M.%Barnard%NULL%1,             Leilani%Schwarcz%NULL%1,             Nicole%Yarid%NULL%1,             Eric%Yim%NULL%1,             Sandra%Kreider%NULL%1,             Dawn%Barr%NULL%1,             Nancy%Wilde%NULL%1,             Courtney%Dorman%NULL%1,             Airin%Lam%NULL%1,             Jeanette%Harris%NULL%1,             Hollianne%Bruce%NULL%2,             Christopher%Spitters%NULL%2,             Snohomish Health%District%NULL%1,             Rachael%Zacks%NULL%1,             Jonathan%Dyal%NULL%1,             Michael%Hughes%NULL%1,             Christina%Carlson%NULL%1,             Barbara%Cooper%NULL%1,             Michelle%Banks%NULL%1,             Heather%McLaughlin%NULL%1,             Arun%Balajee%NULL%1,             Christine%Olson%NULL%1,             Suzanne%Zane%NULL%1,             Hammad%Ali%NULL%1,             Jessica%Healy%NULL%1,             Kristine%Schmit%NULL%1,             Kevin%Spicer%NULL%1,             Zeshan%Chisty%NULL%1,             Sukarma%Tanwar%NULL%1,             Joanne%Taylor%NULL%1,             Leisha%Nolen%NULL%1,             Jeneita%Bell%NULL%1,             Kelly%Hatfield%NULL%1,             Melissa%Arons%NULL%1,             Anne%Kimball%NULL%1,             Allison%James%NULL%1,             Mark%Methner%NULL%1,             Joshua%Harney%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%14,              Zheng-yi%Ni%NULL%5,              Yu%Hu%NULL%4,              Wen-hua%Liang%NULL%4,              Chun-quan%Ou%NULL%4,              Jian-xing%He%NULL%4,              Lei%Liu%NULL%8,              Hong%Shan%NULL%6,              Chun-liang%Lei%NULL%4,              David S.C.%Hui%NULL%3,              Bin%Du%NULL%3,              Lan-juan%Li%NULL%3,              Guang%Zeng%NULL%3,              Kwok-Yung%Yuen%NULL%6,              Ru-chong%Chen%NULL%4,              Chun-li%Tang%NULL%4,              Tao%Wang%NULL%7,              Ping-yan%Chen%NULL%4,              Jie%Xiang%NULL%6,              Shi-yue%Li%NULL%4,              Jin-lin%Wang%NULL%3,              Zi-jing%Liang%NULL%3,              Yi-xiang%Peng%NULL%4,              Li%Wei%NULL%4,              Yong%Liu%NULL%4,              Ya-hua%Hu%NULL%4,              Peng%Peng%NULL%7,              Jian-ming%Wang%NULL%4,              Ji-yang%Liu%NULL%4,              Zhong%Chen%NULL%4,              Gang%Li%NULL%6,              Zhi-jian%Zheng%NULL%4,              Shao-qin%Qiu%NULL%4,              Jie%Luo%NULL%4,              Chang-jiang%Ye%NULL%4,              Shao-yong%Zhu%NULL%4,              Nan-shan%Zhong%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,              Dengju%Li%NULL%2,              Xiong%Wang%NULL%2,              Ziyong%Sun%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,            Cao%Yi-yuan%coreGivesNoEmail%0,            Dong%Xiang%coreGivesNoEmail%0,            Gao%Ya-dong%coreGivesNoEmail%0,            Yan%You-qin%coreGivesNoEmail%0,            Yang%Yi-bin%coreGivesNoEmail%0,            Yuan%Ya-dong%coreGivesNoEmail%0,            Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,            Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,            Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,            Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%3,              Juanjuan%Guo%NULL%3,              Chen%Wang%NULL%3,              Fan%Luo%NULL%2,              Xuechen%Yu%NULL%3,              Wei%Zhang%NULL%6,              Jiafu%Li%NULL%3,              Dongchi%Zhao%NULL%2,              Dan%Xu%NULL%3,              Qing%Gong%NULL%2,              Jing%Liao%NULL%2,              Huixia%Yang%yanghuixia@bjmu.edu.cn%3,              Wei%Hou%houwei@whu.edu.cn%2,              Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,              Yeming%Wang%NULL%6,              Xingwang%Li%NULL%7,              Lili%Ren%NULL%4,              Jianping%Zhao%NULL%9,              Yi%Hu%NULL%7,              Li%Zhang%NULL%7,              Guohui%Fan%NULL%6,              Jiuyang%Xu%NULL%6,              Xiaoying%Gu%NULL%6,              Zhenshun%Cheng%NULL%4,              Ting%Yu%NULL%13,              Jiaan%Xia%NULL%4,              Yuan%Wei%NULL%10,              Wenjuan%Wu%NULL%4,              Xuelei%Xie%NULL%4,              Wen%Yin%NULL%6,              Hui%Li%NULL%7,              Min%Liu%NULL%4,              Yan%Xiao%NULL%5,              Hong%Gao%NULL%6,              Li%Guo%NULL%5,              Jungang%Xie%NULL%5,              Guangfa%Wang%NULL%4,              Rongmeng%Jiang%NULL%4,              Zhancheng%Gao%NULL%5,              Qi%Jin%NULL%5,              Jianwei%Wang%wangjw28@163.com%0,              Bin%Cao%caobin_ben@163.com%7]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,              Xiao-Xin%Wu%NULL%4,              Xian-Gao%Jiang%NULL%4,              Kai-Jin%Xu%NULL%4,              Ling-Jun%Ying%NULL%4,              Chun-Lian%Ma%NULL%4,              Shi-Bo%Li%NULL%4,              Hua-Ying%Wang%NULL%4,              Sheng%Zhang%NULL%4,              Hai-Nv%Gao%NULL%4,              Ji-Fang%Sheng%NULL%4,              Hong-Liu%Cai%NULL%4,              Yun-Qing%Qiu%NULL%4,              Lan-Juan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%9,        Xiaoyan%Chen%xref no email%8,        Yanping%Cai%xref no email%8,        Jia\u2019an%Xia%xref no email%8,        Xing%Zhou%xref no email%8,        Sha%Xu%xref no email%8,        Hanping%Huang%xref no email%8,        Li%Zhang%xref no email%8,        Xia%Zhou%xref no email%8,        Chunling%Du%xref no email%8,        Yuye%Zhang%xref no email%8,        Juan%Song%xref no email%9,        Sijiao%Wang%xref no email%8,        Yencheng%Chao%xref no email%8,        Zeyong%Yang%xref no email%8,        Jie%Xu%xref no email%8,        Xin%Zhou%xref no email%8,        Dechang%Chen%xref no email%8,        Weining%Xiong%xref no email%8,        Lei%Xu%xref no email%8,        Feng%Zhou%xref no email%8,        Jinjun%Jiang%xref no email%8,        Chunxue%Bai%xref no email%8,        Junhua%Zheng%xref no email%8,        Yuanlin%Song%xref no email%9]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,              Kai%Xie%NULL%3,              Hui%Lu%NULL%2,              Lei%Xu%bayinhexl@126.com%2,              Shusheng%Zhou%zhouss108@163.com%2,              Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%0,              Feifei%Yao%NULL%1,              Lijie%Wang%NULL%1,              Ling%Zheng%NULL%1,              Yongjun%Gao%NULL%1,              Jun%Ye%NULL%1,              Feng%Guo%NULL%1,              Hui%Zhao%NULL%1,              Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%0,              Ci%Song%NULL%1,              Chuanjun%Xu%NULL%1,              Guangfu%Jin%NULL%1,              Yaling%Chen%NULL%1,              Xin%Xu%NULL%1,              Hongxia%Ma%NULL%1,              Wei%Chen%NULL%3,              Yuan%Lin%NULL%1,              Yishan%Zheng%NULL%1,              Jianming%Wang%NULL%1,              Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,              Yongxiang%Yi%ian0126@126.com%1,              Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%12,              Di%Wu%NULL%2,              Huilong%Chen%NULL%2,              Weiming%Yan%NULL%2,              Danlei%Yang%NULL%2,              Guang%Chen%NULL%2,              Ke%Ma%NULL%2,              Dong%Xu%NULL%2,              Haijing%Yu%NULL%2,              Hongwu%Wang%NULL%2,              Tao%Wang%NULL%0,              Wei%Guo%NULL%2,              Jia%Chen%NULL%2,              Chen%Ding%NULL%2,              Xiaoping%Zhang%NULL%2,              Jiaquan%Huang%NULL%2,              Meifang%Han%NULL%2,              Shusheng%Li%NULL%2,              Xiaoping%Luo%NULL%2,              Jianping%Zhao%NULL%0,              Qin%Ning%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,              Yuan-Yuan%Fang%NULL%4,              Yan%Deng%NULL%3,              Wei%Liu%NULL%5,              Mei-Fang%Wang%NULL%3,              Jing-Ping%Ma%NULL%3,              Wei%Xiao%NULL%3,              Ying-Nan%Wang%NULL%3,              Min-Hua%Zhong%NULL%3,              Cheng-Hong%Li%NULL%3,              Guang-Cai%Li%NULL%3,              Hui-Guo%Liu%NULL%4,              Xiu-Yuan%Hao%NULL%6,              Pei-Fang%Wei%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%4,              Tianhe%Ye%NULL%3,              Peng%Sun%NULL%3,              Shan%Gui%NULL%3,              Bo%Liang%NULL%3,              Lingli%Li%NULL%3,              Dandan%Zheng%NULL%3,              Jiazheng%Wang%NULL%3,              Richard L.%Hesketh%NULL%3,              Lian%Yang%yanglian@hust.edu.cn%3,              Chuansheng%Zheng%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%15,              Yuan%Yu%NULL%2,              Jiqian%Xu%NULL%1,              Huaqing%Shu%NULL%1,              Jia'an%Xia%NULL%4,              Hong%Liu%NULL%3,              Yongran%Wu%NULL%2,              Lu%Zhang%NULL%1,              Zhui%Yu%NULL%1,              Minghao%Fang%NULL%1,              Ting%Yu%NULL%0,              Yaxin%Wang%NULL%2,              Shangwen%Pan%NULL%1,              Xiaojing%Zou%NULL%2,              Shiying%Yuan%NULL%2,              You%Shang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%3,              Nan%Yang%NULL%2,              Yanqiu%Wei%NULL%2,              Huihui%Yue%NULL%2,              Fengqin%Zhang%NULL%2,              Jianping%Zhao%NULL%0,              Li%He%NULL%2,              Gaohong%Sheng%NULL%2,              Peng%Chen%NULL%2,              Gang%Li%NULL%0,              Sisi%Wu%NULL%2,              Bo%Zhang%NULL%2,              Shu%Zhang%szhang@tjh.tjmu.edu.cn%2,              Congyi%Wang%wangcy@tjh.tjmu.edu.cn%2,              Xiaoping%Miao%miaoxp@hust.edu.cn%2,              Juan%Li%lijuan@tjh.tjmu.edu.cn%2,              Wenhua%Liu%liuwh_2013@126.com%2,              Huilan%Zhang%huilanz_76@163.com%2]</t>
+  </si>
+  <si>
+    <t>[ J.%Liu%null%1,               L.% Ouyang%null%1,               P.% Guo%null%1,               H. s.% Wu%null%1,               P.% Fu%null%1,               Y. l.% Chen%null%1,               D.% Yang%null%1,               X. y.% Han%null%1,               Y. k.% Cao%null%1,               O.% Alwalid%null%1,               J.% Tao%null%1,               S. y.% Peng%null%1,               H. s.% Shi%null%1,               F.% Yang%null%1,               C. s. % Zheng%null%1]</t>
+  </si>
+  <si>
+    <t>[ R.%Liu%null%1,               X.% Ming%null%1,               O.% Xu%null%1,               J.% Zhou%null%1,               H.% Peng%null%1,               N.% Xiang%null%1,               J.% Zhang%null%1,               H. % Zhu%null%1]</t>
+  </si>
+  <si>
+    <t>[Jiaxun%Hu%xref no email%1,        You%Lv%xref no email%1,        Ying%Xu%xref no email%1,        Yushan%Miao%xref no email%1,        Wei%Wang%xref no email%5,        Wenqing%Le%xref no email%1,        Hao%Tang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%2,              Shauna%Clark%NULL%2,              Sargis%Pogosjans%NULL%2,              Meagan%Kay%NULL%2,              James%Lewis%NULL%3,              Atar%Baer%NULL%2,              Vance%Kawakami%NULL%2,              Margaret D.%Lukoff%NULL%2,              Jessica%Ferro%NULL%2,              Claire%Brostrom-Smith%NULL%2,              Francis X.%Riedo%NULL%2,              Denny%Russell%NULL%2,              Brian%Hiatt%NULL%2,              Patricia%Montgomery%NULL%2,              Agam K.%Rao%NULL%2,              Dustin W.%Currie%NULL%2,              Eric J.%Chow%NULL%2,              Farrell%Tobolowsky%NULL%2,              Ana C.%Bardossy%NULL%2,              Lisa P.%Oakley%NULL%2,              Jesica R.%Jacobs%NULL%2,              Noah G.%Schwartz%NULL%2,              Nimalie%Stone%NULL%1,              Sujan C.%Reddy%NULL%4,              John A.%Jernigan%NULL%3,              Margaret A.%Honein%NULL%2,              Thomas A.%Clark%NULL%2,              Jeffrey S.%Duchin%NULL%2,              NULL%NULL%NULL%22,              NULL%NULL%NULL%0,              Meaghan S.%Fagalde%NULL%1,              Jennifer L.%Lenahan%NULL%1,              Emily B.%Maier%NULL%1,              Kaitlyn J.%Sykes%NULL%1,              Grace%Hatt%NULL%1,              Holly%Whitney%NULL%1,              Melinda%Huntington-Frazier%NULL%1,              Elysia%Gonzales%NULL%1,              Laura A.%Mummert%NULL%1,              Hal Garcia%Smith%NULL%1,              Steve%Stearns%NULL%1,              Eileen%Benoliel%NULL%1,              Shelly%McKeirnan%NULL%1,              Jennifer L.%Morgan%NULL%1,              Daniel%Smith%NULL%1,              Michaela%Hope%NULL%1,              Noel%Hatley%NULL%1,              Leslie M.%Barnard%NULL%1,              Leilani%Schwarcz%NULL%1,              Nicole%Yarid%NULL%1,              Eric%Yim%NULL%1,              Sandra%Kreider%NULL%1,              Dawn%Barr%NULL%1,              Nancy%Wilde%NULL%1,              Courtney%Dorman%NULL%1,              Airin%Lam%NULL%1,              Jeanette%Harris%NULL%1,              Hollianne%Bruce%NULL%2,              Christopher%Spitters%NULL%2,              Snohomish Health%District%NULL%1,              Rachael%Zacks%NULL%1,              Jonathan%Dyal%NULL%1,              Michael%Hughes%NULL%1,              Christina%Carlson%NULL%1,              Barbara%Cooper%NULL%1,              Michelle%Banks%NULL%1,              Heather%McLaughlin%NULL%1,              Arun%Balajee%NULL%1,              Christine%Olson%NULL%1,              Suzanne%Zane%NULL%1,              Hammad%Ali%NULL%1,              Jessica%Healy%NULL%1,              Kristine%Schmit%NULL%1,              Kevin%Spicer%NULL%1,              Zeshan%Chisty%NULL%1,              Sukarma%Tanwar%NULL%1,              Joanne%Taylor%NULL%1,              Leisha%Nolen%NULL%1,              Jeneita%Bell%NULL%1,              Kelly%Hatfield%NULL%1,              Melissa%Arons%NULL%1,              Anne%Kimball%NULL%1,              Allison%James%NULL%1,              Mark%Methner%NULL%1,              Joshua%Harney%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2297,7 +2357,7 @@
         <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -2326,7 +2386,7 @@
         <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -2355,7 +2415,7 @@
         <v>243</v>
       </c>
       <c r="E5" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2384,7 +2444,7 @@
         <v>246</v>
       </c>
       <c r="E6" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -2413,7 +2473,7 @@
         <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -2442,7 +2502,7 @@
         <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -2471,7 +2531,7 @@
         <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -2500,7 +2560,7 @@
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2529,7 +2589,7 @@
         <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -2558,7 +2618,7 @@
         <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
@@ -2587,7 +2647,7 @@
         <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
@@ -2616,7 +2676,7 @@
         <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -2645,7 +2705,7 @@
         <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="F15" t="s">
         <v>81</v>
@@ -2674,7 +2734,7 @@
         <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="F16" t="s">
         <v>85</v>
@@ -2732,7 +2792,7 @@
         <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
@@ -2761,7 +2821,7 @@
         <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="F19" t="s">
         <v>93</v>
@@ -2790,7 +2850,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>458</v>
+        <v>479</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -2819,7 +2879,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="F21" t="s">
         <v>21</v>
@@ -2848,7 +2908,7 @@
         <v>338</v>
       </c>
       <c r="E22" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -2877,7 +2937,7 @@
         <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="F23" t="s">
         <v>98</v>

--- a/Covid_19_Dataset_and_References/References/5.xlsx
+++ b/Covid_19_Dataset_and_References/References/5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4217" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4539" uniqueCount="523">
   <si>
     <t>Doi</t>
   </si>
@@ -1994,6 +1994,126 @@
   </si>
   <si>
     <t>[Temet M.%McMichael%NULL%2,              Shauna%Clark%NULL%2,              Sargis%Pogosjans%NULL%2,              Meagan%Kay%NULL%2,              James%Lewis%NULL%3,              Atar%Baer%NULL%2,              Vance%Kawakami%NULL%2,              Margaret D.%Lukoff%NULL%2,              Jessica%Ferro%NULL%2,              Claire%Brostrom-Smith%NULL%2,              Francis X.%Riedo%NULL%2,              Denny%Russell%NULL%2,              Brian%Hiatt%NULL%2,              Patricia%Montgomery%NULL%2,              Agam K.%Rao%NULL%2,              Dustin W.%Currie%NULL%2,              Eric J.%Chow%NULL%2,              Farrell%Tobolowsky%NULL%2,              Ana C.%Bardossy%NULL%2,              Lisa P.%Oakley%NULL%2,              Jesica R.%Jacobs%NULL%2,              Noah G.%Schwartz%NULL%2,              Nimalie%Stone%NULL%1,              Sujan C.%Reddy%NULL%4,              John A.%Jernigan%NULL%3,              Margaret A.%Honein%NULL%2,              Thomas A.%Clark%NULL%2,              Jeffrey S.%Duchin%NULL%2,              NULL%NULL%NULL%22,              NULL%NULL%NULL%0,              Meaghan S.%Fagalde%NULL%1,              Jennifer L.%Lenahan%NULL%1,              Emily B.%Maier%NULL%1,              Kaitlyn J.%Sykes%NULL%1,              Grace%Hatt%NULL%1,              Holly%Whitney%NULL%1,              Melinda%Huntington-Frazier%NULL%1,              Elysia%Gonzales%NULL%1,              Laura A.%Mummert%NULL%1,              Hal Garcia%Smith%NULL%1,              Steve%Stearns%NULL%1,              Eileen%Benoliel%NULL%1,              Shelly%McKeirnan%NULL%1,              Jennifer L.%Morgan%NULL%1,              Daniel%Smith%NULL%1,              Michaela%Hope%NULL%1,              Noel%Hatley%NULL%1,              Leslie M.%Barnard%NULL%1,              Leilani%Schwarcz%NULL%1,              Nicole%Yarid%NULL%1,              Eric%Yim%NULL%1,              Sandra%Kreider%NULL%1,              Dawn%Barr%NULL%1,              Nancy%Wilde%NULL%1,              Courtney%Dorman%NULL%1,              Airin%Lam%NULL%1,              Jeanette%Harris%NULL%1,              Hollianne%Bruce%NULL%2,              Christopher%Spitters%NULL%2,              Snohomish Health%District%NULL%1,              Rachael%Zacks%NULL%1,              Jonathan%Dyal%NULL%1,              Michael%Hughes%NULL%1,              Christina%Carlson%NULL%1,              Barbara%Cooper%NULL%1,              Michelle%Banks%NULL%1,              Heather%McLaughlin%NULL%1,              Arun%Balajee%NULL%1,              Christine%Olson%NULL%1,              Suzanne%Zane%NULL%1,              Hammad%Ali%NULL%1,              Jessica%Healy%NULL%1,              Kristine%Schmit%NULL%1,              Kevin%Spicer%NULL%1,              Zeshan%Chisty%NULL%1,              Sukarma%Tanwar%NULL%1,              Joanne%Taylor%NULL%1,              Leisha%Nolen%NULL%1,              Jeneita%Bell%NULL%1,              Kelly%Hatfield%NULL%1,              Melissa%Arons%NULL%1,              Anne%Kimball%NULL%1,              Allison%James%NULL%1,              Mark%Methner%NULL%1,              Joshua%Harney%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%14,               Zheng-yi%Ni%NULL%5,               Yu%Hu%NULL%4,               Wen-hua%Liang%NULL%4,               Chun-quan%Ou%NULL%4,               Jian-xing%He%NULL%4,               Lei%Liu%NULL%8,               Hong%Shan%NULL%6,               Chun-liang%Lei%NULL%4,               David S.C.%Hui%NULL%3,               Bin%Du%NULL%3,               Lan-juan%Li%NULL%3,               Guang%Zeng%NULL%3,               Kwok-Yung%Yuen%NULL%6,               Ru-chong%Chen%NULL%4,               Chun-li%Tang%NULL%4,               Tao%Wang%NULL%7,               Ping-yan%Chen%NULL%4,               Jie%Xiang%NULL%6,               Shi-yue%Li%NULL%4,               Jin-lin%Wang%NULL%3,               Zi-jing%Liang%NULL%3,               Yi-xiang%Peng%NULL%4,               Li%Wei%NULL%4,               Yong%Liu%NULL%4,               Ya-hua%Hu%NULL%4,               Peng%Peng%NULL%7,               Jian-ming%Wang%NULL%4,               Ji-yang%Liu%NULL%4,               Zhong%Chen%NULL%4,               Gang%Li%NULL%6,               Zhi-jian%Zheng%NULL%4,               Shao-qin%Qiu%NULL%4,               Jie%Luo%NULL%4,               Chang-jiang%Ye%NULL%4,               Shao-yong%Zhu%NULL%4,               Nan-shan%Zhong%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,               Dengju%Li%NULL%2,               Xiong%Wang%NULL%2,               Ziyong%Sun%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,             Cao%Yi-yuan%coreGivesNoEmail%0,             Dong%Xiang%coreGivesNoEmail%0,             Gao%Ya-dong%coreGivesNoEmail%0,             Yan%You-qin%coreGivesNoEmail%0,             Yang%Yi-bin%coreGivesNoEmail%0,             Yuan%Ya-dong%coreGivesNoEmail%0,             Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,             Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,             Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,             Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%3,               Juanjuan%Guo%NULL%3,               Chen%Wang%NULL%3,               Fan%Luo%NULL%2,               Xuechen%Yu%NULL%3,               Wei%Zhang%NULL%6,               Jiafu%Li%NULL%3,               Dongchi%Zhao%NULL%2,               Dan%Xu%NULL%3,               Qing%Gong%NULL%2,               Jing%Liao%NULL%2,               Huixia%Yang%yanghuixia@bjmu.edu.cn%3,               Wei%Hou%houwei@whu.edu.cn%2,               Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,               Yeming%Wang%NULL%6,               Xingwang%Li%NULL%7,               Lili%Ren%NULL%4,               Jianping%Zhao%NULL%9,               Yi%Hu%NULL%7,               Li%Zhang%NULL%7,               Guohui%Fan%NULL%6,               Jiuyang%Xu%NULL%6,               Xiaoying%Gu%NULL%6,               Zhenshun%Cheng%NULL%4,               Ting%Yu%NULL%13,               Jiaan%Xia%NULL%4,               Yuan%Wei%NULL%10,               Wenjuan%Wu%NULL%4,               Xuelei%Xie%NULL%4,               Wen%Yin%NULL%6,               Hui%Li%NULL%7,               Min%Liu%NULL%4,               Yan%Xiao%NULL%5,               Hong%Gao%NULL%6,               Li%Guo%NULL%5,               Jungang%Xie%NULL%5,               Guangfa%Wang%NULL%4,               Rongmeng%Jiang%NULL%4,               Zhancheng%Gao%NULL%5,               Qi%Jin%NULL%5,               Jianwei%Wang%wangjw28@163.com%0,               Bin%Cao%caobin_ben@163.com%7]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,               Xiao-Xin%Wu%NULL%4,               Xian-Gao%Jiang%NULL%4,               Kai-Jin%Xu%NULL%4,               Ling-Jun%Ying%NULL%4,               Chun-Lian%Ma%NULL%4,               Shi-Bo%Li%NULL%4,               Hua-Ying%Wang%NULL%4,               Sheng%Zhang%NULL%4,               Hai-Nv%Gao%NULL%4,               Ji-Fang%Sheng%NULL%4,               Hong-Liu%Cai%NULL%4,               Yun-Qing%Qiu%NULL%4,               Lan-Juan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,         Xiaoyan%Chen%xref no email%8,         Yanping%Cai%xref no email%8,         Jia\u2019an%Xia%xref no email%8,         Xing%Zhou%xref no email%8,         Sha%Xu%xref no email%8,         Hanping%Huang%xref no email%8,         Li%Zhang%xref no email%8,         Xia%Zhou%xref no email%8,         Chunling%Du%xref no email%8,         Yuye%Zhang%xref no email%8,         Juan%Song%xref no email%9,         Sijiao%Wang%xref no email%8,         Yencheng%Chao%xref no email%8,         Zeyong%Yang%xref no email%8,         Jie%Xu%xref no email%8,         Xin%Zhou%xref no email%8,         Dechang%Chen%xref no email%8,         Weining%Xiong%xref no email%8,         Lei%Xu%xref no email%8,         Feng%Zhou%xref no email%8,         Jinjun%Jiang%xref no email%8,         Chunxue%Bai%xref no email%8,         Junhua%Zheng%xref no email%8,         Yuanlin%Song%xref no email%9]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,               Kai%Xie%NULL%3,               Hui%Lu%NULL%2,               Lei%Xu%bayinhexl@126.com%2,               Shusheng%Zhou%zhouss108@163.com%2,               Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%0,               Feifei%Yao%NULL%1,               Lijie%Wang%NULL%1,               Ling%Zheng%NULL%1,               Yongjun%Gao%NULL%1,               Jun%Ye%NULL%1,               Feng%Guo%NULL%1,               Hui%Zhao%NULL%1,               Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%1,               Ci%Song%NULL%1,               Chuanjun%Xu%NULL%1,               Guangfu%Jin%NULL%1,               Yaling%Chen%NULL%1,               Xin%Xu%NULL%1,               Hongxia%Ma%NULL%1,               Wei%Chen%NULL%3,               Yuan%Lin%NULL%1,               Yishan%Zheng%NULL%1,               Jianming%Wang%NULL%1,               Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,               Yongxiang%Yi%ian0126@126.com%1,               Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%12,               Di%Wu%NULL%2,               Huilong%Chen%NULL%2,               Weiming%Yan%NULL%2,               Danlei%Yang%NULL%2,               Guang%Chen%NULL%2,               Ke%Ma%NULL%2,               Dong%Xu%NULL%2,               Haijing%Yu%NULL%2,               Hongwu%Wang%NULL%2,               Tao%Wang%NULL%0,               Wei%Guo%NULL%2,               Jia%Chen%NULL%2,               Chen%Ding%NULL%2,               Xiaoping%Zhang%NULL%2,               Jiaquan%Huang%NULL%2,               Meifang%Han%NULL%2,               Shusheng%Li%NULL%2,               Xiaoping%Luo%NULL%2,               Jianping%Zhao%NULL%0,               Qin%Ning%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,               Yuan-Yuan%Fang%NULL%4,               Yan%Deng%NULL%3,               Wei%Liu%NULL%5,               Mei-Fang%Wang%NULL%3,               Jing-Ping%Ma%NULL%3,               Wei%Xiao%NULL%3,               Ying-Nan%Wang%NULL%3,               Min-Hua%Zhong%NULL%3,               Cheng-Hong%Li%NULL%3,               Guang-Cai%Li%NULL%3,               Hui-Guo%Liu%NULL%4,               Xiu-Yuan%Hao%NULL%6,               Pei-Fang%Wei%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%4,               Tianhe%Ye%NULL%3,               Peng%Sun%NULL%3,               Shan%Gui%NULL%3,               Bo%Liang%NULL%3,               Lingli%Li%NULL%3,               Dandan%Zheng%NULL%3,               Jiazheng%Wang%NULL%3,               Richard L.%Hesketh%NULL%3,               Lian%Yang%yanglian@hust.edu.cn%3,               Chuansheng%Zheng%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%15,               Yuan%Yu%NULL%2,               Jiqian%Xu%NULL%1,               Huaqing%Shu%NULL%1,               Jia'an%Xia%NULL%4,               Hong%Liu%NULL%3,               Yongran%Wu%NULL%2,               Lu%Zhang%NULL%1,               Zhui%Yu%NULL%1,               Minghao%Fang%NULL%1,               Ting%Yu%NULL%0,               Yaxin%Wang%NULL%2,               Shangwen%Pan%NULL%1,               Xiaojing%Zou%NULL%2,               Shiying%Yuan%NULL%2,               You%Shang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%3,               Nan%Yang%NULL%2,               Yanqiu%Wei%NULL%2,               Huihui%Yue%NULL%2,               Fengqin%Zhang%NULL%2,               Jianping%Zhao%NULL%0,               Li%He%NULL%2,               Gaohong%Sheng%NULL%2,               Peng%Chen%NULL%2,               Gang%Li%NULL%0,               Sisi%Wu%NULL%2,               Bo%Zhang%NULL%2,               Shu%Zhang%szhang@tjh.tjmu.edu.cn%2,               Congyi%Wang%wangcy@tjh.tjmu.edu.cn%2,               Xiaoping%Miao%miaoxp@hust.edu.cn%2,               Juan%Li%lijuan@tjh.tjmu.edu.cn%2,               Wenhua%Liu%liuwh_2013@126.com%2,               Huilan%Zhang%huilanz_76@163.com%2]</t>
+  </si>
+  <si>
+    <t>[ J.%Liu%null%1,                L.% Ouyang%null%1,                P.% Guo%null%1,                H. s.% Wu%null%1,                P.% Fu%null%1,                Y. l.% Chen%null%1,                D.% Yang%null%1,                X. y.% Han%null%1,                Y. k.% Cao%null%1,                O.% Alwalid%null%1,                J.% Tao%null%1,                S. y.% Peng%null%1,                H. s.% Shi%null%1,                F.% Yang%null%1,                C. s. % Zheng%null%1]</t>
+  </si>
+  <si>
+    <t>[ R.%Liu%null%1,                X.% Ming%null%1,                O.% Xu%null%1,                J.% Zhou%null%1,                H.% Peng%null%1,                N.% Xiang%null%1,                J.% Zhang%null%1,                H. % Zhu%null%1]</t>
+  </si>
+  <si>
+    <t>[Jiaxun%Hu%xref no email%1,         You%Lv%xref no email%1,         Ying%Xu%xref no email%1,         Yushan%Miao%xref no email%1,         Wei%Wang%xref no email%5,         Wenqing%Le%xref no email%1,         Hao%Tang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%2,               Shauna%Clark%NULL%2,               Sargis%Pogosjans%NULL%2,               Meagan%Kay%NULL%2,               James%Lewis%NULL%3,               Atar%Baer%NULL%2,               Vance%Kawakami%NULL%2,               Margaret D.%Lukoff%NULL%2,               Jessica%Ferro%NULL%2,               Claire%Brostrom-Smith%NULL%2,               Francis X.%Riedo%NULL%2,               Denny%Russell%NULL%2,               Brian%Hiatt%NULL%2,               Patricia%Montgomery%NULL%2,               Agam K.%Rao%NULL%2,               Dustin W.%Currie%NULL%2,               Eric J.%Chow%NULL%2,               Farrell%Tobolowsky%NULL%2,               Ana C.%Bardossy%NULL%2,               Lisa P.%Oakley%NULL%2,               Jesica R.%Jacobs%NULL%2,               Noah G.%Schwartz%NULL%2,               Nimalie%Stone%NULL%1,               Sujan C.%Reddy%NULL%4,               John A.%Jernigan%NULL%3,               Margaret A.%Honein%NULL%2,               Thomas A.%Clark%NULL%2,               Jeffrey S.%Duchin%NULL%2,               NULL%NULL%NULL%22,               NULL%NULL%NULL%0,               Meaghan S.%Fagalde%NULL%1,               Jennifer L.%Lenahan%NULL%1,               Emily B.%Maier%NULL%1,               Kaitlyn J.%Sykes%NULL%1,               Grace%Hatt%NULL%1,               Holly%Whitney%NULL%1,               Melinda%Huntington-Frazier%NULL%1,               Elysia%Gonzales%NULL%1,               Laura A.%Mummert%NULL%1,               Hal Garcia%Smith%NULL%1,               Steve%Stearns%NULL%1,               Eileen%Benoliel%NULL%1,               Shelly%McKeirnan%NULL%1,               Jennifer L.%Morgan%NULL%1,               Daniel%Smith%NULL%1,               Michaela%Hope%NULL%1,               Noel%Hatley%NULL%1,               Leslie M.%Barnard%NULL%1,               Leilani%Schwarcz%NULL%1,               Nicole%Yarid%NULL%1,               Eric%Yim%NULL%1,               Sandra%Kreider%NULL%1,               Dawn%Barr%NULL%1,               Nancy%Wilde%NULL%1,               Courtney%Dorman%NULL%1,               Airin%Lam%NULL%1,               Jeanette%Harris%NULL%1,               Hollianne%Bruce%NULL%2,               Christopher%Spitters%NULL%2,               Snohomish Health%District%NULL%1,               Rachael%Zacks%NULL%1,               Jonathan%Dyal%NULL%1,               Michael%Hughes%NULL%1,               Christina%Carlson%NULL%1,               Barbara%Cooper%NULL%1,               Michelle%Banks%NULL%1,               Heather%McLaughlin%NULL%1,               Arun%Balajee%NULL%1,               Christine%Olson%NULL%1,               Suzanne%Zane%NULL%1,               Hammad%Ali%NULL%1,               Jessica%Healy%NULL%1,               Kristine%Schmit%NULL%1,               Kevin%Spicer%NULL%1,               Zeshan%Chisty%NULL%1,               Sukarma%Tanwar%NULL%1,               Joanne%Taylor%NULL%1,               Leisha%Nolen%NULL%1,               Jeneita%Bell%NULL%1,               Kelly%Hatfield%NULL%1,               Melissa%Arons%NULL%1,               Anne%Kimball%NULL%1,               Allison%James%NULL%1,               Mark%Methner%NULL%1,               Joshua%Harney%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%14,                Zheng-yi%Ni%NULL%5,                Yu%Hu%NULL%4,                Wen-hua%Liang%NULL%4,                Chun-quan%Ou%NULL%4,                Jian-xing%He%NULL%4,                Lei%Liu%NULL%8,                Hong%Shan%NULL%6,                Chun-liang%Lei%NULL%4,                David S.C.%Hui%NULL%3,                Bin%Du%NULL%3,                Lan-juan%Li%NULL%3,                Guang%Zeng%NULL%3,                Kwok-Yung%Yuen%NULL%6,                Ru-chong%Chen%NULL%4,                Chun-li%Tang%NULL%4,                Tao%Wang%NULL%7,                Ping-yan%Chen%NULL%4,                Jie%Xiang%NULL%6,                Shi-yue%Li%NULL%4,                Jin-lin%Wang%NULL%3,                Zi-jing%Liang%NULL%3,                Yi-xiang%Peng%NULL%4,                Li%Wei%NULL%4,                Yong%Liu%NULL%4,                Ya-hua%Hu%NULL%4,                Peng%Peng%NULL%7,                Jian-ming%Wang%NULL%4,                Ji-yang%Liu%NULL%4,                Zhong%Chen%NULL%4,                Gang%Li%NULL%6,                Zhi-jian%Zheng%NULL%4,                Shao-qin%Qiu%NULL%4,                Jie%Luo%NULL%4,                Chang-jiang%Ye%NULL%4,                Shao-yong%Zhu%NULL%4,                Nan-shan%Zhong%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                Dengju%Li%NULL%2,                Xiong%Wang%NULL%2,                Ziyong%Sun%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,              Cao%Yi-yuan%coreGivesNoEmail%0,              Dong%Xiang%coreGivesNoEmail%0,              Gao%Ya-dong%coreGivesNoEmail%0,              Yan%You-qin%coreGivesNoEmail%0,              Yang%Yi-bin%coreGivesNoEmail%0,              Yuan%Ya-dong%coreGivesNoEmail%0,              Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,              Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,              Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,              Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%3,                Juanjuan%Guo%NULL%3,                Chen%Wang%NULL%3,                Fan%Luo%NULL%2,                Xuechen%Yu%NULL%3,                Wei%Zhang%NULL%6,                Jiafu%Li%NULL%3,                Dongchi%Zhao%NULL%2,                Dan%Xu%NULL%3,                Qing%Gong%NULL%2,                Jing%Liao%NULL%2,                Huixia%Yang%yanghuixia@bjmu.edu.cn%3,                Wei%Hou%houwei@whu.edu.cn%2,                Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                Yeming%Wang%NULL%6,                Xingwang%Li%NULL%7,                Lili%Ren%NULL%4,                Jianping%Zhao%NULL%9,                Yi%Hu%NULL%7,                Li%Zhang%NULL%7,                Guohui%Fan%NULL%6,                Jiuyang%Xu%NULL%6,                Xiaoying%Gu%NULL%6,                Zhenshun%Cheng%NULL%4,                Ting%Yu%NULL%13,                Jiaan%Xia%NULL%4,                Yuan%Wei%NULL%10,                Wenjuan%Wu%NULL%4,                Xuelei%Xie%NULL%4,                Wen%Yin%NULL%6,                Hui%Li%NULL%7,                Min%Liu%NULL%4,                Yan%Xiao%NULL%5,                Hong%Gao%NULL%6,                Li%Guo%NULL%5,                Jungang%Xie%NULL%5,                Guangfa%Wang%NULL%4,                Rongmeng%Jiang%NULL%4,                Zhancheng%Gao%NULL%5,                Qi%Jin%NULL%5,                Jianwei%Wang%wangjw28@163.com%0,                Bin%Cao%caobin_ben@163.com%7]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                Xiao-Xin%Wu%NULL%4,                Xian-Gao%Jiang%NULL%4,                Kai-Jin%Xu%NULL%4,                Ling-Jun%Ying%NULL%4,                Chun-Lian%Ma%NULL%4,                Shi-Bo%Li%NULL%4,                Hua-Ying%Wang%NULL%4,                Sheng%Zhang%NULL%4,                Hai-Nv%Gao%NULL%4,                Ji-Fang%Sheng%NULL%4,                Hong-Liu%Cai%NULL%4,                Yun-Qing%Qiu%NULL%4,                Lan-Juan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,          Xiaoyan%Chen%xref no email%8,          Yanping%Cai%xref no email%8,          Jia\u2019an%Xia%xref no email%8,          Xing%Zhou%xref no email%8,          Sha%Xu%xref no email%8,          Hanping%Huang%xref no email%8,          Li%Zhang%xref no email%8,          Xia%Zhou%xref no email%8,          Chunling%Du%xref no email%8,          Yuye%Zhang%xref no email%8,          Juan%Song%xref no email%9,          Sijiao%Wang%xref no email%8,          Yencheng%Chao%xref no email%8,          Zeyong%Yang%xref no email%8,          Jie%Xu%xref no email%8,          Xin%Zhou%xref no email%8,          Dechang%Chen%xref no email%8,          Weining%Xiong%xref no email%8,          Lei%Xu%xref no email%8,          Feng%Zhou%xref no email%8,          Jinjun%Jiang%xref no email%8,          Chunxue%Bai%xref no email%8,          Junhua%Zheng%xref no email%8,          Yuanlin%Song%xref no email%9]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,                Kai%Xie%NULL%3,                Hui%Lu%NULL%2,                Lei%Xu%bayinhexl@126.com%2,                Shusheng%Zhou%zhouss108@163.com%2,                Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%0,                Feifei%Yao%NULL%1,                Lijie%Wang%NULL%1,                Ling%Zheng%NULL%1,                Yongjun%Gao%NULL%1,                Jun%Ye%NULL%1,                Feng%Guo%NULL%1,                Hui%Zhao%NULL%1,                Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%1,                Ci%Song%NULL%1,                Chuanjun%Xu%NULL%1,                Guangfu%Jin%NULL%1,                Yaling%Chen%NULL%1,                Xin%Xu%NULL%1,                Hongxia%Ma%NULL%1,                Wei%Chen%NULL%3,                Yuan%Lin%NULL%1,                Yishan%Zheng%NULL%1,                Jianming%Wang%NULL%1,                Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,                Yongxiang%Yi%ian0126@126.com%1,                Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%12,                Di%Wu%NULL%2,                Huilong%Chen%NULL%2,                Weiming%Yan%NULL%2,                Danlei%Yang%NULL%2,                Guang%Chen%NULL%2,                Ke%Ma%NULL%2,                Dong%Xu%NULL%2,                Haijing%Yu%NULL%2,                Hongwu%Wang%NULL%2,                Tao%Wang%NULL%0,                Wei%Guo%NULL%2,                Jia%Chen%NULL%2,                Chen%Ding%NULL%2,                Xiaoping%Zhang%NULL%2,                Jiaquan%Huang%NULL%2,                Meifang%Han%NULL%2,                Shusheng%Li%NULL%2,                Xiaoping%Luo%NULL%2,                Jianping%Zhao%NULL%0,                Qin%Ning%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                Yuan-Yuan%Fang%NULL%4,                Yan%Deng%NULL%3,                Wei%Liu%NULL%5,                Mei-Fang%Wang%NULL%3,                Jing-Ping%Ma%NULL%3,                Wei%Xiao%NULL%3,                Ying-Nan%Wang%NULL%3,                Min-Hua%Zhong%NULL%3,                Cheng-Hong%Li%NULL%3,                Guang-Cai%Li%NULL%3,                Hui-Guo%Liu%NULL%4,                Xiu-Yuan%Hao%NULL%6,                Pei-Fang%Wei%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%4,                Tianhe%Ye%NULL%3,                Peng%Sun%NULL%3,                Shan%Gui%NULL%3,                Bo%Liang%NULL%3,                Lingli%Li%NULL%3,                Dandan%Zheng%NULL%3,                Jiazheng%Wang%NULL%3,                Richard L.%Hesketh%NULL%3,                Lian%Yang%yanglian@hust.edu.cn%3,                Chuansheng%Zheng%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%15,                Yuan%Yu%NULL%2,                Jiqian%Xu%NULL%1,                Huaqing%Shu%NULL%1,                Jia'an%Xia%NULL%4,                Hong%Liu%NULL%3,                Yongran%Wu%NULL%2,                Lu%Zhang%NULL%1,                Zhui%Yu%NULL%1,                Minghao%Fang%NULL%1,                Ting%Yu%NULL%0,                Yaxin%Wang%NULL%2,                Shangwen%Pan%NULL%1,                Xiaojing%Zou%NULL%2,                Shiying%Yuan%NULL%2,                You%Shang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%3,                Nan%Yang%NULL%2,                Yanqiu%Wei%NULL%2,                Huihui%Yue%NULL%2,                Fengqin%Zhang%NULL%2,                Jianping%Zhao%NULL%0,                Li%He%NULL%2,                Gaohong%Sheng%NULL%2,                Peng%Chen%NULL%2,                Gang%Li%NULL%0,                Sisi%Wu%NULL%2,                Bo%Zhang%NULL%2,                Shu%Zhang%szhang@tjh.tjmu.edu.cn%2,                Congyi%Wang%wangcy@tjh.tjmu.edu.cn%2,                Xiaoping%Miao%miaoxp@hust.edu.cn%2,                Juan%Li%lijuan@tjh.tjmu.edu.cn%2,                Wenhua%Liu%liuwh_2013@126.com%2,                Huilan%Zhang%huilanz_76@163.com%2]</t>
+  </si>
+  <si>
+    <t>[ J.%Liu%null%1,                 L.% Ouyang%null%1,                 P.% Guo%null%1,                 H. s.% Wu%null%1,                 P.% Fu%null%1,                 Y. l.% Chen%null%1,                 D.% Yang%null%1,                 X. y.% Han%null%1,                 Y. k.% Cao%null%1,                 O.% Alwalid%null%1,                 J.% Tao%null%1,                 S. y.% Peng%null%1,                 H. s.% Shi%null%1,                 F.% Yang%null%1,                 C. s. % Zheng%null%1]</t>
+  </si>
+  <si>
+    <t>[ R.%Liu%null%1,                 X.% Ming%null%1,                 O.% Xu%null%1,                 J.% Zhou%null%1,                 H.% Peng%null%1,                 N.% Xiang%null%1,                 J.% Zhang%null%1,                 H. % Zhu%null%1]</t>
+  </si>
+  <si>
+    <t>[Jiaxun%Hu%xref no email%1,          You%Lv%xref no email%1,          Ying%Xu%xref no email%1,          Yushan%Miao%xref no email%1,          Wei%Wang%xref no email%5,          Wenqing%Le%xref no email%1,          Hao%Tang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%2,                Shauna%Clark%NULL%2,                Sargis%Pogosjans%NULL%2,                Meagan%Kay%NULL%2,                James%Lewis%NULL%3,                Atar%Baer%NULL%2,                Vance%Kawakami%NULL%2,                Margaret D.%Lukoff%NULL%2,                Jessica%Ferro%NULL%2,                Claire%Brostrom-Smith%NULL%2,                Francis X.%Riedo%NULL%2,                Denny%Russell%NULL%2,                Brian%Hiatt%NULL%2,                Patricia%Montgomery%NULL%2,                Agam K.%Rao%NULL%2,                Dustin W.%Currie%NULL%2,                Eric J.%Chow%NULL%2,                Farrell%Tobolowsky%NULL%2,                Ana C.%Bardossy%NULL%2,                Lisa P.%Oakley%NULL%2,                Jesica R.%Jacobs%NULL%2,                Noah G.%Schwartz%NULL%2,                Nimalie%Stone%NULL%1,                Sujan C.%Reddy%NULL%4,                John A.%Jernigan%NULL%3,                Margaret A.%Honein%NULL%2,                Thomas A.%Clark%NULL%2,                Jeffrey S.%Duchin%NULL%2,                NULL%NULL%NULL%22,                NULL%NULL%NULL%0,                Meaghan S.%Fagalde%NULL%1,                Jennifer L.%Lenahan%NULL%1,                Emily B.%Maier%NULL%1,                Kaitlyn J.%Sykes%NULL%1,                Grace%Hatt%NULL%1,                Holly%Whitney%NULL%1,                Melinda%Huntington-Frazier%NULL%1,                Elysia%Gonzales%NULL%1,                Laura A.%Mummert%NULL%1,                Hal Garcia%Smith%NULL%1,                Steve%Stearns%NULL%1,                Eileen%Benoliel%NULL%1,                Shelly%McKeirnan%NULL%1,                Jennifer L.%Morgan%NULL%1,                Daniel%Smith%NULL%1,                Michaela%Hope%NULL%1,                Noel%Hatley%NULL%1,                Leslie M.%Barnard%NULL%1,                Leilani%Schwarcz%NULL%1,                Nicole%Yarid%NULL%1,                Eric%Yim%NULL%1,                Sandra%Kreider%NULL%1,                Dawn%Barr%NULL%1,                Nancy%Wilde%NULL%1,                Courtney%Dorman%NULL%1,                Airin%Lam%NULL%1,                Jeanette%Harris%NULL%1,                Hollianne%Bruce%NULL%2,                Christopher%Spitters%NULL%2,                Snohomish Health%District%NULL%1,                Rachael%Zacks%NULL%1,                Jonathan%Dyal%NULL%1,                Michael%Hughes%NULL%1,                Christina%Carlson%NULL%1,                Barbara%Cooper%NULL%1,                Michelle%Banks%NULL%1,                Heather%McLaughlin%NULL%1,                Arun%Balajee%NULL%1,                Christine%Olson%NULL%1,                Suzanne%Zane%NULL%1,                Hammad%Ali%NULL%1,                Jessica%Healy%NULL%1,                Kristine%Schmit%NULL%1,                Kevin%Spicer%NULL%1,                Zeshan%Chisty%NULL%1,                Sukarma%Tanwar%NULL%1,                Joanne%Taylor%NULL%1,                Leisha%Nolen%NULL%1,                Jeneita%Bell%NULL%1,                Kelly%Hatfield%NULL%1,                Melissa%Arons%NULL%1,                Anne%Kimball%NULL%1,                Allison%James%NULL%1,                Mark%Methner%NULL%1,                Joshua%Harney%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2357,7 +2477,7 @@
         <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>463</v>
+        <v>503</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -2386,7 +2506,7 @@
         <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>464</v>
+        <v>504</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -2415,7 +2535,7 @@
         <v>243</v>
       </c>
       <c r="E5" t="s">
-        <v>465</v>
+        <v>505</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2444,7 +2564,7 @@
         <v>246</v>
       </c>
       <c r="E6" t="s">
-        <v>466</v>
+        <v>506</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -2473,7 +2593,7 @@
         <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>467</v>
+        <v>507</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -2502,7 +2622,7 @@
         <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>468</v>
+        <v>508</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -2531,7 +2651,7 @@
         <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>469</v>
+        <v>509</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -2560,7 +2680,7 @@
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2589,7 +2709,7 @@
         <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>471</v>
+        <v>511</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -2618,7 +2738,7 @@
         <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>472</v>
+        <v>512</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
@@ -2647,7 +2767,7 @@
         <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
@@ -2676,7 +2796,7 @@
         <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>474</v>
+        <v>514</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -2705,7 +2825,7 @@
         <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>475</v>
+        <v>515</v>
       </c>
       <c r="F15" t="s">
         <v>81</v>
@@ -2734,7 +2854,7 @@
         <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>476</v>
+        <v>516</v>
       </c>
       <c r="F16" t="s">
         <v>85</v>
@@ -2792,7 +2912,7 @@
         <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>477</v>
+        <v>517</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
@@ -2821,7 +2941,7 @@
         <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="F19" t="s">
         <v>93</v>
@@ -2850,7 +2970,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>479</v>
+        <v>519</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -2879,7 +2999,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="F21" t="s">
         <v>21</v>
@@ -2908,7 +3028,7 @@
         <v>338</v>
       </c>
       <c r="E22" t="s">
-        <v>481</v>
+        <v>521</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -2937,7 +3057,7 @@
         <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>482</v>
+        <v>522</v>
       </c>
       <c r="F23" t="s">
         <v>98</v>

--- a/Covid_19_Dataset_and_References/References/5.xlsx
+++ b/Covid_19_Dataset_and_References/References/5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4539" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4700" uniqueCount="543">
   <si>
     <t>Doi</t>
   </si>
@@ -2114,6 +2114,66 @@
   </si>
   <si>
     <t>[Temet M.%McMichael%NULL%2,                Shauna%Clark%NULL%2,                Sargis%Pogosjans%NULL%2,                Meagan%Kay%NULL%2,                James%Lewis%NULL%3,                Atar%Baer%NULL%2,                Vance%Kawakami%NULL%2,                Margaret D.%Lukoff%NULL%2,                Jessica%Ferro%NULL%2,                Claire%Brostrom-Smith%NULL%2,                Francis X.%Riedo%NULL%2,                Denny%Russell%NULL%2,                Brian%Hiatt%NULL%2,                Patricia%Montgomery%NULL%2,                Agam K.%Rao%NULL%2,                Dustin W.%Currie%NULL%2,                Eric J.%Chow%NULL%2,                Farrell%Tobolowsky%NULL%2,                Ana C.%Bardossy%NULL%2,                Lisa P.%Oakley%NULL%2,                Jesica R.%Jacobs%NULL%2,                Noah G.%Schwartz%NULL%2,                Nimalie%Stone%NULL%1,                Sujan C.%Reddy%NULL%4,                John A.%Jernigan%NULL%3,                Margaret A.%Honein%NULL%2,                Thomas A.%Clark%NULL%2,                Jeffrey S.%Duchin%NULL%2,                NULL%NULL%NULL%22,                NULL%NULL%NULL%0,                Meaghan S.%Fagalde%NULL%1,                Jennifer L.%Lenahan%NULL%1,                Emily B.%Maier%NULL%1,                Kaitlyn J.%Sykes%NULL%1,                Grace%Hatt%NULL%1,                Holly%Whitney%NULL%1,                Melinda%Huntington-Frazier%NULL%1,                Elysia%Gonzales%NULL%1,                Laura A.%Mummert%NULL%1,                Hal Garcia%Smith%NULL%1,                Steve%Stearns%NULL%1,                Eileen%Benoliel%NULL%1,                Shelly%McKeirnan%NULL%1,                Jennifer L.%Morgan%NULL%1,                Daniel%Smith%NULL%1,                Michaela%Hope%NULL%1,                Noel%Hatley%NULL%1,                Leslie M.%Barnard%NULL%1,                Leilani%Schwarcz%NULL%1,                Nicole%Yarid%NULL%1,                Eric%Yim%NULL%1,                Sandra%Kreider%NULL%1,                Dawn%Barr%NULL%1,                Nancy%Wilde%NULL%1,                Courtney%Dorman%NULL%1,                Airin%Lam%NULL%1,                Jeanette%Harris%NULL%1,                Hollianne%Bruce%NULL%2,                Christopher%Spitters%NULL%2,                Snohomish Health%District%NULL%1,                Rachael%Zacks%NULL%1,                Jonathan%Dyal%NULL%1,                Michael%Hughes%NULL%1,                Christina%Carlson%NULL%1,                Barbara%Cooper%NULL%1,                Michelle%Banks%NULL%1,                Heather%McLaughlin%NULL%1,                Arun%Balajee%NULL%1,                Christine%Olson%NULL%1,                Suzanne%Zane%NULL%1,                Hammad%Ali%NULL%1,                Jessica%Healy%NULL%1,                Kristine%Schmit%NULL%1,                Kevin%Spicer%NULL%1,                Zeshan%Chisty%NULL%1,                Sukarma%Tanwar%NULL%1,                Joanne%Taylor%NULL%1,                Leisha%Nolen%NULL%1,                Jeneita%Bell%NULL%1,                Kelly%Hatfield%NULL%1,                Melissa%Arons%NULL%1,                Anne%Kimball%NULL%1,                Allison%James%NULL%1,                Mark%Methner%NULL%1,                Joshua%Harney%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%14,                 Zheng-yi%Ni%NULL%5,                 Yu%Hu%NULL%4,                 Wen-hua%Liang%NULL%4,                 Chun-quan%Ou%NULL%4,                 Jian-xing%He%NULL%4,                 Lei%Liu%NULL%8,                 Hong%Shan%NULL%6,                 Chun-liang%Lei%NULL%4,                 David S.C.%Hui%NULL%3,                 Bin%Du%NULL%3,                 Lan-juan%Li%NULL%3,                 Guang%Zeng%NULL%3,                 Kwok-Yung%Yuen%NULL%6,                 Ru-chong%Chen%NULL%4,                 Chun-li%Tang%NULL%4,                 Tao%Wang%NULL%7,                 Ping-yan%Chen%NULL%4,                 Jie%Xiang%NULL%6,                 Shi-yue%Li%NULL%4,                 Jin-lin%Wang%NULL%3,                 Zi-jing%Liang%NULL%3,                 Yi-xiang%Peng%NULL%4,                 Li%Wei%NULL%4,                 Yong%Liu%NULL%4,                 Ya-hua%Hu%NULL%4,                 Peng%Peng%NULL%7,                 Jian-ming%Wang%NULL%4,                 Ji-yang%Liu%NULL%4,                 Zhong%Chen%NULL%4,                 Gang%Li%NULL%6,                 Zhi-jian%Zheng%NULL%4,                 Shao-qin%Qiu%NULL%4,                 Jie%Luo%NULL%4,                 Chang-jiang%Ye%NULL%4,                 Shao-yong%Zhu%NULL%4,                 Nan-shan%Zhong%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                 Dengju%Li%NULL%2,                 Xiong%Wang%NULL%2,                 Ziyong%Sun%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,               Cao%Yi-yuan%coreGivesNoEmail%0,               Dong%Xiang%coreGivesNoEmail%0,               Gao%Ya-dong%coreGivesNoEmail%0,               Yan%You-qin%coreGivesNoEmail%0,               Yang%Yi-bin%coreGivesNoEmail%0,               Yuan%Ya-dong%coreGivesNoEmail%0,               Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,               Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,               Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,               Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%3,                 Juanjuan%Guo%NULL%3,                 Chen%Wang%NULL%3,                 Fan%Luo%NULL%2,                 Xuechen%Yu%NULL%3,                 Wei%Zhang%NULL%6,                 Jiafu%Li%NULL%3,                 Dongchi%Zhao%NULL%2,                 Dan%Xu%NULL%3,                 Qing%Gong%NULL%2,                 Jing%Liao%NULL%2,                 Huixia%Yang%yanghuixia@bjmu.edu.cn%3,                 Wei%Hou%houwei@whu.edu.cn%2,                 Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                 Yeming%Wang%NULL%6,                 Xingwang%Li%NULL%7,                 Lili%Ren%NULL%4,                 Jianping%Zhao%NULL%9,                 Yi%Hu%NULL%7,                 Li%Zhang%NULL%7,                 Guohui%Fan%NULL%6,                 Jiuyang%Xu%NULL%6,                 Xiaoying%Gu%NULL%6,                 Zhenshun%Cheng%NULL%4,                 Ting%Yu%NULL%13,                 Jiaan%Xia%NULL%4,                 Yuan%Wei%NULL%10,                 Wenjuan%Wu%NULL%4,                 Xuelei%Xie%NULL%4,                 Wen%Yin%NULL%6,                 Hui%Li%NULL%7,                 Min%Liu%NULL%4,                 Yan%Xiao%NULL%5,                 Hong%Gao%NULL%6,                 Li%Guo%NULL%5,                 Jungang%Xie%NULL%5,                 Guangfa%Wang%NULL%4,                 Rongmeng%Jiang%NULL%4,                 Zhancheng%Gao%NULL%5,                 Qi%Jin%NULL%5,                 Jianwei%Wang%wangjw28@163.com%0,                 Bin%Cao%caobin_ben@163.com%7]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                 Xiao-Xin%Wu%NULL%4,                 Xian-Gao%Jiang%NULL%4,                 Kai-Jin%Xu%NULL%4,                 Ling-Jun%Ying%NULL%4,                 Chun-Lian%Ma%NULL%4,                 Shi-Bo%Li%NULL%4,                 Hua-Ying%Wang%NULL%4,                 Sheng%Zhang%NULL%4,                 Hai-Nv%Gao%NULL%4,                 Ji-Fang%Sheng%NULL%4,                 Hong-Liu%Cai%NULL%4,                 Yun-Qing%Qiu%NULL%4,                 Lan-Juan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,           Xiaoyan%Chen%xref no email%8,           Yanping%Cai%xref no email%8,           Jia\u2019an%Xia%xref no email%8,           Xing%Zhou%xref no email%8,           Sha%Xu%xref no email%8,           Hanping%Huang%xref no email%8,           Li%Zhang%xref no email%9,           Xia%Zhou%xref no email%8,           Chunling%Du%xref no email%8,           Yuye%Zhang%xref no email%8,           Juan%Song%xref no email%9,           Sijiao%Wang%xref no email%8,           Yencheng%Chao%xref no email%8,           Zeyong%Yang%xref no email%8,           Jie%Xu%xref no email%8,           Xin%Zhou%xref no email%8,           Dechang%Chen%xref no email%8,           Weining%Xiong%xref no email%9,           Lei%Xu%xref no email%8,           Feng%Zhou%xref no email%8,           Jinjun%Jiang%xref no email%8,           Chunxue%Bai%xref no email%8,           Junhua%Zheng%xref no email%8,           Yuanlin%Song%xref no email%9]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,                 Kai%Xie%NULL%3,                 Hui%Lu%NULL%2,                 Lei%Xu%bayinhexl@126.com%2,                 Shusheng%Zhou%zhouss108@163.com%2,                 Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%0,                 Feifei%Yao%NULL%1,                 Lijie%Wang%NULL%1,                 Ling%Zheng%NULL%1,                 Yongjun%Gao%NULL%1,                 Jun%Ye%NULL%1,                 Feng%Guo%NULL%1,                 Hui%Zhao%NULL%1,                 Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%2,                 Ci%Song%NULL%1,                 Chuanjun%Xu%NULL%1,                 Guangfu%Jin%NULL%1,                 Yaling%Chen%NULL%1,                 Xin%Xu%NULL%1,                 Hongxia%Ma%NULL%1,                 Wei%Chen%NULL%3,                 Yuan%Lin%NULL%1,                 Yishan%Zheng%NULL%1,                 Jianming%Wang%NULL%1,                 Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,                 Yongxiang%Yi%ian0126@126.com%1,                 Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%12,                 Di%Wu%NULL%2,                 Huilong%Chen%NULL%2,                 Weiming%Yan%NULL%2,                 Danlei%Yang%NULL%2,                 Guang%Chen%NULL%2,                 Ke%Ma%NULL%2,                 Dong%Xu%NULL%2,                 Haijing%Yu%NULL%2,                 Hongwu%Wang%NULL%2,                 Tao%Wang%NULL%0,                 Wei%Guo%NULL%2,                 Jia%Chen%NULL%2,                 Chen%Ding%NULL%2,                 Xiaoping%Zhang%NULL%2,                 Jiaquan%Huang%NULL%2,                 Meifang%Han%NULL%2,                 Shusheng%Li%NULL%2,                 Xiaoping%Luo%NULL%2,                 Jianping%Zhao%NULL%0,                 Qin%Ning%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                 Yuan-Yuan%Fang%NULL%4,                 Yan%Deng%NULL%3,                 Wei%Liu%NULL%5,                 Mei-Fang%Wang%NULL%3,                 Jing-Ping%Ma%NULL%3,                 Wei%Xiao%NULL%3,                 Ying-Nan%Wang%NULL%3,                 Min-Hua%Zhong%NULL%3,                 Cheng-Hong%Li%NULL%3,                 Guang-Cai%Li%NULL%3,                 Hui-Guo%Liu%NULL%4,                 Xiu-Yuan%Hao%NULL%6,                 Pei-Fang%Wei%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%4,                 Tianhe%Ye%NULL%3,                 Peng%Sun%NULL%3,                 Shan%Gui%NULL%3,                 Bo%Liang%NULL%3,                 Lingli%Li%NULL%3,                 Dandan%Zheng%NULL%3,                 Jiazheng%Wang%NULL%3,                 Richard L.%Hesketh%NULL%3,                 Lian%Yang%yanglian@hust.edu.cn%3,                 Chuansheng%Zheng%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%16,                 Yuan%Yu%NULL%2,                 Jiqian%Xu%NULL%1,                 Huaqing%Shu%NULL%1,                 Jia'an%Xia%NULL%4,                 Hong%Liu%NULL%3,                 Yongran%Wu%NULL%2,                 Lu%Zhang%NULL%1,                 Zhui%Yu%NULL%1,                 Minghao%Fang%NULL%1,                 Ting%Yu%NULL%0,                 Yaxin%Wang%NULL%2,                 Shangwen%Pan%NULL%1,                 Xiaojing%Zou%NULL%2,                 Shiying%Yuan%NULL%2,                 You%Shang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%3,                 Nan%Yang%NULL%2,                 Yanqiu%Wei%NULL%2,                 Huihui%Yue%NULL%2,                 Fengqin%Zhang%NULL%2,                 Jianping%Zhao%NULL%0,                 Li%He%NULL%2,                 Gaohong%Sheng%NULL%2,                 Peng%Chen%NULL%2,                 Gang%Li%NULL%0,                 Sisi%Wu%NULL%2,                 Bo%Zhang%NULL%2,                 Shu%Zhang%szhang@tjh.tjmu.edu.cn%2,                 Congyi%Wang%wangcy@tjh.tjmu.edu.cn%2,                 Xiaoping%Miao%miaoxp@hust.edu.cn%2,                 Juan%Li%lijuan@tjh.tjmu.edu.cn%2,                 Wenhua%Liu%liuwh_2013@126.com%2,                 Huilan%Zhang%huilanz_76@163.com%2]</t>
+  </si>
+  <si>
+    <t>[ J.%Liu%null%1,                  L.% Ouyang%null%1,                  P.% Guo%null%1,                  H. s.% Wu%null%1,                  P.% Fu%null%1,                  Y. l.% Chen%null%1,                  D.% Yang%null%1,                  X. y.% Han%null%1,                  Y. k.% Cao%null%1,                  O.% Alwalid%null%1,                  J.% Tao%null%1,                  S. y.% Peng%null%1,                  H. s.% Shi%null%1,                  F.% Yang%null%1,                  C. s. % Zheng%null%1]</t>
+  </si>
+  <si>
+    <t>[ R.%Liu%null%1,                  X.% Ming%null%1,                  O.% Xu%null%1,                  J.% Zhou%null%1,                  H.% Peng%null%1,                  N.% Xiang%null%1,                  J.% Zhang%null%1,                  H. % Zhu%null%1]</t>
+  </si>
+  <si>
+    <t>[Jiaxun%Hu%xref no email%1,           You%Lv%xref no email%1,           Ying%Xu%xref no email%1,           Yushan%Miao%xref no email%1,           Wei%Wang%xref no email%5,           Wenqing%Le%xref no email%1,           Hao%Tang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%2,                 Shauna%Clark%NULL%2,                 Sargis%Pogosjans%NULL%2,                 Meagan%Kay%NULL%2,                 James%Lewis%NULL%3,                 Atar%Baer%NULL%2,                 Vance%Kawakami%NULL%2,                 Margaret D.%Lukoff%NULL%2,                 Jessica%Ferro%NULL%2,                 Claire%Brostrom-Smith%NULL%2,                 Francis X.%Riedo%NULL%2,                 Denny%Russell%NULL%2,                 Brian%Hiatt%NULL%2,                 Patricia%Montgomery%NULL%2,                 Agam K.%Rao%NULL%2,                 Dustin W.%Currie%NULL%2,                 Eric J.%Chow%NULL%2,                 Farrell%Tobolowsky%NULL%2,                 Ana C.%Bardossy%NULL%2,                 Lisa P.%Oakley%NULL%2,                 Jesica R.%Jacobs%NULL%2,                 Noah G.%Schwartz%NULL%2,                 Nimalie%Stone%NULL%1,                 Sujan C.%Reddy%NULL%4,                 John A.%Jernigan%NULL%3,                 Margaret A.%Honein%NULL%2,                 Thomas A.%Clark%NULL%2,                 Jeffrey S.%Duchin%NULL%2,                 NULL%NULL%NULL%22,                 NULL%NULL%NULL%0,                 Meaghan S.%Fagalde%NULL%1,                 Jennifer L.%Lenahan%NULL%1,                 Emily B.%Maier%NULL%1,                 Kaitlyn J.%Sykes%NULL%1,                 Grace%Hatt%NULL%1,                 Holly%Whitney%NULL%1,                 Melinda%Huntington-Frazier%NULL%1,                 Elysia%Gonzales%NULL%1,                 Laura A.%Mummert%NULL%1,                 Hal Garcia%Smith%NULL%1,                 Steve%Stearns%NULL%1,                 Eileen%Benoliel%NULL%1,                 Shelly%McKeirnan%NULL%1,                 Jennifer L.%Morgan%NULL%1,                 Daniel%Smith%NULL%1,                 Michaela%Hope%NULL%1,                 Noel%Hatley%NULL%1,                 Leslie M.%Barnard%NULL%1,                 Leilani%Schwarcz%NULL%1,                 Nicole%Yarid%NULL%1,                 Eric%Yim%NULL%1,                 Sandra%Kreider%NULL%1,                 Dawn%Barr%NULL%1,                 Nancy%Wilde%NULL%1,                 Courtney%Dorman%NULL%1,                 Airin%Lam%NULL%1,                 Jeanette%Harris%NULL%1,                 Hollianne%Bruce%NULL%2,                 Christopher%Spitters%NULL%2,                 Snohomish Health%District%NULL%1,                 Rachael%Zacks%NULL%1,                 Jonathan%Dyal%NULL%1,                 Michael%Hughes%NULL%1,                 Christina%Carlson%NULL%1,                 Barbara%Cooper%NULL%1,                 Michelle%Banks%NULL%1,                 Heather%McLaughlin%NULL%1,                 Arun%Balajee%NULL%1,                 Christine%Olson%NULL%1,                 Suzanne%Zane%NULL%1,                 Hammad%Ali%NULL%1,                 Jessica%Healy%NULL%1,                 Kristine%Schmit%NULL%1,                 Kevin%Spicer%NULL%1,                 Zeshan%Chisty%NULL%1,                 Sukarma%Tanwar%NULL%1,                 Joanne%Taylor%NULL%1,                 Leisha%Nolen%NULL%1,                 Jeneita%Bell%NULL%1,                 Kelly%Hatfield%NULL%1,                 Melissa%Arons%NULL%1,                 Anne%Kimball%NULL%1,                 Allison%James%NULL%1,                 Mark%Methner%NULL%1,                 Joshua%Harney%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2477,7 +2537,7 @@
         <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -2506,7 +2566,7 @@
         <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -2535,7 +2595,7 @@
         <v>243</v>
       </c>
       <c r="E5" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2564,7 +2624,7 @@
         <v>246</v>
       </c>
       <c r="E6" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -2593,7 +2653,7 @@
         <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -2622,7 +2682,7 @@
         <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -2651,7 +2711,7 @@
         <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -2680,7 +2740,7 @@
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2709,7 +2769,7 @@
         <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -2738,7 +2798,7 @@
         <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
@@ -2767,7 +2827,7 @@
         <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
@@ -2796,7 +2856,7 @@
         <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -2825,7 +2885,7 @@
         <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="F15" t="s">
         <v>81</v>
@@ -2854,7 +2914,7 @@
         <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="F16" t="s">
         <v>85</v>
@@ -2912,7 +2972,7 @@
         <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
@@ -2941,7 +3001,7 @@
         <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="F19" t="s">
         <v>93</v>
@@ -2970,7 +3030,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -2999,7 +3059,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="F21" t="s">
         <v>21</v>
@@ -3028,7 +3088,7 @@
         <v>338</v>
       </c>
       <c r="E22" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -3057,7 +3117,7 @@
         <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="F23" t="s">
         <v>98</v>

--- a/Covid_19_Dataset_and_References/References/5.xlsx
+++ b/Covid_19_Dataset_and_References/References/5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4700" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4861" uniqueCount="568">
   <si>
     <t>Doi</t>
   </si>
@@ -2174,6 +2174,81 @@
   </si>
   <si>
     <t>[Temet M.%McMichael%NULL%2,                 Shauna%Clark%NULL%2,                 Sargis%Pogosjans%NULL%2,                 Meagan%Kay%NULL%2,                 James%Lewis%NULL%3,                 Atar%Baer%NULL%2,                 Vance%Kawakami%NULL%2,                 Margaret D.%Lukoff%NULL%2,                 Jessica%Ferro%NULL%2,                 Claire%Brostrom-Smith%NULL%2,                 Francis X.%Riedo%NULL%2,                 Denny%Russell%NULL%2,                 Brian%Hiatt%NULL%2,                 Patricia%Montgomery%NULL%2,                 Agam K.%Rao%NULL%2,                 Dustin W.%Currie%NULL%2,                 Eric J.%Chow%NULL%2,                 Farrell%Tobolowsky%NULL%2,                 Ana C.%Bardossy%NULL%2,                 Lisa P.%Oakley%NULL%2,                 Jesica R.%Jacobs%NULL%2,                 Noah G.%Schwartz%NULL%2,                 Nimalie%Stone%NULL%1,                 Sujan C.%Reddy%NULL%4,                 John A.%Jernigan%NULL%3,                 Margaret A.%Honein%NULL%2,                 Thomas A.%Clark%NULL%2,                 Jeffrey S.%Duchin%NULL%2,                 NULL%NULL%NULL%22,                 NULL%NULL%NULL%0,                 Meaghan S.%Fagalde%NULL%1,                 Jennifer L.%Lenahan%NULL%1,                 Emily B.%Maier%NULL%1,                 Kaitlyn J.%Sykes%NULL%1,                 Grace%Hatt%NULL%1,                 Holly%Whitney%NULL%1,                 Melinda%Huntington-Frazier%NULL%1,                 Elysia%Gonzales%NULL%1,                 Laura A.%Mummert%NULL%1,                 Hal Garcia%Smith%NULL%1,                 Steve%Stearns%NULL%1,                 Eileen%Benoliel%NULL%1,                 Shelly%McKeirnan%NULL%1,                 Jennifer L.%Morgan%NULL%1,                 Daniel%Smith%NULL%1,                 Michaela%Hope%NULL%1,                 Noel%Hatley%NULL%1,                 Leslie M.%Barnard%NULL%1,                 Leilani%Schwarcz%NULL%1,                 Nicole%Yarid%NULL%1,                 Eric%Yim%NULL%1,                 Sandra%Kreider%NULL%1,                 Dawn%Barr%NULL%1,                 Nancy%Wilde%NULL%1,                 Courtney%Dorman%NULL%1,                 Airin%Lam%NULL%1,                 Jeanette%Harris%NULL%1,                 Hollianne%Bruce%NULL%2,                 Christopher%Spitters%NULL%2,                 Snohomish Health%District%NULL%1,                 Rachael%Zacks%NULL%1,                 Jonathan%Dyal%NULL%1,                 Michael%Hughes%NULL%1,                 Christina%Carlson%NULL%1,                 Barbara%Cooper%NULL%1,                 Michelle%Banks%NULL%1,                 Heather%McLaughlin%NULL%1,                 Arun%Balajee%NULL%1,                 Christine%Olson%NULL%1,                 Suzanne%Zane%NULL%1,                 Hammad%Ali%NULL%1,                 Jessica%Healy%NULL%1,                 Kristine%Schmit%NULL%1,                 Kevin%Spicer%NULL%1,                 Zeshan%Chisty%NULL%1,                 Sukarma%Tanwar%NULL%1,                 Joanne%Taylor%NULL%1,                 Leisha%Nolen%NULL%1,                 Jeneita%Bell%NULL%1,                 Kelly%Hatfield%NULL%1,                 Melissa%Arons%NULL%1,                 Anne%Kimball%NULL%1,                 Allison%James%NULL%1,                 Mark%Methner%NULL%1,                 Joshua%Harney%NULL%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%14,                  Zheng-yi%Ni%NULL%5,                  Yu%Hu%NULL%4,                  Wen-hua%Liang%NULL%4,                  Chun-quan%Ou%NULL%4,                  Jian-xing%He%NULL%4,                  Lei%Liu%NULL%8,                  Hong%Shan%NULL%6,                  Chun-liang%Lei%NULL%4,                  David S.C.%Hui%NULL%3,                  Bin%Du%NULL%3,                  Lan-juan%Li%NULL%3,                  Guang%Zeng%NULL%3,                  Kwok-Yung%Yuen%NULL%6,                  Ru-chong%Chen%NULL%4,                  Chun-li%Tang%NULL%4,                  Tao%Wang%NULL%7,                  Ping-yan%Chen%NULL%4,                  Jie%Xiang%NULL%6,                  Shi-yue%Li%NULL%4,                  Jin-lin%Wang%NULL%3,                  Zi-jing%Liang%NULL%3,                  Yi-xiang%Peng%NULL%4,                  Li%Wei%NULL%4,                  Yong%Liu%NULL%4,                  Ya-hua%Hu%NULL%4,                  Peng%Peng%NULL%7,                  Jian-ming%Wang%NULL%4,                  Ji-yang%Liu%NULL%4,                  Zhong%Chen%NULL%4,                  Gang%Li%NULL%6,                  Zhi-jian%Zheng%NULL%4,                  Shao-qin%Qiu%NULL%4,                  Jie%Luo%NULL%4,                  Chang-jiang%Ye%NULL%4,                  Shao-yong%Zhu%NULL%4,                  Nan-shan%Zhong%NULL%5]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                  Dengju%Li%NULL%2,                  Xiong%Wang%NULL%2,                  Ziyong%Sun%NULL%4]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                Cao%Yi-yuan%coreGivesNoEmail%3,                Dong%Xiang%coreGivesNoEmail%3,                Gao%Ya-dong%coreGivesNoEmail%3,                Yan%You-qin%coreGivesNoEmail%3,                Yang%Yi-bin%coreGivesNoEmail%3,                Yuan%Ya-dong%coreGivesNoEmail%3,                Zhang%Jin-jin%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%4,                Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%4,                Subert-Salas%Lizandra%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%3,                  Juanjuan%Guo%NULL%3,                  Chen%Wang%NULL%3,                  Fan%Luo%NULL%2,                  Xuechen%Yu%NULL%3,                  Wei%Zhang%NULL%6,                  Jiafu%Li%NULL%3,                  Dongchi%Zhao%NULL%2,                  Dan%Xu%NULL%3,                  Qing%Gong%NULL%2,                  Jing%Liao%NULL%2,                  Huixia%Yang%yanghuixia@bjmu.edu.cn%3,                  Wei%Hou%houwei@whu.edu.cn%2,                  Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                  Yeming%Wang%NULL%6,                  Xingwang%Li%NULL%7,                  Lili%Ren%NULL%4,                  Jianping%Zhao%NULL%9,                  Yi%Hu%NULL%7,                  Li%Zhang%NULL%7,                  Guohui%Fan%NULL%6,                  Jiuyang%Xu%NULL%6,                  Xiaoying%Gu%NULL%6,                  Zhenshun%Cheng%NULL%4,                  Ting%Yu%NULL%13,                  Jiaan%Xia%NULL%4,                  Yuan%Wei%NULL%10,                  Wenjuan%Wu%NULL%4,                  Xuelei%Xie%NULL%4,                  Wen%Yin%NULL%6,                  Hui%Li%NULL%7,                  Min%Liu%NULL%4,                  Yan%Xiao%NULL%5,                  Hong%Gao%NULL%6,                  Li%Guo%NULL%5,                  Jungang%Xie%NULL%5,                  Guangfa%Wang%NULL%4,                  Rongmeng%Jiang%NULL%4,                  Zhancheng%Gao%NULL%5,                  Qi%Jin%NULL%5,                  Jianwei%Wang%wangjw28@163.com%0,                  Bin%Cao%caobin_ben@163.com%7]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                  Xiao-Xin%Wu%NULL%4,                  Xian-Gao%Jiang%NULL%4,                  Kai-Jin%Xu%NULL%4,                  Ling-Jun%Ying%NULL%4,                  Chun-Lian%Ma%NULL%4,                  Shi-Bo%Li%NULL%4,                  Hua-Ying%Wang%NULL%4,                  Sheng%Zhang%NULL%4,                  Hai-Nv%Gao%NULL%4,                  Ji-Fang%Sheng%NULL%4,                  Hong-Liu%Cai%NULL%4,                  Yun-Qing%Qiu%NULL%4,                  Lan-Juan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,            Xiaoyan%Chen%xref no email%8,            Yanping%Cai%xref no email%8,            Jia\u2019an%Xia%xref no email%8,            Xing%Zhou%xref no email%8,            Sha%Xu%xref no email%8,            Hanping%Huang%xref no email%8,            Li%Zhang%xref no email%8,            Xia%Zhou%xref no email%8,            Chunling%Du%xref no email%8,            Yuye%Zhang%xref no email%8,            Juan%Song%xref no email%9,            Sijiao%Wang%xref no email%8,            Yencheng%Chao%xref no email%8,            Zeyong%Yang%xref no email%8,            Jie%Xu%xref no email%8,            Xin%Zhou%xref no email%8,            Dechang%Chen%xref no email%8,            Weining%Xiong%xref no email%8,            Lei%Xu%xref no email%8,            Feng%Zhou%xref no email%8,            Jinjun%Jiang%xref no email%8,            Chunxue%Bai%xref no email%8,            Junhua%Zheng%xref no email%8,            Yuanlin%Song%xref no email%9]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,                  Kai%Xie%NULL%3,                  Hui%Lu%NULL%2,                  Lei%Xu%bayinhexl@126.com%2,                  Shusheng%Zhou%zhouss108@163.com%2,                  Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%0,                  Feifei%Yao%NULL%1,                  Lijie%Wang%NULL%1,                  Ling%Zheng%NULL%1,                  Yongjun%Gao%NULL%1,                  Jun%Ye%NULL%1,                  Feng%Guo%NULL%1,                  Hui%Zhao%NULL%1,                  Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%0,                  Ci%Song%NULL%1,                  Chuanjun%Xu%NULL%1,                  Guangfu%Jin%NULL%1,                  Yaling%Chen%NULL%1,                  Xin%Xu%NULL%1,                  Hongxia%Ma%NULL%1,                  Wei%Chen%NULL%3,                  Yuan%Lin%NULL%1,                  Yishan%Zheng%NULL%1,                  Jianming%Wang%NULL%1,                  Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,                  Yongxiang%Yi%ian0126@126.com%1,                  Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%12,                  Di%Wu%NULL%2,                  Huilong%Chen%NULL%2,                  Weiming%Yan%NULL%2,                  Danlei%Yang%NULL%2,                  Guang%Chen%NULL%2,                  Ke%Ma%NULL%2,                  Dong%Xu%NULL%2,                  Haijing%Yu%NULL%2,                  Hongwu%Wang%NULL%2,                  Tao%Wang%NULL%0,                  Wei%Guo%NULL%2,                  Jia%Chen%NULL%2,                  Chen%Ding%NULL%2,                  Xiaoping%Zhang%NULL%2,                  Jiaquan%Huang%NULL%2,                  Meifang%Han%NULL%2,                  Shusheng%Li%NULL%2,                  Xiaoping%Luo%NULL%2,                  Jianping%Zhao%NULL%0,                  Qin%Ning%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                  Yuan-Yuan%Fang%NULL%4,                  Yan%Deng%NULL%3,                  Wei%Liu%NULL%5,                  Mei-Fang%Wang%NULL%3,                  Jing-Ping%Ma%NULL%3,                  Wei%Xiao%NULL%3,                  Ying-Nan%Wang%NULL%3,                  Min-Hua%Zhong%NULL%3,                  Cheng-Hong%Li%NULL%3,                  Guang-Cai%Li%NULL%3,                  Hui-Guo%Liu%NULL%4,                  Xiu-Yuan%Hao%NULL%6,                  Pei-Fang%Wei%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%4,                  Tianhe%Ye%NULL%3,                  Peng%Sun%NULL%3,                  Shan%Gui%NULL%3,                  Bo%Liang%NULL%3,                  Lingli%Li%NULL%3,                  Dandan%Zheng%NULL%3,                  Jiazheng%Wang%NULL%3,                  Richard L.%Hesketh%NULL%3,                  Lian%Yang%yanglian@hust.edu.cn%3,                  Chuansheng%Zheng%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                  Yuan%Yu%NULL%2,                  Jiqian%Xu%NULL%1,                  Huaqing%Shu%NULL%1,                  Jia'an%Xia%NULL%4,                  Hong%Liu%NULL%3,                  Yongran%Wu%NULL%2,                  Lu%Zhang%NULL%1,                  Zhui%Yu%NULL%1,                  Minghao%Fang%NULL%1,                  Ting%Yu%NULL%0,                  Yaxin%Wang%NULL%2,                  Shangwen%Pan%NULL%1,                  Xiaojing%Zou%NULL%2,                  Shiying%Yuan%NULL%2,                  You%Shang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%3,                  Nan%Yang%NULL%2,                  Yanqiu%Wei%NULL%2,                  Huihui%Yue%NULL%2,                  Fengqin%Zhang%NULL%2,                  Jianping%Zhao%NULL%0,                  Li%He%NULL%2,                  Gaohong%Sheng%NULL%2,                  Peng%Chen%NULL%2,                  Gang%Li%NULL%0,                  Sisi%Wu%NULL%2,                  Bo%Zhang%NULL%2,                  Shu%Zhang%szhang@tjh.tjmu.edu.cn%2,                  Congyi%Wang%wangcy@tjh.tjmu.edu.cn%2,                  Xiaoping%Miao%miaoxp@hust.edu.cn%2,                  Juan%Li%lijuan@tjh.tjmu.edu.cn%2,                  Wenhua%Liu%liuwh_2013@126.com%2,                  Huilan%Zhang%huilanz_76@163.com%2]</t>
+  </si>
+  <si>
+    <t>[ J.%Liu%null%1,                   L.% Ouyang%null%1,                   P.% Guo%null%1,                   H. s.% Wu%null%1,                   P.% Fu%null%1,                   Y. l.% Chen%null%1,                   D.% Yang%null%1,                   X. y.% Han%null%1,                   Y. k.% Cao%null%1,                   O.% Alwalid%null%1,                   J.% Tao%null%1,                   S. y.% Peng%null%1,                   H. s.% Shi%null%1,                   F.% Yang%null%1,                   C. s. % Zheng%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv_CROSSREF</t>
+  </si>
+  <si>
+    <t>[ R.%Liu%null%1,                   X.% Ming%null%1,                   O.% Xu%null%1,                   J.% Zhou%null%1,                   H.% Peng%null%1,                   N.% Xiang%null%1,                   J.% Zhang%null%1,                   H. % Zhu%null%1]</t>
+  </si>
+  <si>
+    <t>[Jiaxun%Hu%xref no email%1,            You%Lv%xref no email%1,            Ying%Xu%xref no email%1,            Yushan%Miao%xref no email%1,            Wei%Wang%xref no email%5,            Wenqing%Le%xref no email%1,            Hao%Tang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%2,                  Shauna%Clark%NULL%2,                  Sargis%Pogosjans%NULL%2,                  Meagan%Kay%NULL%2,                  James%Lewis%NULL%3,                  Atar%Baer%NULL%2,                  Vance%Kawakami%NULL%2,                  Margaret D.%Lukoff%NULL%2,                  Jessica%Ferro%NULL%2,                  Claire%Brostrom-Smith%NULL%2,                  Francis X.%Riedo%NULL%2,                  Denny%Russell%NULL%2,                  Brian%Hiatt%NULL%2,                  Patricia%Montgomery%NULL%2,                  Agam K.%Rao%NULL%2,                  Dustin W.%Currie%NULL%2,                  Eric J.%Chow%NULL%2,                  Farrell%Tobolowsky%NULL%2,                  Ana C.%Bardossy%NULL%2,                  Lisa P.%Oakley%NULL%2,                  Jesica R.%Jacobs%NULL%2,                  Noah G.%Schwartz%NULL%2,                  Nimalie%Stone%NULL%1,                  Sujan C.%Reddy%NULL%4,                  John A.%Jernigan%NULL%3,                  Margaret A.%Honein%NULL%2,                  Thomas A.%Clark%NULL%2,                  Jeffrey S.%Duchin%NULL%2,                  NULL%NULL%NULL%22,                  NULL%NULL%NULL%0,                  Meaghan S.%Fagalde%NULL%1,                  Jennifer L.%Lenahan%NULL%1,                  Emily B.%Maier%NULL%1,                  Kaitlyn J.%Sykes%NULL%1,                  Grace%Hatt%NULL%1,                  Holly%Whitney%NULL%1,                  Melinda%Huntington-Frazier%NULL%1,                  Elysia%Gonzales%NULL%1,                  Laura A.%Mummert%NULL%1,                  Hal Garcia%Smith%NULL%1,                  Steve%Stearns%NULL%1,                  Eileen%Benoliel%NULL%1,                  Shelly%McKeirnan%NULL%1,                  Jennifer L.%Morgan%NULL%1,                  Daniel%Smith%NULL%1,                  Michaela%Hope%NULL%1,                  Noel%Hatley%NULL%1,                  Leslie M.%Barnard%NULL%1,                  Leilani%Schwarcz%NULL%1,                  Nicole%Yarid%NULL%1,                  Eric%Yim%NULL%1,                  Sandra%Kreider%NULL%1,                  Dawn%Barr%NULL%1,                  Nancy%Wilde%NULL%1,                  Courtney%Dorman%NULL%1,                  Airin%Lam%NULL%1,                  Jeanette%Harris%NULL%1,                  Hollianne%Bruce%NULL%2,                  Christopher%Spitters%NULL%2,                  Snohomish Health%District%NULL%1,                  Rachael%Zacks%NULL%1,                  Jonathan%Dyal%NULL%1,                  Michael%Hughes%NULL%1,                  Christina%Carlson%NULL%1,                  Barbara%Cooper%NULL%1,                  Michelle%Banks%NULL%1,                  Heather%McLaughlin%NULL%1,                  Arun%Balajee%NULL%1,                  Christine%Olson%NULL%1,                  Suzanne%Zane%NULL%1,                  Hammad%Ali%NULL%1,                  Jessica%Healy%NULL%1,                  Kristine%Schmit%NULL%1,                  Kevin%Spicer%NULL%1,                  Zeshan%Chisty%NULL%1,                  Sukarma%Tanwar%NULL%1,                  Joanne%Taylor%NULL%1,                  Leisha%Nolen%NULL%1,                  Jeneita%Bell%NULL%1,                  Kelly%Hatfield%NULL%1,                  Melissa%Arons%NULL%1,                  Anne%Kimball%NULL%1,                  Allison%James%NULL%1,                  Mark%Methner%NULL%1,                  Joshua%Harney%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2520,7 +2595,7 @@
         <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>96</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2537,7 +2612,7 @@
         <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -2549,7 +2624,7 @@
         <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>219</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2566,7 +2641,7 @@
         <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -2578,7 +2653,7 @@
         <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>221</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2595,7 +2670,7 @@
         <v>243</v>
       </c>
       <c r="E5" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2607,7 +2682,7 @@
         <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>96</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2624,7 +2699,7 @@
         <v>246</v>
       </c>
       <c r="E6" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -2636,7 +2711,7 @@
         <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>96</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2653,7 +2728,7 @@
         <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -2665,7 +2740,7 @@
         <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>221</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2682,7 +2757,7 @@
         <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -2694,7 +2769,7 @@
         <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>221</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2711,7 +2786,7 @@
         <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -2723,7 +2798,7 @@
         <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>219</v>
+        <v>545</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2740,7 +2815,7 @@
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2752,7 +2827,7 @@
         <v>326</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2769,7 +2844,7 @@
         <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>531</v>
+        <v>554</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -2781,7 +2856,7 @@
         <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>219</v>
+        <v>545</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2798,7 +2873,7 @@
         <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>532</v>
+        <v>555</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
@@ -2810,7 +2885,7 @@
         <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>219</v>
+        <v>545</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2827,7 +2902,7 @@
         <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
@@ -2839,7 +2914,7 @@
         <v>72</v>
       </c>
       <c r="I13" t="s">
-        <v>228</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2856,7 +2931,7 @@
         <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -2868,7 +2943,7 @@
         <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>219</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -2885,7 +2960,7 @@
         <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
       <c r="F15" t="s">
         <v>81</v>
@@ -2897,7 +2972,7 @@
         <v>35</v>
       </c>
       <c r="I15" t="s">
-        <v>219</v>
+        <v>545</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2914,7 +2989,7 @@
         <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="F16" t="s">
         <v>85</v>
@@ -2926,7 +3001,7 @@
         <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>219</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -2972,7 +3047,7 @@
         <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
@@ -2984,7 +3059,7 @@
         <v>35</v>
       </c>
       <c r="I18" t="s">
-        <v>221</v>
+        <v>547</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -3001,7 +3076,7 @@
         <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="F19" t="s">
         <v>93</v>
@@ -3013,7 +3088,7 @@
         <v>94</v>
       </c>
       <c r="I19" t="s">
-        <v>219</v>
+        <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -3030,7 +3105,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -3042,7 +3117,7 @@
         <v>103</v>
       </c>
       <c r="I20" t="s">
-        <v>235</v>
+        <v>564</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -3059,7 +3134,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="F21" t="s">
         <v>21</v>
@@ -3071,7 +3146,7 @@
         <v>107</v>
       </c>
       <c r="I21" t="s">
-        <v>235</v>
+        <v>564</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -3088,7 +3163,7 @@
         <v>338</v>
       </c>
       <c r="E22" t="s">
-        <v>541</v>
+        <v>566</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -3100,7 +3175,7 @@
         <v>340</v>
       </c>
       <c r="I22" t="s">
-        <v>96</v>
+        <v>543</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -3117,7 +3192,7 @@
         <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>542</v>
+        <v>567</v>
       </c>
       <c r="F23" t="s">
         <v>98</v>
@@ -3129,7 +3204,7 @@
         <v>35</v>
       </c>
       <c r="I23" t="s">
-        <v>219</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/5.xlsx
+++ b/Covid_19_Dataset_and_References/References/5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4861" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5022" uniqueCount="588">
   <si>
     <t>Doi</t>
   </si>
@@ -2249,6 +2249,66 @@
   </si>
   <si>
     <t>[Temet M.%McMichael%NULL%2,                  Shauna%Clark%NULL%2,                  Sargis%Pogosjans%NULL%2,                  Meagan%Kay%NULL%2,                  James%Lewis%NULL%3,                  Atar%Baer%NULL%2,                  Vance%Kawakami%NULL%2,                  Margaret D.%Lukoff%NULL%2,                  Jessica%Ferro%NULL%2,                  Claire%Brostrom-Smith%NULL%2,                  Francis X.%Riedo%NULL%2,                  Denny%Russell%NULL%2,                  Brian%Hiatt%NULL%2,                  Patricia%Montgomery%NULL%2,                  Agam K.%Rao%NULL%2,                  Dustin W.%Currie%NULL%2,                  Eric J.%Chow%NULL%2,                  Farrell%Tobolowsky%NULL%2,                  Ana C.%Bardossy%NULL%2,                  Lisa P.%Oakley%NULL%2,                  Jesica R.%Jacobs%NULL%2,                  Noah G.%Schwartz%NULL%2,                  Nimalie%Stone%NULL%1,                  Sujan C.%Reddy%NULL%4,                  John A.%Jernigan%NULL%3,                  Margaret A.%Honein%NULL%2,                  Thomas A.%Clark%NULL%2,                  Jeffrey S.%Duchin%NULL%2,                  NULL%NULL%NULL%22,                  NULL%NULL%NULL%0,                  Meaghan S.%Fagalde%NULL%1,                  Jennifer L.%Lenahan%NULL%1,                  Emily B.%Maier%NULL%1,                  Kaitlyn J.%Sykes%NULL%1,                  Grace%Hatt%NULL%1,                  Holly%Whitney%NULL%1,                  Melinda%Huntington-Frazier%NULL%1,                  Elysia%Gonzales%NULL%1,                  Laura A.%Mummert%NULL%1,                  Hal Garcia%Smith%NULL%1,                  Steve%Stearns%NULL%1,                  Eileen%Benoliel%NULL%1,                  Shelly%McKeirnan%NULL%1,                  Jennifer L.%Morgan%NULL%1,                  Daniel%Smith%NULL%1,                  Michaela%Hope%NULL%1,                  Noel%Hatley%NULL%1,                  Leslie M.%Barnard%NULL%1,                  Leilani%Schwarcz%NULL%1,                  Nicole%Yarid%NULL%1,                  Eric%Yim%NULL%1,                  Sandra%Kreider%NULL%1,                  Dawn%Barr%NULL%1,                  Nancy%Wilde%NULL%1,                  Courtney%Dorman%NULL%1,                  Airin%Lam%NULL%1,                  Jeanette%Harris%NULL%1,                  Hollianne%Bruce%NULL%2,                  Christopher%Spitters%NULL%2,                  Snohomish Health%District%NULL%1,                  Rachael%Zacks%NULL%1,                  Jonathan%Dyal%NULL%1,                  Michael%Hughes%NULL%1,                  Christina%Carlson%NULL%1,                  Barbara%Cooper%NULL%1,                  Michelle%Banks%NULL%1,                  Heather%McLaughlin%NULL%1,                  Arun%Balajee%NULL%1,                  Christine%Olson%NULL%1,                  Suzanne%Zane%NULL%1,                  Hammad%Ali%NULL%1,                  Jessica%Healy%NULL%1,                  Kristine%Schmit%NULL%1,                  Kevin%Spicer%NULL%1,                  Zeshan%Chisty%NULL%1,                  Sukarma%Tanwar%NULL%1,                  Joanne%Taylor%NULL%1,                  Leisha%Nolen%NULL%1,                  Jeneita%Bell%NULL%1,                  Kelly%Hatfield%NULL%1,                  Melissa%Arons%NULL%1,                  Anne%Kimball%NULL%1,                  Allison%James%NULL%1,                  Mark%Methner%NULL%1,                  Joshua%Harney%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%14,                   Zheng-yi%Ni%NULL%5,                   Yu%Hu%NULL%4,                   Wen-hua%Liang%NULL%4,                   Chun-quan%Ou%NULL%4,                   Jian-xing%He%NULL%4,                   Lei%Liu%NULL%8,                   Hong%Shan%NULL%6,                   Chun-liang%Lei%NULL%4,                   David S.C.%Hui%NULL%3,                   Bin%Du%NULL%3,                   Lan-juan%Li%NULL%3,                   Guang%Zeng%NULL%3,                   Kwok-Yung%Yuen%NULL%6,                   Ru-chong%Chen%NULL%4,                   Chun-li%Tang%NULL%4,                   Tao%Wang%NULL%7,                   Ping-yan%Chen%NULL%4,                   Jie%Xiang%NULL%6,                   Shi-yue%Li%NULL%4,                   Jin-lin%Wang%NULL%3,                   Zi-jing%Liang%NULL%3,                   Yi-xiang%Peng%NULL%4,                   Li%Wei%NULL%4,                   Yong%Liu%NULL%4,                   Ya-hua%Hu%NULL%4,                   Peng%Peng%NULL%7,                   Jian-ming%Wang%NULL%4,                   Ji-yang%Liu%NULL%4,                   Zhong%Chen%NULL%4,                   Gang%Li%NULL%6,                   Zhi-jian%Zheng%NULL%4,                   Shao-qin%Qiu%NULL%4,                   Jie%Luo%NULL%4,                   Chang-jiang%Ye%NULL%4,                   Shao-yong%Zhu%NULL%4,                   Nan-shan%Zhong%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                   Dengju%Li%NULL%2,                   Xiong%Wang%NULL%2,                   Ziyong%Sun%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                 Cao%Yi-yuan%coreGivesNoEmail%3,                 Dong%Xiang%coreGivesNoEmail%3,                 Gao%Ya-dong%coreGivesNoEmail%3,                 Yan%You-qin%coreGivesNoEmail%3,                 Yang%Yi-bin%coreGivesNoEmail%3,                 Yuan%Ya-dong%coreGivesNoEmail%3,                 Zhang%Jin-jin%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                 Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%4,                 Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%4,                 Subert-Salas%Lizandra%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%3,                   Juanjuan%Guo%NULL%3,                   Chen%Wang%NULL%3,                   Fan%Luo%NULL%2,                   Xuechen%Yu%NULL%3,                   Wei%Zhang%NULL%6,                   Jiafu%Li%NULL%3,                   Dongchi%Zhao%NULL%2,                   Dan%Xu%NULL%3,                   Qing%Gong%NULL%2,                   Jing%Liao%NULL%2,                   Huixia%Yang%yanghuixia@bjmu.edu.cn%3,                   Wei%Hou%houwei@whu.edu.cn%2,                   Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                   Yeming%Wang%NULL%6,                   Xingwang%Li%NULL%7,                   Lili%Ren%NULL%4,                   Jianping%Zhao%NULL%9,                   Yi%Hu%NULL%7,                   Li%Zhang%NULL%7,                   Guohui%Fan%NULL%6,                   Jiuyang%Xu%NULL%6,                   Xiaoying%Gu%NULL%6,                   Zhenshun%Cheng%NULL%4,                   Ting%Yu%NULL%13,                   Jiaan%Xia%NULL%4,                   Yuan%Wei%NULL%10,                   Wenjuan%Wu%NULL%4,                   Xuelei%Xie%NULL%4,                   Wen%Yin%NULL%6,                   Hui%Li%NULL%7,                   Min%Liu%NULL%4,                   Yan%Xiao%NULL%5,                   Hong%Gao%NULL%6,                   Li%Guo%NULL%5,                   Jungang%Xie%NULL%5,                   Guangfa%Wang%NULL%4,                   Rongmeng%Jiang%NULL%4,                   Zhancheng%Gao%NULL%5,                   Qi%Jin%NULL%5,                   Jianwei%Wang%wangjw28@163.com%0,                   Bin%Cao%caobin_ben@163.com%7]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                   Xiao-Xin%Wu%NULL%4,                   Xian-Gao%Jiang%NULL%4,                   Kai-Jin%Xu%NULL%4,                   Ling-Jun%Ying%NULL%4,                   Chun-Lian%Ma%NULL%4,                   Shi-Bo%Li%NULL%4,                   Hua-Ying%Wang%NULL%4,                   Sheng%Zhang%NULL%4,                   Hai-Nv%Gao%NULL%4,                   Ji-Fang%Sheng%NULL%4,                   Hong-Liu%Cai%NULL%4,                   Yun-Qing%Qiu%NULL%4,                   Lan-Juan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,             Xiaoyan%Chen%xref no email%8,             Yanping%Cai%xref no email%8,             Jia\u2019an%Xia%xref no email%8,             Xing%Zhou%xref no email%8,             Sha%Xu%xref no email%8,             Hanping%Huang%xref no email%8,             Li%Zhang%xref no email%8,             Xia%Zhou%xref no email%8,             Chunling%Du%xref no email%8,             Yuye%Zhang%xref no email%8,             Juan%Song%xref no email%9,             Sijiao%Wang%xref no email%8,             Yencheng%Chao%xref no email%8,             Zeyong%Yang%xref no email%8,             Jie%Xu%xref no email%8,             Xin%Zhou%xref no email%8,             Dechang%Chen%xref no email%8,             Weining%Xiong%xref no email%8,             Lei%Xu%xref no email%8,             Feng%Zhou%xref no email%8,             Jinjun%Jiang%xref no email%8,             Chunxue%Bai%xref no email%8,             Junhua%Zheng%xref no email%8,             Yuanlin%Song%xref no email%9]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,                   Kai%Xie%NULL%3,                   Hui%Lu%NULL%2,                   Lei%Xu%bayinhexl@126.com%2,                   Shusheng%Zhou%zhouss108@163.com%2,                   Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%0,                   Feifei%Yao%NULL%1,                   Lijie%Wang%NULL%1,                   Ling%Zheng%NULL%1,                   Yongjun%Gao%NULL%1,                   Jun%Ye%NULL%1,                   Feng%Guo%NULL%1,                   Hui%Zhao%NULL%1,                   Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%0,                   Ci%Song%NULL%1,                   Chuanjun%Xu%NULL%1,                   Guangfu%Jin%NULL%1,                   Yaling%Chen%NULL%1,                   Xin%Xu%NULL%1,                   Hongxia%Ma%NULL%1,                   Wei%Chen%NULL%3,                   Yuan%Lin%NULL%1,                   Yishan%Zheng%NULL%1,                   Jianming%Wang%NULL%1,                   Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,                   Yongxiang%Yi%ian0126@126.com%1,                   Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%12,                   Di%Wu%NULL%2,                   Huilong%Chen%NULL%2,                   Weiming%Yan%NULL%2,                   Danlei%Yang%NULL%2,                   Guang%Chen%NULL%2,                   Ke%Ma%NULL%2,                   Dong%Xu%NULL%2,                   Haijing%Yu%NULL%2,                   Hongwu%Wang%NULL%2,                   Tao%Wang%NULL%0,                   Wei%Guo%NULL%2,                   Jia%Chen%NULL%2,                   Chen%Ding%NULL%2,                   Xiaoping%Zhang%NULL%2,                   Jiaquan%Huang%NULL%2,                   Meifang%Han%NULL%2,                   Shusheng%Li%NULL%2,                   Xiaoping%Luo%NULL%2,                   Jianping%Zhao%NULL%0,                   Qin%Ning%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                   Yuan-Yuan%Fang%NULL%4,                   Yan%Deng%NULL%3,                   Wei%Liu%NULL%5,                   Mei-Fang%Wang%NULL%3,                   Jing-Ping%Ma%NULL%3,                   Wei%Xiao%NULL%3,                   Ying-Nan%Wang%NULL%3,                   Min-Hua%Zhong%NULL%3,                   Cheng-Hong%Li%NULL%3,                   Guang-Cai%Li%NULL%3,                   Hui-Guo%Liu%NULL%4,                   Xiu-Yuan%Hao%NULL%6,                   Pei-Fang%Wei%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%4,                   Tianhe%Ye%NULL%3,                   Peng%Sun%NULL%3,                   Shan%Gui%NULL%3,                   Bo%Liang%NULL%3,                   Lingli%Li%NULL%3,                   Dandan%Zheng%NULL%3,                   Jiazheng%Wang%NULL%3,                   Richard L.%Hesketh%NULL%3,                   Lian%Yang%yanglian@hust.edu.cn%3,                   Chuansheng%Zheng%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                   Yuan%Yu%NULL%2,                   Jiqian%Xu%NULL%1,                   Huaqing%Shu%NULL%1,                   Jia'an%Xia%NULL%4,                   Hong%Liu%NULL%3,                   Yongran%Wu%NULL%2,                   Lu%Zhang%NULL%1,                   Zhui%Yu%NULL%1,                   Minghao%Fang%NULL%1,                   Ting%Yu%NULL%0,                   Yaxin%Wang%NULL%2,                   Shangwen%Pan%NULL%1,                   Xiaojing%Zou%NULL%2,                   Shiying%Yuan%NULL%2,                   You%Shang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%3,                   Nan%Yang%NULL%2,                   Yanqiu%Wei%NULL%2,                   Huihui%Yue%NULL%2,                   Fengqin%Zhang%NULL%2,                   Jianping%Zhao%NULL%0,                   Li%He%NULL%2,                   Gaohong%Sheng%NULL%2,                   Peng%Chen%NULL%2,                   Gang%Li%NULL%0,                   Sisi%Wu%NULL%2,                   Bo%Zhang%NULL%2,                   Shu%Zhang%szhang@tjh.tjmu.edu.cn%2,                   Congyi%Wang%wangcy@tjh.tjmu.edu.cn%2,                   Xiaoping%Miao%miaoxp@hust.edu.cn%2,                   Juan%Li%lijuan@tjh.tjmu.edu.cn%2,                   Wenhua%Liu%liuwh_2013@126.com%2,                   Huilan%Zhang%huilanz_76@163.com%2]</t>
+  </si>
+  <si>
+    <t>[ J.%Liu%null%2,                    L.% Ouyang%null%1,                    P.% Guo%null%1,                    H. s.% Wu%null%1,                    P.% Fu%null%1,                    Y. l.% Chen%null%1,                    D.% Yang%null%1,                    X. y.% Han%null%1,                    Y. k.% Cao%null%1,                    O.% Alwalid%null%1,                    J.% Tao%null%1,                    S. y.% Peng%null%1,                    H. s.% Shi%null%1,                    F.% Yang%null%1,                    C. s. % Zheng%null%1,  J.%Liu%null%0,  L.% Ouyang%null%1,  P.% Guo%null%1,  H. s.% Wu%null%1,  P.% Fu%null%1,  Y. l.% Chen%null%1,  D.% Yang%null%2,  X. y.% Han%null%1,  Y. k.% Cao%null%1,  O.% Alwalid%null%1,  J.% Tao%null%1,  S. y.% Peng%null%1,  H. s.% Shi%null%1,  F.% Yang%null%1,  C. s. % Zheng%null%1]</t>
+  </si>
+  <si>
+    <t>[ R.%Liu%null%2,                    X.% Ming%null%1,                    O.% Xu%null%1,                    J.% Zhou%null%1,                    H.% Peng%null%1,                    N.% Xiang%null%1,                    J.% Zhang%null%1,                    H. % Zhu%null%1,  R.%Liu%null%0,  X.% Ming%null%1,  O.% Xu%null%1,  J.% Zhou%null%2,  H.% Peng%null%1,  N.% Xiang%null%1,  J.% Zhang%null%2,  H. % Zhu%null%1]</t>
+  </si>
+  <si>
+    <t>[Jiaxun%Hu%xref no email%1,             You%Lv%xref no email%1,             Ying%Xu%xref no email%1,             Yushan%Miao%xref no email%1,             Wei%Wang%xref no email%5,             Wenqing%Le%xref no email%1,             Hao%Tang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%2,                   Shauna%Clark%NULL%2,                   Sargis%Pogosjans%NULL%2,                   Meagan%Kay%NULL%2,                   James%Lewis%NULL%3,                   Atar%Baer%NULL%2,                   Vance%Kawakami%NULL%2,                   Margaret D.%Lukoff%NULL%2,                   Jessica%Ferro%NULL%2,                   Claire%Brostrom-Smith%NULL%2,                   Francis X.%Riedo%NULL%2,                   Denny%Russell%NULL%2,                   Brian%Hiatt%NULL%2,                   Patricia%Montgomery%NULL%2,                   Agam K.%Rao%NULL%2,                   Dustin W.%Currie%NULL%2,                   Eric J.%Chow%NULL%2,                   Farrell%Tobolowsky%NULL%2,                   Ana C.%Bardossy%NULL%2,                   Lisa P.%Oakley%NULL%2,                   Jesica R.%Jacobs%NULL%2,                   Noah G.%Schwartz%NULL%2,                   Nimalie%Stone%NULL%1,                   Sujan C.%Reddy%NULL%4,                   John A.%Jernigan%NULL%3,                   Margaret A.%Honein%NULL%2,                   Thomas A.%Clark%NULL%2,                   Jeffrey S.%Duchin%NULL%2,                   NULL%NULL%NULL%22,                   NULL%NULL%NULL%0,                   Meaghan S.%Fagalde%NULL%1,                   Jennifer L.%Lenahan%NULL%1,                   Emily B.%Maier%NULL%1,                   Kaitlyn J.%Sykes%NULL%1,                   Grace%Hatt%NULL%1,                   Holly%Whitney%NULL%1,                   Melinda%Huntington-Frazier%NULL%1,                   Elysia%Gonzales%NULL%1,                   Laura A.%Mummert%NULL%1,                   Hal Garcia%Smith%NULL%1,                   Steve%Stearns%NULL%1,                   Eileen%Benoliel%NULL%1,                   Shelly%McKeirnan%NULL%1,                   Jennifer L.%Morgan%NULL%1,                   Daniel%Smith%NULL%1,                   Michaela%Hope%NULL%1,                   Noel%Hatley%NULL%1,                   Leslie M.%Barnard%NULL%1,                   Leilani%Schwarcz%NULL%1,                   Nicole%Yarid%NULL%1,                   Eric%Yim%NULL%1,                   Sandra%Kreider%NULL%1,                   Dawn%Barr%NULL%1,                   Nancy%Wilde%NULL%1,                   Courtney%Dorman%NULL%1,                   Airin%Lam%NULL%1,                   Jeanette%Harris%NULL%1,                   Hollianne%Bruce%NULL%2,                   Christopher%Spitters%NULL%2,                   Snohomish Health%District%NULL%1,                   Rachael%Zacks%NULL%1,                   Jonathan%Dyal%NULL%1,                   Michael%Hughes%NULL%1,                   Christina%Carlson%NULL%1,                   Barbara%Cooper%NULL%1,                   Michelle%Banks%NULL%1,                   Heather%McLaughlin%NULL%1,                   Arun%Balajee%NULL%1,                   Christine%Olson%NULL%1,                   Suzanne%Zane%NULL%1,                   Hammad%Ali%NULL%1,                   Jessica%Healy%NULL%1,                   Kristine%Schmit%NULL%1,                   Kevin%Spicer%NULL%1,                   Zeshan%Chisty%NULL%1,                   Sukarma%Tanwar%NULL%1,                   Joanne%Taylor%NULL%1,                   Leisha%Nolen%NULL%1,                   Jeneita%Bell%NULL%1,                   Kelly%Hatfield%NULL%1,                   Melissa%Arons%NULL%1,                   Anne%Kimball%NULL%1,                   Allison%James%NULL%1,                   Mark%Methner%NULL%1,                   Joshua%Harney%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2612,7 +2672,7 @@
         <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -2641,7 +2701,7 @@
         <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>546</v>
+        <v>569</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -2670,7 +2730,7 @@
         <v>243</v>
       </c>
       <c r="E5" t="s">
-        <v>548</v>
+        <v>570</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2699,7 +2759,7 @@
         <v>246</v>
       </c>
       <c r="E6" t="s">
-        <v>549</v>
+        <v>571</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -2728,7 +2788,7 @@
         <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>550</v>
+        <v>572</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -2757,7 +2817,7 @@
         <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>551</v>
+        <v>573</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -2786,7 +2846,7 @@
         <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -2815,7 +2875,7 @@
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>553</v>
+        <v>575</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2844,7 +2904,7 @@
         <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>554</v>
+        <v>576</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -2873,7 +2933,7 @@
         <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>555</v>
+        <v>577</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
@@ -2902,7 +2962,7 @@
         <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>556</v>
+        <v>578</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
@@ -2931,7 +2991,7 @@
         <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>558</v>
+        <v>579</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -2960,7 +3020,7 @@
         <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>559</v>
+        <v>580</v>
       </c>
       <c r="F15" t="s">
         <v>81</v>
@@ -2989,7 +3049,7 @@
         <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>560</v>
+        <v>581</v>
       </c>
       <c r="F16" t="s">
         <v>85</v>
@@ -3047,7 +3107,7 @@
         <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>561</v>
+        <v>582</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
@@ -3076,7 +3136,7 @@
         <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>562</v>
+        <v>583</v>
       </c>
       <c r="F19" t="s">
         <v>93</v>
@@ -3105,7 +3165,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>563</v>
+        <v>584</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -3134,7 +3194,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="F21" t="s">
         <v>21</v>
@@ -3163,7 +3223,7 @@
         <v>338</v>
       </c>
       <c r="E22" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -3192,7 +3252,7 @@
         <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>567</v>
+        <v>587</v>
       </c>
       <c r="F23" t="s">
         <v>98</v>

--- a/Covid_19_Dataset_and_References/References/5.xlsx
+++ b/Covid_19_Dataset_and_References/References/5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5022" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5942" uniqueCount="688">
   <si>
     <t>Doi</t>
   </si>
@@ -2309,6 +2309,306 @@
   </si>
   <si>
     <t>[Temet M.%McMichael%NULL%2,                   Shauna%Clark%NULL%2,                   Sargis%Pogosjans%NULL%2,                   Meagan%Kay%NULL%2,                   James%Lewis%NULL%3,                   Atar%Baer%NULL%2,                   Vance%Kawakami%NULL%2,                   Margaret D.%Lukoff%NULL%2,                   Jessica%Ferro%NULL%2,                   Claire%Brostrom-Smith%NULL%2,                   Francis X.%Riedo%NULL%2,                   Denny%Russell%NULL%2,                   Brian%Hiatt%NULL%2,                   Patricia%Montgomery%NULL%2,                   Agam K.%Rao%NULL%2,                   Dustin W.%Currie%NULL%2,                   Eric J.%Chow%NULL%2,                   Farrell%Tobolowsky%NULL%2,                   Ana C.%Bardossy%NULL%2,                   Lisa P.%Oakley%NULL%2,                   Jesica R.%Jacobs%NULL%2,                   Noah G.%Schwartz%NULL%2,                   Nimalie%Stone%NULL%1,                   Sujan C.%Reddy%NULL%4,                   John A.%Jernigan%NULL%3,                   Margaret A.%Honein%NULL%2,                   Thomas A.%Clark%NULL%2,                   Jeffrey S.%Duchin%NULL%2,                   NULL%NULL%NULL%22,                   NULL%NULL%NULL%0,                   Meaghan S.%Fagalde%NULL%1,                   Jennifer L.%Lenahan%NULL%1,                   Emily B.%Maier%NULL%1,                   Kaitlyn J.%Sykes%NULL%1,                   Grace%Hatt%NULL%1,                   Holly%Whitney%NULL%1,                   Melinda%Huntington-Frazier%NULL%1,                   Elysia%Gonzales%NULL%1,                   Laura A.%Mummert%NULL%1,                   Hal Garcia%Smith%NULL%1,                   Steve%Stearns%NULL%1,                   Eileen%Benoliel%NULL%1,                   Shelly%McKeirnan%NULL%1,                   Jennifer L.%Morgan%NULL%1,                   Daniel%Smith%NULL%1,                   Michaela%Hope%NULL%1,                   Noel%Hatley%NULL%1,                   Leslie M.%Barnard%NULL%1,                   Leilani%Schwarcz%NULL%1,                   Nicole%Yarid%NULL%1,                   Eric%Yim%NULL%1,                   Sandra%Kreider%NULL%1,                   Dawn%Barr%NULL%1,                   Nancy%Wilde%NULL%1,                   Courtney%Dorman%NULL%1,                   Airin%Lam%NULL%1,                   Jeanette%Harris%NULL%1,                   Hollianne%Bruce%NULL%2,                   Christopher%Spitters%NULL%2,                   Snohomish Health%District%NULL%1,                   Rachael%Zacks%NULL%1,                   Jonathan%Dyal%NULL%1,                   Michael%Hughes%NULL%1,                   Christina%Carlson%NULL%1,                   Barbara%Cooper%NULL%1,                   Michelle%Banks%NULL%1,                   Heather%McLaughlin%NULL%1,                   Arun%Balajee%NULL%1,                   Christine%Olson%NULL%1,                   Suzanne%Zane%NULL%1,                   Hammad%Ali%NULL%1,                   Jessica%Healy%NULL%1,                   Kristine%Schmit%NULL%1,                   Kevin%Spicer%NULL%1,                   Zeshan%Chisty%NULL%1,                   Sukarma%Tanwar%NULL%1,                   Joanne%Taylor%NULL%1,                   Leisha%Nolen%NULL%1,                   Jeneita%Bell%NULL%1,                   Kelly%Hatfield%NULL%1,                   Melissa%Arons%NULL%1,                   Anne%Kimball%NULL%1,                   Allison%James%NULL%1,                   Mark%Methner%NULL%1,                   Joshua%Harney%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%14,                    Zheng-yi%Ni%NULL%5,                    Yu%Hu%NULL%4,                    Wen-hua%Liang%NULL%4,                    Chun-quan%Ou%NULL%4,                    Jian-xing%He%NULL%4,                    Lei%Liu%NULL%8,                    Hong%Shan%NULL%6,                    Chun-liang%Lei%NULL%4,                    David S.C.%Hui%NULL%3,                    Bin%Du%NULL%3,                    Lan-juan%Li%NULL%3,                    Guang%Zeng%NULL%3,                    Kwok-Yung%Yuen%NULL%6,                    Ru-chong%Chen%NULL%4,                    Chun-li%Tang%NULL%4,                    Tao%Wang%NULL%7,                    Ping-yan%Chen%NULL%4,                    Jie%Xiang%NULL%6,                    Shi-yue%Li%NULL%4,                    Jin-lin%Wang%NULL%3,                    Zi-jing%Liang%NULL%3,                    Yi-xiang%Peng%NULL%4,                    Li%Wei%NULL%4,                    Yong%Liu%NULL%4,                    Ya-hua%Hu%NULL%4,                    Peng%Peng%NULL%7,                    Jian-ming%Wang%NULL%4,                    Ji-yang%Liu%NULL%4,                    Zhong%Chen%NULL%4,                    Gang%Li%NULL%6,                    Zhi-jian%Zheng%NULL%4,                    Shao-qin%Qiu%NULL%4,                    Jie%Luo%NULL%4,                    Chang-jiang%Ye%NULL%4,                    Shao-yong%Zhu%NULL%4,                    Nan-shan%Zhong%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                    Dengju%Li%NULL%2,                    Xiong%Wang%NULL%2,                    Ziyong%Sun%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                  Cao%Yi-yuan%coreGivesNoEmail%3,                  Dong%Xiang%coreGivesNoEmail%3,                  Gao%Ya-dong%coreGivesNoEmail%3,                  Yan%You-qin%coreGivesNoEmail%3,                  Yang%Yi-bin%coreGivesNoEmail%3,                  Yuan%Ya-dong%coreGivesNoEmail%3,                  Zhang%Jin-jin%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                  Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%4,                  Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%4,                  Subert-Salas%Lizandra%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%3,                    Juanjuan%Guo%NULL%3,                    Chen%Wang%NULL%3,                    Fan%Luo%NULL%2,                    Xuechen%Yu%NULL%3,                    Wei%Zhang%NULL%6,                    Jiafu%Li%NULL%3,                    Dongchi%Zhao%NULL%2,                    Dan%Xu%NULL%3,                    Qing%Gong%NULL%2,                    Jing%Liao%NULL%2,                    Huixia%Yang%yanghuixia@bjmu.edu.cn%3,                    Wei%Hou%houwei@whu.edu.cn%2,                    Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                    Yeming%Wang%NULL%6,                    Xingwang%Li%NULL%7,                    Lili%Ren%NULL%4,                    Jianping%Zhao%NULL%9,                    Yi%Hu%NULL%7,                    Li%Zhang%NULL%7,                    Guohui%Fan%NULL%6,                    Jiuyang%Xu%NULL%6,                    Xiaoying%Gu%NULL%6,                    Zhenshun%Cheng%NULL%4,                    Ting%Yu%NULL%13,                    Jiaan%Xia%NULL%4,                    Yuan%Wei%NULL%10,                    Wenjuan%Wu%NULL%4,                    Xuelei%Xie%NULL%4,                    Wen%Yin%NULL%6,                    Hui%Li%NULL%7,                    Min%Liu%NULL%4,                    Yan%Xiao%NULL%5,                    Hong%Gao%NULL%6,                    Li%Guo%NULL%5,                    Jungang%Xie%NULL%5,                    Guangfa%Wang%NULL%4,                    Rongmeng%Jiang%NULL%4,                    Zhancheng%Gao%NULL%5,                    Qi%Jin%NULL%5,                    Jianwei%Wang%wangjw28@163.com%0,                    Bin%Cao%caobin_ben@163.com%7]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                    Xiao-Xin%Wu%NULL%4,                    Xian-Gao%Jiang%NULL%4,                    Kai-Jin%Xu%NULL%4,                    Ling-Jun%Ying%NULL%4,                    Chun-Lian%Ma%NULL%4,                    Shi-Bo%Li%NULL%4,                    Hua-Ying%Wang%NULL%4,                    Sheng%Zhang%NULL%4,                    Hai-Nv%Gao%NULL%4,                    Ji-Fang%Sheng%NULL%4,                    Hong-Liu%Cai%NULL%4,                    Yun-Qing%Qiu%NULL%4,                    Lan-Juan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0, Xiaoyan%Chen%xref no email%0, Yanping%Cai%xref no email%0, Jia\u2019an%Xia%xref no email%0, Xing%Zhou%xref no email%0, Sha%Xu%xref no email%0, Hanping%Huang%xref no email%0, Li%Zhang%xref no email%0, Xia%Zhou%xref no email%0, Chunling%Du%xref no email%0, Yuye%Zhang%xref no email%0, Juan%Song%xref no email%0, Sijiao%Wang%xref no email%0, Yencheng%Chao%xref no email%0, Zeyong%Yang%xref no email%0, Jie%Xu%xref no email%0, Xin%Zhou%xref no email%0, Dechang%Chen%xref no email%0, Weining%Xiong%xref no email%0, Lei%Xu%xref no email%0, Feng%Zhou%xref no email%0, Jinjun%Jiang%xref no email%0, Chunxue%Bai%xref no email%0, Junhua%Zheng%xref no email%0, Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,                    Kai%Xie%NULL%3,                    Hui%Lu%NULL%2,                    Lei%Xu%bayinhexl@126.com%2,                    Shusheng%Zhou%zhouss108@163.com%2,                    Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%0,                    Feifei%Yao%NULL%1,                    Lijie%Wang%NULL%1,                    Ling%Zheng%NULL%1,                    Yongjun%Gao%NULL%1,                    Jun%Ye%NULL%1,                    Feng%Guo%NULL%1,                    Hui%Zhao%NULL%1,                    Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%0,                    Ci%Song%NULL%1,                    Chuanjun%Xu%NULL%1,                    Guangfu%Jin%NULL%1,                    Yaling%Chen%NULL%1,                    Xin%Xu%NULL%1,                    Hongxia%Ma%NULL%1,                    Wei%Chen%NULL%3,                    Yuan%Lin%NULL%1,                    Yishan%Zheng%NULL%1,                    Jianming%Wang%NULL%1,                    Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,                    Yongxiang%Yi%ian0126@126.com%1,                    Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%15,                    Di%Wu%NULL%2,                    Huilong%Chen%NULL%2,                    Weiming%Yan%NULL%2,                    Danlei%Yang%NULL%2,                    Guang%Chen%NULL%2,                    Ke%Ma%NULL%2,                    Dong%Xu%NULL%2,                    Haijing%Yu%NULL%2,                    Hongwu%Wang%NULL%2,                    Tao%Wang%NULL%0,                    Wei%Guo%NULL%2,                    Jia%Chen%NULL%2,                    Chen%Ding%NULL%2,                    Xiaoping%Zhang%NULL%2,                    Jiaquan%Huang%NULL%2,                    Meifang%Han%NULL%2,                    Shusheng%Li%NULL%2,                    Xiaoping%Luo%NULL%2,                    Jianping%Zhao%NULL%0,                    Qin%Ning%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                    Yuan-Yuan%Fang%NULL%4,                    Yan%Deng%NULL%3,                    Wei%Liu%NULL%5,                    Mei-Fang%Wang%NULL%3,                    Jing-Ping%Ma%NULL%3,                    Wei%Xiao%NULL%3,                    Ying-Nan%Wang%NULL%3,                    Min-Hua%Zhong%NULL%3,                    Cheng-Hong%Li%NULL%3,                    Guang-Cai%Li%NULL%3,                    Hui-Guo%Liu%NULL%4,                    Xiu-Yuan%Hao%NULL%6,                    Pei-Fang%Wei%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%4,                    Tianhe%Ye%NULL%3,                    Peng%Sun%NULL%3,                    Shan%Gui%NULL%3,                    Bo%Liang%NULL%3,                    Lingli%Li%NULL%3,                    Dandan%Zheng%NULL%3,                    Jiazheng%Wang%NULL%3,                    Richard L.%Hesketh%NULL%3,                    Lian%Yang%yanglian@hust.edu.cn%3,                    Chuansheng%Zheng%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                    Yuan%Yu%NULL%2,                    Jiqian%Xu%NULL%1,                    Huaqing%Shu%NULL%1,                    Jia'an%Xia%NULL%4,                    Hong%Liu%NULL%3,                    Yongran%Wu%NULL%2,                    Lu%Zhang%NULL%1,                    Zhui%Yu%NULL%1,                    Minghao%Fang%NULL%1,                    Ting%Yu%NULL%0,                    Yaxin%Wang%NULL%2,                    Shangwen%Pan%NULL%1,                    Xiaojing%Zou%NULL%2,                    Shiying%Yuan%NULL%2,                    You%Shang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%3,                    Nan%Yang%NULL%2,                    Yanqiu%Wei%NULL%2,                    Huihui%Yue%NULL%2,                    Fengqin%Zhang%NULL%2,                    Jianping%Zhao%NULL%0,                    Li%He%NULL%2,                    Gaohong%Sheng%NULL%2,                    Peng%Chen%NULL%2,                    Gang%Li%NULL%0,                    Sisi%Wu%NULL%2,                    Bo%Zhang%NULL%2,                    Shu%Zhang%szhang@tjh.tjmu.edu.cn%2,                    Congyi%Wang%wangcy@tjh.tjmu.edu.cn%2,                    Xiaoping%Miao%miaoxp@hust.edu.cn%2,                    Juan%Li%lijuan@tjh.tjmu.edu.cn%2,                    Wenhua%Liu%liuwh_2013@126.com%2,                    Huilan%Zhang%huilanz_76@163.com%2]</t>
+  </si>
+  <si>
+    <t>[ J.%Liu%null%1,                     L.% Ouyang%null%1,                     P.% Guo%null%1,                     H. s.% Wu%null%1,                     P.% Fu%null%1,                     Y. l.% Chen%null%1,                     D.% Yang%null%1,                     X. y.% Han%null%1,                     Y. k.% Cao%null%1,                     O.% Alwalid%null%1,                     J.% Tao%null%1,                     S. y.% Peng%null%1,                     H. s.% Shi%null%1,                     F.% Yang%null%1,                     C. s. % Zheng%null%1,   J.%Liu%null%1,   L.% Ouyang%null%1,   P.% Guo%null%1,   H. s.% Wu%null%1,   P.% Fu%null%1,   Y. l.% Chen%null%1,   D.% Yang%null%2,   X. y.% Han%null%1,   Y. k.% Cao%null%1,   O.% Alwalid%null%1,   J.% Tao%null%1,   S. y.% Peng%null%1,   H. s.% Shi%null%1,   F.% Yang%null%1,   C. s. % Zheng%null%1]</t>
+  </si>
+  <si>
+    <t>[ R.%Liu%null%1,                     X.% Ming%null%1,                     O.% Xu%null%1,                     J.% Zhou%null%1,                     H.% Peng%null%1,                     N.% Xiang%null%1,                     J.% Zhang%null%1,                     H. % Zhu%null%1,   R.%Liu%null%1,   X.% Ming%null%1,   O.% Xu%null%1,   J.% Zhou%null%2,   H.% Peng%null%1,   N.% Xiang%null%1,   J.% Zhang%null%2,   H. % Zhu%null%1]</t>
+  </si>
+  <si>
+    <t>[Jiaxun%Hu%xref no email%0, You%Lv%xref no email%1, Ying%Xu%xref no email%1, Yushan%Miao%xref no email%1, Wei%Wang%xref no email%5, Wenqing%Le%xref no email%1, Hao%Tang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Research Square Platform LLC</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%2,                    Shauna%Clark%NULL%2,                    Sargis%Pogosjans%NULL%2,                    Meagan%Kay%NULL%2,                    James%Lewis%NULL%3,                    Atar%Baer%NULL%2,                    Vance%Kawakami%NULL%2,                    Margaret D.%Lukoff%NULL%2,                    Jessica%Ferro%NULL%2,                    Claire%Brostrom-Smith%NULL%2,                    Francis X.%Riedo%NULL%2,                    Denny%Russell%NULL%2,                    Brian%Hiatt%NULL%2,                    Patricia%Montgomery%NULL%2,                    Agam K.%Rao%NULL%2,                    Dustin W.%Currie%NULL%2,                    Eric J.%Chow%NULL%2,                    Farrell%Tobolowsky%NULL%2,                    Ana C.%Bardossy%NULL%2,                    Lisa P.%Oakley%NULL%2,                    Jesica R.%Jacobs%NULL%2,                    Noah G.%Schwartz%NULL%2,                    Nimalie%Stone%NULL%1,                    Sujan C.%Reddy%NULL%4,                    John A.%Jernigan%NULL%3,                    Margaret A.%Honein%NULL%2,                    Thomas A.%Clark%NULL%2,                    Jeffrey S.%Duchin%NULL%2,                    NULL%NULL%NULL%22,                    NULL%NULL%NULL%0,                    Meaghan S.%Fagalde%NULL%1,                    Jennifer L.%Lenahan%NULL%1,                    Emily B.%Maier%NULL%1,                    Kaitlyn J.%Sykes%NULL%1,                    Grace%Hatt%NULL%1,                    Holly%Whitney%NULL%1,                    Melinda%Huntington-Frazier%NULL%1,                    Elysia%Gonzales%NULL%1,                    Laura A.%Mummert%NULL%1,                    Hal Garcia%Smith%NULL%1,                    Steve%Stearns%NULL%1,                    Eileen%Benoliel%NULL%1,                    Shelly%McKeirnan%NULL%1,                    Jennifer L.%Morgan%NULL%1,                    Daniel%Smith%NULL%1,                    Michaela%Hope%NULL%1,                    Noel%Hatley%NULL%1,                    Leslie M.%Barnard%NULL%1,                    Leilani%Schwarcz%NULL%1,                    Nicole%Yarid%NULL%1,                    Eric%Yim%NULL%1,                    Sandra%Kreider%NULL%1,                    Dawn%Barr%NULL%1,                    Nancy%Wilde%NULL%1,                    Courtney%Dorman%NULL%1,                    Airin%Lam%NULL%1,                    Jeanette%Harris%NULL%1,                    Hollianne%Bruce%NULL%2,                    Christopher%Spitters%NULL%2,                    Snohomish Health%District%NULL%1,                    Rachael%Zacks%NULL%1,                    Jonathan%Dyal%NULL%1,                    Michael%Hughes%NULL%1,                    Christina%Carlson%NULL%1,                    Barbara%Cooper%NULL%1,                    Michelle%Banks%NULL%1,                    Heather%McLaughlin%NULL%1,                    Arun%Balajee%NULL%1,                    Christine%Olson%NULL%1,                    Suzanne%Zane%NULL%1,                    Hammad%Ali%NULL%1,                    Jessica%Healy%NULL%1,                    Kristine%Schmit%NULL%1,                    Kevin%Spicer%NULL%1,                    Zeshan%Chisty%NULL%1,                    Sukarma%Tanwar%NULL%1,                    Joanne%Taylor%NULL%1,                    Leisha%Nolen%NULL%1,                    Jeneita%Bell%NULL%1,                    Kelly%Hatfield%NULL%1,                    Melissa%Arons%NULL%1,                    Anne%Kimball%NULL%1,                    Allison%James%NULL%1,                    Mark%Methner%NULL%1,                    Joshua%Harney%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%14,                     Zheng-yi%Ni%NULL%5,                     Yu%Hu%NULL%4,                     Wen-hua%Liang%NULL%4,                     Chun-quan%Ou%NULL%4,                     Jian-xing%He%NULL%4,                     Lei%Liu%NULL%8,                     Hong%Shan%NULL%6,                     Chun-liang%Lei%NULL%4,                     David S.C.%Hui%NULL%3,                     Bin%Du%NULL%3,                     Lan-juan%Li%NULL%3,                     Guang%Zeng%NULL%3,                     Kwok-Yung%Yuen%NULL%6,                     Ru-chong%Chen%NULL%4,                     Chun-li%Tang%NULL%4,                     Tao%Wang%NULL%7,                     Ping-yan%Chen%NULL%4,                     Jie%Xiang%NULL%6,                     Shi-yue%Li%NULL%4,                     Jin-lin%Wang%NULL%3,                     Zi-jing%Liang%NULL%3,                     Yi-xiang%Peng%NULL%4,                     Li%Wei%NULL%4,                     Yong%Liu%NULL%4,                     Ya-hua%Hu%NULL%4,                     Peng%Peng%NULL%7,                     Jian-ming%Wang%NULL%4,                     Ji-yang%Liu%NULL%4,                     Zhong%Chen%NULL%4,                     Gang%Li%NULL%6,                     Zhi-jian%Zheng%NULL%4,                     Shao-qin%Qiu%NULL%4,                     Jie%Luo%NULL%4,                     Chang-jiang%Ye%NULL%4,                     Shao-yong%Zhu%NULL%4,                     Nan-shan%Zhong%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                     Dengju%Li%NULL%2,                     Xiong%Wang%NULL%2,                     Ziyong%Sun%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                   Cao%Yi-yuan%coreGivesNoEmail%3,                   Dong%Xiang%coreGivesNoEmail%3,                   Gao%Ya-dong%coreGivesNoEmail%3,                   Yan%You-qin%coreGivesNoEmail%3,                   Yang%Yi-bin%coreGivesNoEmail%3,                   Yuan%Ya-dong%coreGivesNoEmail%3,                   Zhang%Jin-jin%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                   Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%4,                   Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%4,                   Subert-Salas%Lizandra%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%3,                     Juanjuan%Guo%NULL%3,                     Chen%Wang%NULL%3,                     Fan%Luo%NULL%2,                     Xuechen%Yu%NULL%3,                     Wei%Zhang%NULL%6,                     Jiafu%Li%NULL%3,                     Dongchi%Zhao%NULL%2,                     Dan%Xu%NULL%3,                     Qing%Gong%NULL%2,                     Jing%Liao%NULL%2,                     Huixia%Yang%yanghuixia@bjmu.edu.cn%3,                     Wei%Hou%houwei@whu.edu.cn%2,                     Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                     Yeming%Wang%NULL%6,                     Xingwang%Li%NULL%7,                     Lili%Ren%NULL%4,                     Jianping%Zhao%NULL%9,                     Yi%Hu%NULL%7,                     Li%Zhang%NULL%7,                     Guohui%Fan%NULL%6,                     Jiuyang%Xu%NULL%6,                     Xiaoying%Gu%NULL%6,                     Zhenshun%Cheng%NULL%4,                     Ting%Yu%NULL%13,                     Jiaan%Xia%NULL%4,                     Yuan%Wei%NULL%10,                     Wenjuan%Wu%NULL%4,                     Xuelei%Xie%NULL%4,                     Wen%Yin%NULL%6,                     Hui%Li%NULL%7,                     Min%Liu%NULL%4,                     Yan%Xiao%NULL%5,                     Hong%Gao%NULL%6,                     Li%Guo%NULL%5,                     Jungang%Xie%NULL%5,                     Guangfa%Wang%NULL%4,                     Rongmeng%Jiang%NULL%4,                     Zhancheng%Gao%NULL%5,                     Qi%Jin%NULL%5,                     Jianwei%Wang%wangjw28@163.com%0,                     Bin%Cao%caobin_ben@163.com%7]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                     Xiao-Xin%Wu%NULL%4,                     Xian-Gao%Jiang%NULL%4,                     Kai-Jin%Xu%NULL%4,                     Ling-Jun%Ying%NULL%4,                     Chun-Lian%Ma%NULL%4,                     Shi-Bo%Li%NULL%4,                     Hua-Ying%Wang%NULL%4,                     Sheng%Zhang%NULL%4,                     Hai-Nv%Gao%NULL%4,                     Ji-Fang%Sheng%NULL%4,                     Hong-Liu%Cai%NULL%4,                     Yun-Qing%Qiu%NULL%4,                     Lan-Juan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,  Xiaoyan%Chen%xref no email%0,  Yanping%Cai%xref no email%0,  Jia\u2019an%Xia%xref no email%0,  Xing%Zhou%xref no email%0,  Sha%Xu%xref no email%0,  Hanping%Huang%xref no email%0,  Li%Zhang%xref no email%0,  Xia%Zhou%xref no email%0,  Chunling%Du%xref no email%0,  Yuye%Zhang%xref no email%0,  Juan%Song%xref no email%0,  Sijiao%Wang%xref no email%0,  Yencheng%Chao%xref no email%0,  Zeyong%Yang%xref no email%0,  Jie%Xu%xref no email%0,  Xin%Zhou%xref no email%0,  Dechang%Chen%xref no email%0,  Weining%Xiong%xref no email%0,  Lei%Xu%xref no email%0,  Feng%Zhou%xref no email%0,  Jinjun%Jiang%xref no email%0,  Chunxue%Bai%xref no email%0,  Junhua%Zheng%xref no email%0,  Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,                     Kai%Xie%NULL%3,                     Hui%Lu%NULL%2,                     Lei%Xu%bayinhexl@126.com%2,                     Shusheng%Zhou%zhouss108@163.com%2,                     Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%0,                     Feifei%Yao%NULL%1,                     Lijie%Wang%NULL%1,                     Ling%Zheng%NULL%1,                     Yongjun%Gao%NULL%1,                     Jun%Ye%NULL%1,                     Feng%Guo%NULL%1,                     Hui%Zhao%NULL%1,                     Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%0,                     Ci%Song%NULL%1,                     Chuanjun%Xu%NULL%1,                     Guangfu%Jin%NULL%1,                     Yaling%Chen%NULL%1,                     Xin%Xu%NULL%1,                     Hongxia%Ma%NULL%1,                     Wei%Chen%NULL%3,                     Yuan%Lin%NULL%1,                     Yishan%Zheng%NULL%1,                     Jianming%Wang%NULL%1,                     Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,                     Yongxiang%Yi%ian0126@126.com%1,                     Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%12,                     Di%Wu%NULL%2,                     Huilong%Chen%NULL%2,                     Weiming%Yan%NULL%2,                     Danlei%Yang%NULL%2,                     Guang%Chen%NULL%2,                     Ke%Ma%NULL%2,                     Dong%Xu%NULL%2,                     Haijing%Yu%NULL%2,                     Hongwu%Wang%NULL%2,                     Tao%Wang%NULL%0,                     Wei%Guo%NULL%2,                     Jia%Chen%NULL%2,                     Chen%Ding%NULL%2,                     Xiaoping%Zhang%NULL%2,                     Jiaquan%Huang%NULL%2,                     Meifang%Han%NULL%2,                     Shusheng%Li%NULL%2,                     Xiaoping%Luo%NULL%2,                     Jianping%Zhao%NULL%0,                     Qin%Ning%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                     Yuan-Yuan%Fang%NULL%4,                     Yan%Deng%NULL%3,                     Wei%Liu%NULL%5,                     Mei-Fang%Wang%NULL%3,                     Jing-Ping%Ma%NULL%3,                     Wei%Xiao%NULL%3,                     Ying-Nan%Wang%NULL%3,                     Min-Hua%Zhong%NULL%3,                     Cheng-Hong%Li%NULL%3,                     Guang-Cai%Li%NULL%3,                     Hui-Guo%Liu%NULL%4,                     Xiu-Yuan%Hao%NULL%6,                     Pei-Fang%Wei%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%4,                     Tianhe%Ye%NULL%3,                     Peng%Sun%NULL%3,                     Shan%Gui%NULL%3,                     Bo%Liang%NULL%3,                     Lingli%Li%NULL%3,                     Dandan%Zheng%NULL%3,                     Jiazheng%Wang%NULL%3,                     Richard L.%Hesketh%NULL%3,                     Lian%Yang%yanglian@hust.edu.cn%3,                     Chuansheng%Zheng%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                     Yuan%Yu%NULL%2,                     Jiqian%Xu%NULL%1,                     Huaqing%Shu%NULL%1,                     Jia'an%Xia%NULL%4,                     Hong%Liu%NULL%3,                     Yongran%Wu%NULL%2,                     Lu%Zhang%NULL%1,                     Zhui%Yu%NULL%1,                     Minghao%Fang%NULL%1,                     Ting%Yu%NULL%0,                     Yaxin%Wang%NULL%2,                     Shangwen%Pan%NULL%1,                     Xiaojing%Zou%NULL%2,                     Shiying%Yuan%NULL%2,                     You%Shang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%3,                     Nan%Yang%NULL%2,                     Yanqiu%Wei%NULL%2,                     Huihui%Yue%NULL%2,                     Fengqin%Zhang%NULL%2,                     Jianping%Zhao%NULL%0,                     Li%He%NULL%2,                     Gaohong%Sheng%NULL%2,                     Peng%Chen%NULL%2,                     Gang%Li%NULL%0,                     Sisi%Wu%NULL%2,                     Bo%Zhang%NULL%2,                     Shu%Zhang%szhang@tjh.tjmu.edu.cn%2,                     Congyi%Wang%wangcy@tjh.tjmu.edu.cn%2,                     Xiaoping%Miao%miaoxp@hust.edu.cn%2,                     Juan%Li%lijuan@tjh.tjmu.edu.cn%2,                     Wenhua%Liu%liuwh_2013@126.com%2,                     Huilan%Zhang%huilanz_76@163.com%2]</t>
+  </si>
+  <si>
+    <t>[ J.%Liu%null%2,                      L.% Ouyang%null%1,                      P.% Guo%null%1,                      H. s.% Wu%null%1,                      P.% Fu%null%1,                      Y. l.% Chen%null%1,                      D.% Yang%null%1,                      X. y.% Han%null%1,                      Y. k.% Cao%null%1,                      O.% Alwalid%null%1,                      J.% Tao%null%1,                      S. y.% Peng%null%1,                      H. s.% Shi%null%1,                      F.% Yang%null%1,                      C. s. % Zheng%null%1,    J.%Liu%null%1,    L.% Ouyang%null%1,    P.% Guo%null%1,    H. s.% Wu%null%1,    P.% Fu%null%1,    Y. l.% Chen%null%1,    D.% Yang%null%2,    X. y.% Han%null%1,    Y. k.% Cao%null%1,    O.% Alwalid%null%1,    J.% Tao%null%1,    S. y.% Peng%null%1,    H. s.% Shi%null%1,    F.% Yang%null%1,    C. s. % Zheng%null%1]</t>
+  </si>
+  <si>
+    <t>[ R.%Liu%null%1,                      X.% Ming%null%1,                      O.% Xu%null%1,                      J.% Zhou%null%1,                      H.% Peng%null%1,                      N.% Xiang%null%1,                      J.% Zhang%null%1,                      H. % Zhu%null%1,    R.%Liu%null%1,    X.% Ming%null%1,    O.% Xu%null%1,    J.% Zhou%null%2,    H.% Peng%null%1,    N.% Xiang%null%1,    J.% Zhang%null%2,    H. % Zhu%null%1]</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%2,                     Shauna%Clark%NULL%2,                     Sargis%Pogosjans%NULL%2,                     Meagan%Kay%NULL%2,                     James%Lewis%NULL%3,                     Atar%Baer%NULL%2,                     Vance%Kawakami%NULL%2,                     Margaret D.%Lukoff%NULL%2,                     Jessica%Ferro%NULL%2,                     Claire%Brostrom-Smith%NULL%2,                     Francis X.%Riedo%NULL%2,                     Denny%Russell%NULL%2,                     Brian%Hiatt%NULL%2,                     Patricia%Montgomery%NULL%2,                     Agam K.%Rao%NULL%2,                     Dustin W.%Currie%NULL%2,                     Eric J.%Chow%NULL%2,                     Farrell%Tobolowsky%NULL%2,                     Ana C.%Bardossy%NULL%2,                     Lisa P.%Oakley%NULL%2,                     Jesica R.%Jacobs%NULL%2,                     Noah G.%Schwartz%NULL%2,                     Nimalie%Stone%NULL%1,                     Sujan C.%Reddy%NULL%4,                     John A.%Jernigan%NULL%3,                     Margaret A.%Honein%NULL%2,                     Thomas A.%Clark%NULL%2,                     Jeffrey S.%Duchin%NULL%2,                     NULL%NULL%NULL%22,                     NULL%NULL%NULL%0,                     Meaghan S.%Fagalde%NULL%1,                     Jennifer L.%Lenahan%NULL%1,                     Emily B.%Maier%NULL%1,                     Kaitlyn J.%Sykes%NULL%1,                     Grace%Hatt%NULL%1,                     Holly%Whitney%NULL%1,                     Melinda%Huntington-Frazier%NULL%1,                     Elysia%Gonzales%NULL%1,                     Laura A.%Mummert%NULL%1,                     Hal Garcia%Smith%NULL%1,                     Steve%Stearns%NULL%1,                     Eileen%Benoliel%NULL%1,                     Shelly%McKeirnan%NULL%1,                     Jennifer L.%Morgan%NULL%1,                     Daniel%Smith%NULL%1,                     Michaela%Hope%NULL%1,                     Noel%Hatley%NULL%1,                     Leslie M.%Barnard%NULL%1,                     Leilani%Schwarcz%NULL%1,                     Nicole%Yarid%NULL%1,                     Eric%Yim%NULL%1,                     Sandra%Kreider%NULL%1,                     Dawn%Barr%NULL%1,                     Nancy%Wilde%NULL%1,                     Courtney%Dorman%NULL%1,                     Airin%Lam%NULL%1,                     Jeanette%Harris%NULL%1,                     Hollianne%Bruce%NULL%2,                     Christopher%Spitters%NULL%2,                     Snohomish Health%District%NULL%1,                     Rachael%Zacks%NULL%1,                     Jonathan%Dyal%NULL%1,                     Michael%Hughes%NULL%1,                     Christina%Carlson%NULL%1,                     Barbara%Cooper%NULL%1,                     Michelle%Banks%NULL%1,                     Heather%McLaughlin%NULL%1,                     Arun%Balajee%NULL%1,                     Christine%Olson%NULL%1,                     Suzanne%Zane%NULL%1,                     Hammad%Ali%NULL%1,                     Jessica%Healy%NULL%1,                     Kristine%Schmit%NULL%1,                     Kevin%Spicer%NULL%1,                     Zeshan%Chisty%NULL%1,                     Sukarma%Tanwar%NULL%1,                     Joanne%Taylor%NULL%1,                     Leisha%Nolen%NULL%1,                     Jeneita%Bell%NULL%1,                     Kelly%Hatfield%NULL%1,                     Melissa%Arons%NULL%1,                     Anne%Kimball%NULL%1,                     Allison%James%NULL%1,                     Mark%Methner%NULL%1,                     Joshua%Harney%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%14,                      Zheng-yi%Ni%NULL%5,                      Yu%Hu%NULL%4,                      Wen-hua%Liang%NULL%4,                      Chun-quan%Ou%NULL%4,                      Jian-xing%He%NULL%4,                      Lei%Liu%NULL%8,                      Hong%Shan%NULL%6,                      Chun-liang%Lei%NULL%4,                      David S.C.%Hui%NULL%3,                      Bin%Du%NULL%3,                      Lan-juan%Li%NULL%3,                      Guang%Zeng%NULL%3,                      Kwok-Yung%Yuen%NULL%6,                      Ru-chong%Chen%NULL%4,                      Chun-li%Tang%NULL%4,                      Tao%Wang%NULL%7,                      Ping-yan%Chen%NULL%4,                      Jie%Xiang%NULL%6,                      Shi-yue%Li%NULL%4,                      Jin-lin%Wang%NULL%3,                      Zi-jing%Liang%NULL%3,                      Yi-xiang%Peng%NULL%4,                      Li%Wei%NULL%4,                      Yong%Liu%NULL%4,                      Ya-hua%Hu%NULL%4,                      Peng%Peng%NULL%7,                      Jian-ming%Wang%NULL%4,                      Ji-yang%Liu%NULL%4,                      Zhong%Chen%NULL%4,                      Gang%Li%NULL%6,                      Zhi-jian%Zheng%NULL%4,                      Shao-qin%Qiu%NULL%4,                      Jie%Luo%NULL%4,                      Chang-jiang%Ye%NULL%4,                      Shao-yong%Zhu%NULL%4,                      Nan-shan%Zhong%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                      Dengju%Li%NULL%2,                      Xiong%Wang%NULL%2,                      Ziyong%Sun%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                    Cao%Yi-yuan%coreGivesNoEmail%3,                    Dong%Xiang%coreGivesNoEmail%3,                    Gao%Ya-dong%coreGivesNoEmail%3,                    Yan%You-qin%coreGivesNoEmail%3,                    Yang%Yi-bin%coreGivesNoEmail%3,                    Yuan%Ya-dong%coreGivesNoEmail%3,                    Zhang%Jin-jin%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                    Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%4,                    Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%4,                    Subert-Salas%Lizandra%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%3,                      Juanjuan%Guo%NULL%3,                      Chen%Wang%NULL%3,                      Fan%Luo%NULL%2,                      Xuechen%Yu%NULL%3,                      Wei%Zhang%NULL%6,                      Jiafu%Li%NULL%3,                      Dongchi%Zhao%NULL%2,                      Dan%Xu%NULL%3,                      Qing%Gong%NULL%2,                      Jing%Liao%NULL%2,                      Huixia%Yang%yanghuixia@bjmu.edu.cn%3,                      Wei%Hou%houwei@whu.edu.cn%2,                      Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                      Yeming%Wang%NULL%6,                      Xingwang%Li%NULL%7,                      Lili%Ren%NULL%4,                      Jianping%Zhao%NULL%9,                      Yi%Hu%NULL%7,                      Li%Zhang%NULL%7,                      Guohui%Fan%NULL%6,                      Jiuyang%Xu%NULL%6,                      Xiaoying%Gu%NULL%6,                      Zhenshun%Cheng%NULL%4,                      Ting%Yu%NULL%13,                      Jiaan%Xia%NULL%4,                      Yuan%Wei%NULL%10,                      Wenjuan%Wu%NULL%4,                      Xuelei%Xie%NULL%4,                      Wen%Yin%NULL%6,                      Hui%Li%NULL%7,                      Min%Liu%NULL%4,                      Yan%Xiao%NULL%5,                      Hong%Gao%NULL%6,                      Li%Guo%NULL%5,                      Jungang%Xie%NULL%5,                      Guangfa%Wang%NULL%4,                      Rongmeng%Jiang%NULL%4,                      Zhancheng%Gao%NULL%5,                      Qi%Jin%NULL%5,                      Jianwei%Wang%wangjw28@163.com%0,                      Bin%Cao%caobin_ben@163.com%7]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                      Xiao-Xin%Wu%NULL%4,                      Xian-Gao%Jiang%NULL%4,                      Kai-Jin%Xu%NULL%4,                      Ling-Jun%Ying%NULL%4,                      Chun-Lian%Ma%NULL%4,                      Shi-Bo%Li%NULL%4,                      Hua-Ying%Wang%NULL%4,                      Sheng%Zhang%NULL%4,                      Hai-Nv%Gao%NULL%4,                      Ji-Fang%Sheng%NULL%4,                      Hong-Liu%Cai%NULL%4,                      Yun-Qing%Qiu%NULL%4,                      Lan-Juan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,   Xiaoyan%Chen%xref no email%0,   Yanping%Cai%xref no email%0,   Jia\u2019an%Xia%xref no email%0,   Xing%Zhou%xref no email%0,   Sha%Xu%xref no email%0,   Hanping%Huang%xref no email%0,   Li%Zhang%xref no email%0,   Xia%Zhou%xref no email%0,   Chunling%Du%xref no email%0,   Yuye%Zhang%xref no email%0,   Juan%Song%xref no email%0,   Sijiao%Wang%xref no email%0,   Yencheng%Chao%xref no email%0,   Zeyong%Yang%xref no email%0,   Jie%Xu%xref no email%0,   Xin%Zhou%xref no email%0,   Dechang%Chen%xref no email%0,   Weining%Xiong%xref no email%0,   Lei%Xu%xref no email%0,   Feng%Zhou%xref no email%0,   Jinjun%Jiang%xref no email%0,   Chunxue%Bai%xref no email%0,   Junhua%Zheng%xref no email%0,   Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,                      Kai%Xie%NULL%3,                      Hui%Lu%NULL%2,                      Lei%Xu%bayinhexl@126.com%2,                      Shusheng%Zhou%zhouss108@163.com%2,                      Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%0,                      Feifei%Yao%NULL%1,                      Lijie%Wang%NULL%1,                      Ling%Zheng%NULL%1,                      Yongjun%Gao%NULL%1,                      Jun%Ye%NULL%1,                      Feng%Guo%NULL%1,                      Hui%Zhao%NULL%1,                      Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%0,                      Ci%Song%NULL%1,                      Chuanjun%Xu%NULL%1,                      Guangfu%Jin%NULL%1,                      Yaling%Chen%NULL%1,                      Xin%Xu%NULL%1,                      Hongxia%Ma%NULL%1,                      Wei%Chen%NULL%3,                      Yuan%Lin%NULL%1,                      Yishan%Zheng%NULL%1,                      Jianming%Wang%NULL%1,                      Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,                      Yongxiang%Yi%ian0126@126.com%1,                      Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%12,                      Di%Wu%NULL%2,                      Huilong%Chen%NULL%2,                      Weiming%Yan%NULL%2,                      Danlei%Yang%NULL%2,                      Guang%Chen%NULL%2,                      Ke%Ma%NULL%2,                      Dong%Xu%NULL%2,                      Haijing%Yu%NULL%2,                      Hongwu%Wang%NULL%2,                      Tao%Wang%NULL%0,                      Wei%Guo%NULL%2,                      Jia%Chen%NULL%2,                      Chen%Ding%NULL%2,                      Xiaoping%Zhang%NULL%2,                      Jiaquan%Huang%NULL%2,                      Meifang%Han%NULL%2,                      Shusheng%Li%NULL%2,                      Xiaoping%Luo%NULL%2,                      Jianping%Zhao%NULL%0,                      Qin%Ning%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                      Yuan-Yuan%Fang%NULL%4,                      Yan%Deng%NULL%3,                      Wei%Liu%NULL%5,                      Mei-Fang%Wang%NULL%3,                      Jing-Ping%Ma%NULL%3,                      Wei%Xiao%NULL%3,                      Ying-Nan%Wang%NULL%3,                      Min-Hua%Zhong%NULL%3,                      Cheng-Hong%Li%NULL%3,                      Guang-Cai%Li%NULL%3,                      Hui-Guo%Liu%NULL%4,                      Xiu-Yuan%Hao%NULL%6,                      Pei-Fang%Wei%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%4,                      Tianhe%Ye%NULL%3,                      Peng%Sun%NULL%3,                      Shan%Gui%NULL%3,                      Bo%Liang%NULL%3,                      Lingli%Li%NULL%3,                      Dandan%Zheng%NULL%3,                      Jiazheng%Wang%NULL%3,                      Richard L.%Hesketh%NULL%3,                      Lian%Yang%yanglian@hust.edu.cn%3,                      Chuansheng%Zheng%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                      Yuan%Yu%NULL%2,                      Jiqian%Xu%NULL%1,                      Huaqing%Shu%NULL%1,                      Jia'an%Xia%NULL%4,                      Hong%Liu%NULL%3,                      Yongran%Wu%NULL%2,                      Lu%Zhang%NULL%1,                      Zhui%Yu%NULL%1,                      Minghao%Fang%NULL%1,                      Ting%Yu%NULL%0,                      Yaxin%Wang%NULL%2,                      Shangwen%Pan%NULL%1,                      Xiaojing%Zou%NULL%2,                      Shiying%Yuan%NULL%2,                      You%Shang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%3,                      Nan%Yang%NULL%2,                      Yanqiu%Wei%NULL%2,                      Huihui%Yue%NULL%2,                      Fengqin%Zhang%NULL%2,                      Jianping%Zhao%NULL%0,                      Li%He%NULL%2,                      Gaohong%Sheng%NULL%2,                      Peng%Chen%NULL%2,                      Gang%Li%NULL%0,                      Sisi%Wu%NULL%2,                      Bo%Zhang%NULL%2,                      Shu%Zhang%szhang@tjh.tjmu.edu.cn%2,                      Congyi%Wang%wangcy@tjh.tjmu.edu.cn%2,                      Xiaoping%Miao%miaoxp@hust.edu.cn%2,                      Juan%Li%lijuan@tjh.tjmu.edu.cn%2,                      Wenhua%Liu%liuwh_2013@126.com%2,                      Huilan%Zhang%huilanz_76@163.com%2]</t>
+  </si>
+  <si>
+    <t>[ J.%Liu%null%1,                       L.% Ouyang%null%1,                       P.% Guo%null%1,                       H. s.% Wu%null%1,                       P.% Fu%null%1,                       Y. l.% Chen%null%1,                       D.% Yang%null%1,                       X. y.% Han%null%1,                       Y. k.% Cao%null%1,                       O.% Alwalid%null%1,                       J.% Tao%null%1,                       S. y.% Peng%null%1,                       H. s.% Shi%null%1,                       F.% Yang%null%1,                       C. s. % Zheng%null%1,     J.%Liu%null%1,     L.% Ouyang%null%1,     P.% Guo%null%1,     H. s.% Wu%null%1,     P.% Fu%null%1,     Y. l.% Chen%null%1,     D.% Yang%null%2,     X. y.% Han%null%1,     Y. k.% Cao%null%1,     O.% Alwalid%null%1,     J.% Tao%null%1,     S. y.% Peng%null%1,     H. s.% Shi%null%1,     F.% Yang%null%1,     C. s. % Zheng%null%1]</t>
+  </si>
+  <si>
+    <t>[ R.%Liu%null%1,                       X.% Ming%null%1,                       O.% Xu%null%1,                       J.% Zhou%null%1,                       H.% Peng%null%1,                       N.% Xiang%null%1,                       J.% Zhang%null%1,                       H. % Zhu%null%1,     R.%Liu%null%1,     X.% Ming%null%1,     O.% Xu%null%1,     J.% Zhou%null%2,     H.% Peng%null%1,     N.% Xiang%null%1,     J.% Zhang%null%2,     H. % Zhu%null%1]</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%2,                      Shauna%Clark%NULL%2,                      Sargis%Pogosjans%NULL%2,                      Meagan%Kay%NULL%2,                      James%Lewis%NULL%3,                      Atar%Baer%NULL%2,                      Vance%Kawakami%NULL%2,                      Margaret D.%Lukoff%NULL%2,                      Jessica%Ferro%NULL%2,                      Claire%Brostrom-Smith%NULL%2,                      Francis X.%Riedo%NULL%2,                      Denny%Russell%NULL%2,                      Brian%Hiatt%NULL%2,                      Patricia%Montgomery%NULL%2,                      Agam K.%Rao%NULL%2,                      Dustin W.%Currie%NULL%2,                      Eric J.%Chow%NULL%2,                      Farrell%Tobolowsky%NULL%2,                      Ana C.%Bardossy%NULL%2,                      Lisa P.%Oakley%NULL%2,                      Jesica R.%Jacobs%NULL%2,                      Noah G.%Schwartz%NULL%2,                      Nimalie%Stone%NULL%1,                      Sujan C.%Reddy%NULL%4,                      John A.%Jernigan%NULL%3,                      Margaret A.%Honein%NULL%2,                      Thomas A.%Clark%NULL%2,                      Jeffrey S.%Duchin%NULL%2,                      NULL%NULL%NULL%22,                      NULL%NULL%NULL%0,                      Meaghan S.%Fagalde%NULL%1,                      Jennifer L.%Lenahan%NULL%1,                      Emily B.%Maier%NULL%1,                      Kaitlyn J.%Sykes%NULL%1,                      Grace%Hatt%NULL%1,                      Holly%Whitney%NULL%1,                      Melinda%Huntington-Frazier%NULL%1,                      Elysia%Gonzales%NULL%1,                      Laura A.%Mummert%NULL%1,                      Hal Garcia%Smith%NULL%1,                      Steve%Stearns%NULL%1,                      Eileen%Benoliel%NULL%1,                      Shelly%McKeirnan%NULL%1,                      Jennifer L.%Morgan%NULL%1,                      Daniel%Smith%NULL%1,                      Michaela%Hope%NULL%1,                      Noel%Hatley%NULL%1,                      Leslie M.%Barnard%NULL%1,                      Leilani%Schwarcz%NULL%1,                      Nicole%Yarid%NULL%1,                      Eric%Yim%NULL%1,                      Sandra%Kreider%NULL%1,                      Dawn%Barr%NULL%1,                      Nancy%Wilde%NULL%1,                      Courtney%Dorman%NULL%1,                      Airin%Lam%NULL%1,                      Jeanette%Harris%NULL%1,                      Hollianne%Bruce%NULL%2,                      Christopher%Spitters%NULL%2,                      Snohomish Health%District%NULL%1,                      Rachael%Zacks%NULL%1,                      Jonathan%Dyal%NULL%1,                      Michael%Hughes%NULL%1,                      Christina%Carlson%NULL%1,                      Barbara%Cooper%NULL%1,                      Michelle%Banks%NULL%1,                      Heather%McLaughlin%NULL%1,                      Arun%Balajee%NULL%1,                      Christine%Olson%NULL%1,                      Suzanne%Zane%NULL%1,                      Hammad%Ali%NULL%1,                      Jessica%Healy%NULL%1,                      Kristine%Schmit%NULL%1,                      Kevin%Spicer%NULL%1,                      Zeshan%Chisty%NULL%1,                      Sukarma%Tanwar%NULL%1,                      Joanne%Taylor%NULL%1,                      Leisha%Nolen%NULL%1,                      Jeneita%Bell%NULL%1,                      Kelly%Hatfield%NULL%1,                      Melissa%Arons%NULL%1,                      Anne%Kimball%NULL%1,                      Allison%James%NULL%1,                      Mark%Methner%NULL%1,                      Joshua%Harney%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%14,                       Zheng-yi%Ni%NULL%5,                       Yu%Hu%NULL%4,                       Wen-hua%Liang%NULL%4,                       Chun-quan%Ou%NULL%4,                       Jian-xing%He%NULL%4,                       Lei%Liu%NULL%8,                       Hong%Shan%NULL%6,                       Chun-liang%Lei%NULL%4,                       David S.C.%Hui%NULL%3,                       Bin%Du%NULL%3,                       Lan-juan%Li%NULL%3,                       Guang%Zeng%NULL%3,                       Kwok-Yung%Yuen%NULL%6,                       Ru-chong%Chen%NULL%4,                       Chun-li%Tang%NULL%4,                       Tao%Wang%NULL%7,                       Ping-yan%Chen%NULL%4,                       Jie%Xiang%NULL%6,                       Shi-yue%Li%NULL%4,                       Jin-lin%Wang%NULL%3,                       Zi-jing%Liang%NULL%3,                       Yi-xiang%Peng%NULL%4,                       Li%Wei%NULL%4,                       Yong%Liu%NULL%4,                       Ya-hua%Hu%NULL%4,                       Peng%Peng%NULL%7,                       Jian-ming%Wang%NULL%4,                       Ji-yang%Liu%NULL%4,                       Zhong%Chen%NULL%4,                       Gang%Li%NULL%6,                       Zhi-jian%Zheng%NULL%4,                       Shao-qin%Qiu%NULL%4,                       Jie%Luo%NULL%4,                       Chang-jiang%Ye%NULL%4,                       Shao-yong%Zhu%NULL%4,                       Nan-shan%Zhong%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                       Dengju%Li%NULL%2,                       Xiong%Wang%NULL%2,                       Ziyong%Sun%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                     Cao%Yi-yuan%coreGivesNoEmail%3,                     Dong%Xiang%coreGivesNoEmail%3,                     Gao%Ya-dong%coreGivesNoEmail%3,                     Yan%You-qin%coreGivesNoEmail%3,                     Yang%Yi-bin%coreGivesNoEmail%3,                     Yuan%Ya-dong%coreGivesNoEmail%3,                     Zhang%Jin-jin%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                     Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%4,                     Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%4,                     Subert-Salas%Lizandra%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%3,                       Juanjuan%Guo%NULL%3,                       Chen%Wang%NULL%3,                       Fan%Luo%NULL%2,                       Xuechen%Yu%NULL%3,                       Wei%Zhang%NULL%6,                       Jiafu%Li%NULL%3,                       Dongchi%Zhao%NULL%2,                       Dan%Xu%NULL%3,                       Qing%Gong%NULL%2,                       Jing%Liao%NULL%2,                       Huixia%Yang%yanghuixia@bjmu.edu.cn%3,                       Wei%Hou%houwei@whu.edu.cn%2,                       Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                       Yeming%Wang%NULL%6,                       Xingwang%Li%NULL%7,                       Lili%Ren%NULL%4,                       Jianping%Zhao%NULL%9,                       Yi%Hu%NULL%7,                       Li%Zhang%NULL%7,                       Guohui%Fan%NULL%6,                       Jiuyang%Xu%NULL%6,                       Xiaoying%Gu%NULL%6,                       Zhenshun%Cheng%NULL%4,                       Ting%Yu%NULL%13,                       Jiaan%Xia%NULL%4,                       Yuan%Wei%NULL%10,                       Wenjuan%Wu%NULL%4,                       Xuelei%Xie%NULL%4,                       Wen%Yin%NULL%6,                       Hui%Li%NULL%7,                       Min%Liu%NULL%4,                       Yan%Xiao%NULL%5,                       Hong%Gao%NULL%6,                       Li%Guo%NULL%5,                       Jungang%Xie%NULL%5,                       Guangfa%Wang%NULL%4,                       Rongmeng%Jiang%NULL%4,                       Zhancheng%Gao%NULL%5,                       Qi%Jin%NULL%5,                       Jianwei%Wang%wangjw28@163.com%0,                       Bin%Cao%caobin_ben@163.com%7]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                       Xiao-Xin%Wu%NULL%4,                       Xian-Gao%Jiang%NULL%4,                       Kai-Jin%Xu%NULL%4,                       Ling-Jun%Ying%NULL%4,                       Chun-Lian%Ma%NULL%4,                       Shi-Bo%Li%NULL%4,                       Hua-Ying%Wang%NULL%4,                       Sheng%Zhang%NULL%4,                       Hai-Nv%Gao%NULL%4,                       Ji-Fang%Sheng%NULL%4,                       Hong-Liu%Cai%NULL%4,                       Yun-Qing%Qiu%NULL%4,                       Lan-Juan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,    Xiaoyan%Chen%xref no email%0,    Yanping%Cai%xref no email%0,    Jia\u2019an%Xia%xref no email%0,    Xing%Zhou%xref no email%0,    Sha%Xu%xref no email%0,    Hanping%Huang%xref no email%0,    Li%Zhang%xref no email%0,    Xia%Zhou%xref no email%0,    Chunling%Du%xref no email%0,    Yuye%Zhang%xref no email%0,    Juan%Song%xref no email%0,    Sijiao%Wang%xref no email%0,    Yencheng%Chao%xref no email%0,    Zeyong%Yang%xref no email%0,    Jie%Xu%xref no email%0,    Xin%Zhou%xref no email%0,    Dechang%Chen%xref no email%0,    Weining%Xiong%xref no email%0,    Lei%Xu%xref no email%0,    Feng%Zhou%xref no email%0,    Jinjun%Jiang%xref no email%0,    Chunxue%Bai%xref no email%0,    Junhua%Zheng%xref no email%0,    Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,                       Kai%Xie%NULL%3,                       Hui%Lu%NULL%2,                       Lei%Xu%bayinhexl@126.com%2,                       Shusheng%Zhou%zhouss108@163.com%2,                       Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%0,                       Feifei%Yao%NULL%1,                       Lijie%Wang%NULL%1,                       Ling%Zheng%NULL%1,                       Yongjun%Gao%NULL%1,                       Jun%Ye%NULL%1,                       Feng%Guo%NULL%1,                       Hui%Zhao%NULL%1,                       Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%0,                       Ci%Song%NULL%1,                       Chuanjun%Xu%NULL%1,                       Guangfu%Jin%NULL%1,                       Yaling%Chen%NULL%1,                       Xin%Xu%NULL%1,                       Hongxia%Ma%NULL%1,                       Wei%Chen%NULL%3,                       Yuan%Lin%NULL%1,                       Yishan%Zheng%NULL%1,                       Jianming%Wang%NULL%1,                       Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,                       Yongxiang%Yi%ian0126@126.com%1,                       Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%12,                       Di%Wu%NULL%2,                       Huilong%Chen%NULL%2,                       Weiming%Yan%NULL%2,                       Danlei%Yang%NULL%2,                       Guang%Chen%NULL%2,                       Ke%Ma%NULL%2,                       Dong%Xu%NULL%2,                       Haijing%Yu%NULL%2,                       Hongwu%Wang%NULL%2,                       Tao%Wang%NULL%0,                       Wei%Guo%NULL%2,                       Jia%Chen%NULL%2,                       Chen%Ding%NULL%2,                       Xiaoping%Zhang%NULL%2,                       Jiaquan%Huang%NULL%2,                       Meifang%Han%NULL%2,                       Shusheng%Li%NULL%2,                       Xiaoping%Luo%NULL%2,                       Jianping%Zhao%NULL%0,                       Qin%Ning%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                       Yuan-Yuan%Fang%NULL%4,                       Yan%Deng%NULL%3,                       Wei%Liu%NULL%5,                       Mei-Fang%Wang%NULL%3,                       Jing-Ping%Ma%NULL%3,                       Wei%Xiao%NULL%3,                       Ying-Nan%Wang%NULL%3,                       Min-Hua%Zhong%NULL%3,                       Cheng-Hong%Li%NULL%3,                       Guang-Cai%Li%NULL%3,                       Hui-Guo%Liu%NULL%4,                       Xiu-Yuan%Hao%NULL%6,                       Pei-Fang%Wei%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%4,                       Tianhe%Ye%NULL%3,                       Peng%Sun%NULL%3,                       Shan%Gui%NULL%3,                       Bo%Liang%NULL%3,                       Lingli%Li%NULL%3,                       Dandan%Zheng%NULL%3,                       Jiazheng%Wang%NULL%3,                       Richard L.%Hesketh%NULL%3,                       Lian%Yang%yanglian@hust.edu.cn%3,                       Chuansheng%Zheng%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                       Yuan%Yu%NULL%2,                       Jiqian%Xu%NULL%1,                       Huaqing%Shu%NULL%1,                       Jia'an%Xia%NULL%4,                       Hong%Liu%NULL%3,                       Yongran%Wu%NULL%2,                       Lu%Zhang%NULL%1,                       Zhui%Yu%NULL%1,                       Minghao%Fang%NULL%1,                       Ting%Yu%NULL%0,                       Yaxin%Wang%NULL%2,                       Shangwen%Pan%NULL%1,                       Xiaojing%Zou%NULL%2,                       Shiying%Yuan%NULL%2,                       You%Shang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%3,                       Nan%Yang%NULL%2,                       Yanqiu%Wei%NULL%2,                       Huihui%Yue%NULL%2,                       Fengqin%Zhang%NULL%2,                       Jianping%Zhao%NULL%0,                       Li%He%NULL%2,                       Gaohong%Sheng%NULL%2,                       Peng%Chen%NULL%2,                       Gang%Li%NULL%0,                       Sisi%Wu%NULL%2,                       Bo%Zhang%NULL%2,                       Shu%Zhang%szhang@tjh.tjmu.edu.cn%2,                       Congyi%Wang%wangcy@tjh.tjmu.edu.cn%2,                       Xiaoping%Miao%miaoxp@hust.edu.cn%2,                       Juan%Li%lijuan@tjh.tjmu.edu.cn%2,                       Wenhua%Liu%liuwh_2013@126.com%2,                       Huilan%Zhang%huilanz_76@163.com%2]</t>
+  </si>
+  <si>
+    <t>[ J.%Liu%null%1,                        L.% Ouyang%null%1,                        P.% Guo%null%1,                        H. s.% Wu%null%1,                        P.% Fu%null%1,                        Y. l.% Chen%null%1,                        D.% Yang%null%1,                        X. y.% Han%null%1,                        Y. k.% Cao%null%1,                        O.% Alwalid%null%1,                        J.% Tao%null%1,                        S. y.% Peng%null%1,                        H. s.% Shi%null%1,                        F.% Yang%null%1,                        C. s. % Zheng%null%1,      J.%Liu%null%1,      L.% Ouyang%null%1,      P.% Guo%null%1,      H. s.% Wu%null%1,      P.% Fu%null%1,      Y. l.% Chen%null%1,      D.% Yang%null%2,      X. y.% Han%null%1,      Y. k.% Cao%null%1,      O.% Alwalid%null%1,      J.% Tao%null%1,      S. y.% Peng%null%1,      H. s.% Shi%null%1,      F.% Yang%null%1,      C. s. % Zheng%null%1]</t>
+  </si>
+  <si>
+    <t>[ R.%Liu%null%1,                        X.% Ming%null%1,                        O.% Xu%null%1,                        J.% Zhou%null%1,                        H.% Peng%null%1,                        N.% Xiang%null%1,                        J.% Zhang%null%1,                        H. % Zhu%null%1,      R.%Liu%null%1,      X.% Ming%null%1,      O.% Xu%null%1,      J.% Zhou%null%2,      H.% Peng%null%1,      N.% Xiang%null%1,      J.% Zhang%null%2,      H. % Zhu%null%1]</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%2,                       Shauna%Clark%NULL%2,                       Sargis%Pogosjans%NULL%2,                       Meagan%Kay%NULL%2,                       James%Lewis%NULL%3,                       Atar%Baer%NULL%2,                       Vance%Kawakami%NULL%2,                       Margaret D.%Lukoff%NULL%2,                       Jessica%Ferro%NULL%2,                       Claire%Brostrom-Smith%NULL%2,                       Francis X.%Riedo%NULL%2,                       Denny%Russell%NULL%2,                       Brian%Hiatt%NULL%2,                       Patricia%Montgomery%NULL%2,                       Agam K.%Rao%NULL%2,                       Dustin W.%Currie%NULL%2,                       Eric J.%Chow%NULL%2,                       Farrell%Tobolowsky%NULL%2,                       Ana C.%Bardossy%NULL%2,                       Lisa P.%Oakley%NULL%2,                       Jesica R.%Jacobs%NULL%2,                       Noah G.%Schwartz%NULL%2,                       Nimalie%Stone%NULL%1,                       Sujan C.%Reddy%NULL%4,                       John A.%Jernigan%NULL%3,                       Margaret A.%Honein%NULL%2,                       Thomas A.%Clark%NULL%2,                       Jeffrey S.%Duchin%NULL%2,                       NULL%NULL%NULL%22,                       NULL%NULL%NULL%0,                       Meaghan S.%Fagalde%NULL%1,                       Jennifer L.%Lenahan%NULL%1,                       Emily B.%Maier%NULL%1,                       Kaitlyn J.%Sykes%NULL%1,                       Grace%Hatt%NULL%1,                       Holly%Whitney%NULL%1,                       Melinda%Huntington-Frazier%NULL%1,                       Elysia%Gonzales%NULL%1,                       Laura A.%Mummert%NULL%1,                       Hal Garcia%Smith%NULL%1,                       Steve%Stearns%NULL%1,                       Eileen%Benoliel%NULL%1,                       Shelly%McKeirnan%NULL%1,                       Jennifer L.%Morgan%NULL%1,                       Daniel%Smith%NULL%1,                       Michaela%Hope%NULL%1,                       Noel%Hatley%NULL%1,                       Leslie M.%Barnard%NULL%1,                       Leilani%Schwarcz%NULL%1,                       Nicole%Yarid%NULL%1,                       Eric%Yim%NULL%1,                       Sandra%Kreider%NULL%1,                       Dawn%Barr%NULL%1,                       Nancy%Wilde%NULL%1,                       Courtney%Dorman%NULL%1,                       Airin%Lam%NULL%1,                       Jeanette%Harris%NULL%1,                       Hollianne%Bruce%NULL%2,                       Christopher%Spitters%NULL%2,                       Snohomish Health%District%NULL%1,                       Rachael%Zacks%NULL%1,                       Jonathan%Dyal%NULL%1,                       Michael%Hughes%NULL%1,                       Christina%Carlson%NULL%1,                       Barbara%Cooper%NULL%1,                       Michelle%Banks%NULL%1,                       Heather%McLaughlin%NULL%1,                       Arun%Balajee%NULL%1,                       Christine%Olson%NULL%1,                       Suzanne%Zane%NULL%1,                       Hammad%Ali%NULL%1,                       Jessica%Healy%NULL%1,                       Kristine%Schmit%NULL%1,                       Kevin%Spicer%NULL%1,                       Zeshan%Chisty%NULL%1,                       Sukarma%Tanwar%NULL%1,                       Joanne%Taylor%NULL%1,                       Leisha%Nolen%NULL%1,                       Jeneita%Bell%NULL%1,                       Kelly%Hatfield%NULL%1,                       Melissa%Arons%NULL%1,                       Anne%Kimball%NULL%1,                       Allison%James%NULL%1,                       Mark%Methner%NULL%1,                       Joshua%Harney%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%14,                        Zheng-yi%Ni%NULL%5,                        Yu%Hu%NULL%4,                        Wen-hua%Liang%NULL%4,                        Chun-quan%Ou%NULL%4,                        Jian-xing%He%NULL%4,                        Lei%Liu%NULL%8,                        Hong%Shan%NULL%6,                        Chun-liang%Lei%NULL%4,                        David S.C.%Hui%NULL%3,                        Bin%Du%NULL%3,                        Lan-juan%Li%NULL%3,                        Guang%Zeng%NULL%3,                        Kwok-Yung%Yuen%NULL%6,                        Ru-chong%Chen%NULL%4,                        Chun-li%Tang%NULL%4,                        Tao%Wang%NULL%7,                        Ping-yan%Chen%NULL%4,                        Jie%Xiang%NULL%6,                        Shi-yue%Li%NULL%4,                        Jin-lin%Wang%NULL%3,                        Zi-jing%Liang%NULL%3,                        Yi-xiang%Peng%NULL%4,                        Li%Wei%NULL%4,                        Yong%Liu%NULL%4,                        Ya-hua%Hu%NULL%4,                        Peng%Peng%NULL%7,                        Jian-ming%Wang%NULL%4,                        Ji-yang%Liu%NULL%4,                        Zhong%Chen%NULL%4,                        Gang%Li%NULL%6,                        Zhi-jian%Zheng%NULL%4,                        Shao-qin%Qiu%NULL%4,                        Jie%Luo%NULL%4,                        Chang-jiang%Ye%NULL%4,                        Shao-yong%Zhu%NULL%4,                        Nan-shan%Zhong%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                        Dengju%Li%NULL%2,                        Xiong%Wang%NULL%2,                        Ziyong%Sun%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                      Cao%Yi-yuan%coreGivesNoEmail%3,                      Dong%Xiang%coreGivesNoEmail%3,                      Gao%Ya-dong%coreGivesNoEmail%3,                      Yan%You-qin%coreGivesNoEmail%3,                      Yang%Yi-bin%coreGivesNoEmail%3,                      Yuan%Ya-dong%coreGivesNoEmail%3,                      Zhang%Jin-jin%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                      Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%4,                      Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%4,                      Subert-Salas%Lizandra%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%3,                        Juanjuan%Guo%NULL%3,                        Chen%Wang%NULL%3,                        Fan%Luo%NULL%2,                        Xuechen%Yu%NULL%3,                        Wei%Zhang%NULL%6,                        Jiafu%Li%NULL%3,                        Dongchi%Zhao%NULL%2,                        Dan%Xu%NULL%3,                        Qing%Gong%NULL%2,                        Jing%Liao%NULL%2,                        Huixia%Yang%yanghuixia@bjmu.edu.cn%3,                        Wei%Hou%houwei@whu.edu.cn%2,                        Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                        Yeming%Wang%NULL%6,                        Xingwang%Li%NULL%7,                        Lili%Ren%NULL%4,                        Jianping%Zhao%NULL%9,                        Yi%Hu%NULL%7,                        Li%Zhang%NULL%7,                        Guohui%Fan%NULL%6,                        Jiuyang%Xu%NULL%6,                        Xiaoying%Gu%NULL%6,                        Zhenshun%Cheng%NULL%4,                        Ting%Yu%NULL%13,                        Jiaan%Xia%NULL%4,                        Yuan%Wei%NULL%10,                        Wenjuan%Wu%NULL%4,                        Xuelei%Xie%NULL%4,                        Wen%Yin%NULL%6,                        Hui%Li%NULL%7,                        Min%Liu%NULL%4,                        Yan%Xiao%NULL%5,                        Hong%Gao%NULL%6,                        Li%Guo%NULL%5,                        Jungang%Xie%NULL%5,                        Guangfa%Wang%NULL%4,                        Rongmeng%Jiang%NULL%4,                        Zhancheng%Gao%NULL%5,                        Qi%Jin%NULL%5,                        Jianwei%Wang%wangjw28@163.com%0,                        Bin%Cao%caobin_ben@163.com%7]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                        Xiao-Xin%Wu%NULL%4,                        Xian-Gao%Jiang%NULL%4,                        Kai-Jin%Xu%NULL%4,                        Ling-Jun%Ying%NULL%4,                        Chun-Lian%Ma%NULL%4,                        Shi-Bo%Li%NULL%4,                        Hua-Ying%Wang%NULL%4,                        Sheng%Zhang%NULL%4,                        Hai-Nv%Gao%NULL%4,                        Ji-Fang%Sheng%NULL%4,                        Hong-Liu%Cai%NULL%4,                        Yun-Qing%Qiu%NULL%4,                        Lan-Juan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,     Xiaoyan%Chen%xref no email%0,     Yanping%Cai%xref no email%0,     Jia\u2019an%Xia%xref no email%0,     Xing%Zhou%xref no email%0,     Sha%Xu%xref no email%0,     Hanping%Huang%xref no email%0,     Li%Zhang%xref no email%0,     Xia%Zhou%xref no email%0,     Chunling%Du%xref no email%0,     Yuye%Zhang%xref no email%0,     Juan%Song%xref no email%0,     Sijiao%Wang%xref no email%0,     Yencheng%Chao%xref no email%0,     Zeyong%Yang%xref no email%0,     Jie%Xu%xref no email%0,     Xin%Zhou%xref no email%0,     Dechang%Chen%xref no email%0,     Weining%Xiong%xref no email%0,     Lei%Xu%xref no email%0,     Feng%Zhou%xref no email%0,     Jinjun%Jiang%xref no email%0,     Chunxue%Bai%xref no email%0,     Junhua%Zheng%xref no email%0,     Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,                        Kai%Xie%NULL%3,                        Hui%Lu%NULL%2,                        Lei%Xu%bayinhexl@126.com%2,                        Shusheng%Zhou%zhouss108@163.com%2,                        Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%0,                        Feifei%Yao%NULL%1,                        Lijie%Wang%NULL%1,                        Ling%Zheng%NULL%1,                        Yongjun%Gao%NULL%1,                        Jun%Ye%NULL%1,                        Feng%Guo%NULL%1,                        Hui%Zhao%NULL%1,                        Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%0,                        Ci%Song%NULL%1,                        Chuanjun%Xu%NULL%1,                        Guangfu%Jin%NULL%1,                        Yaling%Chen%NULL%1,                        Xin%Xu%NULL%1,                        Hongxia%Ma%NULL%1,                        Wei%Chen%NULL%3,                        Yuan%Lin%NULL%1,                        Yishan%Zheng%NULL%1,                        Jianming%Wang%NULL%1,                        Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,                        Yongxiang%Yi%ian0126@126.com%1,                        Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%12,                        Di%Wu%NULL%2,                        Huilong%Chen%NULL%2,                        Weiming%Yan%NULL%2,                        Danlei%Yang%NULL%2,                        Guang%Chen%NULL%2,                        Ke%Ma%NULL%2,                        Dong%Xu%NULL%2,                        Haijing%Yu%NULL%2,                        Hongwu%Wang%NULL%2,                        Tao%Wang%NULL%0,                        Wei%Guo%NULL%2,                        Jia%Chen%NULL%2,                        Chen%Ding%NULL%2,                        Xiaoping%Zhang%NULL%2,                        Jiaquan%Huang%NULL%2,                        Meifang%Han%NULL%2,                        Shusheng%Li%NULL%2,                        Xiaoping%Luo%NULL%2,                        Jianping%Zhao%NULL%0,                        Qin%Ning%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                        Yuan-Yuan%Fang%NULL%4,                        Yan%Deng%NULL%3,                        Wei%Liu%NULL%5,                        Mei-Fang%Wang%NULL%3,                        Jing-Ping%Ma%NULL%3,                        Wei%Xiao%NULL%3,                        Ying-Nan%Wang%NULL%3,                        Min-Hua%Zhong%NULL%3,                        Cheng-Hong%Li%NULL%3,                        Guang-Cai%Li%NULL%3,                        Hui-Guo%Liu%NULL%4,                        Xiu-Yuan%Hao%NULL%6,                        Pei-Fang%Wei%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%4,                        Tianhe%Ye%NULL%3,                        Peng%Sun%NULL%3,                        Shan%Gui%NULL%3,                        Bo%Liang%NULL%3,                        Lingli%Li%NULL%3,                        Dandan%Zheng%NULL%3,                        Jiazheng%Wang%NULL%3,                        Richard L.%Hesketh%NULL%3,                        Lian%Yang%yanglian@hust.edu.cn%3,                        Chuansheng%Zheng%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                        Yuan%Yu%NULL%2,                        Jiqian%Xu%NULL%1,                        Huaqing%Shu%NULL%1,                        Jia'an%Xia%NULL%4,                        Hong%Liu%NULL%3,                        Yongran%Wu%NULL%2,                        Lu%Zhang%NULL%1,                        Zhui%Yu%NULL%1,                        Minghao%Fang%NULL%1,                        Ting%Yu%NULL%0,                        Yaxin%Wang%NULL%2,                        Shangwen%Pan%NULL%1,                        Xiaojing%Zou%NULL%2,                        Shiying%Yuan%NULL%2,                        You%Shang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%3,                        Nan%Yang%NULL%2,                        Yanqiu%Wei%NULL%2,                        Huihui%Yue%NULL%2,                        Fengqin%Zhang%NULL%2,                        Jianping%Zhao%NULL%0,                        Li%He%NULL%2,                        Gaohong%Sheng%NULL%2,                        Peng%Chen%NULL%2,                        Gang%Li%NULL%0,                        Sisi%Wu%NULL%2,                        Bo%Zhang%NULL%2,                        Shu%Zhang%szhang@tjh.tjmu.edu.cn%2,                        Congyi%Wang%wangcy@tjh.tjmu.edu.cn%2,                        Xiaoping%Miao%miaoxp@hust.edu.cn%2,                        Juan%Li%lijuan@tjh.tjmu.edu.cn%2,                        Wenhua%Liu%liuwh_2013@126.com%2,                        Huilan%Zhang%huilanz_76@163.com%2]</t>
+  </si>
+  <si>
+    <t>[ J.%Liu%null%1,                         L.% Ouyang%null%1,                         P.% Guo%null%1,                         H. s.% Wu%null%1,                         P.% Fu%null%1,                         Y. l.% Chen%null%1,                         D.% Yang%null%1,                         X. y.% Han%null%1,                         Y. k.% Cao%null%1,                         O.% Alwalid%null%1,                         J.% Tao%null%1,                         S. y.% Peng%null%1,                         H. s.% Shi%null%1,                         F.% Yang%null%1,                         C. s. % Zheng%null%1,       J.%Liu%null%1,       L.% Ouyang%null%1,       P.% Guo%null%1,       H. s.% Wu%null%1,       P.% Fu%null%1,       Y. l.% Chen%null%1,       D.% Yang%null%2,       X. y.% Han%null%1,       Y. k.% Cao%null%1,       O.% Alwalid%null%1,       J.% Tao%null%1,       S. y.% Peng%null%1,       H. s.% Shi%null%1,       F.% Yang%null%1,       C. s. % Zheng%null%1]</t>
+  </si>
+  <si>
+    <t>[ R.%Liu%null%1,                         X.% Ming%null%1,                         O.% Xu%null%1,                         J.% Zhou%null%1,                         H.% Peng%null%1,                         N.% Xiang%null%1,                         J.% Zhang%null%1,                         H. % Zhu%null%1,       R.%Liu%null%1,       X.% Ming%null%1,       O.% Xu%null%1,       J.% Zhou%null%2,       H.% Peng%null%1,       N.% Xiang%null%1,       J.% Zhang%null%2,       H. % Zhu%null%1]</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%2,                        Shauna%Clark%NULL%2,                        Sargis%Pogosjans%NULL%2,                        Meagan%Kay%NULL%2,                        James%Lewis%NULL%3,                        Atar%Baer%NULL%2,                        Vance%Kawakami%NULL%2,                        Margaret D.%Lukoff%NULL%2,                        Jessica%Ferro%NULL%2,                        Claire%Brostrom-Smith%NULL%2,                        Francis X.%Riedo%NULL%2,                        Denny%Russell%NULL%2,                        Brian%Hiatt%NULL%2,                        Patricia%Montgomery%NULL%2,                        Agam K.%Rao%NULL%2,                        Dustin W.%Currie%NULL%2,                        Eric J.%Chow%NULL%2,                        Farrell%Tobolowsky%NULL%2,                        Ana C.%Bardossy%NULL%2,                        Lisa P.%Oakley%NULL%2,                        Jesica R.%Jacobs%NULL%2,                        Noah G.%Schwartz%NULL%2,                        Nimalie%Stone%NULL%1,                        Sujan C.%Reddy%NULL%4,                        John A.%Jernigan%NULL%3,                        Margaret A.%Honein%NULL%2,                        Thomas A.%Clark%NULL%2,                        Jeffrey S.%Duchin%NULL%2,                        NULL%NULL%NULL%22,                        NULL%NULL%NULL%0,                        Meaghan S.%Fagalde%NULL%1,                        Jennifer L.%Lenahan%NULL%1,                        Emily B.%Maier%NULL%1,                        Kaitlyn J.%Sykes%NULL%1,                        Grace%Hatt%NULL%1,                        Holly%Whitney%NULL%1,                        Melinda%Huntington-Frazier%NULL%1,                        Elysia%Gonzales%NULL%1,                        Laura A.%Mummert%NULL%1,                        Hal Garcia%Smith%NULL%1,                        Steve%Stearns%NULL%1,                        Eileen%Benoliel%NULL%1,                        Shelly%McKeirnan%NULL%1,                        Jennifer L.%Morgan%NULL%1,                        Daniel%Smith%NULL%1,                        Michaela%Hope%NULL%1,                        Noel%Hatley%NULL%1,                        Leslie M.%Barnard%NULL%1,                        Leilani%Schwarcz%NULL%1,                        Nicole%Yarid%NULL%1,                        Eric%Yim%NULL%1,                        Sandra%Kreider%NULL%1,                        Dawn%Barr%NULL%1,                        Nancy%Wilde%NULL%1,                        Courtney%Dorman%NULL%1,                        Airin%Lam%NULL%1,                        Jeanette%Harris%NULL%1,                        Hollianne%Bruce%NULL%2,                        Christopher%Spitters%NULL%2,                        Snohomish Health%District%NULL%1,                        Rachael%Zacks%NULL%1,                        Jonathan%Dyal%NULL%1,                        Michael%Hughes%NULL%1,                        Christina%Carlson%NULL%1,                        Barbara%Cooper%NULL%1,                        Michelle%Banks%NULL%1,                        Heather%McLaughlin%NULL%1,                        Arun%Balajee%NULL%1,                        Christine%Olson%NULL%1,                        Suzanne%Zane%NULL%1,                        Hammad%Ali%NULL%1,                        Jessica%Healy%NULL%1,                        Kristine%Schmit%NULL%1,                        Kevin%Spicer%NULL%1,                        Zeshan%Chisty%NULL%1,                        Sukarma%Tanwar%NULL%1,                        Joanne%Taylor%NULL%1,                        Leisha%Nolen%NULL%1,                        Jeneita%Bell%NULL%1,                        Kelly%Hatfield%NULL%1,                        Melissa%Arons%NULL%1,                        Anne%Kimball%NULL%1,                        Allison%James%NULL%1,                        Mark%Methner%NULL%1,                        Joshua%Harney%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2628,6 +2928,9 @@
       <c r="I1" t="s">
         <v>217</v>
       </c>
+      <c r="J1" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2657,6 +2960,9 @@
       <c r="I2" t="s">
         <v>543</v>
       </c>
+      <c r="J2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -2672,7 +2978,7 @@
         <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>568</v>
+        <v>669</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -2685,6 +2991,9 @@
       </c>
       <c r="I3" t="s">
         <v>545</v>
+      </c>
+      <c r="J3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2701,7 +3010,7 @@
         <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>569</v>
+        <v>670</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -2714,6 +3023,9 @@
       </c>
       <c r="I4" t="s">
         <v>547</v>
+      </c>
+      <c r="J4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2730,7 +3042,7 @@
         <v>243</v>
       </c>
       <c r="E5" t="s">
-        <v>570</v>
+        <v>671</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2743,6 +3055,9 @@
       </c>
       <c r="I5" t="s">
         <v>543</v>
+      </c>
+      <c r="J5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2759,7 +3074,7 @@
         <v>246</v>
       </c>
       <c r="E6" t="s">
-        <v>571</v>
+        <v>672</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -2772,6 +3087,9 @@
       </c>
       <c r="I6" t="s">
         <v>543</v>
+      </c>
+      <c r="J6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2788,7 +3106,7 @@
         <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>572</v>
+        <v>673</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -2801,6 +3119,9 @@
       </c>
       <c r="I7" t="s">
         <v>547</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2817,7 +3138,7 @@
         <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>573</v>
+        <v>674</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -2830,6 +3151,9 @@
       </c>
       <c r="I8" t="s">
         <v>547</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2846,7 +3170,7 @@
         <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>574</v>
+        <v>675</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -2859,6 +3183,9 @@
       </c>
       <c r="I9" t="s">
         <v>545</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2875,7 +3202,7 @@
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>575</v>
+        <v>676</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2884,10 +3211,13 @@
         <v>325</v>
       </c>
       <c r="H10" t="s">
-        <v>326</v>
+        <v>597</v>
       </c>
       <c r="I10" t="s">
-        <v>543</v>
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2904,7 +3234,7 @@
         <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>576</v>
+        <v>677</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -2917,6 +3247,9 @@
       </c>
       <c r="I11" t="s">
         <v>545</v>
+      </c>
+      <c r="J11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2933,7 +3266,7 @@
         <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>577</v>
+        <v>678</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
@@ -2946,6 +3279,9 @@
       </c>
       <c r="I12" t="s">
         <v>545</v>
+      </c>
+      <c r="J12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2962,7 +3298,7 @@
         <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>578</v>
+        <v>679</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
@@ -2975,6 +3311,9 @@
       </c>
       <c r="I13" t="s">
         <v>557</v>
+      </c>
+      <c r="J13" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2991,7 +3330,7 @@
         <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>579</v>
+        <v>680</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -3004,6 +3343,9 @@
       </c>
       <c r="I14" t="s">
         <v>545</v>
+      </c>
+      <c r="J14" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3020,7 +3362,7 @@
         <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>580</v>
+        <v>681</v>
       </c>
       <c r="F15" t="s">
         <v>81</v>
@@ -3033,6 +3375,9 @@
       </c>
       <c r="I15" t="s">
         <v>545</v>
+      </c>
+      <c r="J15" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3049,7 +3394,7 @@
         <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>581</v>
+        <v>682</v>
       </c>
       <c r="F16" t="s">
         <v>85</v>
@@ -3062,6 +3407,9 @@
       </c>
       <c r="I16" t="s">
         <v>545</v>
+      </c>
+      <c r="J16" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -3092,6 +3440,9 @@
       <c r="I17" t="s">
         <v>96</v>
       </c>
+      <c r="J17" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
@@ -3107,7 +3458,7 @@
         <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>582</v>
+        <v>683</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
@@ -3120,6 +3471,9 @@
       </c>
       <c r="I18" t="s">
         <v>547</v>
+      </c>
+      <c r="J18" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -3136,7 +3490,7 @@
         <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>583</v>
+        <v>684</v>
       </c>
       <c r="F19" t="s">
         <v>93</v>
@@ -3149,6 +3503,9 @@
       </c>
       <c r="I19" t="s">
         <v>545</v>
+      </c>
+      <c r="J19" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -3165,7 +3522,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>584</v>
+        <v>685</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -3178,6 +3535,9 @@
       </c>
       <c r="I20" t="s">
         <v>564</v>
+      </c>
+      <c r="J20" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -3194,7 +3554,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>585</v>
+        <v>686</v>
       </c>
       <c r="F21" t="s">
         <v>21</v>
@@ -3207,6 +3567,9 @@
       </c>
       <c r="I21" t="s">
         <v>564</v>
+      </c>
+      <c r="J21" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -3223,7 +3586,7 @@
         <v>338</v>
       </c>
       <c r="E22" t="s">
-        <v>586</v>
+        <v>420</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -3235,7 +3598,10 @@
         <v>340</v>
       </c>
       <c r="I22" t="s">
-        <v>543</v>
+        <v>96</v>
+      </c>
+      <c r="J22" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -3252,7 +3618,7 @@
         <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>587</v>
+        <v>687</v>
       </c>
       <c r="F23" t="s">
         <v>98</v>
@@ -3265,6 +3631,9 @@
       </c>
       <c r="I23" t="s">
         <v>545</v>
+      </c>
+      <c r="J23" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/5.xlsx
+++ b/Covid_19_Dataset_and_References/References/5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5942" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6310" uniqueCount="733">
   <si>
     <t>Doi</t>
   </si>
@@ -2609,6 +2609,156 @@
   </si>
   <si>
     <t>[Temet M.%McMichael%NULL%2,                        Shauna%Clark%NULL%2,                        Sargis%Pogosjans%NULL%2,                        Meagan%Kay%NULL%2,                        James%Lewis%NULL%3,                        Atar%Baer%NULL%2,                        Vance%Kawakami%NULL%2,                        Margaret D.%Lukoff%NULL%2,                        Jessica%Ferro%NULL%2,                        Claire%Brostrom-Smith%NULL%2,                        Francis X.%Riedo%NULL%2,                        Denny%Russell%NULL%2,                        Brian%Hiatt%NULL%2,                        Patricia%Montgomery%NULL%2,                        Agam K.%Rao%NULL%2,                        Dustin W.%Currie%NULL%2,                        Eric J.%Chow%NULL%2,                        Farrell%Tobolowsky%NULL%2,                        Ana C.%Bardossy%NULL%2,                        Lisa P.%Oakley%NULL%2,                        Jesica R.%Jacobs%NULL%2,                        Noah G.%Schwartz%NULL%2,                        Nimalie%Stone%NULL%1,                        Sujan C.%Reddy%NULL%4,                        John A.%Jernigan%NULL%3,                        Margaret A.%Honein%NULL%2,                        Thomas A.%Clark%NULL%2,                        Jeffrey S.%Duchin%NULL%2,                        NULL%NULL%NULL%22,                        NULL%NULL%NULL%0,                        Meaghan S.%Fagalde%NULL%1,                        Jennifer L.%Lenahan%NULL%1,                        Emily B.%Maier%NULL%1,                        Kaitlyn J.%Sykes%NULL%1,                        Grace%Hatt%NULL%1,                        Holly%Whitney%NULL%1,                        Melinda%Huntington-Frazier%NULL%1,                        Elysia%Gonzales%NULL%1,                        Laura A.%Mummert%NULL%1,                        Hal Garcia%Smith%NULL%1,                        Steve%Stearns%NULL%1,                        Eileen%Benoliel%NULL%1,                        Shelly%McKeirnan%NULL%1,                        Jennifer L.%Morgan%NULL%1,                        Daniel%Smith%NULL%1,                        Michaela%Hope%NULL%1,                        Noel%Hatley%NULL%1,                        Leslie M.%Barnard%NULL%1,                        Leilani%Schwarcz%NULL%1,                        Nicole%Yarid%NULL%1,                        Eric%Yim%NULL%1,                        Sandra%Kreider%NULL%1,                        Dawn%Barr%NULL%1,                        Nancy%Wilde%NULL%1,                        Courtney%Dorman%NULL%1,                        Airin%Lam%NULL%1,                        Jeanette%Harris%NULL%1,                        Hollianne%Bruce%NULL%2,                        Christopher%Spitters%NULL%2,                        Snohomish Health%District%NULL%1,                        Rachael%Zacks%NULL%1,                        Jonathan%Dyal%NULL%1,                        Michael%Hughes%NULL%1,                        Christina%Carlson%NULL%1,                        Barbara%Cooper%NULL%1,                        Michelle%Banks%NULL%1,                        Heather%McLaughlin%NULL%1,                        Arun%Balajee%NULL%1,                        Christine%Olson%NULL%1,                        Suzanne%Zane%NULL%1,                        Hammad%Ali%NULL%1,                        Jessica%Healy%NULL%1,                        Kristine%Schmit%NULL%1,                        Kevin%Spicer%NULL%1,                        Zeshan%Chisty%NULL%1,                        Sukarma%Tanwar%NULL%1,                        Joanne%Taylor%NULL%1,                        Leisha%Nolen%NULL%1,                        Jeneita%Bell%NULL%1,                        Kelly%Hatfield%NULL%1,                        Melissa%Arons%NULL%1,                        Anne%Kimball%NULL%1,                        Allison%James%NULL%1,                        Mark%Methner%NULL%1,                        Joshua%Harney%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%14,                         Zheng-yi%Ni%NULL%5,                         Yu%Hu%NULL%4,                         Wen-hua%Liang%NULL%4,                         Chun-quan%Ou%NULL%4,                         Jian-xing%He%NULL%4,                         Lei%Liu%NULL%8,                         Hong%Shan%NULL%6,                         Chun-liang%Lei%NULL%4,                         David S.C.%Hui%NULL%3,                         Bin%Du%NULL%3,                         Lan-juan%Li%NULL%3,                         Guang%Zeng%NULL%3,                         Kwok-Yung%Yuen%NULL%6,                         Ru-chong%Chen%NULL%4,                         Chun-li%Tang%NULL%4,                         Tao%Wang%NULL%7,                         Ping-yan%Chen%NULL%4,                         Jie%Xiang%NULL%6,                         Shi-yue%Li%NULL%4,                         Jin-lin%Wang%NULL%3,                         Zi-jing%Liang%NULL%3,                         Yi-xiang%Peng%NULL%4,                         Li%Wei%NULL%4,                         Yong%Liu%NULL%4,                         Ya-hua%Hu%NULL%4,                         Peng%Peng%NULL%7,                         Jian-ming%Wang%NULL%4,                         Ji-yang%Liu%NULL%4,                         Zhong%Chen%NULL%4,                         Gang%Li%NULL%6,                         Zhi-jian%Zheng%NULL%4,                         Shao-qin%Qiu%NULL%4,                         Jie%Luo%NULL%4,                         Chang-jiang%Ye%NULL%4,                         Shao-yong%Zhu%NULL%4,                         Nan-shan%Zhong%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                         Dengju%Li%NULL%2,                         Xiong%Wang%NULL%2,                         Ziyong%Sun%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                       Cao%Yi-yuan%coreGivesNoEmail%3,                       Dong%Xiang%coreGivesNoEmail%3,                       Gao%Ya-dong%coreGivesNoEmail%3,                       Yan%You-qin%coreGivesNoEmail%3,                       Yang%Yi-bin%coreGivesNoEmail%3,                       Yuan%Ya-dong%coreGivesNoEmail%3,                       Zhang%Jin-jin%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                       Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%4,                       Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%4,                       Subert-Salas%Lizandra%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%3,                         Juanjuan%Guo%NULL%3,                         Chen%Wang%NULL%3,                         Fan%Luo%NULL%2,                         Xuechen%Yu%NULL%3,                         Wei%Zhang%NULL%6,                         Jiafu%Li%NULL%3,                         Dongchi%Zhao%NULL%2,                         Dan%Xu%NULL%3,                         Qing%Gong%NULL%2,                         Jing%Liao%NULL%2,                         Huixia%Yang%yanghuixia@bjmu.edu.cn%3,                         Wei%Hou%houwei@whu.edu.cn%2,                         Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                         Yeming%Wang%NULL%6,                         Xingwang%Li%NULL%7,                         Lili%Ren%NULL%4,                         Jianping%Zhao%NULL%9,                         Yi%Hu%NULL%7,                         Li%Zhang%NULL%7,                         Guohui%Fan%NULL%6,                         Jiuyang%Xu%NULL%6,                         Xiaoying%Gu%NULL%6,                         Zhenshun%Cheng%NULL%4,                         Ting%Yu%NULL%13,                         Jiaan%Xia%NULL%4,                         Yuan%Wei%NULL%10,                         Wenjuan%Wu%NULL%4,                         Xuelei%Xie%NULL%4,                         Wen%Yin%NULL%6,                         Hui%Li%NULL%7,                         Min%Liu%NULL%4,                         Yan%Xiao%NULL%5,                         Hong%Gao%NULL%6,                         Li%Guo%NULL%5,                         Jungang%Xie%NULL%5,                         Guangfa%Wang%NULL%4,                         Rongmeng%Jiang%NULL%4,                         Zhancheng%Gao%NULL%5,                         Qi%Jin%NULL%5,                         Jianwei%Wang%wangjw28@163.com%0,                         Bin%Cao%caobin_ben@163.com%7]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                         Xiao-Xin%Wu%NULL%4,                         Xian-Gao%Jiang%NULL%4,                         Kai-Jin%Xu%NULL%4,                         Ling-Jun%Ying%NULL%4,                         Chun-Lian%Ma%NULL%4,                         Shi-Bo%Li%NULL%4,                         Hua-Ying%Wang%NULL%4,                         Sheng%Zhang%NULL%4,                         Hai-Nv%Gao%NULL%4,                         Ji-Fang%Sheng%NULL%4,                         Hong-Liu%Cai%NULL%4,                         Yun-Qing%Qiu%NULL%4,                         Lan-Juan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,      Xiaoyan%Chen%xref no email%0,      Yanping%Cai%xref no email%0,      Jia\u2019an%Xia%xref no email%0,      Xing%Zhou%xref no email%0,      Sha%Xu%xref no email%0,      Hanping%Huang%xref no email%0,      Li%Zhang%xref no email%0,      Xia%Zhou%xref no email%0,      Chunling%Du%xref no email%0,      Yuye%Zhang%xref no email%0,      Juan%Song%xref no email%0,      Sijiao%Wang%xref no email%0,      Yencheng%Chao%xref no email%0,      Zeyong%Yang%xref no email%0,      Jie%Xu%xref no email%0,      Xin%Zhou%xref no email%0,      Dechang%Chen%xref no email%0,      Weining%Xiong%xref no email%0,      Lei%Xu%xref no email%0,      Feng%Zhou%xref no email%0,      Jinjun%Jiang%xref no email%0,      Chunxue%Bai%xref no email%0,      Junhua%Zheng%xref no email%0,      Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,                         Kai%Xie%NULL%3,                         Hui%Lu%NULL%2,                         Lei%Xu%bayinhexl@126.com%2,                         Shusheng%Zhou%zhouss108@163.com%2,                         Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%0,                         Feifei%Yao%NULL%1,                         Lijie%Wang%NULL%1,                         Ling%Zheng%NULL%1,                         Yongjun%Gao%NULL%1,                         Jun%Ye%NULL%1,                         Feng%Guo%NULL%1,                         Hui%Zhao%NULL%1,                         Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%0,                         Ci%Song%NULL%1,                         Chuanjun%Xu%NULL%1,                         Guangfu%Jin%NULL%1,                         Yaling%Chen%NULL%1,                         Xin%Xu%NULL%1,                         Hongxia%Ma%NULL%1,                         Wei%Chen%NULL%3,                         Yuan%Lin%NULL%1,                         Yishan%Zheng%NULL%1,                         Jianming%Wang%NULL%1,                         Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,                         Yongxiang%Yi%ian0126@126.com%1,                         Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%12,                         Di%Wu%NULL%2,                         Huilong%Chen%NULL%2,                         Weiming%Yan%NULL%2,                         Danlei%Yang%NULL%2,                         Guang%Chen%NULL%2,                         Ke%Ma%NULL%2,                         Dong%Xu%NULL%2,                         Haijing%Yu%NULL%2,                         Hongwu%Wang%NULL%2,                         Tao%Wang%NULL%0,                         Wei%Guo%NULL%2,                         Jia%Chen%NULL%2,                         Chen%Ding%NULL%2,                         Xiaoping%Zhang%NULL%2,                         Jiaquan%Huang%NULL%2,                         Meifang%Han%NULL%2,                         Shusheng%Li%NULL%2,                         Xiaoping%Luo%NULL%2,                         Jianping%Zhao%NULL%0,                         Qin%Ning%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                         Yuan-Yuan%Fang%NULL%4,                         Yan%Deng%NULL%3,                         Wei%Liu%NULL%5,                         Mei-Fang%Wang%NULL%3,                         Jing-Ping%Ma%NULL%3,                         Wei%Xiao%NULL%3,                         Ying-Nan%Wang%NULL%3,                         Min-Hua%Zhong%NULL%3,                         Cheng-Hong%Li%NULL%3,                         Guang-Cai%Li%NULL%3,                         Hui-Guo%Liu%NULL%4,                         Xiu-Yuan%Hao%NULL%6,                         Pei-Fang%Wei%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%4,                         Tianhe%Ye%NULL%3,                         Peng%Sun%NULL%3,                         Shan%Gui%NULL%3,                         Bo%Liang%NULL%3,                         Lingli%Li%NULL%3,                         Dandan%Zheng%NULL%3,                         Jiazheng%Wang%NULL%3,                         Richard L.%Hesketh%NULL%3,                         Lian%Yang%yanglian@hust.edu.cn%3,                         Chuansheng%Zheng%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Analysis of CT features of 15 Children with 2019 novel coronavirus infection].</t>
+  </si>
+  <si>
+    <t>Objective: To explore imaging characteristics of children with 2019 novel coronavirus (2019-nCoV) infection. Methods: A retrospective analysis was performed on clinical data and chest CT images of 15 children diagnosed with 2019-nCoV. They were admitted to the third people's Hospital of Shenzhen from January 16 to February 6, 2020. The distribution and morphology of pulmonary lesions on chest CT images were analyzed. Results: Among the 15 children, there were 5 males and 10 females, aged from 4 to 14 years old. Five of the 15 children were febrile and 10 were asymptomatic on first visit. The first nasal or pharyngeal swab samples in all the 15 cases were positive for 2019-nCoV nucleic acid. For their first chest CT images, 6 patients had no lesions, while 9 patients had pulmonary inflammation lesions. Seven cases of small nodular ground glass opacities and 2 cases of speckled ground glass opacities were found. After 3 to 5 days of treatment, 2019-nCoV nucleic acid in a second respiratory sample turned negative in 6 cases. Among them, chest CT images showed less lesions in 2 cases, no lesion in 3 cases, and no improvement in 1 case. Other 9 cases were still positive in a second nucleic acid test. Six patients showed similar chest CT inflammation, while 3 patients had new lesions, which were all small nodular ground glass opacities. Conclusions: The early chest CT images of children with 2019-nCoV infection are mostly small nodular ground glass opacities. The clinical symptoms of children with 2019-nCoV infection are nonspecific. Dynamic reexamination of chest CT and nucleic acid are important.</t>
+  </si>
+  <si>
+    <t>[ K%Feng%elasticNoEmail%2,  Y X% Yun%elasticNoEmail%2,  X F% Wang%elasticNoEmail%2,  G D% Yang%elasticNoEmail%2,  Y J% Zheng%elasticNoEmail%2,  C M% Lin%elasticNoEmail%2,  L F% Wang%elasticNoEmail%2]</t>
+  </si>
+  <si>
+    <t>ELASTIC</t>
+  </si>
+  <si>
+    <t>2020-02-16</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                         Yuan%Yu%NULL%2,                         Jiqian%Xu%NULL%1,                         Huaqing%Shu%NULL%1,                         Jia'an%Xia%NULL%4,                         Hong%Liu%NULL%3,                         Yongran%Wu%NULL%2,                         Lu%Zhang%NULL%1,                         Zhui%Yu%NULL%1,                         Minghao%Fang%NULL%1,                         Ting%Yu%NULL%0,                         Yaxin%Wang%NULL%2,                         Shangwen%Pan%NULL%1,                         Xiaojing%Zou%NULL%2,                         Shiying%Yuan%NULL%2,                         You%Shang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%3,                         Nan%Yang%NULL%2,                         Yanqiu%Wei%NULL%2,                         Huihui%Yue%NULL%2,                         Fengqin%Zhang%NULL%2,                         Jianping%Zhao%NULL%0,                         Li%He%NULL%2,                         Gaohong%Sheng%NULL%2,                         Peng%Chen%NULL%2,                         Gang%Li%NULL%0,                         Sisi%Wu%NULL%2,                         Bo%Zhang%NULL%2,                         Shu%Zhang%szhang@tjh.tjmu.edu.cn%2,                         Congyi%Wang%wangcy@tjh.tjmu.edu.cn%2,                         Xiaoping%Miao%miaoxp@hust.edu.cn%2,                         Juan%Li%lijuan@tjh.tjmu.edu.cn%2,                         Wenhua%Liu%liuwh_2013@126.com%2,                         Huilan%Zhang%huilanz_76@163.com%2]</t>
+  </si>
+  <si>
+    <t>[ J.%Liu%null%1,                          L.% Ouyang%null%1,                          P.% Guo%null%1,                          H. s.% Wu%null%1,                          P.% Fu%null%1,                          Y. l.% Chen%null%1,                          D.% Yang%null%1,                          X. y.% Han%null%1,                          Y. k.% Cao%null%1,                          O.% Alwalid%null%1,                          J.% Tao%null%1,                          S. y.% Peng%null%1,                          H. s.% Shi%null%1,                          F.% Yang%null%1,                          C. s. % Zheng%null%1,        J.%Liu%null%1,        L.% Ouyang%null%1,        P.% Guo%null%1,        H. s.% Wu%null%1,        P.% Fu%null%1,        Y. l.% Chen%null%1,        D.% Yang%null%2,        X. y.% Han%null%1,        Y. k.% Cao%null%1,        O.% Alwalid%null%1,        J.% Tao%null%1,        S. y.% Peng%null%1,        H. s.% Shi%null%1,        F.% Yang%null%1,        C. s. % Zheng%null%1]</t>
+  </si>
+  <si>
+    <t>[ R.%Liu%null%1,                          X.% Ming%null%1,                          O.% Xu%null%1,                          J.% Zhou%null%1,                          H.% Peng%null%1,                          N.% Xiang%null%1,                          J.% Zhang%null%1,                          H. % Zhu%null%1,        R.%Liu%null%1,        X.% Ming%null%1,        O.% Xu%null%1,        J.% Zhou%null%2,        H.% Peng%null%1,        N.% Xiang%null%1,        J.% Zhang%null%2,        H. % Zhu%null%1]</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%2,                         Shauna%Clark%NULL%2,                         Sargis%Pogosjans%NULL%2,                         Meagan%Kay%NULL%2,                         James%Lewis%NULL%3,                         Atar%Baer%NULL%2,                         Vance%Kawakami%NULL%2,                         Margaret D.%Lukoff%NULL%2,                         Jessica%Ferro%NULL%2,                         Claire%Brostrom-Smith%NULL%2,                         Francis X.%Riedo%NULL%2,                         Denny%Russell%NULL%2,                         Brian%Hiatt%NULL%2,                         Patricia%Montgomery%NULL%2,                         Agam K.%Rao%NULL%2,                         Dustin W.%Currie%NULL%2,                         Eric J.%Chow%NULL%2,                         Farrell%Tobolowsky%NULL%2,                         Ana C.%Bardossy%NULL%2,                         Lisa P.%Oakley%NULL%2,                         Jesica R.%Jacobs%NULL%2,                         Noah G.%Schwartz%NULL%2,                         Nimalie%Stone%NULL%1,                         Sujan C.%Reddy%NULL%4,                         John A.%Jernigan%NULL%3,                         Margaret A.%Honein%NULL%2,                         Thomas A.%Clark%NULL%2,                         Jeffrey S.%Duchin%NULL%2,                         NULL%NULL%NULL%22,                         NULL%NULL%NULL%0,                         Meaghan S.%Fagalde%NULL%1,                         Jennifer L.%Lenahan%NULL%1,                         Emily B.%Maier%NULL%1,                         Kaitlyn J.%Sykes%NULL%1,                         Grace%Hatt%NULL%1,                         Holly%Whitney%NULL%1,                         Melinda%Huntington-Frazier%NULL%1,                         Elysia%Gonzales%NULL%1,                         Laura A.%Mummert%NULL%1,                         Hal Garcia%Smith%NULL%1,                         Steve%Stearns%NULL%1,                         Eileen%Benoliel%NULL%1,                         Shelly%McKeirnan%NULL%1,                         Jennifer L.%Morgan%NULL%1,                         Daniel%Smith%NULL%1,                         Michaela%Hope%NULL%1,                         Noel%Hatley%NULL%1,                         Leslie M.%Barnard%NULL%1,                         Leilani%Schwarcz%NULL%1,                         Nicole%Yarid%NULL%1,                         Eric%Yim%NULL%1,                         Sandra%Kreider%NULL%1,                         Dawn%Barr%NULL%1,                         Nancy%Wilde%NULL%1,                         Courtney%Dorman%NULL%1,                         Airin%Lam%NULL%1,                         Jeanette%Harris%NULL%1,                         Hollianne%Bruce%NULL%2,                         Christopher%Spitters%NULL%2,                         Snohomish Health%District%NULL%1,                         Rachael%Zacks%NULL%1,                         Jonathan%Dyal%NULL%1,                         Michael%Hughes%NULL%1,                         Christina%Carlson%NULL%1,                         Barbara%Cooper%NULL%1,                         Michelle%Banks%NULL%1,                         Heather%McLaughlin%NULL%1,                         Arun%Balajee%NULL%1,                         Christine%Olson%NULL%1,                         Suzanne%Zane%NULL%1,                         Hammad%Ali%NULL%1,                         Jessica%Healy%NULL%1,                         Kristine%Schmit%NULL%1,                         Kevin%Spicer%NULL%1,                         Zeshan%Chisty%NULL%1,                         Sukarma%Tanwar%NULL%1,                         Joanne%Taylor%NULL%1,                         Leisha%Nolen%NULL%1,                         Jeneita%Bell%NULL%1,                         Kelly%Hatfield%NULL%1,                         Melissa%Arons%NULL%1,                         Anne%Kimball%NULL%1,                         Allison%James%NULL%1,                         Mark%Methner%NULL%1,                         Joshua%Harney%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%14,                          Zheng-yi%Ni%NULL%5,                          Yu%Hu%NULL%4,                          Wen-hua%Liang%NULL%4,                          Chun-quan%Ou%NULL%4,                          Jian-xing%He%NULL%4,                          Lei%Liu%NULL%8,                          Hong%Shan%NULL%6,                          Chun-liang%Lei%NULL%4,                          David S.C.%Hui%NULL%3,                          Bin%Du%NULL%3,                          Lan-juan%Li%NULL%3,                          Guang%Zeng%NULL%3,                          Kwok-Yung%Yuen%NULL%6,                          Ru-chong%Chen%NULL%4,                          Chun-li%Tang%NULL%4,                          Tao%Wang%NULL%7,                          Ping-yan%Chen%NULL%4,                          Jie%Xiang%NULL%6,                          Shi-yue%Li%NULL%4,                          Jin-lin%Wang%NULL%3,                          Zi-jing%Liang%NULL%3,                          Yi-xiang%Peng%NULL%4,                          Li%Wei%NULL%4,                          Yong%Liu%NULL%4,                          Ya-hua%Hu%NULL%4,                          Peng%Peng%NULL%7,                          Jian-ming%Wang%NULL%4,                          Ji-yang%Liu%NULL%4,                          Zhong%Chen%NULL%4,                          Gang%Li%NULL%6,                          Zhi-jian%Zheng%NULL%4,                          Shao-qin%Qiu%NULL%4,                          Jie%Luo%NULL%4,                          Chang-jiang%Ye%NULL%4,                          Shao-yong%Zhu%NULL%4,                          Nan-shan%Zhong%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                          Dengju%Li%NULL%2,                          Xiong%Wang%NULL%2,                          Ziyong%Sun%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                        Cao%Yi-yuan%coreGivesNoEmail%3,                        Dong%Xiang%coreGivesNoEmail%3,                        Gao%Ya-dong%coreGivesNoEmail%3,                        Yan%You-qin%coreGivesNoEmail%3,                        Yang%Yi-bin%coreGivesNoEmail%3,                        Yuan%Ya-dong%coreGivesNoEmail%3,                        Zhang%Jin-jin%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                        Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%4,                        Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%4,                        Subert-Salas%Lizandra%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%3,                          Juanjuan%Guo%NULL%3,                          Chen%Wang%NULL%3,                          Fan%Luo%NULL%2,                          Xuechen%Yu%NULL%3,                          Wei%Zhang%NULL%6,                          Jiafu%Li%NULL%3,                          Dongchi%Zhao%NULL%2,                          Dan%Xu%NULL%3,                          Qing%Gong%NULL%2,                          Jing%Liao%NULL%2,                          Huixia%Yang%yanghuixia@bjmu.edu.cn%3,                          Wei%Hou%houwei@whu.edu.cn%2,                          Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                          Yeming%Wang%NULL%6,                          Xingwang%Li%NULL%7,                          Lili%Ren%NULL%4,                          Jianping%Zhao%NULL%9,                          Yi%Hu%NULL%7,                          Li%Zhang%NULL%7,                          Guohui%Fan%NULL%6,                          Jiuyang%Xu%NULL%6,                          Xiaoying%Gu%NULL%6,                          Zhenshun%Cheng%NULL%4,                          Ting%Yu%NULL%13,                          Jiaan%Xia%NULL%4,                          Yuan%Wei%NULL%10,                          Wenjuan%Wu%NULL%4,                          Xuelei%Xie%NULL%4,                          Wen%Yin%NULL%6,                          Hui%Li%NULL%7,                          Min%Liu%NULL%4,                          Yan%Xiao%NULL%5,                          Hong%Gao%NULL%6,                          Li%Guo%NULL%5,                          Jungang%Xie%NULL%5,                          Guangfa%Wang%NULL%4,                          Rongmeng%Jiang%NULL%4,                          Zhancheng%Gao%NULL%5,                          Qi%Jin%NULL%5,                          Jianwei%Wang%wangjw28@163.com%0,                          Bin%Cao%caobin_ben@163.com%7]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                          Xiao-Xin%Wu%NULL%4,                          Xian-Gao%Jiang%NULL%4,                          Kai-Jin%Xu%NULL%4,                          Ling-Jun%Ying%NULL%4,                          Chun-Lian%Ma%NULL%4,                          Shi-Bo%Li%NULL%4,                          Hua-Ying%Wang%NULL%4,                          Sheng%Zhang%NULL%4,                          Hai-Nv%Gao%NULL%4,                          Ji-Fang%Sheng%NULL%4,                          Hong-Liu%Cai%NULL%4,                          Yun-Qing%Qiu%NULL%4,                          Lan-Juan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,       Xiaoyan%Chen%xref no email%0,       Yanping%Cai%xref no email%0,       Jia\u2019an%Xia%xref no email%0,       Xing%Zhou%xref no email%0,       Sha%Xu%xref no email%0,       Hanping%Huang%xref no email%0,       Li%Zhang%xref no email%0,       Xia%Zhou%xref no email%0,       Chunling%Du%xref no email%0,       Yuye%Zhang%xref no email%0,       Juan%Song%xref no email%0,       Sijiao%Wang%xref no email%0,       Yencheng%Chao%xref no email%0,       Zeyong%Yang%xref no email%0,       Jie%Xu%xref no email%0,       Xin%Zhou%xref no email%0,       Dechang%Chen%xref no email%0,       Weining%Xiong%xref no email%0,       Lei%Xu%xref no email%0,       Feng%Zhou%xref no email%0,       Jinjun%Jiang%xref no email%0,       Chunxue%Bai%xref no email%0,       Junhua%Zheng%xref no email%0,       Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,                          Kai%Xie%NULL%3,                          Hui%Lu%NULL%2,                          Lei%Xu%bayinhexl@126.com%2,                          Shusheng%Zhou%zhouss108@163.com%2,                          Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%0,                          Feifei%Yao%NULL%1,                          Lijie%Wang%NULL%1,                          Ling%Zheng%NULL%1,                          Yongjun%Gao%NULL%1,                          Jun%Ye%NULL%1,                          Feng%Guo%NULL%1,                          Hui%Zhao%NULL%1,                          Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%0,                          Ci%Song%NULL%1,                          Chuanjun%Xu%NULL%1,                          Guangfu%Jin%NULL%1,                          Yaling%Chen%NULL%1,                          Xin%Xu%NULL%1,                          Hongxia%Ma%NULL%1,                          Wei%Chen%NULL%3,                          Yuan%Lin%NULL%1,                          Yishan%Zheng%NULL%1,                          Jianming%Wang%NULL%1,                          Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,                          Yongxiang%Yi%ian0126@126.com%1,                          Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%12,                          Di%Wu%NULL%2,                          Huilong%Chen%NULL%2,                          Weiming%Yan%NULL%2,                          Danlei%Yang%NULL%2,                          Guang%Chen%NULL%2,                          Ke%Ma%NULL%2,                          Dong%Xu%NULL%2,                          Haijing%Yu%NULL%2,                          Hongwu%Wang%NULL%2,                          Tao%Wang%NULL%0,                          Wei%Guo%NULL%2,                          Jia%Chen%NULL%2,                          Chen%Ding%NULL%2,                          Xiaoping%Zhang%NULL%2,                          Jiaquan%Huang%NULL%2,                          Meifang%Han%NULL%2,                          Shusheng%Li%NULL%2,                          Xiaoping%Luo%NULL%2,                          Jianping%Zhao%NULL%0,                          Qin%Ning%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                          Yuan-Yuan%Fang%NULL%4,                          Yan%Deng%NULL%3,                          Wei%Liu%NULL%5,                          Mei-Fang%Wang%NULL%3,                          Jing-Ping%Ma%NULL%3,                          Wei%Xiao%NULL%3,                          Ying-Nan%Wang%NULL%3,                          Min-Hua%Zhong%NULL%3,                          Cheng-Hong%Li%NULL%3,                          Guang-Cai%Li%NULL%3,                          Hui-Guo%Liu%NULL%4,                          Xiu-Yuan%Hao%NULL%6,                          Pei-Fang%Wei%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%4,                          Tianhe%Ye%NULL%3,                          Peng%Sun%NULL%3,                          Shan%Gui%NULL%3,                          Bo%Liang%NULL%3,                          Lingli%Li%NULL%3,                          Dandan%Zheng%NULL%3,                          Jiazheng%Wang%NULL%3,                          Richard L.%Hesketh%NULL%3,                          Lian%Yang%yanglian@hust.edu.cn%3,                          Chuansheng%Zheng%NULL%5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective: To explore imaging characteristics of children with 2019 novel coronavirus (2019-nCoV) infection.
+ Methods: A retrospective analysis was performed on clinical data and chest CT images of 15 children diagnosed with 2019-nCoV.
+ They were admitted to the third people's Hospital of Shenzhen from January 16 to February 6, 2020. The distribution and morphology of pulmonary lesions on chest CT images were analyzed.
+ Results: Among the 15 children, there were 5 males and 10 females, aged from 4 to 14 years old.
+ Five of the 15 children were febrile and 10 were asymptomatic on first visit.
+ The first nasal or pharyngeal swab samples in all the 15 cases were positive for 2019-nCoV nucleic acid.
+ For their first chest CT images, 6 patients had no lesions, while 9 patients had pulmonary inflammation lesions.
+ Seven cases of small nodular ground glass opacities and 2 cases of speckled ground glass opacities were found.
+ After 3 to 5 days of treatment, 2019-nCoV nucleic acid in a second respiratory sample turned negative in 6 cases.
+ Among them, chest CT images showed less lesions in 2 cases, no lesion in 3 cases, and no improvement in 1 case.
+ Other 9 cases were still positive in a second nucleic acid test.
+ Six patients showed similar chest CT inflammation, while 3 patients had new lesions, which were all small nodular ground glass opacities.
+ Conclusions: The early chest CT images of children with 2019-nCoV infection are mostly small nodular ground glass opacities.
+ The clinical symptoms of children with 2019-nCoV infection are nonspecific.
+ Dynamic reexamination of chest CT and nucleic acid are important.
+</t>
+  </si>
+  <si>
+    <t>[ K%Feng%elasticNoEmail%2,   Y X% Yun%elasticNoEmail%2,   X F% Wang%elasticNoEmail%2,   G D% Yang%elasticNoEmail%2,   Y J% Zheng%elasticNoEmail%2,   C M% Lin%elasticNoEmail%2,   L F% Wang%elasticNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                          Yuan%Yu%NULL%2,                          Jiqian%Xu%NULL%1,                          Huaqing%Shu%NULL%1,                          Jia'an%Xia%NULL%4,                          Hong%Liu%NULL%3,                          Yongran%Wu%NULL%2,                          Lu%Zhang%NULL%1,                          Zhui%Yu%NULL%1,                          Minghao%Fang%NULL%1,                          Ting%Yu%NULL%0,                          Yaxin%Wang%NULL%2,                          Shangwen%Pan%NULL%1,                          Xiaojing%Zou%NULL%2,                          Shiying%Yuan%NULL%2,                          You%Shang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%3,                          Nan%Yang%NULL%2,                          Yanqiu%Wei%NULL%2,                          Huihui%Yue%NULL%2,                          Fengqin%Zhang%NULL%2,                          Jianping%Zhao%NULL%0,                          Li%He%NULL%2,                          Gaohong%Sheng%NULL%2,                          Peng%Chen%NULL%2,                          Gang%Li%NULL%0,                          Sisi%Wu%NULL%2,                          Bo%Zhang%NULL%2,                          Shu%Zhang%szhang@tjh.tjmu.edu.cn%2,                          Congyi%Wang%wangcy@tjh.tjmu.edu.cn%2,                          Xiaoping%Miao%miaoxp@hust.edu.cn%2,                          Juan%Li%lijuan@tjh.tjmu.edu.cn%2,                          Wenhua%Liu%liuwh_2013@126.com%2,                          Huilan%Zhang%huilanz_76@163.com%2]</t>
+  </si>
+  <si>
+    <t>[ J.%Liu%null%1,                           L.% Ouyang%null%1,                           P.% Guo%null%1,                           H. s.% Wu%null%1,                           P.% Fu%null%1,                           Y. l.% Chen%null%1,                           D.% Yang%null%1,                           X. y.% Han%null%1,                           Y. k.% Cao%null%1,                           O.% Alwalid%null%1,                           J.% Tao%null%1,                           S. y.% Peng%null%1,                           H. s.% Shi%null%1,                           F.% Yang%null%1,                           C. s. % Zheng%null%1,         J.%Liu%null%1,         L.% Ouyang%null%1,         P.% Guo%null%1,         H. s.% Wu%null%1,         P.% Fu%null%1,         Y. l.% Chen%null%1,         D.% Yang%null%2,         X. y.% Han%null%1,         Y. k.% Cao%null%1,         O.% Alwalid%null%1,         J.% Tao%null%1,         S. y.% Peng%null%1,         H. s.% Shi%null%1,         F.% Yang%null%1,         C. s. % Zheng%null%1]</t>
+  </si>
+  <si>
+    <t>[ R.%Liu%null%1,                           X.% Ming%null%1,                           O.% Xu%null%1,                           J.% Zhou%null%1,                           H.% Peng%null%1,                           N.% Xiang%null%1,                           J.% Zhang%null%1,                           H. % Zhu%null%1,         R.%Liu%null%1,         X.% Ming%null%1,         O.% Xu%null%1,         J.% Zhou%null%2,         H.% Peng%null%1,         N.% Xiang%null%1,         J.% Zhang%null%2,         H. % Zhu%null%1]</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%2,                          Shauna%Clark%NULL%2,                          Sargis%Pogosjans%NULL%2,                          Meagan%Kay%NULL%2,                          James%Lewis%NULL%3,                          Atar%Baer%NULL%2,                          Vance%Kawakami%NULL%2,                          Margaret D.%Lukoff%NULL%2,                          Jessica%Ferro%NULL%2,                          Claire%Brostrom-Smith%NULL%2,                          Francis X.%Riedo%NULL%2,                          Denny%Russell%NULL%2,                          Brian%Hiatt%NULL%2,                          Patricia%Montgomery%NULL%2,                          Agam K.%Rao%NULL%2,                          Dustin W.%Currie%NULL%2,                          Eric J.%Chow%NULL%2,                          Farrell%Tobolowsky%NULL%2,                          Ana C.%Bardossy%NULL%2,                          Lisa P.%Oakley%NULL%2,                          Jesica R.%Jacobs%NULL%2,                          Noah G.%Schwartz%NULL%2,                          Nimalie%Stone%NULL%1,                          Sujan C.%Reddy%NULL%4,                          John A.%Jernigan%NULL%3,                          Margaret A.%Honein%NULL%2,                          Thomas A.%Clark%NULL%2,                          Jeffrey S.%Duchin%NULL%2,                          NULL%NULL%NULL%22,                          NULL%NULL%NULL%0,                          Meaghan S.%Fagalde%NULL%1,                          Jennifer L.%Lenahan%NULL%1,                          Emily B.%Maier%NULL%1,                          Kaitlyn J.%Sykes%NULL%1,                          Grace%Hatt%NULL%1,                          Holly%Whitney%NULL%1,                          Melinda%Huntington-Frazier%NULL%1,                          Elysia%Gonzales%NULL%1,                          Laura A.%Mummert%NULL%1,                          Hal Garcia%Smith%NULL%1,                          Steve%Stearns%NULL%1,                          Eileen%Benoliel%NULL%1,                          Shelly%McKeirnan%NULL%1,                          Jennifer L.%Morgan%NULL%1,                          Daniel%Smith%NULL%1,                          Michaela%Hope%NULL%1,                          Noel%Hatley%NULL%1,                          Leslie M.%Barnard%NULL%1,                          Leilani%Schwarcz%NULL%1,                          Nicole%Yarid%NULL%1,                          Eric%Yim%NULL%1,                          Sandra%Kreider%NULL%1,                          Dawn%Barr%NULL%1,                          Nancy%Wilde%NULL%1,                          Courtney%Dorman%NULL%1,                          Airin%Lam%NULL%1,                          Jeanette%Harris%NULL%1,                          Hollianne%Bruce%NULL%2,                          Christopher%Spitters%NULL%2,                          Snohomish Health%District%NULL%1,                          Rachael%Zacks%NULL%1,                          Jonathan%Dyal%NULL%1,                          Michael%Hughes%NULL%1,                          Christina%Carlson%NULL%1,                          Barbara%Cooper%NULL%1,                          Michelle%Banks%NULL%1,                          Heather%McLaughlin%NULL%1,                          Arun%Balajee%NULL%1,                          Christine%Olson%NULL%1,                          Suzanne%Zane%NULL%1,                          Hammad%Ali%NULL%1,                          Jessica%Healy%NULL%1,                          Kristine%Schmit%NULL%1,                          Kevin%Spicer%NULL%1,                          Zeshan%Chisty%NULL%1,                          Sukarma%Tanwar%NULL%1,                          Joanne%Taylor%NULL%1,                          Leisha%Nolen%NULL%1,                          Jeneita%Bell%NULL%1,                          Kelly%Hatfield%NULL%1,                          Melissa%Arons%NULL%1,                          Anne%Kimball%NULL%1,                          Allison%James%NULL%1,                          Mark%Methner%NULL%1,                          Joshua%Harney%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2978,7 +3128,7 @@
         <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>669</v>
+        <v>712</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -3010,7 +3160,7 @@
         <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>670</v>
+        <v>713</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -3042,7 +3192,7 @@
         <v>243</v>
       </c>
       <c r="E5" t="s">
-        <v>671</v>
+        <v>714</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -3074,7 +3224,7 @@
         <v>246</v>
       </c>
       <c r="E6" t="s">
-        <v>672</v>
+        <v>715</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -3106,7 +3256,7 @@
         <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>673</v>
+        <v>716</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -3138,7 +3288,7 @@
         <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>674</v>
+        <v>717</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -3170,7 +3320,7 @@
         <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>675</v>
+        <v>718</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -3202,7 +3352,7 @@
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>676</v>
+        <v>719</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -3234,7 +3384,7 @@
         <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>677</v>
+        <v>720</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -3266,7 +3416,7 @@
         <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>678</v>
+        <v>721</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
@@ -3298,7 +3448,7 @@
         <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>679</v>
+        <v>722</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
@@ -3330,7 +3480,7 @@
         <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>680</v>
+        <v>723</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -3362,7 +3512,7 @@
         <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>681</v>
+        <v>724</v>
       </c>
       <c r="F15" t="s">
         <v>81</v>
@@ -3394,7 +3544,7 @@
         <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>682</v>
+        <v>725</v>
       </c>
       <c r="F16" t="s">
         <v>85</v>
@@ -3420,22 +3570,22 @@
         <v>43877</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>702</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>726</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>727</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>705</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>706</v>
       </c>
       <c r="I17" t="s">
         <v>96</v>
@@ -3458,7 +3608,7 @@
         <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>683</v>
+        <v>728</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
@@ -3490,7 +3640,7 @@
         <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>684</v>
+        <v>729</v>
       </c>
       <c r="F19" t="s">
         <v>93</v>
@@ -3522,7 +3672,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>685</v>
+        <v>730</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -3554,7 +3704,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>686</v>
+        <v>731</v>
       </c>
       <c r="F21" t="s">
         <v>21</v>
@@ -3586,7 +3736,7 @@
         <v>338</v>
       </c>
       <c r="E22" t="s">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -3618,7 +3768,7 @@
         <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>687</v>
+        <v>732</v>
       </c>
       <c r="F23" t="s">
         <v>98</v>
